--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="235">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -517,6 +517,15 @@
     <t>['10', '45+5', '48']</t>
   </si>
   <si>
+    <t>['6', '55', '90+6']</t>
+  </si>
+  <si>
+    <t>['6', '52']</t>
+  </si>
+  <si>
+    <t>['68']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -719,6 +728,18 @@
   </si>
   <si>
     <t>['90+1']</t>
+  </si>
+  <si>
+    <t>['8', '51']</t>
+  </si>
+  <si>
+    <t>['38', '59']</t>
+  </si>
+  <si>
+    <t>['58', '65']</t>
+  </si>
+  <si>
+    <t>['62', '72']</t>
   </si>
 </sst>
 </file>
@@ -1080,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP109"/>
+  <dimension ref="A1:BP114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1339,7 +1360,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1545,7 +1566,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1626,7 +1647,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ3">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1829,7 +1850,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ4">
         <v>0</v>
@@ -1957,7 +1978,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2244,7 +2265,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ6">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2369,7 +2390,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2575,7 +2596,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2781,7 +2802,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2987,7 +3008,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3399,7 +3420,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3811,7 +3832,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3892,7 +3913,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ14">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4095,7 +4116,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -4223,7 +4244,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4429,7 +4450,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4507,10 +4528,10 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ17">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4635,7 +4656,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4919,7 +4940,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ19">
         <v>0.67</v>
@@ -5047,7 +5068,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5128,7 +5149,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ20">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR20">
         <v>1.6</v>
@@ -5331,7 +5352,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ21">
         <v>1.17</v>
@@ -5459,7 +5480,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5537,7 +5558,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ22">
         <v>1.57</v>
@@ -5665,7 +5686,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6283,7 +6304,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6489,7 +6510,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6570,7 +6591,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ27">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR27">
         <v>1.43</v>
@@ -6695,7 +6716,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6979,7 +7000,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ29">
         <v>0.67</v>
@@ -7107,7 +7128,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7313,7 +7334,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7600,7 +7621,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ32">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR32">
         <v>0.9399999999999999</v>
@@ -7725,7 +7746,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7931,7 +7952,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8215,7 +8236,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8343,7 +8364,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8424,7 +8445,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ36">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR36">
         <v>1.71</v>
@@ -8549,7 +8570,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8755,7 +8776,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -8833,7 +8854,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ38">
         <v>1.43</v>
@@ -9167,7 +9188,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9245,7 +9266,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ40">
         <v>1.57</v>
@@ -9373,7 +9394,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9454,7 +9475,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ41">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR41">
         <v>1.64</v>
@@ -9579,7 +9600,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9785,7 +9806,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10072,7 +10093,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR44">
         <v>1.68</v>
@@ -10197,7 +10218,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10609,7 +10630,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10687,7 +10708,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ47">
         <v>0.67</v>
@@ -10815,7 +10836,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10896,7 +10917,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ48">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR48">
         <v>1.7</v>
@@ -11021,7 +11042,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11099,10 +11120,10 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ49">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR49">
         <v>1.77</v>
@@ -11227,7 +11248,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11639,7 +11660,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11845,7 +11866,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12051,7 +12072,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12257,7 +12278,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12463,7 +12484,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12669,7 +12690,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12875,7 +12896,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13287,7 +13308,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13493,7 +13514,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13571,7 +13592,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ61">
         <v>0.83</v>
@@ -13777,10 +13798,10 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ62">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR62">
         <v>1.64</v>
@@ -13905,7 +13926,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -13986,7 +14007,7 @@
         <v>1</v>
       </c>
       <c r="AQ63">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR63">
         <v>1.36</v>
@@ -14111,7 +14132,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14395,7 +14416,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ65">
         <v>0</v>
@@ -14523,7 +14544,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -14604,7 +14625,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ66">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR66">
         <v>1.63</v>
@@ -15141,7 +15162,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15347,7 +15368,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15553,7 +15574,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15965,7 +15986,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16043,7 +16064,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ73">
         <v>1.17</v>
@@ -16171,7 +16192,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16252,7 +16273,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ74">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR74">
         <v>1.62</v>
@@ -16377,7 +16398,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16583,7 +16604,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16661,10 +16682,10 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -16789,7 +16810,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17073,7 +17094,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ78">
         <v>0.83</v>
@@ -17613,7 +17634,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17694,7 +17715,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ81">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR81">
         <v>1.41</v>
@@ -17819,7 +17840,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18025,7 +18046,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18231,7 +18252,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18437,7 +18458,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18643,7 +18664,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18849,7 +18870,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19055,7 +19076,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19133,7 +19154,7 @@
         <v>1.4</v>
       </c>
       <c r="AP88">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ88">
         <v>1.57</v>
@@ -19261,7 +19282,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19467,7 +19488,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19957,7 +19978,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ92">
         <v>2.5</v>
@@ -20372,7 +20393,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ94">
-        <v>1</v>
+        <v>1.29</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -20497,7 +20518,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -20578,7 +20599,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ95">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AR95">
         <v>1.41</v>
@@ -20781,7 +20802,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>3</v>
+        <v>2.57</v>
       </c>
       <c r="AQ96">
         <v>1.5</v>
@@ -20909,7 +20930,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -20990,7 +21011,7 @@
         <v>1</v>
       </c>
       <c r="AQ97">
-        <v>1.6</v>
+        <v>1.83</v>
       </c>
       <c r="AR97">
         <v>1.4</v>
@@ -21115,7 +21136,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21399,7 +21420,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ99">
         <v>0.33</v>
@@ -21527,7 +21548,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21608,7 +21629,7 @@
         <v>2</v>
       </c>
       <c r="AQ100">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR100">
         <v>1.62</v>
@@ -21733,7 +21754,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -22351,7 +22372,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22763,7 +22784,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -22841,7 +22862,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AQ106">
         <v>1.43</v>
@@ -22969,7 +22990,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23381,7 +23402,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23538,6 +23559,1036 @@
       </c>
       <c r="BP109">
         <v>1.66</v>
+      </c>
+    </row>
+    <row r="110" spans="1:68">
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110">
+        <v>7491601</v>
+      </c>
+      <c r="C110" t="s">
+        <v>68</v>
+      </c>
+      <c r="D110" t="s">
+        <v>69</v>
+      </c>
+      <c r="E110" s="2">
+        <v>45618.60416666666</v>
+      </c>
+      <c r="F110">
+        <v>13</v>
+      </c>
+      <c r="G110" t="s">
+        <v>85</v>
+      </c>
+      <c r="H110" t="s">
+        <v>81</v>
+      </c>
+      <c r="I110">
+        <v>1</v>
+      </c>
+      <c r="J110">
+        <v>1</v>
+      </c>
+      <c r="K110">
+        <v>2</v>
+      </c>
+      <c r="L110">
+        <v>3</v>
+      </c>
+      <c r="M110">
+        <v>2</v>
+      </c>
+      <c r="N110">
+        <v>5</v>
+      </c>
+      <c r="O110" t="s">
+        <v>167</v>
+      </c>
+      <c r="P110" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q110">
+        <v>2.5</v>
+      </c>
+      <c r="R110">
+        <v>2.38</v>
+      </c>
+      <c r="S110">
+        <v>3.75</v>
+      </c>
+      <c r="T110">
+        <v>1.3</v>
+      </c>
+      <c r="U110">
+        <v>3.4</v>
+      </c>
+      <c r="V110">
+        <v>2.38</v>
+      </c>
+      <c r="W110">
+        <v>1.53</v>
+      </c>
+      <c r="X110">
+        <v>6</v>
+      </c>
+      <c r="Y110">
+        <v>1.13</v>
+      </c>
+      <c r="Z110">
+        <v>1.85</v>
+      </c>
+      <c r="AA110">
+        <v>4</v>
+      </c>
+      <c r="AB110">
+        <v>3.6</v>
+      </c>
+      <c r="AC110">
+        <v>1.03</v>
+      </c>
+      <c r="AD110">
+        <v>11</v>
+      </c>
+      <c r="AE110">
+        <v>1.18</v>
+      </c>
+      <c r="AF110">
+        <v>4.5</v>
+      </c>
+      <c r="AG110">
+        <v>1.58</v>
+      </c>
+      <c r="AH110">
+        <v>2.38</v>
+      </c>
+      <c r="AI110">
+        <v>1.57</v>
+      </c>
+      <c r="AJ110">
+        <v>2.25</v>
+      </c>
+      <c r="AK110">
+        <v>1.3</v>
+      </c>
+      <c r="AL110">
+        <v>1.2</v>
+      </c>
+      <c r="AM110">
+        <v>1.83</v>
+      </c>
+      <c r="AN110">
+        <v>2.2</v>
+      </c>
+      <c r="AO110">
+        <v>1.33</v>
+      </c>
+      <c r="AP110">
+        <v>2.33</v>
+      </c>
+      <c r="AQ110">
+        <v>1.14</v>
+      </c>
+      <c r="AR110">
+        <v>1.5</v>
+      </c>
+      <c r="AS110">
+        <v>1.41</v>
+      </c>
+      <c r="AT110">
+        <v>2.91</v>
+      </c>
+      <c r="AU110">
+        <v>7</v>
+      </c>
+      <c r="AV110">
+        <v>5</v>
+      </c>
+      <c r="AW110">
+        <v>5</v>
+      </c>
+      <c r="AX110">
+        <v>5</v>
+      </c>
+      <c r="AY110">
+        <v>15</v>
+      </c>
+      <c r="AZ110">
+        <v>12</v>
+      </c>
+      <c r="BA110">
+        <v>7</v>
+      </c>
+      <c r="BB110">
+        <v>5</v>
+      </c>
+      <c r="BC110">
+        <v>12</v>
+      </c>
+      <c r="BD110">
+        <v>1.64</v>
+      </c>
+      <c r="BE110">
+        <v>8.5</v>
+      </c>
+      <c r="BF110">
+        <v>2.64</v>
+      </c>
+      <c r="BG110">
+        <v>1.14</v>
+      </c>
+      <c r="BH110">
+        <v>5.15</v>
+      </c>
+      <c r="BI110">
+        <v>1.27</v>
+      </c>
+      <c r="BJ110">
+        <v>3.52</v>
+      </c>
+      <c r="BK110">
+        <v>1.47</v>
+      </c>
+      <c r="BL110">
+        <v>2.57</v>
+      </c>
+      <c r="BM110">
+        <v>1.77</v>
+      </c>
+      <c r="BN110">
+        <v>1.98</v>
+      </c>
+      <c r="BO110">
+        <v>2.21</v>
+      </c>
+      <c r="BP110">
+        <v>1.62</v>
+      </c>
+    </row>
+    <row r="111" spans="1:68">
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111">
+        <v>7491605</v>
+      </c>
+      <c r="C111" t="s">
+        <v>68</v>
+      </c>
+      <c r="D111" t="s">
+        <v>69</v>
+      </c>
+      <c r="E111" s="2">
+        <v>45618.61458333334</v>
+      </c>
+      <c r="F111">
+        <v>13</v>
+      </c>
+      <c r="G111" t="s">
+        <v>87</v>
+      </c>
+      <c r="H111" t="s">
+        <v>70</v>
+      </c>
+      <c r="I111">
+        <v>0</v>
+      </c>
+      <c r="J111">
+        <v>0</v>
+      </c>
+      <c r="K111">
+        <v>0</v>
+      </c>
+      <c r="L111">
+        <v>0</v>
+      </c>
+      <c r="M111">
+        <v>1</v>
+      </c>
+      <c r="N111">
+        <v>1</v>
+      </c>
+      <c r="O111" t="s">
+        <v>92</v>
+      </c>
+      <c r="P111" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q111">
+        <v>4.33</v>
+      </c>
+      <c r="R111">
+        <v>2.4</v>
+      </c>
+      <c r="S111">
+        <v>2.25</v>
+      </c>
+      <c r="T111">
+        <v>1.29</v>
+      </c>
+      <c r="U111">
+        <v>3.5</v>
+      </c>
+      <c r="V111">
+        <v>2.25</v>
+      </c>
+      <c r="W111">
+        <v>1.57</v>
+      </c>
+      <c r="X111">
+        <v>5.5</v>
+      </c>
+      <c r="Y111">
+        <v>1.14</v>
+      </c>
+      <c r="Z111">
+        <v>4.1</v>
+      </c>
+      <c r="AA111">
+        <v>4</v>
+      </c>
+      <c r="AB111">
+        <v>1.73</v>
+      </c>
+      <c r="AC111">
+        <v>1.01</v>
+      </c>
+      <c r="AD111">
+        <v>13</v>
+      </c>
+      <c r="AE111">
+        <v>1.18</v>
+      </c>
+      <c r="AF111">
+        <v>4.75</v>
+      </c>
+      <c r="AG111">
+        <v>1.58</v>
+      </c>
+      <c r="AH111">
+        <v>2.38</v>
+      </c>
+      <c r="AI111">
+        <v>1.53</v>
+      </c>
+      <c r="AJ111">
+        <v>2.38</v>
+      </c>
+      <c r="AK111">
+        <v>2.05</v>
+      </c>
+      <c r="AL111">
+        <v>1.18</v>
+      </c>
+      <c r="AM111">
+        <v>1.18</v>
+      </c>
+      <c r="AN111">
+        <v>1</v>
+      </c>
+      <c r="AO111">
+        <v>1.6</v>
+      </c>
+      <c r="AP111">
+        <v>0.86</v>
+      </c>
+      <c r="AQ111">
+        <v>1.83</v>
+      </c>
+      <c r="AR111">
+        <v>1.23</v>
+      </c>
+      <c r="AS111">
+        <v>1.77</v>
+      </c>
+      <c r="AT111">
+        <v>3</v>
+      </c>
+      <c r="AU111">
+        <v>2</v>
+      </c>
+      <c r="AV111">
+        <v>5</v>
+      </c>
+      <c r="AW111">
+        <v>4</v>
+      </c>
+      <c r="AX111">
+        <v>3</v>
+      </c>
+      <c r="AY111">
+        <v>11</v>
+      </c>
+      <c r="AZ111">
+        <v>12</v>
+      </c>
+      <c r="BA111">
+        <v>3</v>
+      </c>
+      <c r="BB111">
+        <v>5</v>
+      </c>
+      <c r="BC111">
+        <v>8</v>
+      </c>
+      <c r="BD111">
+        <v>3.06</v>
+      </c>
+      <c r="BE111">
+        <v>9</v>
+      </c>
+      <c r="BF111">
+        <v>1.51</v>
+      </c>
+      <c r="BG111">
+        <v>1.16</v>
+      </c>
+      <c r="BH111">
+        <v>4.85</v>
+      </c>
+      <c r="BI111">
+        <v>1.3</v>
+      </c>
+      <c r="BJ111">
+        <v>3.32</v>
+      </c>
+      <c r="BK111">
+        <v>1.52</v>
+      </c>
+      <c r="BL111">
+        <v>2.44</v>
+      </c>
+      <c r="BM111">
+        <v>1.82</v>
+      </c>
+      <c r="BN111">
+        <v>1.98</v>
+      </c>
+      <c r="BO111">
+        <v>2.32</v>
+      </c>
+      <c r="BP111">
+        <v>1.57</v>
+      </c>
+    </row>
+    <row r="112" spans="1:68">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112">
+        <v>7491603</v>
+      </c>
+      <c r="C112" t="s">
+        <v>68</v>
+      </c>
+      <c r="D112" t="s">
+        <v>69</v>
+      </c>
+      <c r="E112" s="2">
+        <v>45619.375</v>
+      </c>
+      <c r="F112">
+        <v>13</v>
+      </c>
+      <c r="G112" t="s">
+        <v>73</v>
+      </c>
+      <c r="H112" t="s">
+        <v>78</v>
+      </c>
+      <c r="I112">
+        <v>1</v>
+      </c>
+      <c r="J112">
+        <v>1</v>
+      </c>
+      <c r="K112">
+        <v>2</v>
+      </c>
+      <c r="L112">
+        <v>2</v>
+      </c>
+      <c r="M112">
+        <v>2</v>
+      </c>
+      <c r="N112">
+        <v>4</v>
+      </c>
+      <c r="O112" t="s">
+        <v>168</v>
+      </c>
+      <c r="P112" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q112">
+        <v>2.25</v>
+      </c>
+      <c r="R112">
+        <v>2.3</v>
+      </c>
+      <c r="S112">
+        <v>5</v>
+      </c>
+      <c r="T112">
+        <v>1.33</v>
+      </c>
+      <c r="U112">
+        <v>3.25</v>
+      </c>
+      <c r="V112">
+        <v>2.63</v>
+      </c>
+      <c r="W112">
+        <v>1.44</v>
+      </c>
+      <c r="X112">
+        <v>6.5</v>
+      </c>
+      <c r="Y112">
+        <v>1.11</v>
+      </c>
+      <c r="Z112">
+        <v>1.67</v>
+      </c>
+      <c r="AA112">
+        <v>3.7</v>
+      </c>
+      <c r="AB112">
+        <v>4.2</v>
+      </c>
+      <c r="AC112">
+        <v>1.04</v>
+      </c>
+      <c r="AD112">
+        <v>10</v>
+      </c>
+      <c r="AE112">
+        <v>1.22</v>
+      </c>
+      <c r="AF112">
+        <v>4</v>
+      </c>
+      <c r="AG112">
+        <v>1.73</v>
+      </c>
+      <c r="AH112">
+        <v>1.95</v>
+      </c>
+      <c r="AI112">
+        <v>1.73</v>
+      </c>
+      <c r="AJ112">
+        <v>2</v>
+      </c>
+      <c r="AK112">
+        <v>1.14</v>
+      </c>
+      <c r="AL112">
+        <v>1.2</v>
+      </c>
+      <c r="AM112">
+        <v>2.15</v>
+      </c>
+      <c r="AN112">
+        <v>1</v>
+      </c>
+      <c r="AO112">
+        <v>1</v>
+      </c>
+      <c r="AP112">
+        <v>1</v>
+      </c>
+      <c r="AQ112">
+        <v>1</v>
+      </c>
+      <c r="AR112">
+        <v>1.37</v>
+      </c>
+      <c r="AS112">
+        <v>0.95</v>
+      </c>
+      <c r="AT112">
+        <v>2.32</v>
+      </c>
+      <c r="AU112">
+        <v>8</v>
+      </c>
+      <c r="AV112">
+        <v>6</v>
+      </c>
+      <c r="AW112">
+        <v>3</v>
+      </c>
+      <c r="AX112">
+        <v>4</v>
+      </c>
+      <c r="AY112">
+        <v>17</v>
+      </c>
+      <c r="AZ112">
+        <v>13</v>
+      </c>
+      <c r="BA112">
+        <v>4</v>
+      </c>
+      <c r="BB112">
+        <v>5</v>
+      </c>
+      <c r="BC112">
+        <v>9</v>
+      </c>
+      <c r="BD112">
+        <v>1.51</v>
+      </c>
+      <c r="BE112">
+        <v>9</v>
+      </c>
+      <c r="BF112">
+        <v>3.06</v>
+      </c>
+      <c r="BG112">
+        <v>1.2</v>
+      </c>
+      <c r="BH112">
+        <v>4.2</v>
+      </c>
+      <c r="BI112">
+        <v>1.37</v>
+      </c>
+      <c r="BJ112">
+        <v>2.93</v>
+      </c>
+      <c r="BK112">
+        <v>1.63</v>
+      </c>
+      <c r="BL112">
+        <v>2.19</v>
+      </c>
+      <c r="BM112">
+        <v>2.02</v>
+      </c>
+      <c r="BN112">
+        <v>1.74</v>
+      </c>
+      <c r="BO112">
+        <v>2.6</v>
+      </c>
+      <c r="BP112">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="113" spans="1:68">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113">
+        <v>7491598</v>
+      </c>
+      <c r="C113" t="s">
+        <v>68</v>
+      </c>
+      <c r="D113" t="s">
+        <v>69</v>
+      </c>
+      <c r="E113" s="2">
+        <v>45619.375</v>
+      </c>
+      <c r="F113">
+        <v>13</v>
+      </c>
+      <c r="G113" t="s">
+        <v>83</v>
+      </c>
+      <c r="H113" t="s">
+        <v>82</v>
+      </c>
+      <c r="I113">
+        <v>0</v>
+      </c>
+      <c r="J113">
+        <v>0</v>
+      </c>
+      <c r="K113">
+        <v>0</v>
+      </c>
+      <c r="L113">
+        <v>0</v>
+      </c>
+      <c r="M113">
+        <v>2</v>
+      </c>
+      <c r="N113">
+        <v>2</v>
+      </c>
+      <c r="O113" t="s">
+        <v>92</v>
+      </c>
+      <c r="P113" t="s">
+        <v>240</v>
+      </c>
+      <c r="Q113">
+        <v>2.6</v>
+      </c>
+      <c r="R113">
+        <v>2.3</v>
+      </c>
+      <c r="S113">
+        <v>4</v>
+      </c>
+      <c r="T113">
+        <v>1.33</v>
+      </c>
+      <c r="U113">
+        <v>3.25</v>
+      </c>
+      <c r="V113">
+        <v>2.63</v>
+      </c>
+      <c r="W113">
+        <v>1.44</v>
+      </c>
+      <c r="X113">
+        <v>6.5</v>
+      </c>
+      <c r="Y113">
+        <v>1.11</v>
+      </c>
+      <c r="Z113">
+        <v>1.91</v>
+      </c>
+      <c r="AA113">
+        <v>3.5</v>
+      </c>
+      <c r="AB113">
+        <v>3.25</v>
+      </c>
+      <c r="AC113">
+        <v>1.05</v>
+      </c>
+      <c r="AD113">
+        <v>9.5</v>
+      </c>
+      <c r="AE113">
+        <v>1.22</v>
+      </c>
+      <c r="AF113">
+        <v>4</v>
+      </c>
+      <c r="AG113">
+        <v>1.61</v>
+      </c>
+      <c r="AH113">
+        <v>2.1</v>
+      </c>
+      <c r="AI113">
+        <v>1.62</v>
+      </c>
+      <c r="AJ113">
+        <v>2.2</v>
+      </c>
+      <c r="AK113">
+        <v>1.3</v>
+      </c>
+      <c r="AL113">
+        <v>1.22</v>
+      </c>
+      <c r="AM113">
+        <v>1.78</v>
+      </c>
+      <c r="AN113">
+        <v>1</v>
+      </c>
+      <c r="AO113">
+        <v>1</v>
+      </c>
+      <c r="AP113">
+        <v>0.86</v>
+      </c>
+      <c r="AQ113">
+        <v>1.29</v>
+      </c>
+      <c r="AR113">
+        <v>1.54</v>
+      </c>
+      <c r="AS113">
+        <v>1.4</v>
+      </c>
+      <c r="AT113">
+        <v>2.94</v>
+      </c>
+      <c r="AU113">
+        <v>7</v>
+      </c>
+      <c r="AV113">
+        <v>5</v>
+      </c>
+      <c r="AW113">
+        <v>7</v>
+      </c>
+      <c r="AX113">
+        <v>4</v>
+      </c>
+      <c r="AY113">
+        <v>24</v>
+      </c>
+      <c r="AZ113">
+        <v>12</v>
+      </c>
+      <c r="BA113">
+        <v>12</v>
+      </c>
+      <c r="BB113">
+        <v>6</v>
+      </c>
+      <c r="BC113">
+        <v>18</v>
+      </c>
+      <c r="BD113">
+        <v>1.75</v>
+      </c>
+      <c r="BE113">
+        <v>8.5</v>
+      </c>
+      <c r="BF113">
+        <v>2.43</v>
+      </c>
+      <c r="BG113">
+        <v>1.17</v>
+      </c>
+      <c r="BH113">
+        <v>4.65</v>
+      </c>
+      <c r="BI113">
+        <v>1.32</v>
+      </c>
+      <c r="BJ113">
+        <v>3.2</v>
+      </c>
+      <c r="BK113">
+        <v>1.55</v>
+      </c>
+      <c r="BL113">
+        <v>2.36</v>
+      </c>
+      <c r="BM113">
+        <v>1.95</v>
+      </c>
+      <c r="BN113">
+        <v>1.85</v>
+      </c>
+      <c r="BO113">
+        <v>2.39</v>
+      </c>
+      <c r="BP113">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="114" spans="1:68">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114">
+        <v>7491600</v>
+      </c>
+      <c r="C114" t="s">
+        <v>68</v>
+      </c>
+      <c r="D114" t="s">
+        <v>69</v>
+      </c>
+      <c r="E114" s="2">
+        <v>45619.375</v>
+      </c>
+      <c r="F114">
+        <v>13</v>
+      </c>
+      <c r="G114" t="s">
+        <v>72</v>
+      </c>
+      <c r="H114" t="s">
+        <v>76</v>
+      </c>
+      <c r="I114">
+        <v>0</v>
+      </c>
+      <c r="J114">
+        <v>0</v>
+      </c>
+      <c r="K114">
+        <v>0</v>
+      </c>
+      <c r="L114">
+        <v>1</v>
+      </c>
+      <c r="M114">
+        <v>2</v>
+      </c>
+      <c r="N114">
+        <v>3</v>
+      </c>
+      <c r="O114" t="s">
+        <v>169</v>
+      </c>
+      <c r="P114" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q114">
+        <v>2.5</v>
+      </c>
+      <c r="R114">
+        <v>2.3</v>
+      </c>
+      <c r="S114">
+        <v>4</v>
+      </c>
+      <c r="T114">
+        <v>1.33</v>
+      </c>
+      <c r="U114">
+        <v>3.25</v>
+      </c>
+      <c r="V114">
+        <v>2.5</v>
+      </c>
+      <c r="W114">
+        <v>1.5</v>
+      </c>
+      <c r="X114">
+        <v>6</v>
+      </c>
+      <c r="Y114">
+        <v>1.13</v>
+      </c>
+      <c r="Z114">
+        <v>1.85</v>
+      </c>
+      <c r="AA114">
+        <v>3.5</v>
+      </c>
+      <c r="AB114">
+        <v>3.4</v>
+      </c>
+      <c r="AC114">
+        <v>1.04</v>
+      </c>
+      <c r="AD114">
+        <v>10</v>
+      </c>
+      <c r="AE114">
+        <v>1.2</v>
+      </c>
+      <c r="AF114">
+        <v>4.2</v>
+      </c>
+      <c r="AG114">
+        <v>1.61</v>
+      </c>
+      <c r="AH114">
+        <v>2.1</v>
+      </c>
+      <c r="AI114">
+        <v>1.57</v>
+      </c>
+      <c r="AJ114">
+        <v>2.25</v>
+      </c>
+      <c r="AK114">
+        <v>1.22</v>
+      </c>
+      <c r="AL114">
+        <v>1.22</v>
+      </c>
+      <c r="AM114">
+        <v>1.85</v>
+      </c>
+      <c r="AN114">
+        <v>3</v>
+      </c>
+      <c r="AO114">
+        <v>1.4</v>
+      </c>
+      <c r="AP114">
+        <v>2.57</v>
+      </c>
+      <c r="AQ114">
+        <v>1.67</v>
+      </c>
+      <c r="AR114">
+        <v>1.64</v>
+      </c>
+      <c r="AS114">
+        <v>1.75</v>
+      </c>
+      <c r="AT114">
+        <v>3.39</v>
+      </c>
+      <c r="AU114">
+        <v>8</v>
+      </c>
+      <c r="AV114">
+        <v>9</v>
+      </c>
+      <c r="AW114">
+        <v>10</v>
+      </c>
+      <c r="AX114">
+        <v>3</v>
+      </c>
+      <c r="AY114">
+        <v>20</v>
+      </c>
+      <c r="AZ114">
+        <v>15</v>
+      </c>
+      <c r="BA114">
+        <v>5</v>
+      </c>
+      <c r="BB114">
+        <v>4</v>
+      </c>
+      <c r="BC114">
+        <v>9</v>
+      </c>
+      <c r="BD114">
+        <v>1.59</v>
+      </c>
+      <c r="BE114">
+        <v>8.5</v>
+      </c>
+      <c r="BF114">
+        <v>2.78</v>
+      </c>
+      <c r="BG114">
+        <v>1.18</v>
+      </c>
+      <c r="BH114">
+        <v>4.45</v>
+      </c>
+      <c r="BI114">
+        <v>1.34</v>
+      </c>
+      <c r="BJ114">
+        <v>3.1</v>
+      </c>
+      <c r="BK114">
+        <v>1.58</v>
+      </c>
+      <c r="BL114">
+        <v>2.29</v>
+      </c>
+      <c r="BM114">
+        <v>2</v>
+      </c>
+      <c r="BN114">
+        <v>1.8</v>
+      </c>
+      <c r="BO114">
+        <v>2.47</v>
+      </c>
+      <c r="BP114">
+        <v>1.5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="746" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="246">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,10 +520,16 @@
     <t>['6', '55', '90+6']</t>
   </si>
   <si>
+    <t>['20', '83']</t>
+  </si>
+  <si>
     <t>['6', '52']</t>
   </si>
   <si>
     <t>['68']</t>
+  </si>
+  <si>
+    <t>['29', '30']</t>
   </si>
   <si>
     <t>['5', '35']</t>
@@ -733,6 +739,9 @@
     <t>['8', '51']</t>
   </si>
   <si>
+    <t>['46', '73', '79']</t>
+  </si>
+  <si>
     <t>['38', '59']</t>
   </si>
   <si>
@@ -740,6 +749,9 @@
   </si>
   <si>
     <t>['62', '72']</t>
+  </si>
+  <si>
+    <t>['57', '74']</t>
   </si>
 </sst>
 </file>
@@ -1101,7 +1113,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP114"/>
+  <dimension ref="A1:BP116"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1360,7 +1372,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1566,7 +1578,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1978,7 +1990,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2390,7 +2402,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2596,7 +2608,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2802,7 +2814,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2880,7 +2892,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ9">
         <v>0.83</v>
@@ -3008,7 +3020,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3420,7 +3432,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3707,7 +3719,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ13">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3832,7 +3844,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4119,7 +4131,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4244,7 +4256,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4322,7 +4334,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ16">
         <v>1.83</v>
@@ -4450,7 +4462,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4656,7 +4668,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5068,7 +5080,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5480,7 +5492,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5686,7 +5698,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5764,7 +5776,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ23">
         <v>1.43</v>
@@ -6304,7 +6316,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6510,7 +6522,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6716,7 +6728,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6797,7 +6809,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ28">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR28">
         <v>1.96</v>
@@ -7128,7 +7140,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7334,7 +7346,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7412,7 +7424,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ31">
         <v>0.83</v>
@@ -7746,7 +7758,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7952,7 +7964,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8364,7 +8376,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8570,7 +8582,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8651,7 +8663,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR37">
         <v>2.14</v>
@@ -8776,7 +8788,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9063,7 +9075,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ39">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR39">
         <v>1.65</v>
@@ -9188,7 +9200,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9394,7 +9406,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9600,7 +9612,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9806,7 +9818,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10090,7 +10102,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ44">
         <v>1.29</v>
@@ -10218,7 +10230,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10502,7 +10514,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ46">
         <v>0</v>
@@ -10630,7 +10642,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10836,7 +10848,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11042,7 +11054,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11248,7 +11260,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11660,7 +11672,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11866,7 +11878,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12072,7 +12084,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12153,7 +12165,7 @@
         <v>0.83</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR54">
         <v>1.87</v>
@@ -12278,7 +12290,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12484,7 +12496,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12690,7 +12702,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12768,7 +12780,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ57">
         <v>2.5</v>
@@ -12896,7 +12908,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -12974,7 +12986,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ58">
         <v>1.43</v>
@@ -13308,7 +13320,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13514,7 +13526,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13595,7 +13607,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ61">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR61">
         <v>1.4</v>
@@ -13926,7 +13938,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14132,7 +14144,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14213,7 +14225,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR64">
         <v>2.51</v>
@@ -14544,7 +14556,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15162,7 +15174,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15368,7 +15380,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15574,7 +15586,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15986,7 +15998,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16192,7 +16204,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16398,7 +16410,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16604,7 +16616,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16810,7 +16822,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17097,7 +17109,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ78">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17509,7 +17521,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR80">
         <v>1.52</v>
@@ -17634,7 +17646,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17712,7 +17724,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ81">
         <v>1.14</v>
@@ -17840,7 +17852,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -17918,7 +17930,7 @@
         <v>3</v>
       </c>
       <c r="AP82">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ82">
         <v>2.17</v>
@@ -18046,7 +18058,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18252,7 +18264,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18458,7 +18470,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18664,7 +18676,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18870,7 +18882,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19076,7 +19088,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19282,7 +19294,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19488,7 +19500,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20187,7 +20199,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ93">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR93">
         <v>1.52</v>
@@ -20518,7 +20530,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -20596,7 +20608,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -20805,7 +20817,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AR96">
         <v>1.59</v>
@@ -20930,7 +20942,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21136,7 +21148,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21548,7 +21560,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21626,7 +21638,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="AQ100">
         <v>1.14</v>
@@ -21754,7 +21766,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -22372,7 +22384,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22784,7 +22796,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -22990,7 +23002,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23402,7 +23414,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23575,7 +23587,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45618.60416666666</v>
+        <v>45617.875</v>
       </c>
       <c r="F110">
         <v>13</v>
@@ -23608,7 +23620,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23978,7 +23990,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7491603</v>
+        <v>7491602</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -23993,70 +24005,70 @@
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H112" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L112">
         <v>2</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O112" t="s">
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q112">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="R112">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T112">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V112">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W112">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X112">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y112">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z112">
-        <v>1.67</v>
+        <v>2.75</v>
       </c>
       <c r="AA112">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AB112">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="AC112">
         <v>1.04</v>
@@ -24065,88 +24077,88 @@
         <v>10</v>
       </c>
       <c r="AE112">
+        <v>1.18</v>
+      </c>
+      <c r="AF112">
+        <v>4.75</v>
+      </c>
+      <c r="AG112">
+        <v>1.55</v>
+      </c>
+      <c r="AH112">
+        <v>2.2</v>
+      </c>
+      <c r="AI112">
+        <v>1.44</v>
+      </c>
+      <c r="AJ112">
+        <v>2.63</v>
+      </c>
+      <c r="AK112">
+        <v>1.5</v>
+      </c>
+      <c r="AL112">
         <v>1.22</v>
       </c>
-      <c r="AF112">
+      <c r="AM112">
+        <v>1.47</v>
+      </c>
+      <c r="AN112">
+        <v>0.83</v>
+      </c>
+      <c r="AO112">
+        <v>1.5</v>
+      </c>
+      <c r="AP112">
+        <v>0.71</v>
+      </c>
+      <c r="AQ112">
+        <v>1.71</v>
+      </c>
+      <c r="AR112">
+        <v>1.44</v>
+      </c>
+      <c r="AS112">
+        <v>1.25</v>
+      </c>
+      <c r="AT112">
+        <v>2.69</v>
+      </c>
+      <c r="AU112">
+        <v>6</v>
+      </c>
+      <c r="AV112">
         <v>4</v>
       </c>
-      <c r="AG112">
-        <v>1.73</v>
-      </c>
-      <c r="AH112">
-        <v>1.95</v>
-      </c>
-      <c r="AI112">
-        <v>1.73</v>
-      </c>
-      <c r="AJ112">
-        <v>2</v>
-      </c>
-      <c r="AK112">
-        <v>1.14</v>
-      </c>
-      <c r="AL112">
-        <v>1.2</v>
-      </c>
-      <c r="AM112">
-        <v>2.15</v>
-      </c>
-      <c r="AN112">
-        <v>1</v>
-      </c>
-      <c r="AO112">
-        <v>1</v>
-      </c>
-      <c r="AP112">
-        <v>1</v>
-      </c>
-      <c r="AQ112">
-        <v>1</v>
-      </c>
-      <c r="AR112">
-        <v>1.37</v>
-      </c>
-      <c r="AS112">
-        <v>0.95</v>
-      </c>
-      <c r="AT112">
-        <v>2.32</v>
-      </c>
-      <c r="AU112">
-        <v>8</v>
-      </c>
-      <c r="AV112">
+      <c r="AW112">
         <v>6</v>
       </c>
-      <c r="AW112">
-        <v>3</v>
-      </c>
       <c r="AX112">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY112">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ112">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA112">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB112">
         <v>5</v>
       </c>
       <c r="BC112">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD112">
-        <v>1.51</v>
+        <v>1.95</v>
       </c>
       <c r="BE112">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF112">
-        <v>3.06</v>
+        <v>2.1</v>
       </c>
       <c r="BG112">
         <v>1.2</v>
@@ -24184,7 +24196,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7491598</v>
+        <v>7491603</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24199,43 +24211,43 @@
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="H113" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L113">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M113">
         <v>2</v>
       </c>
       <c r="N113">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="O113" t="s">
-        <v>92</v>
+        <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q113">
-        <v>2.6</v>
+        <v>2.25</v>
       </c>
       <c r="R113">
         <v>2.3</v>
       </c>
       <c r="S113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T113">
         <v>1.33</v>
@@ -24256,19 +24268,19 @@
         <v>1.11</v>
       </c>
       <c r="Z113">
-        <v>1.91</v>
+        <v>1.67</v>
       </c>
       <c r="AA113">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="AB113">
-        <v>3.25</v>
+        <v>4.2</v>
       </c>
       <c r="AC113">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD113">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE113">
         <v>1.22</v>
@@ -24277,25 +24289,25 @@
         <v>4</v>
       </c>
       <c r="AG113">
-        <v>1.61</v>
+        <v>1.73</v>
       </c>
       <c r="AH113">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AI113">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="AJ113">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="AK113">
-        <v>1.3</v>
+        <v>1.14</v>
       </c>
       <c r="AL113">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM113">
-        <v>1.78</v>
+        <v>2.15</v>
       </c>
       <c r="AN113">
         <v>1</v>
@@ -24304,85 +24316,85 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AQ113">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AR113">
-        <v>1.54</v>
+        <v>1.37</v>
       </c>
       <c r="AS113">
-        <v>1.4</v>
+        <v>0.95</v>
       </c>
       <c r="AT113">
-        <v>2.94</v>
+        <v>2.32</v>
       </c>
       <c r="AU113">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV113">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW113">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AX113">
         <v>4</v>
       </c>
       <c r="AY113">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="AZ113">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BA113">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="BB113">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BC113">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="BD113">
-        <v>1.75</v>
+        <v>1.51</v>
       </c>
       <c r="BE113">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="BF113">
-        <v>2.43</v>
+        <v>3.06</v>
       </c>
       <c r="BG113">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="BH113">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="BI113">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="BJ113">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="BK113">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="BL113">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="BM113">
-        <v>1.95</v>
+        <v>2.02</v>
       </c>
       <c r="BN113">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="BO113">
-        <v>2.39</v>
+        <v>2.6</v>
       </c>
       <c r="BP113">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="114" spans="1:68">
@@ -24390,7 +24402,7 @@
         <v>113</v>
       </c>
       <c r="B114">
-        <v>7491600</v>
+        <v>7491598</v>
       </c>
       <c r="C114" t="s">
         <v>68</v>
@@ -24405,10 +24417,10 @@
         <v>13</v>
       </c>
       <c r="G114" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="H114" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="I114">
         <v>0</v>
@@ -24420,22 +24432,22 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M114">
         <v>2</v>
       </c>
       <c r="N114">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="O114" t="s">
-        <v>169</v>
+        <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q114">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R114">
         <v>2.3</v>
@@ -24450,37 +24462,37 @@
         <v>3.25</v>
       </c>
       <c r="V114">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W114">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X114">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Y114">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="Z114">
-        <v>1.85</v>
+        <v>1.91</v>
       </c>
       <c r="AA114">
         <v>3.5</v>
       </c>
       <c r="AB114">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="AC114">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD114">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE114">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF114">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AG114">
         <v>1.61</v>
@@ -24489,106 +24501,518 @@
         <v>2.1</v>
       </c>
       <c r="AI114">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AJ114">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK114">
-        <v>1.22</v>
+        <v>1.3</v>
       </c>
       <c r="AL114">
         <v>1.22</v>
       </c>
       <c r="AM114">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="AN114">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AO114">
+        <v>1</v>
+      </c>
+      <c r="AP114">
+        <v>0.86</v>
+      </c>
+      <c r="AQ114">
+        <v>1.29</v>
+      </c>
+      <c r="AR114">
+        <v>1.54</v>
+      </c>
+      <c r="AS114">
         <v>1.4</v>
       </c>
-      <c r="AP114">
-        <v>2.57</v>
-      </c>
-      <c r="AQ114">
-        <v>1.67</v>
-      </c>
-      <c r="AR114">
-        <v>1.64</v>
-      </c>
-      <c r="AS114">
+      <c r="AT114">
+        <v>2.94</v>
+      </c>
+      <c r="AU114">
+        <v>7</v>
+      </c>
+      <c r="AV114">
+        <v>5</v>
+      </c>
+      <c r="AW114">
+        <v>7</v>
+      </c>
+      <c r="AX114">
+        <v>5</v>
+      </c>
+      <c r="AY114">
+        <v>24</v>
+      </c>
+      <c r="AZ114">
+        <v>13</v>
+      </c>
+      <c r="BA114">
+        <v>12</v>
+      </c>
+      <c r="BB114">
+        <v>6</v>
+      </c>
+      <c r="BC114">
+        <v>18</v>
+      </c>
+      <c r="BD114">
         <v>1.75</v>
-      </c>
-      <c r="AT114">
-        <v>3.39</v>
-      </c>
-      <c r="AU114">
-        <v>8</v>
-      </c>
-      <c r="AV114">
-        <v>9</v>
-      </c>
-      <c r="AW114">
-        <v>10</v>
-      </c>
-      <c r="AX114">
-        <v>3</v>
-      </c>
-      <c r="AY114">
-        <v>20</v>
-      </c>
-      <c r="AZ114">
-        <v>15</v>
-      </c>
-      <c r="BA114">
-        <v>5</v>
-      </c>
-      <c r="BB114">
-        <v>4</v>
-      </c>
-      <c r="BC114">
-        <v>9</v>
-      </c>
-      <c r="BD114">
-        <v>1.59</v>
       </c>
       <c r="BE114">
         <v>8.5</v>
       </c>
       <c r="BF114">
+        <v>2.43</v>
+      </c>
+      <c r="BG114">
+        <v>1.17</v>
+      </c>
+      <c r="BH114">
+        <v>4.65</v>
+      </c>
+      <c r="BI114">
+        <v>1.32</v>
+      </c>
+      <c r="BJ114">
+        <v>3.2</v>
+      </c>
+      <c r="BK114">
+        <v>1.55</v>
+      </c>
+      <c r="BL114">
+        <v>2.36</v>
+      </c>
+      <c r="BM114">
+        <v>1.95</v>
+      </c>
+      <c r="BN114">
+        <v>1.85</v>
+      </c>
+      <c r="BO114">
+        <v>2.39</v>
+      </c>
+      <c r="BP114">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="115" spans="1:68">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115">
+        <v>7491600</v>
+      </c>
+      <c r="C115" t="s">
+        <v>68</v>
+      </c>
+      <c r="D115" t="s">
+        <v>69</v>
+      </c>
+      <c r="E115" s="2">
+        <v>45619.375</v>
+      </c>
+      <c r="F115">
+        <v>13</v>
+      </c>
+      <c r="G115" t="s">
+        <v>72</v>
+      </c>
+      <c r="H115" t="s">
+        <v>76</v>
+      </c>
+      <c r="I115">
+        <v>0</v>
+      </c>
+      <c r="J115">
+        <v>0</v>
+      </c>
+      <c r="K115">
+        <v>0</v>
+      </c>
+      <c r="L115">
+        <v>1</v>
+      </c>
+      <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
+        <v>3</v>
+      </c>
+      <c r="O115" t="s">
+        <v>170</v>
+      </c>
+      <c r="P115" t="s">
+        <v>244</v>
+      </c>
+      <c r="Q115">
+        <v>2.5</v>
+      </c>
+      <c r="R115">
+        <v>2.3</v>
+      </c>
+      <c r="S115">
+        <v>4</v>
+      </c>
+      <c r="T115">
+        <v>1.33</v>
+      </c>
+      <c r="U115">
+        <v>3.25</v>
+      </c>
+      <c r="V115">
+        <v>2.5</v>
+      </c>
+      <c r="W115">
+        <v>1.5</v>
+      </c>
+      <c r="X115">
+        <v>6</v>
+      </c>
+      <c r="Y115">
+        <v>1.13</v>
+      </c>
+      <c r="Z115">
+        <v>1.85</v>
+      </c>
+      <c r="AA115">
+        <v>3.5</v>
+      </c>
+      <c r="AB115">
+        <v>3.4</v>
+      </c>
+      <c r="AC115">
+        <v>1.04</v>
+      </c>
+      <c r="AD115">
+        <v>10</v>
+      </c>
+      <c r="AE115">
+        <v>1.2</v>
+      </c>
+      <c r="AF115">
+        <v>4.2</v>
+      </c>
+      <c r="AG115">
+        <v>1.61</v>
+      </c>
+      <c r="AH115">
+        <v>2.1</v>
+      </c>
+      <c r="AI115">
+        <v>1.57</v>
+      </c>
+      <c r="AJ115">
+        <v>2.25</v>
+      </c>
+      <c r="AK115">
+        <v>1.22</v>
+      </c>
+      <c r="AL115">
+        <v>1.22</v>
+      </c>
+      <c r="AM115">
+        <v>1.85</v>
+      </c>
+      <c r="AN115">
+        <v>3</v>
+      </c>
+      <c r="AO115">
+        <v>1.4</v>
+      </c>
+      <c r="AP115">
+        <v>2.57</v>
+      </c>
+      <c r="AQ115">
+        <v>1.67</v>
+      </c>
+      <c r="AR115">
+        <v>1.64</v>
+      </c>
+      <c r="AS115">
+        <v>1.75</v>
+      </c>
+      <c r="AT115">
+        <v>3.39</v>
+      </c>
+      <c r="AU115">
+        <v>8</v>
+      </c>
+      <c r="AV115">
+        <v>9</v>
+      </c>
+      <c r="AW115">
+        <v>11</v>
+      </c>
+      <c r="AX115">
+        <v>3</v>
+      </c>
+      <c r="AY115">
+        <v>21</v>
+      </c>
+      <c r="AZ115">
+        <v>15</v>
+      </c>
+      <c r="BA115">
+        <v>5</v>
+      </c>
+      <c r="BB115">
+        <v>4</v>
+      </c>
+      <c r="BC115">
+        <v>9</v>
+      </c>
+      <c r="BD115">
+        <v>1.59</v>
+      </c>
+      <c r="BE115">
+        <v>8.5</v>
+      </c>
+      <c r="BF115">
         <v>2.78</v>
       </c>
-      <c r="BG114">
+      <c r="BG115">
         <v>1.18</v>
       </c>
-      <c r="BH114">
+      <c r="BH115">
         <v>4.45</v>
       </c>
-      <c r="BI114">
+      <c r="BI115">
         <v>1.34</v>
       </c>
-      <c r="BJ114">
+      <c r="BJ115">
         <v>3.1</v>
       </c>
-      <c r="BK114">
+      <c r="BK115">
         <v>1.58</v>
       </c>
-      <c r="BL114">
+      <c r="BL115">
         <v>2.29</v>
       </c>
-      <c r="BM114">
-        <v>2</v>
-      </c>
-      <c r="BN114">
+      <c r="BM115">
+        <v>2</v>
+      </c>
+      <c r="BN115">
         <v>1.8</v>
       </c>
-      <c r="BO114">
+      <c r="BO115">
         <v>2.47</v>
       </c>
-      <c r="BP114">
+      <c r="BP115">
         <v>1.5</v>
+      </c>
+    </row>
+    <row r="116" spans="1:68">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116">
+        <v>7491599</v>
+      </c>
+      <c r="C116" t="s">
+        <v>68</v>
+      </c>
+      <c r="D116" t="s">
+        <v>69</v>
+      </c>
+      <c r="E116" s="2">
+        <v>45619.6875</v>
+      </c>
+      <c r="F116">
+        <v>13</v>
+      </c>
+      <c r="G116" t="s">
+        <v>84</v>
+      </c>
+      <c r="H116" t="s">
+        <v>75</v>
+      </c>
+      <c r="I116">
+        <v>2</v>
+      </c>
+      <c r="J116">
+        <v>0</v>
+      </c>
+      <c r="K116">
+        <v>2</v>
+      </c>
+      <c r="L116">
+        <v>2</v>
+      </c>
+      <c r="M116">
+        <v>2</v>
+      </c>
+      <c r="N116">
+        <v>4</v>
+      </c>
+      <c r="O116" t="s">
+        <v>171</v>
+      </c>
+      <c r="P116" t="s">
+        <v>245</v>
+      </c>
+      <c r="Q116">
+        <v>2.2</v>
+      </c>
+      <c r="R116">
+        <v>2.5</v>
+      </c>
+      <c r="S116">
+        <v>4.5</v>
+      </c>
+      <c r="T116">
+        <v>1.29</v>
+      </c>
+      <c r="U116">
+        <v>3.5</v>
+      </c>
+      <c r="V116">
+        <v>2.25</v>
+      </c>
+      <c r="W116">
+        <v>1.57</v>
+      </c>
+      <c r="X116">
+        <v>5.5</v>
+      </c>
+      <c r="Y116">
+        <v>1.14</v>
+      </c>
+      <c r="Z116">
+        <v>1.6</v>
+      </c>
+      <c r="AA116">
+        <v>3.84</v>
+      </c>
+      <c r="AB116">
+        <v>4.08</v>
+      </c>
+      <c r="AC116">
+        <v>1.01</v>
+      </c>
+      <c r="AD116">
+        <v>13</v>
+      </c>
+      <c r="AE116">
+        <v>1.17</v>
+      </c>
+      <c r="AF116">
+        <v>5</v>
+      </c>
+      <c r="AG116">
+        <v>1.48</v>
+      </c>
+      <c r="AH116">
+        <v>2.54</v>
+      </c>
+      <c r="AI116">
+        <v>1.53</v>
+      </c>
+      <c r="AJ116">
+        <v>2.38</v>
+      </c>
+      <c r="AK116">
+        <v>1.16</v>
+      </c>
+      <c r="AL116">
+        <v>1.17</v>
+      </c>
+      <c r="AM116">
+        <v>2.15</v>
+      </c>
+      <c r="AN116">
+        <v>2</v>
+      </c>
+      <c r="AO116">
+        <v>0.83</v>
+      </c>
+      <c r="AP116">
+        <v>1.86</v>
+      </c>
+      <c r="AQ116">
+        <v>0.86</v>
+      </c>
+      <c r="AR116">
+        <v>1.56</v>
+      </c>
+      <c r="AS116">
+        <v>1.16</v>
+      </c>
+      <c r="AT116">
+        <v>2.72</v>
+      </c>
+      <c r="AU116">
+        <v>7</v>
+      </c>
+      <c r="AV116">
+        <v>3</v>
+      </c>
+      <c r="AW116">
+        <v>8</v>
+      </c>
+      <c r="AX116">
+        <v>4</v>
+      </c>
+      <c r="AY116">
+        <v>21</v>
+      </c>
+      <c r="AZ116">
+        <v>10</v>
+      </c>
+      <c r="BA116">
+        <v>2</v>
+      </c>
+      <c r="BB116">
+        <v>4</v>
+      </c>
+      <c r="BC116">
+        <v>6</v>
+      </c>
+      <c r="BD116">
+        <v>1.51</v>
+      </c>
+      <c r="BE116">
+        <v>9</v>
+      </c>
+      <c r="BF116">
+        <v>3.06</v>
+      </c>
+      <c r="BG116">
+        <v>1.17</v>
+      </c>
+      <c r="BH116">
+        <v>4.65</v>
+      </c>
+      <c r="BI116">
+        <v>1.32</v>
+      </c>
+      <c r="BJ116">
+        <v>3.2</v>
+      </c>
+      <c r="BK116">
+        <v>1.55</v>
+      </c>
+      <c r="BL116">
+        <v>2.36</v>
+      </c>
+      <c r="BM116">
+        <v>1.89</v>
+      </c>
+      <c r="BN116">
+        <v>1.85</v>
+      </c>
+      <c r="BO116">
+        <v>2.39</v>
+      </c>
+      <c r="BP116">
+        <v>1.54</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="249">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -520,16 +520,19 @@
     <t>['6', '55', '90+6']</t>
   </si>
   <si>
-    <t>['20', '83']</t>
+    <t>['6', '52']</t>
   </si>
   <si>
-    <t>['6', '52']</t>
+    <t>['29', '30']</t>
+  </si>
+  <si>
+    <t>['20', '83']</t>
   </si>
   <si>
     <t>['68']</t>
   </si>
   <si>
-    <t>['29', '30']</t>
+    <t>['17', '41', '45+2']</t>
   </si>
   <si>
     <t>['5', '35']</t>
@@ -685,10 +688,10 @@
     <t>['44', '81', '89']</t>
   </si>
   <si>
-    <t>['13', '18', '33', '88']</t>
+    <t>['63']</t>
   </si>
   <si>
-    <t>['63']</t>
+    <t>['13', '18', '33', '88']</t>
   </si>
   <si>
     <t>['76', '80']</t>
@@ -739,19 +742,25 @@
     <t>['8', '51']</t>
   </si>
   <si>
-    <t>['46', '73', '79']</t>
+    <t>['38', '59']</t>
   </si>
   <si>
-    <t>['38', '59']</t>
+    <t>['57', '74']</t>
   </si>
   <si>
     <t>['58', '65']</t>
   </si>
   <si>
+    <t>['46', '73', '79']</t>
+  </si>
+  <si>
     <t>['62', '72']</t>
   </si>
   <si>
-    <t>['57', '74']</t>
+    <t>['45', '90+6']</t>
+  </si>
+  <si>
+    <t>['10']</t>
   </si>
 </sst>
 </file>
@@ -1113,7 +1122,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP116"/>
+  <dimension ref="A1:BP118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1372,7 +1381,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1578,7 +1587,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1990,7 +1999,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2402,7 +2411,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2483,7 +2492,7 @@
         <v>1.17</v>
       </c>
       <c r="AQ7">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2608,7 +2617,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2814,7 +2823,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3020,7 +3029,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3304,7 +3313,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ11">
         <v>1</v>
@@ -3432,7 +3441,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3510,7 +3519,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1.33</v>
@@ -3844,7 +3853,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4256,7 +4265,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4462,7 +4471,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4668,7 +4677,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4749,7 +4758,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ18">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5080,7 +5089,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5492,7 +5501,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5698,7 +5707,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6191,7 +6200,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ25">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR25">
         <v>2.21</v>
@@ -6316,7 +6325,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6522,7 +6531,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6728,7 +6737,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7140,7 +7149,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7218,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ30">
         <v>1.33</v>
@@ -7346,7 +7355,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7758,7 +7767,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7839,7 +7848,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ33">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR33">
         <v>1.09</v>
@@ -7964,7 +7973,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8042,7 +8051,7 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
         <v>1.83</v>
@@ -8376,7 +8385,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8582,7 +8591,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8788,7 +8797,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9200,7 +9209,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9406,7 +9415,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9612,7 +9621,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9693,7 +9702,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ42">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR42">
         <v>1.72</v>
@@ -9818,7 +9827,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -9899,7 +9908,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ43">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR43">
         <v>2.41</v>
@@ -10230,7 +10239,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10642,7 +10651,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10848,7 +10857,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11054,7 +11063,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11260,7 +11269,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11672,7 +11681,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11750,7 +11759,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>1.17</v>
@@ -11878,7 +11887,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12084,7 +12093,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12290,7 +12299,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12368,7 +12377,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ55">
         <v>0.83</v>
@@ -12496,7 +12505,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12577,7 +12586,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ56">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR56">
         <v>1.5</v>
@@ -12702,7 +12711,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12908,7 +12917,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13192,7 +13201,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ59">
         <v>1.57</v>
@@ -13320,7 +13329,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13401,7 +13410,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ60">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR60">
         <v>1.59</v>
@@ -13526,7 +13535,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13938,7 +13947,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14144,7 +14153,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14556,7 +14565,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15174,7 +15183,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15380,7 +15389,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15586,7 +15595,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15998,7 +16007,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16204,7 +16213,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16410,7 +16419,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16491,7 +16500,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.33</v>
+        <v>0.29</v>
       </c>
       <c r="AR75">
         <v>1.4</v>
@@ -16616,7 +16625,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16822,7 +16831,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -16900,7 +16909,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ77">
         <v>2.5</v>
@@ -17312,7 +17321,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>1.43</v>
@@ -17604,7 +17613,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7491565</v>
+        <v>7491563</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17616,136 +17625,136 @@
         <v>45585.35416666666</v>
       </c>
       <c r="F81">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G81" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H81" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>3</v>
       </c>
       <c r="L81">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M81">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N81">
         <v>4</v>
       </c>
       <c r="O81" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="P81" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q81">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="R81">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S81">
+        <v>4.5</v>
+      </c>
+      <c r="T81">
+        <v>1.22</v>
+      </c>
+      <c r="U81">
         <v>4</v>
       </c>
-      <c r="T81">
-        <v>1.29</v>
-      </c>
-      <c r="U81">
-        <v>3.5</v>
-      </c>
       <c r="V81">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W81">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X81">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y81">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z81">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AA81">
-        <v>4.04</v>
+        <v>4.54</v>
       </c>
       <c r="AB81">
-        <v>3.86</v>
+        <v>4.64</v>
       </c>
       <c r="AC81">
         <v>1.01</v>
       </c>
       <c r="AD81">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE81">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AF81">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AG81">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AH81">
-        <v>2.43</v>
+        <v>2.78</v>
       </c>
       <c r="AI81">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AJ81">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AK81">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AL81">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AM81">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="AN81">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO81">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP81">
-        <v>0.71</v>
+        <v>1.86</v>
       </c>
       <c r="AQ81">
-        <v>1.14</v>
+        <v>2.29</v>
       </c>
       <c r="AR81">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="AS81">
         <v>1.22</v>
       </c>
       <c r="AT81">
-        <v>2.63</v>
+        <v>2.84</v>
       </c>
       <c r="AU81">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV81">
         <v>3</v>
       </c>
       <c r="AW81">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX81">
         <v>5</v>
@@ -17757,52 +17766,52 @@
         <v>8</v>
       </c>
       <c r="BA81">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB81">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC81">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD81">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="BE81">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BF81">
-        <v>3.49</v>
+        <v>3.69</v>
       </c>
       <c r="BG81">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="BH81">
-        <v>4.7</v>
+        <v>5.45</v>
       </c>
       <c r="BI81">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="BJ81">
-        <v>3.25</v>
+        <v>3.72</v>
       </c>
       <c r="BK81">
-        <v>1.91</v>
+        <v>1.43</v>
       </c>
       <c r="BL81">
-        <v>2.39</v>
+        <v>2.68</v>
       </c>
       <c r="BM81">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="BN81">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="BO81">
-        <v>2.37</v>
+        <v>2.12</v>
       </c>
       <c r="BP81">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17810,7 +17819,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7491563</v>
+        <v>7491565</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17822,136 +17831,136 @@
         <v>45585.35416666666</v>
       </c>
       <c r="F82">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G82" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H82" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I82">
+        <v>0</v>
+      </c>
+      <c r="J82">
         <v>3</v>
-      </c>
-      <c r="J82">
-        <v>0</v>
       </c>
       <c r="K82">
         <v>3</v>
       </c>
       <c r="L82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M82">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N82">
         <v>4</v>
       </c>
       <c r="O82" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="P82" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q82">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="R82">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S82">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T82">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U82">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V82">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W82">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X82">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y82">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Z82">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AA82">
-        <v>4.54</v>
+        <v>4.04</v>
       </c>
       <c r="AB82">
-        <v>4.64</v>
+        <v>3.86</v>
       </c>
       <c r="AC82">
         <v>1.01</v>
       </c>
       <c r="AD82">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE82">
+        <v>1.18</v>
+      </c>
+      <c r="AF82">
+        <v>4.75</v>
+      </c>
+      <c r="AG82">
+        <v>1.52</v>
+      </c>
+      <c r="AH82">
+        <v>2.43</v>
+      </c>
+      <c r="AI82">
+        <v>1.53</v>
+      </c>
+      <c r="AJ82">
+        <v>2.38</v>
+      </c>
+      <c r="AK82">
+        <v>1.22</v>
+      </c>
+      <c r="AL82">
+        <v>1.18</v>
+      </c>
+      <c r="AM82">
+        <v>1.9</v>
+      </c>
+      <c r="AN82">
+        <v>1.25</v>
+      </c>
+      <c r="AO82">
+        <v>1</v>
+      </c>
+      <c r="AP82">
+        <v>0.71</v>
+      </c>
+      <c r="AQ82">
         <v>1.14</v>
       </c>
-      <c r="AF82">
-        <v>5.5</v>
-      </c>
-      <c r="AG82">
+      <c r="AR82">
         <v>1.41</v>
-      </c>
-      <c r="AH82">
-        <v>2.78</v>
-      </c>
-      <c r="AI82">
-        <v>1.5</v>
-      </c>
-      <c r="AJ82">
-        <v>2.5</v>
-      </c>
-      <c r="AK82">
-        <v>1.15</v>
-      </c>
-      <c r="AL82">
-        <v>1.16</v>
-      </c>
-      <c r="AM82">
-        <v>2.25</v>
-      </c>
-      <c r="AN82">
-        <v>2</v>
-      </c>
-      <c r="AO82">
-        <v>3</v>
-      </c>
-      <c r="AP82">
-        <v>1.86</v>
-      </c>
-      <c r="AQ82">
-        <v>2.17</v>
-      </c>
-      <c r="AR82">
-        <v>1.62</v>
       </c>
       <c r="AS82">
         <v>1.22</v>
       </c>
       <c r="AT82">
-        <v>2.84</v>
+        <v>2.63</v>
       </c>
       <c r="AU82">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV82">
         <v>3</v>
       </c>
       <c r="AW82">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX82">
         <v>5</v>
@@ -17963,52 +17972,52 @@
         <v>8</v>
       </c>
       <c r="BA82">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB82">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC82">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD82">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BE82">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BF82">
-        <v>3.69</v>
+        <v>3.49</v>
       </c>
       <c r="BG82">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="BH82">
-        <v>5.45</v>
+        <v>4.7</v>
       </c>
       <c r="BI82">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="BJ82">
-        <v>3.72</v>
+        <v>3.25</v>
       </c>
       <c r="BK82">
-        <v>1.43</v>
+        <v>1.91</v>
       </c>
       <c r="BL82">
-        <v>2.68</v>
+        <v>2.39</v>
       </c>
       <c r="BM82">
+        <v>2</v>
+      </c>
+      <c r="BN82">
         <v>1.8</v>
       </c>
-      <c r="BN82">
-        <v>2</v>
-      </c>
       <c r="BO82">
-        <v>2.12</v>
+        <v>2.37</v>
       </c>
       <c r="BP82">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -18058,7 +18067,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18264,7 +18273,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18470,7 +18479,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18676,7 +18685,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18882,7 +18891,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19088,7 +19097,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19294,7 +19303,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19500,7 +19509,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20402,7 +20411,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ94">
         <v>1.29</v>
@@ -20530,7 +20539,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -20942,7 +20951,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21148,7 +21157,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21226,10 +21235,10 @@
         <v>2.4</v>
       </c>
       <c r="AP98">
-        <v>1.2</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AR98">
         <v>1.68</v>
@@ -21312,7 +21321,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7491582</v>
+        <v>7491580</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21324,91 +21333,91 @@
         <v>45599.39583333334</v>
       </c>
       <c r="F99">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G99" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H99" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N99">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O99" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="P99" t="s">
-        <v>92</v>
+        <v>224</v>
       </c>
       <c r="Q99">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="R99">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S99">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="T99">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="U99">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V99">
-        <v>2.26</v>
+        <v>2.11</v>
       </c>
       <c r="W99">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="X99">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Y99">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z99">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="AA99">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="AB99">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="AC99">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD99">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE99">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AF99">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="AG99">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="AH99">
-        <v>2.38</v>
+        <v>2.57</v>
       </c>
       <c r="AI99">
         <v>1.55</v>
@@ -21417,100 +21426,100 @@
         <v>2.35</v>
       </c>
       <c r="AK99">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="AL99">
+        <v>1.15</v>
+      </c>
+      <c r="AM99">
+        <v>2.5</v>
+      </c>
+      <c r="AN99">
+        <v>2.2</v>
+      </c>
+      <c r="AO99">
+        <v>1.4</v>
+      </c>
+      <c r="AP99">
+        <v>1.86</v>
+      </c>
+      <c r="AQ99">
+        <v>1.14</v>
+      </c>
+      <c r="AR99">
+        <v>1.62</v>
+      </c>
+      <c r="AS99">
+        <v>1.22</v>
+      </c>
+      <c r="AT99">
+        <v>2.84</v>
+      </c>
+      <c r="AU99">
+        <v>5</v>
+      </c>
+      <c r="AV99">
+        <v>12</v>
+      </c>
+      <c r="AW99">
+        <v>6</v>
+      </c>
+      <c r="AX99">
+        <v>4</v>
+      </c>
+      <c r="AY99">
+        <v>13</v>
+      </c>
+      <c r="AZ99">
+        <v>19</v>
+      </c>
+      <c r="BA99">
+        <v>5</v>
+      </c>
+      <c r="BB99">
+        <v>11</v>
+      </c>
+      <c r="BC99">
+        <v>16</v>
+      </c>
+      <c r="BD99">
+        <v>1.28</v>
+      </c>
+      <c r="BE99">
+        <v>7.6</v>
+      </c>
+      <c r="BF99">
+        <v>4.65</v>
+      </c>
+      <c r="BG99">
+        <v>1.13</v>
+      </c>
+      <c r="BH99">
+        <v>5.8</v>
+      </c>
+      <c r="BI99">
         <v>1.18</v>
       </c>
-      <c r="AM99">
-        <v>2.15</v>
-      </c>
-      <c r="AN99">
-        <v>2.5</v>
-      </c>
-      <c r="AO99">
-        <v>0.2</v>
-      </c>
-      <c r="AP99">
-        <v>2.33</v>
-      </c>
-      <c r="AQ99">
-        <v>0.33</v>
-      </c>
-      <c r="AR99">
-        <v>1.63</v>
-      </c>
-      <c r="AS99">
-        <v>1.03</v>
-      </c>
-      <c r="AT99">
-        <v>2.66</v>
-      </c>
-      <c r="AU99">
-        <v>3</v>
-      </c>
-      <c r="AV99">
-        <v>4</v>
-      </c>
-      <c r="AW99">
-        <v>3</v>
-      </c>
-      <c r="AX99">
-        <v>7</v>
-      </c>
-      <c r="AY99">
-        <v>10</v>
-      </c>
-      <c r="AZ99">
-        <v>18</v>
-      </c>
-      <c r="BA99">
-        <v>8</v>
-      </c>
-      <c r="BB99">
-        <v>6</v>
-      </c>
-      <c r="BC99">
-        <v>14</v>
-      </c>
-      <c r="BD99">
-        <v>1.34</v>
-      </c>
-      <c r="BE99">
-        <v>8.4</v>
-      </c>
-      <c r="BF99">
-        <v>3.85</v>
-      </c>
-      <c r="BG99">
-        <v>1.12</v>
-      </c>
-      <c r="BH99">
-        <v>4.45</v>
-      </c>
-      <c r="BI99">
-        <v>1.27</v>
-      </c>
       <c r="BJ99">
-        <v>3.04</v>
+        <v>3.72</v>
       </c>
       <c r="BK99">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="BL99">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="BM99">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="BN99">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="BO99">
-        <v>2.42</v>
+        <v>2.09</v>
       </c>
       <c r="BP99">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21518,7 +21527,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7491580</v>
+        <v>7491582</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21530,91 +21539,91 @@
         <v>45599.39583333334</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G100" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H100" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O100" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="Q100">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="R100">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S100">
+        <v>4.33</v>
+      </c>
+      <c r="T100">
+        <v>1.28</v>
+      </c>
+      <c r="U100">
+        <v>3.4</v>
+      </c>
+      <c r="V100">
+        <v>2.26</v>
+      </c>
+      <c r="W100">
+        <v>1.58</v>
+      </c>
+      <c r="X100">
+        <v>5</v>
+      </c>
+      <c r="Y100">
+        <v>1.14</v>
+      </c>
+      <c r="Z100">
+        <v>1.71</v>
+      </c>
+      <c r="AA100">
+        <v>4.2</v>
+      </c>
+      <c r="AB100">
+        <v>4.33</v>
+      </c>
+      <c r="AC100">
+        <v>1.04</v>
+      </c>
+      <c r="AD100">
+        <v>10</v>
+      </c>
+      <c r="AE100">
+        <v>1.16</v>
+      </c>
+      <c r="AF100">
         <v>4.75</v>
       </c>
-      <c r="T100">
-        <v>1.23</v>
-      </c>
-      <c r="U100">
-        <v>3.75</v>
-      </c>
-      <c r="V100">
-        <v>2.11</v>
-      </c>
-      <c r="W100">
-        <v>1.67</v>
-      </c>
-      <c r="X100">
-        <v>4.5</v>
-      </c>
-      <c r="Y100">
-        <v>1.17</v>
-      </c>
-      <c r="Z100">
-        <v>1.52</v>
-      </c>
-      <c r="AA100">
-        <v>4.8</v>
-      </c>
-      <c r="AB100">
-        <v>5.25</v>
-      </c>
-      <c r="AC100">
-        <v>1.01</v>
-      </c>
-      <c r="AD100">
-        <v>17</v>
-      </c>
-      <c r="AE100">
-        <v>1.13</v>
-      </c>
-      <c r="AF100">
-        <v>5.75</v>
-      </c>
       <c r="AG100">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="AH100">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AI100">
         <v>1.55</v>
@@ -21623,100 +21632,100 @@
         <v>2.35</v>
       </c>
       <c r="AK100">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AL100">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AM100">
+        <v>2.15</v>
+      </c>
+      <c r="AN100">
         <v>2.5</v>
       </c>
-      <c r="AN100">
-        <v>2.2</v>
-      </c>
       <c r="AO100">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="AP100">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AQ100">
-        <v>1.14</v>
+        <v>0.29</v>
       </c>
       <c r="AR100">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AS100">
-        <v>1.22</v>
+        <v>1.03</v>
       </c>
       <c r="AT100">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="AU100">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV100">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AW100">
+        <v>3</v>
+      </c>
+      <c r="AX100">
+        <v>7</v>
+      </c>
+      <c r="AY100">
+        <v>10</v>
+      </c>
+      <c r="AZ100">
+        <v>18</v>
+      </c>
+      <c r="BA100">
+        <v>8</v>
+      </c>
+      <c r="BB100">
         <v>6</v>
       </c>
-      <c r="AX100">
-        <v>4</v>
-      </c>
-      <c r="AY100">
-        <v>13</v>
-      </c>
-      <c r="AZ100">
-        <v>19</v>
-      </c>
-      <c r="BA100">
-        <v>5</v>
-      </c>
-      <c r="BB100">
-        <v>11</v>
-      </c>
       <c r="BC100">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD100">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="BE100">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="BF100">
-        <v>4.65</v>
+        <v>3.85</v>
       </c>
       <c r="BG100">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="BH100">
-        <v>5.8</v>
+        <v>4.45</v>
       </c>
       <c r="BI100">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="BJ100">
-        <v>3.72</v>
+        <v>3.04</v>
       </c>
       <c r="BK100">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="BL100">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="BM100">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="BN100">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="BO100">
-        <v>2.09</v>
+        <v>2.42</v>
       </c>
       <c r="BP100">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -21724,7 +21733,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7491597</v>
+        <v>7491595</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -21739,190 +21748,190 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H101" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101">
+        <v>0</v>
+      </c>
+      <c r="M101">
+        <v>0</v>
+      </c>
+      <c r="N101">
+        <v>0</v>
+      </c>
+      <c r="O101" t="s">
+        <v>92</v>
+      </c>
+      <c r="P101" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q101">
+        <v>2.85</v>
+      </c>
+      <c r="R101">
+        <v>2.15</v>
+      </c>
+      <c r="S101">
+        <v>3.3</v>
+      </c>
+      <c r="T101">
+        <v>1.33</v>
+      </c>
+      <c r="U101">
         <v>3</v>
       </c>
-      <c r="M101">
-        <v>1</v>
-      </c>
-      <c r="N101">
-        <v>4</v>
-      </c>
-      <c r="O101" t="s">
-        <v>160</v>
-      </c>
-      <c r="P101" t="s">
-        <v>236</v>
-      </c>
-      <c r="Q101">
-        <v>3.7</v>
-      </c>
-      <c r="R101">
-        <v>2.25</v>
-      </c>
-      <c r="S101">
+      <c r="V101">
         <v>2.45</v>
       </c>
-      <c r="T101">
-        <v>1.3</v>
-      </c>
-      <c r="U101">
-        <v>3.25</v>
-      </c>
-      <c r="V101">
-        <v>2.3</v>
-      </c>
       <c r="W101">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="X101">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Y101">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="Z101">
-        <v>6.64</v>
+        <v>3.19</v>
       </c>
       <c r="AA101">
-        <v>8.43</v>
+        <v>3.01</v>
       </c>
       <c r="AB101">
-        <v>1.18</v>
+        <v>2.16</v>
       </c>
       <c r="AC101">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD101">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE101">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF101">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AG101">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AH101">
+        <v>2.15</v>
+      </c>
+      <c r="AI101">
+        <v>1.5</v>
+      </c>
+      <c r="AJ101">
         <v>2.35</v>
       </c>
-      <c r="AI101">
-        <v>1.48</v>
-      </c>
-      <c r="AJ101">
-        <v>2.4</v>
-      </c>
       <c r="AK101">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
       <c r="AL101">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM101">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AN101">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AO101">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AP101">
         <v>1.67</v>
       </c>
       <c r="AQ101">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="AR101">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AS101">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AT101">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="AU101">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV101">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW101">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX101">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY101">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ101">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="BA101">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BB101">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BC101">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD101">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="BE101">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="BF101">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BG101">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="BH101">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="BI101">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="BJ101">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="BK101">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="BL101">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="BM101">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="BN101">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="BO101">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="BP101">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -21930,7 +21939,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7491595</v>
+        <v>7491597</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21945,190 +21954,190 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H102" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L102">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M102">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N102">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O102" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="P102" t="s">
-        <v>92</v>
+        <v>237</v>
       </c>
       <c r="Q102">
-        <v>2.85</v>
+        <v>3.7</v>
       </c>
       <c r="R102">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S102">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="T102">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U102">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V102">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="W102">
+        <v>1.55</v>
+      </c>
+      <c r="X102">
+        <v>4.9</v>
+      </c>
+      <c r="Y102">
+        <v>1.14</v>
+      </c>
+      <c r="Z102">
+        <v>6.64</v>
+      </c>
+      <c r="AA102">
+        <v>8.43</v>
+      </c>
+      <c r="AB102">
+        <v>1.18</v>
+      </c>
+      <c r="AC102">
+        <v>1.04</v>
+      </c>
+      <c r="AD102">
+        <v>10</v>
+      </c>
+      <c r="AE102">
+        <v>1.2</v>
+      </c>
+      <c r="AF102">
+        <v>4.5</v>
+      </c>
+      <c r="AG102">
+        <v>1.53</v>
+      </c>
+      <c r="AH102">
+        <v>2.35</v>
+      </c>
+      <c r="AI102">
         <v>1.48</v>
       </c>
-      <c r="X102">
-        <v>5.3</v>
-      </c>
-      <c r="Y102">
-        <v>1.12</v>
-      </c>
-      <c r="Z102">
-        <v>3.19</v>
-      </c>
-      <c r="AA102">
-        <v>3.01</v>
-      </c>
-      <c r="AB102">
-        <v>2.16</v>
-      </c>
-      <c r="AC102">
-        <v>1.05</v>
-      </c>
-      <c r="AD102">
-        <v>9.5</v>
-      </c>
-      <c r="AE102">
+      <c r="AJ102">
+        <v>2.4</v>
+      </c>
+      <c r="AK102">
+        <v>1.77</v>
+      </c>
+      <c r="AL102">
         <v>1.22</v>
       </c>
-      <c r="AF102">
-        <v>4.2</v>
-      </c>
-      <c r="AG102">
-        <v>1.62</v>
-      </c>
-      <c r="AH102">
-        <v>2.15</v>
-      </c>
-      <c r="AI102">
-        <v>1.5</v>
-      </c>
-      <c r="AJ102">
-        <v>2.35</v>
-      </c>
-      <c r="AK102">
+      <c r="AM102">
+        <v>1.3</v>
+      </c>
+      <c r="AN102">
         <v>1.4</v>
       </c>
-      <c r="AL102">
-        <v>1.25</v>
-      </c>
-      <c r="AM102">
-        <v>1.57</v>
-      </c>
-      <c r="AN102">
-        <v>1.8</v>
-      </c>
       <c r="AO102">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AP102">
         <v>1.67</v>
       </c>
       <c r="AQ102">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="AR102">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AS102">
+        <v>1.31</v>
+      </c>
+      <c r="AT102">
+        <v>2.8</v>
+      </c>
+      <c r="AU102">
+        <v>5</v>
+      </c>
+      <c r="AV102">
+        <v>8</v>
+      </c>
+      <c r="AW102">
+        <v>8</v>
+      </c>
+      <c r="AX102">
+        <v>9</v>
+      </c>
+      <c r="AY102">
+        <v>18</v>
+      </c>
+      <c r="AZ102">
+        <v>25</v>
+      </c>
+      <c r="BA102">
+        <v>3</v>
+      </c>
+      <c r="BB102">
+        <v>7</v>
+      </c>
+      <c r="BC102">
+        <v>10</v>
+      </c>
+      <c r="BD102">
+        <v>2.43</v>
+      </c>
+      <c r="BE102">
+        <v>8.5</v>
+      </c>
+      <c r="BF102">
+        <v>1.75</v>
+      </c>
+      <c r="BG102">
+        <v>1.2</v>
+      </c>
+      <c r="BH102">
+        <v>4.2</v>
+      </c>
+      <c r="BI102">
         <v>1.37</v>
       </c>
-      <c r="AT102">
-        <v>2.79</v>
-      </c>
-      <c r="AU102">
-        <v>6</v>
-      </c>
-      <c r="AV102">
-        <v>3</v>
-      </c>
-      <c r="AW102">
-        <v>7</v>
-      </c>
-      <c r="AX102">
-        <v>6</v>
-      </c>
-      <c r="AY102">
-        <v>15</v>
-      </c>
-      <c r="AZ102">
-        <v>14</v>
-      </c>
-      <c r="BA102">
-        <v>12</v>
-      </c>
-      <c r="BB102">
-        <v>1</v>
-      </c>
-      <c r="BC102">
-        <v>13</v>
-      </c>
-      <c r="BD102">
-        <v>0</v>
-      </c>
-      <c r="BE102">
-        <v>0</v>
-      </c>
-      <c r="BF102">
-        <v>0</v>
-      </c>
-      <c r="BG102">
-        <v>0</v>
-      </c>
-      <c r="BH102">
-        <v>0</v>
-      </c>
-      <c r="BI102">
-        <v>0</v>
-      </c>
       <c r="BJ102">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="BK102">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="BL102">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="BM102">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="BN102">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="BO102">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BP102">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="103" spans="1:68">
@@ -22384,7 +22393,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22796,7 +22805,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23002,7 +23011,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23414,7 +23423,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23620,7 +23629,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23990,7 +23999,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7491602</v>
+        <v>7491603</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -23999,76 +24008,76 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45619.375</v>
+        <v>45618.875</v>
       </c>
       <c r="F112">
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="H112" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K112">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L112">
         <v>2</v>
       </c>
       <c r="M112">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N112">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O112" t="s">
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q112">
-        <v>3.1</v>
+        <v>2.25</v>
       </c>
       <c r="R112">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S112">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T112">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U112">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V112">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="W112">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="X112">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y112">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z112">
-        <v>2.75</v>
+        <v>1.67</v>
       </c>
       <c r="AA112">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="AB112">
-        <v>2.15</v>
+        <v>4.2</v>
       </c>
       <c r="AC112">
         <v>1.04</v>
@@ -24077,88 +24086,88 @@
         <v>10</v>
       </c>
       <c r="AE112">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AF112">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AG112">
-        <v>1.55</v>
+        <v>1.73</v>
       </c>
       <c r="AH112">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="AI112">
-        <v>1.44</v>
+        <v>1.73</v>
       </c>
       <c r="AJ112">
-        <v>2.63</v>
+        <v>2</v>
       </c>
       <c r="AK112">
-        <v>1.5</v>
+        <v>1.14</v>
       </c>
       <c r="AL112">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM112">
-        <v>1.47</v>
+        <v>2.15</v>
       </c>
       <c r="AN112">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AO112">
-        <v>1.5</v>
+        <v>1</v>
       </c>
       <c r="AP112">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AR112">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="AS112">
-        <v>1.25</v>
+        <v>0.95</v>
       </c>
       <c r="AT112">
-        <v>2.69</v>
+        <v>2.32</v>
       </c>
       <c r="AU112">
+        <v>8</v>
+      </c>
+      <c r="AV112">
         <v>6</v>
       </c>
-      <c r="AV112">
+      <c r="AW112">
+        <v>3</v>
+      </c>
+      <c r="AX112">
         <v>4</v>
       </c>
-      <c r="AW112">
-        <v>6</v>
-      </c>
-      <c r="AX112">
-        <v>7</v>
-      </c>
       <c r="AY112">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AZ112">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="BA112">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BB112">
         <v>5</v>
       </c>
       <c r="BC112">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD112">
-        <v>1.95</v>
+        <v>1.51</v>
       </c>
       <c r="BE112">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BF112">
-        <v>2.1</v>
+        <v>3.06</v>
       </c>
       <c r="BG112">
         <v>1.2</v>
@@ -24196,7 +24205,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7491603</v>
+        <v>7491599</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24205,22 +24214,22 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45619.375</v>
+        <v>45618.875</v>
       </c>
       <c r="F113">
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="H113" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="I113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J113">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -24238,124 +24247,124 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q113">
+        <v>2.2</v>
+      </c>
+      <c r="R113">
+        <v>2.5</v>
+      </c>
+      <c r="S113">
+        <v>4.5</v>
+      </c>
+      <c r="T113">
+        <v>1.29</v>
+      </c>
+      <c r="U113">
+        <v>3.5</v>
+      </c>
+      <c r="V113">
         <v>2.25</v>
       </c>
-      <c r="R113">
-        <v>2.3</v>
-      </c>
-      <c r="S113">
+      <c r="W113">
+        <v>1.57</v>
+      </c>
+      <c r="X113">
+        <v>5.5</v>
+      </c>
+      <c r="Y113">
+        <v>1.14</v>
+      </c>
+      <c r="Z113">
+        <v>1.6</v>
+      </c>
+      <c r="AA113">
+        <v>3.84</v>
+      </c>
+      <c r="AB113">
+        <v>4.08</v>
+      </c>
+      <c r="AC113">
+        <v>1.01</v>
+      </c>
+      <c r="AD113">
+        <v>13</v>
+      </c>
+      <c r="AE113">
+        <v>1.17</v>
+      </c>
+      <c r="AF113">
         <v>5</v>
       </c>
-      <c r="T113">
-        <v>1.33</v>
-      </c>
-      <c r="U113">
-        <v>3.25</v>
-      </c>
-      <c r="V113">
-        <v>2.63</v>
-      </c>
-      <c r="W113">
-        <v>1.44</v>
-      </c>
-      <c r="X113">
-        <v>6.5</v>
-      </c>
-      <c r="Y113">
-        <v>1.11</v>
-      </c>
-      <c r="Z113">
-        <v>1.67</v>
-      </c>
-      <c r="AA113">
-        <v>3.7</v>
-      </c>
-      <c r="AB113">
-        <v>4.2</v>
-      </c>
-      <c r="AC113">
-        <v>1.04</v>
-      </c>
-      <c r="AD113">
-        <v>10</v>
-      </c>
-      <c r="AE113">
-        <v>1.22</v>
-      </c>
-      <c r="AF113">
-        <v>4</v>
-      </c>
       <c r="AG113">
-        <v>1.73</v>
+        <v>1.48</v>
       </c>
       <c r="AH113">
-        <v>1.95</v>
+        <v>2.54</v>
       </c>
       <c r="AI113">
-        <v>1.73</v>
+        <v>1.53</v>
       </c>
       <c r="AJ113">
-        <v>2</v>
+        <v>2.38</v>
       </c>
       <c r="AK113">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="AL113">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AM113">
         <v>2.15</v>
       </c>
       <c r="AN113">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO113">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>1.86</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.86</v>
       </c>
       <c r="AR113">
-        <v>1.37</v>
+        <v>1.56</v>
       </c>
       <c r="AS113">
-        <v>0.95</v>
+        <v>1.16</v>
       </c>
       <c r="AT113">
-        <v>2.32</v>
+        <v>2.72</v>
       </c>
       <c r="AU113">
+        <v>7</v>
+      </c>
+      <c r="AV113">
+        <v>3</v>
+      </c>
+      <c r="AW113">
         <v>8</v>
-      </c>
-      <c r="AV113">
-        <v>6</v>
-      </c>
-      <c r="AW113">
-        <v>3</v>
       </c>
       <c r="AX113">
         <v>4</v>
       </c>
       <c r="AY113">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AZ113">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA113">
+        <v>2</v>
+      </c>
+      <c r="BB113">
         <v>4</v>
       </c>
-      <c r="BB113">
-        <v>5</v>
-      </c>
       <c r="BC113">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BD113">
         <v>1.51</v>
@@ -24367,34 +24376,34 @@
         <v>3.06</v>
       </c>
       <c r="BG113">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="BH113">
-        <v>4.2</v>
+        <v>4.65</v>
       </c>
       <c r="BI113">
-        <v>1.37</v>
+        <v>1.32</v>
       </c>
       <c r="BJ113">
-        <v>2.93</v>
+        <v>3.2</v>
       </c>
       <c r="BK113">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="BL113">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="BM113">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="BN113">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="BO113">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="BP113">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="114" spans="1:68">
@@ -24411,7 +24420,7 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45619.375</v>
+        <v>45618.875</v>
       </c>
       <c r="F114">
         <v>13</v>
@@ -24444,7 +24453,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24608,7 +24617,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7491600</v>
+        <v>7491602</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24623,70 +24632,70 @@
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H115" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L115">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M115">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N115">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O115" t="s">
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q115">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="R115">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S115">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T115">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U115">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V115">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W115">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X115">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y115">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z115">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="AA115">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB115">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="AC115">
         <v>1.04</v>
@@ -24695,118 +24704,118 @@
         <v>10</v>
       </c>
       <c r="AE115">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AF115">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AG115">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AH115">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AI115">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AJ115">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AK115">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AL115">
         <v>1.22</v>
       </c>
       <c r="AM115">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="AN115">
-        <v>3</v>
+        <v>0.83</v>
       </c>
       <c r="AO115">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP115">
-        <v>2.57</v>
+        <v>0.71</v>
       </c>
       <c r="AQ115">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AR115">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AS115">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AT115">
-        <v>3.39</v>
+        <v>2.69</v>
       </c>
       <c r="AU115">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV115">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW115">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX115">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY115">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ115">
         <v>15</v>
       </c>
       <c r="BA115">
+        <v>7</v>
+      </c>
+      <c r="BB115">
         <v>5</v>
       </c>
-      <c r="BB115">
-        <v>4</v>
-      </c>
       <c r="BC115">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD115">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
       <c r="BE115">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF115">
-        <v>2.78</v>
+        <v>2.1</v>
       </c>
       <c r="BG115">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH115">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="BI115">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="BJ115">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="BK115">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="BL115">
-        <v>2.29</v>
+        <v>2.19</v>
       </c>
       <c r="BM115">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="BN115">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="BO115">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="BP115">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -24814,7 +24823,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7491599</v>
+        <v>7491600</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24823,195 +24832,607 @@
         <v>69</v>
       </c>
       <c r="E116" s="2">
-        <v>45619.6875</v>
+        <v>45619.375</v>
       </c>
       <c r="F116">
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="H116" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="I116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L116">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M116">
         <v>2</v>
       </c>
       <c r="N116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="O116" t="s">
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q116">
-        <v>2.2</v>
+        <v>2.5</v>
       </c>
       <c r="R116">
+        <v>2.3</v>
+      </c>
+      <c r="S116">
+        <v>4</v>
+      </c>
+      <c r="T116">
+        <v>1.33</v>
+      </c>
+      <c r="U116">
+        <v>3.25</v>
+      </c>
+      <c r="V116">
         <v>2.5</v>
       </c>
-      <c r="S116">
-        <v>4.5</v>
-      </c>
-      <c r="T116">
-        <v>1.29</v>
-      </c>
-      <c r="U116">
+      <c r="W116">
+        <v>1.5</v>
+      </c>
+      <c r="X116">
+        <v>6</v>
+      </c>
+      <c r="Y116">
+        <v>1.13</v>
+      </c>
+      <c r="Z116">
+        <v>1.85</v>
+      </c>
+      <c r="AA116">
         <v>3.5</v>
       </c>
-      <c r="V116">
+      <c r="AB116">
+        <v>3.4</v>
+      </c>
+      <c r="AC116">
+        <v>1.04</v>
+      </c>
+      <c r="AD116">
+        <v>10</v>
+      </c>
+      <c r="AE116">
+        <v>1.2</v>
+      </c>
+      <c r="AF116">
+        <v>4.2</v>
+      </c>
+      <c r="AG116">
+        <v>1.61</v>
+      </c>
+      <c r="AH116">
+        <v>2.1</v>
+      </c>
+      <c r="AI116">
+        <v>1.57</v>
+      </c>
+      <c r="AJ116">
         <v>2.25</v>
       </c>
-      <c r="W116">
-        <v>1.57</v>
-      </c>
-      <c r="X116">
-        <v>5.5</v>
-      </c>
-      <c r="Y116">
-        <v>1.14</v>
-      </c>
-      <c r="Z116">
-        <v>1.6</v>
-      </c>
-      <c r="AA116">
-        <v>3.84</v>
-      </c>
-      <c r="AB116">
-        <v>4.08</v>
-      </c>
-      <c r="AC116">
-        <v>1.01</v>
-      </c>
-      <c r="AD116">
-        <v>13</v>
-      </c>
-      <c r="AE116">
-        <v>1.17</v>
-      </c>
-      <c r="AF116">
-        <v>5</v>
-      </c>
-      <c r="AG116">
-        <v>1.48</v>
-      </c>
-      <c r="AH116">
-        <v>2.54</v>
-      </c>
-      <c r="AI116">
-        <v>1.53</v>
-      </c>
-      <c r="AJ116">
-        <v>2.38</v>
-      </c>
       <c r="AK116">
-        <v>1.16</v>
+        <v>1.22</v>
       </c>
       <c r="AL116">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AM116">
-        <v>2.15</v>
+        <v>1.85</v>
       </c>
       <c r="AN116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AO116">
-        <v>0.83</v>
+        <v>1.4</v>
       </c>
       <c r="AP116">
-        <v>1.86</v>
+        <v>2.57</v>
       </c>
       <c r="AQ116">
-        <v>0.86</v>
+        <v>1.67</v>
       </c>
       <c r="AR116">
-        <v>1.56</v>
+        <v>1.64</v>
       </c>
       <c r="AS116">
-        <v>1.16</v>
+        <v>1.75</v>
       </c>
       <c r="AT116">
-        <v>2.72</v>
+        <v>3.39</v>
       </c>
       <c r="AU116">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV116">
+        <v>9</v>
+      </c>
+      <c r="AW116">
+        <v>11</v>
+      </c>
+      <c r="AX116">
         <v>3</v>
-      </c>
-      <c r="AW116">
-        <v>8</v>
-      </c>
-      <c r="AX116">
-        <v>4</v>
       </c>
       <c r="AY116">
         <v>21</v>
       </c>
       <c r="AZ116">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="BA116">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BB116">
         <v>4</v>
       </c>
       <c r="BC116">
+        <v>9</v>
+      </c>
+      <c r="BD116">
+        <v>1.59</v>
+      </c>
+      <c r="BE116">
+        <v>8.5</v>
+      </c>
+      <c r="BF116">
+        <v>2.78</v>
+      </c>
+      <c r="BG116">
+        <v>1.18</v>
+      </c>
+      <c r="BH116">
+        <v>4.45</v>
+      </c>
+      <c r="BI116">
+        <v>1.34</v>
+      </c>
+      <c r="BJ116">
+        <v>3.1</v>
+      </c>
+      <c r="BK116">
+        <v>1.58</v>
+      </c>
+      <c r="BL116">
+        <v>2.29</v>
+      </c>
+      <c r="BM116">
+        <v>2</v>
+      </c>
+      <c r="BN116">
+        <v>1.8</v>
+      </c>
+      <c r="BO116">
+        <v>2.47</v>
+      </c>
+      <c r="BP116">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="117" spans="1:68">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117">
+        <v>7491604</v>
+      </c>
+      <c r="C117" t="s">
+        <v>68</v>
+      </c>
+      <c r="D117" t="s">
+        <v>69</v>
+      </c>
+      <c r="E117" s="2">
+        <v>45620.39583333334</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117" t="s">
+        <v>80</v>
+      </c>
+      <c r="H117" t="s">
+        <v>86</v>
+      </c>
+      <c r="I117">
+        <v>3</v>
+      </c>
+      <c r="J117">
+        <v>1</v>
+      </c>
+      <c r="K117">
+        <v>4</v>
+      </c>
+      <c r="L117">
+        <v>3</v>
+      </c>
+      <c r="M117">
+        <v>2</v>
+      </c>
+      <c r="N117">
+        <v>5</v>
+      </c>
+      <c r="O117" t="s">
+        <v>172</v>
+      </c>
+      <c r="P117" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q117">
+        <v>2.63</v>
+      </c>
+      <c r="R117">
+        <v>2.3</v>
+      </c>
+      <c r="S117">
+        <v>3.75</v>
+      </c>
+      <c r="T117">
+        <v>1.33</v>
+      </c>
+      <c r="U117">
+        <v>3.25</v>
+      </c>
+      <c r="V117">
+        <v>2.5</v>
+      </c>
+      <c r="W117">
+        <v>1.5</v>
+      </c>
+      <c r="X117">
+        <v>6.5</v>
+      </c>
+      <c r="Y117">
+        <v>1.11</v>
+      </c>
+      <c r="Z117">
+        <v>2.03</v>
+      </c>
+      <c r="AA117">
+        <v>3.6</v>
+      </c>
+      <c r="AB117">
+        <v>3.2</v>
+      </c>
+      <c r="AC117">
+        <v>1.05</v>
+      </c>
+      <c r="AD117">
+        <v>9.5</v>
+      </c>
+      <c r="AE117">
+        <v>1.22</v>
+      </c>
+      <c r="AF117">
+        <v>4</v>
+      </c>
+      <c r="AG117">
+        <v>1.67</v>
+      </c>
+      <c r="AH117">
+        <v>2.1</v>
+      </c>
+      <c r="AI117">
+        <v>1.57</v>
+      </c>
+      <c r="AJ117">
+        <v>2.25</v>
+      </c>
+      <c r="AK117">
+        <v>1.33</v>
+      </c>
+      <c r="AL117">
+        <v>1.22</v>
+      </c>
+      <c r="AM117">
+        <v>1.72</v>
+      </c>
+      <c r="AN117">
+        <v>1.2</v>
+      </c>
+      <c r="AO117">
+        <v>0.33</v>
+      </c>
+      <c r="AP117">
+        <v>1.5</v>
+      </c>
+      <c r="AQ117">
+        <v>0.29</v>
+      </c>
+      <c r="AR117">
+        <v>1.79</v>
+      </c>
+      <c r="AS117">
+        <v>1.09</v>
+      </c>
+      <c r="AT117">
+        <v>2.88</v>
+      </c>
+      <c r="AU117">
+        <v>8</v>
+      </c>
+      <c r="AV117">
+        <v>7</v>
+      </c>
+      <c r="AW117">
+        <v>7</v>
+      </c>
+      <c r="AX117">
+        <v>2</v>
+      </c>
+      <c r="AY117">
+        <v>15</v>
+      </c>
+      <c r="AZ117">
+        <v>10</v>
+      </c>
+      <c r="BA117">
+        <v>7</v>
+      </c>
+      <c r="BB117">
         <v>6</v>
       </c>
-      <c r="BD116">
-        <v>1.51</v>
-      </c>
-      <c r="BE116">
-        <v>9</v>
-      </c>
-      <c r="BF116">
-        <v>3.06</v>
-      </c>
-      <c r="BG116">
+      <c r="BC117">
+        <v>13</v>
+      </c>
+      <c r="BD117">
+        <v>1.69</v>
+      </c>
+      <c r="BE117">
+        <v>8.5</v>
+      </c>
+      <c r="BF117">
+        <v>2.53</v>
+      </c>
+      <c r="BG117">
+        <v>1.18</v>
+      </c>
+      <c r="BH117">
+        <v>4.45</v>
+      </c>
+      <c r="BI117">
+        <v>1.34</v>
+      </c>
+      <c r="BJ117">
+        <v>3.1</v>
+      </c>
+      <c r="BK117">
+        <v>1.58</v>
+      </c>
+      <c r="BL117">
+        <v>2.29</v>
+      </c>
+      <c r="BM117">
+        <v>1.94</v>
+      </c>
+      <c r="BN117">
+        <v>1.81</v>
+      </c>
+      <c r="BO117">
+        <v>2.47</v>
+      </c>
+      <c r="BP117">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:68">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118">
+        <v>7491606</v>
+      </c>
+      <c r="C118" t="s">
+        <v>68</v>
+      </c>
+      <c r="D118" t="s">
+        <v>69</v>
+      </c>
+      <c r="E118" s="2">
+        <v>45620.39583333334</v>
+      </c>
+      <c r="F118">
+        <v>13</v>
+      </c>
+      <c r="G118" t="s">
+        <v>79</v>
+      </c>
+      <c r="H118" t="s">
+        <v>74</v>
+      </c>
+      <c r="I118">
+        <v>0</v>
+      </c>
+      <c r="J118">
+        <v>1</v>
+      </c>
+      <c r="K118">
+        <v>1</v>
+      </c>
+      <c r="L118">
+        <v>0</v>
+      </c>
+      <c r="M118">
+        <v>1</v>
+      </c>
+      <c r="N118">
+        <v>1</v>
+      </c>
+      <c r="O118" t="s">
+        <v>92</v>
+      </c>
+      <c r="P118" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q118">
+        <v>4</v>
+      </c>
+      <c r="R118">
+        <v>2.3</v>
+      </c>
+      <c r="S118">
+        <v>2.6</v>
+      </c>
+      <c r="T118">
+        <v>1.33</v>
+      </c>
+      <c r="U118">
+        <v>3.25</v>
+      </c>
+      <c r="V118">
+        <v>2.5</v>
+      </c>
+      <c r="W118">
+        <v>1.5</v>
+      </c>
+      <c r="X118">
+        <v>6.5</v>
+      </c>
+      <c r="Y118">
+        <v>1.11</v>
+      </c>
+      <c r="Z118">
+        <v>3.25</v>
+      </c>
+      <c r="AA118">
+        <v>3.65</v>
+      </c>
+      <c r="AB118">
+        <v>2.01</v>
+      </c>
+      <c r="AC118">
+        <v>1.04</v>
+      </c>
+      <c r="AD118">
+        <v>10</v>
+      </c>
+      <c r="AE118">
+        <v>1.22</v>
+      </c>
+      <c r="AF118">
+        <v>4</v>
+      </c>
+      <c r="AG118">
+        <v>1.65</v>
+      </c>
+      <c r="AH118">
+        <v>2.1</v>
+      </c>
+      <c r="AI118">
+        <v>1.62</v>
+      </c>
+      <c r="AJ118">
+        <v>2.2</v>
+      </c>
+      <c r="AK118">
+        <v>1.8</v>
+      </c>
+      <c r="AL118">
+        <v>1.22</v>
+      </c>
+      <c r="AM118">
+        <v>1.3</v>
+      </c>
+      <c r="AN118">
         <v>1.17</v>
       </c>
-      <c r="BH116">
+      <c r="AO118">
+        <v>2.17</v>
+      </c>
+      <c r="AP118">
+        <v>1</v>
+      </c>
+      <c r="AQ118">
+        <v>2.29</v>
+      </c>
+      <c r="AR118">
+        <v>1.21</v>
+      </c>
+      <c r="AS118">
+        <v>1.17</v>
+      </c>
+      <c r="AT118">
+        <v>2.38</v>
+      </c>
+      <c r="AU118">
+        <v>3</v>
+      </c>
+      <c r="AV118">
+        <v>4</v>
+      </c>
+      <c r="AW118">
+        <v>5</v>
+      </c>
+      <c r="AX118">
+        <v>2</v>
+      </c>
+      <c r="AY118">
+        <v>14</v>
+      </c>
+      <c r="AZ118">
+        <v>10</v>
+      </c>
+      <c r="BA118">
+        <v>7</v>
+      </c>
+      <c r="BB118">
+        <v>4</v>
+      </c>
+      <c r="BC118">
+        <v>11</v>
+      </c>
+      <c r="BD118">
+        <v>2.32</v>
+      </c>
+      <c r="BE118">
+        <v>8.5</v>
+      </c>
+      <c r="BF118">
+        <v>1.82</v>
+      </c>
+      <c r="BG118">
+        <v>1.17</v>
+      </c>
+      <c r="BH118">
         <v>4.65</v>
       </c>
-      <c r="BI116">
+      <c r="BI118">
         <v>1.32</v>
       </c>
-      <c r="BJ116">
+      <c r="BJ118">
         <v>3.2</v>
       </c>
-      <c r="BK116">
+      <c r="BK118">
         <v>1.55</v>
       </c>
-      <c r="BL116">
+      <c r="BL118">
         <v>2.36</v>
       </c>
-      <c r="BM116">
+      <c r="BM118">
         <v>1.89</v>
       </c>
-      <c r="BN116">
+      <c r="BN118">
         <v>1.85</v>
       </c>
-      <c r="BO116">
+      <c r="BO118">
         <v>2.39</v>
       </c>
-      <c r="BP116">
+      <c r="BP118">
         <v>1.54</v>
       </c>
     </row>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -526,10 +526,10 @@
     <t>['29', '30']</t>
   </si>
   <si>
-    <t>['20', '83']</t>
+    <t>['68']</t>
   </si>
   <si>
-    <t>['68']</t>
+    <t>['20', '83']</t>
   </si>
   <si>
     <t>['17', '41', '45+2']</t>
@@ -751,10 +751,10 @@
     <t>['58', '65']</t>
   </si>
   <si>
-    <t>['46', '73', '79']</t>
+    <t>['62', '72']</t>
   </si>
   <si>
-    <t>['62', '72']</t>
+    <t>['46', '73', '79']</t>
   </si>
   <si>
     <t>['45', '90+6']</t>
@@ -24617,7 +24617,7 @@
         <v>114</v>
       </c>
       <c r="B115">
-        <v>7491602</v>
+        <v>7491600</v>
       </c>
       <c r="C115" t="s">
         <v>68</v>
@@ -24626,34 +24626,34 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45619.375</v>
+        <v>45618.875</v>
       </c>
       <c r="F115">
         <v>13</v>
       </c>
       <c r="G115" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H115" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="I115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J115">
         <v>0</v>
       </c>
       <c r="K115">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L115">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M115">
+        <v>2</v>
+      </c>
+      <c r="N115">
         <v>3</v>
-      </c>
-      <c r="N115">
-        <v>5</v>
       </c>
       <c r="O115" t="s">
         <v>170</v>
@@ -24662,40 +24662,40 @@
         <v>245</v>
       </c>
       <c r="Q115">
-        <v>3.1</v>
+        <v>2.5</v>
       </c>
       <c r="R115">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="S115">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T115">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U115">
+        <v>3.25</v>
+      </c>
+      <c r="V115">
+        <v>2.5</v>
+      </c>
+      <c r="W115">
+        <v>1.5</v>
+      </c>
+      <c r="X115">
+        <v>6</v>
+      </c>
+      <c r="Y115">
+        <v>1.13</v>
+      </c>
+      <c r="Z115">
+        <v>1.85</v>
+      </c>
+      <c r="AA115">
         <v>3.5</v>
       </c>
-      <c r="V115">
-        <v>2.38</v>
-      </c>
-      <c r="W115">
-        <v>1.53</v>
-      </c>
-      <c r="X115">
-        <v>5.5</v>
-      </c>
-      <c r="Y115">
-        <v>1.14</v>
-      </c>
-      <c r="Z115">
-        <v>2.75</v>
-      </c>
-      <c r="AA115">
+      <c r="AB115">
         <v>3.4</v>
-      </c>
-      <c r="AB115">
-        <v>2.15</v>
       </c>
       <c r="AC115">
         <v>1.04</v>
@@ -24704,118 +24704,118 @@
         <v>10</v>
       </c>
       <c r="AE115">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AF115">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="AG115">
-        <v>1.55</v>
+        <v>1.61</v>
       </c>
       <c r="AH115">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AI115">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AJ115">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AK115">
-        <v>1.5</v>
+        <v>1.22</v>
       </c>
       <c r="AL115">
         <v>1.22</v>
       </c>
       <c r="AM115">
-        <v>1.47</v>
+        <v>1.85</v>
       </c>
       <c r="AN115">
-        <v>0.83</v>
+        <v>3</v>
       </c>
       <c r="AO115">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AP115">
-        <v>0.71</v>
+        <v>2.57</v>
       </c>
       <c r="AQ115">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="AR115">
-        <v>1.44</v>
+        <v>1.64</v>
       </c>
       <c r="AS115">
-        <v>1.25</v>
+        <v>1.75</v>
       </c>
       <c r="AT115">
-        <v>2.69</v>
+        <v>3.39</v>
       </c>
       <c r="AU115">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AV115">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AW115">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AX115">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AY115">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AZ115">
         <v>15</v>
       </c>
       <c r="BA115">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BB115">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC115">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="BD115">
-        <v>1.95</v>
+        <v>1.59</v>
       </c>
       <c r="BE115">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="BF115">
-        <v>2.1</v>
+        <v>2.78</v>
       </c>
       <c r="BG115">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="BH115">
-        <v>4.2</v>
+        <v>4.45</v>
       </c>
       <c r="BI115">
-        <v>1.37</v>
+        <v>1.34</v>
       </c>
       <c r="BJ115">
-        <v>2.93</v>
+        <v>3.1</v>
       </c>
       <c r="BK115">
-        <v>1.63</v>
+        <v>1.58</v>
       </c>
       <c r="BL115">
-        <v>2.19</v>
+        <v>2.29</v>
       </c>
       <c r="BM115">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="BN115">
-        <v>1.74</v>
+        <v>1.8</v>
       </c>
       <c r="BO115">
-        <v>2.6</v>
+        <v>2.47</v>
       </c>
       <c r="BP115">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="116" spans="1:68">
@@ -24823,7 +24823,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7491600</v>
+        <v>7491602</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24838,28 +24838,28 @@
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H116" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="I116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M116">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N116">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O116" t="s">
         <v>171</v>
@@ -24868,40 +24868,40 @@
         <v>246</v>
       </c>
       <c r="Q116">
-        <v>2.5</v>
+        <v>3.1</v>
       </c>
       <c r="R116">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S116">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T116">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U116">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V116">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W116">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X116">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y116">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z116">
-        <v>1.85</v>
+        <v>2.75</v>
       </c>
       <c r="AA116">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="AB116">
-        <v>3.4</v>
+        <v>2.15</v>
       </c>
       <c r="AC116">
         <v>1.04</v>
@@ -24910,118 +24910,118 @@
         <v>10</v>
       </c>
       <c r="AE116">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="AF116">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AG116">
-        <v>1.61</v>
+        <v>1.55</v>
       </c>
       <c r="AH116">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AI116">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AJ116">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AK116">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="AL116">
         <v>1.22</v>
       </c>
       <c r="AM116">
-        <v>1.85</v>
+        <v>1.47</v>
       </c>
       <c r="AN116">
-        <v>3</v>
+        <v>0.83</v>
       </c>
       <c r="AO116">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="AP116">
-        <v>2.57</v>
+        <v>0.71</v>
       </c>
       <c r="AQ116">
-        <v>1.67</v>
+        <v>1.71</v>
       </c>
       <c r="AR116">
-        <v>1.64</v>
+        <v>1.44</v>
       </c>
       <c r="AS116">
-        <v>1.75</v>
+        <v>1.25</v>
       </c>
       <c r="AT116">
-        <v>3.39</v>
+        <v>2.69</v>
       </c>
       <c r="AU116">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AV116">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AW116">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AX116">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY116">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AZ116">
         <v>15</v>
       </c>
       <c r="BA116">
+        <v>7</v>
+      </c>
+      <c r="BB116">
         <v>5</v>
       </c>
-      <c r="BB116">
-        <v>4</v>
-      </c>
       <c r="BC116">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD116">
-        <v>1.59</v>
+        <v>1.95</v>
       </c>
       <c r="BE116">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="BF116">
-        <v>2.78</v>
+        <v>2.1</v>
       </c>
       <c r="BG116">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="BH116">
-        <v>4.45</v>
+        <v>4.2</v>
       </c>
       <c r="BI116">
-        <v>1.34</v>
+        <v>1.37</v>
       </c>
       <c r="BJ116">
-        <v>3.1</v>
+        <v>2.93</v>
       </c>
       <c r="BK116">
-        <v>1.58</v>
+        <v>1.63</v>
       </c>
       <c r="BL116">
-        <v>2.29</v>
+        <v>2.19</v>
       </c>
       <c r="BM116">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="BN116">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="BO116">
-        <v>2.47</v>
+        <v>2.6</v>
       </c>
       <c r="BP116">
-        <v>1.5</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -25038,7 +25038,7 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45620.39583333334</v>
+        <v>45619.875</v>
       </c>
       <c r="F117">
         <v>13</v>
@@ -25244,7 +25244,7 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45620.39583333334</v>
+        <v>45619.875</v>
       </c>
       <c r="F118">
         <v>13</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -520,16 +520,16 @@
     <t>['6', '55', '90+6']</t>
   </si>
   <si>
-    <t>['6', '52']</t>
+    <t>['20', '83']</t>
   </si>
   <si>
-    <t>['29', '30']</t>
+    <t>['6', '52']</t>
   </si>
   <si>
     <t>['68']</t>
   </si>
   <si>
-    <t>['20', '83']</t>
+    <t>['29', '30']</t>
   </si>
   <si>
     <t>['17', '41', '45+2']</t>
@@ -688,10 +688,10 @@
     <t>['44', '81', '89']</t>
   </si>
   <si>
-    <t>['63']</t>
+    <t>['13', '18', '33', '88']</t>
   </si>
   <si>
-    <t>['13', '18', '33', '88']</t>
+    <t>['63']</t>
   </si>
   <si>
     <t>['76', '80']</t>
@@ -742,10 +742,10 @@
     <t>['8', '51']</t>
   </si>
   <si>
-    <t>['38', '59']</t>
+    <t>['46', '73', '79']</t>
   </si>
   <si>
-    <t>['57', '74']</t>
+    <t>['38', '59']</t>
   </si>
   <si>
     <t>['58', '65']</t>
@@ -754,7 +754,7 @@
     <t>['62', '72']</t>
   </si>
   <si>
-    <t>['46', '73', '79']</t>
+    <t>['57', '74']</t>
   </si>
   <si>
     <t>['45', '90+6']</t>
@@ -17613,7 +17613,7 @@
         <v>80</v>
       </c>
       <c r="B81">
-        <v>7491563</v>
+        <v>7491565</v>
       </c>
       <c r="C81" t="s">
         <v>68</v>
@@ -17625,136 +17625,136 @@
         <v>45585.35416666666</v>
       </c>
       <c r="F81">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="G81" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="H81" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="I81">
+        <v>0</v>
+      </c>
+      <c r="J81">
         <v>3</v>
-      </c>
-      <c r="J81">
-        <v>0</v>
       </c>
       <c r="K81">
         <v>3</v>
       </c>
       <c r="L81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M81">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N81">
         <v>4</v>
       </c>
       <c r="O81" t="s">
-        <v>148</v>
+        <v>92</v>
       </c>
       <c r="P81" t="s">
         <v>224</v>
       </c>
       <c r="Q81">
-        <v>2.1</v>
+        <v>2.38</v>
       </c>
       <c r="R81">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S81">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="T81">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U81">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="V81">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="W81">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="X81">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y81">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="Z81">
-        <v>1.62</v>
+        <v>1.83</v>
       </c>
       <c r="AA81">
-        <v>4.54</v>
+        <v>4.04</v>
       </c>
       <c r="AB81">
-        <v>4.64</v>
+        <v>3.86</v>
       </c>
       <c r="AC81">
         <v>1.01</v>
       </c>
       <c r="AD81">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AE81">
+        <v>1.18</v>
+      </c>
+      <c r="AF81">
+        <v>4.75</v>
+      </c>
+      <c r="AG81">
+        <v>1.52</v>
+      </c>
+      <c r="AH81">
+        <v>2.43</v>
+      </c>
+      <c r="AI81">
+        <v>1.53</v>
+      </c>
+      <c r="AJ81">
+        <v>2.38</v>
+      </c>
+      <c r="AK81">
+        <v>1.22</v>
+      </c>
+      <c r="AL81">
+        <v>1.18</v>
+      </c>
+      <c r="AM81">
+        <v>1.9</v>
+      </c>
+      <c r="AN81">
+        <v>1.25</v>
+      </c>
+      <c r="AO81">
+        <v>1</v>
+      </c>
+      <c r="AP81">
+        <v>0.71</v>
+      </c>
+      <c r="AQ81">
         <v>1.14</v>
       </c>
-      <c r="AF81">
-        <v>5.5</v>
-      </c>
-      <c r="AG81">
+      <c r="AR81">
         <v>1.41</v>
-      </c>
-      <c r="AH81">
-        <v>2.78</v>
-      </c>
-      <c r="AI81">
-        <v>1.5</v>
-      </c>
-      <c r="AJ81">
-        <v>2.5</v>
-      </c>
-      <c r="AK81">
-        <v>1.15</v>
-      </c>
-      <c r="AL81">
-        <v>1.16</v>
-      </c>
-      <c r="AM81">
-        <v>2.25</v>
-      </c>
-      <c r="AN81">
-        <v>2</v>
-      </c>
-      <c r="AO81">
-        <v>3</v>
-      </c>
-      <c r="AP81">
-        <v>1.86</v>
-      </c>
-      <c r="AQ81">
-        <v>2.29</v>
-      </c>
-      <c r="AR81">
-        <v>1.62</v>
       </c>
       <c r="AS81">
         <v>1.22</v>
       </c>
       <c r="AT81">
-        <v>2.84</v>
+        <v>2.63</v>
       </c>
       <c r="AU81">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV81">
         <v>3</v>
       </c>
       <c r="AW81">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX81">
         <v>5</v>
@@ -17766,52 +17766,52 @@
         <v>8</v>
       </c>
       <c r="BA81">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB81">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="BC81">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BD81">
-        <v>1.37</v>
+        <v>1.41</v>
       </c>
       <c r="BE81">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="BF81">
-        <v>3.69</v>
+        <v>3.49</v>
       </c>
       <c r="BG81">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="BH81">
-        <v>5.45</v>
+        <v>4.7</v>
       </c>
       <c r="BI81">
-        <v>1.25</v>
+        <v>1.31</v>
       </c>
       <c r="BJ81">
-        <v>3.72</v>
+        <v>3.25</v>
       </c>
       <c r="BK81">
-        <v>1.43</v>
+        <v>1.91</v>
       </c>
       <c r="BL81">
-        <v>2.68</v>
+        <v>2.39</v>
       </c>
       <c r="BM81">
+        <v>2</v>
+      </c>
+      <c r="BN81">
         <v>1.8</v>
       </c>
-      <c r="BN81">
-        <v>2</v>
-      </c>
       <c r="BO81">
-        <v>2.12</v>
+        <v>2.37</v>
       </c>
       <c r="BP81">
-        <v>1.67</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="82" spans="1:68">
@@ -17819,7 +17819,7 @@
         <v>81</v>
       </c>
       <c r="B82">
-        <v>7491565</v>
+        <v>7491563</v>
       </c>
       <c r="C82" t="s">
         <v>68</v>
@@ -17831,136 +17831,136 @@
         <v>45585.35416666666</v>
       </c>
       <c r="F82">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G82" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H82" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="I82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J82">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K82">
         <v>3</v>
       </c>
       <c r="L82">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M82">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N82">
         <v>4</v>
       </c>
       <c r="O82" t="s">
-        <v>92</v>
+        <v>148</v>
       </c>
       <c r="P82" t="s">
         <v>225</v>
       </c>
       <c r="Q82">
-        <v>2.38</v>
+        <v>2.1</v>
       </c>
       <c r="R82">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S82">
+        <v>4.5</v>
+      </c>
+      <c r="T82">
+        <v>1.22</v>
+      </c>
+      <c r="U82">
         <v>4</v>
       </c>
-      <c r="T82">
-        <v>1.29</v>
-      </c>
-      <c r="U82">
-        <v>3.5</v>
-      </c>
       <c r="V82">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="W82">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="X82">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="Y82">
-        <v>1.14</v>
+        <v>1.18</v>
       </c>
       <c r="Z82">
-        <v>1.83</v>
+        <v>1.62</v>
       </c>
       <c r="AA82">
-        <v>4.04</v>
+        <v>4.54</v>
       </c>
       <c r="AB82">
-        <v>3.86</v>
+        <v>4.64</v>
       </c>
       <c r="AC82">
         <v>1.01</v>
       </c>
       <c r="AD82">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AE82">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="AF82">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AG82">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
       <c r="AH82">
-        <v>2.43</v>
+        <v>2.78</v>
       </c>
       <c r="AI82">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AJ82">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="AK82">
-        <v>1.22</v>
+        <v>1.15</v>
       </c>
       <c r="AL82">
-        <v>1.18</v>
+        <v>1.16</v>
       </c>
       <c r="AM82">
-        <v>1.9</v>
+        <v>2.25</v>
       </c>
       <c r="AN82">
-        <v>1.25</v>
+        <v>2</v>
       </c>
       <c r="AO82">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AP82">
-        <v>0.71</v>
+        <v>1.86</v>
       </c>
       <c r="AQ82">
-        <v>1.14</v>
+        <v>2.29</v>
       </c>
       <c r="AR82">
-        <v>1.41</v>
+        <v>1.62</v>
       </c>
       <c r="AS82">
         <v>1.22</v>
       </c>
       <c r="AT82">
-        <v>2.63</v>
+        <v>2.84</v>
       </c>
       <c r="AU82">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV82">
         <v>3</v>
       </c>
       <c r="AW82">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX82">
         <v>5</v>
@@ -17972,52 +17972,52 @@
         <v>8</v>
       </c>
       <c r="BA82">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB82">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BC82">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="BD82">
-        <v>1.41</v>
+        <v>1.37</v>
       </c>
       <c r="BE82">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="BF82">
-        <v>3.49</v>
+        <v>3.69</v>
       </c>
       <c r="BG82">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="BH82">
-        <v>4.7</v>
+        <v>5.45</v>
       </c>
       <c r="BI82">
-        <v>1.31</v>
+        <v>1.25</v>
       </c>
       <c r="BJ82">
-        <v>3.25</v>
+        <v>3.72</v>
       </c>
       <c r="BK82">
-        <v>1.91</v>
+        <v>1.43</v>
       </c>
       <c r="BL82">
-        <v>2.39</v>
+        <v>2.68</v>
       </c>
       <c r="BM82">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="BN82">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="BO82">
-        <v>2.37</v>
+        <v>2.12</v>
       </c>
       <c r="BP82">
-        <v>1.55</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="83" spans="1:68">
@@ -21321,7 +21321,7 @@
         <v>98</v>
       </c>
       <c r="B99">
-        <v>7491580</v>
+        <v>7491582</v>
       </c>
       <c r="C99" t="s">
         <v>68</v>
@@ -21333,91 +21333,91 @@
         <v>45599.39583333334</v>
       </c>
       <c r="F99">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="G99" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H99" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="I99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99">
         <v>0</v>
       </c>
       <c r="K99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N99">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O99" t="s">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>92</v>
       </c>
       <c r="Q99">
-        <v>1.95</v>
+        <v>2.15</v>
       </c>
       <c r="R99">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="S99">
+        <v>4.33</v>
+      </c>
+      <c r="T99">
+        <v>1.28</v>
+      </c>
+      <c r="U99">
+        <v>3.4</v>
+      </c>
+      <c r="V99">
+        <v>2.26</v>
+      </c>
+      <c r="W99">
+        <v>1.58</v>
+      </c>
+      <c r="X99">
+        <v>5</v>
+      </c>
+      <c r="Y99">
+        <v>1.14</v>
+      </c>
+      <c r="Z99">
+        <v>1.71</v>
+      </c>
+      <c r="AA99">
+        <v>4.2</v>
+      </c>
+      <c r="AB99">
+        <v>4.33</v>
+      </c>
+      <c r="AC99">
+        <v>1.04</v>
+      </c>
+      <c r="AD99">
+        <v>10</v>
+      </c>
+      <c r="AE99">
+        <v>1.16</v>
+      </c>
+      <c r="AF99">
         <v>4.75</v>
       </c>
-      <c r="T99">
-        <v>1.23</v>
-      </c>
-      <c r="U99">
-        <v>3.75</v>
-      </c>
-      <c r="V99">
-        <v>2.11</v>
-      </c>
-      <c r="W99">
-        <v>1.67</v>
-      </c>
-      <c r="X99">
-        <v>4.5</v>
-      </c>
-      <c r="Y99">
-        <v>1.17</v>
-      </c>
-      <c r="Z99">
-        <v>1.52</v>
-      </c>
-      <c r="AA99">
-        <v>4.8</v>
-      </c>
-      <c r="AB99">
-        <v>5.25</v>
-      </c>
-      <c r="AC99">
-        <v>1.01</v>
-      </c>
-      <c r="AD99">
-        <v>17</v>
-      </c>
-      <c r="AE99">
-        <v>1.13</v>
-      </c>
-      <c r="AF99">
-        <v>5.75</v>
-      </c>
       <c r="AG99">
-        <v>1.47</v>
+        <v>1.54</v>
       </c>
       <c r="AH99">
-        <v>2.57</v>
+        <v>2.38</v>
       </c>
       <c r="AI99">
         <v>1.55</v>
@@ -21426,100 +21426,100 @@
         <v>2.35</v>
       </c>
       <c r="AK99">
-        <v>1.11</v>
+        <v>1.16</v>
       </c>
       <c r="AL99">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="AM99">
+        <v>2.15</v>
+      </c>
+      <c r="AN99">
         <v>2.5</v>
       </c>
-      <c r="AN99">
-        <v>2.2</v>
-      </c>
       <c r="AO99">
-        <v>1.4</v>
+        <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>1.86</v>
+        <v>2.33</v>
       </c>
       <c r="AQ99">
-        <v>1.14</v>
+        <v>0.29</v>
       </c>
       <c r="AR99">
-        <v>1.62</v>
+        <v>1.63</v>
       </c>
       <c r="AS99">
-        <v>1.22</v>
+        <v>1.03</v>
       </c>
       <c r="AT99">
-        <v>2.84</v>
+        <v>2.66</v>
       </c>
       <c r="AU99">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AV99">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="AW99">
+        <v>3</v>
+      </c>
+      <c r="AX99">
+        <v>7</v>
+      </c>
+      <c r="AY99">
+        <v>10</v>
+      </c>
+      <c r="AZ99">
+        <v>18</v>
+      </c>
+      <c r="BA99">
+        <v>8</v>
+      </c>
+      <c r="BB99">
         <v>6</v>
       </c>
-      <c r="AX99">
-        <v>4</v>
-      </c>
-      <c r="AY99">
-        <v>13</v>
-      </c>
-      <c r="AZ99">
-        <v>19</v>
-      </c>
-      <c r="BA99">
-        <v>5</v>
-      </c>
-      <c r="BB99">
-        <v>11</v>
-      </c>
       <c r="BC99">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BD99">
-        <v>1.28</v>
+        <v>1.34</v>
       </c>
       <c r="BE99">
-        <v>7.6</v>
+        <v>8.4</v>
       </c>
       <c r="BF99">
-        <v>4.65</v>
+        <v>3.85</v>
       </c>
       <c r="BG99">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="BH99">
-        <v>5.8</v>
+        <v>4.45</v>
       </c>
       <c r="BI99">
-        <v>1.18</v>
+        <v>1.27</v>
       </c>
       <c r="BJ99">
-        <v>3.72</v>
+        <v>3.04</v>
       </c>
       <c r="BK99">
-        <v>1.35</v>
+        <v>1.52</v>
       </c>
       <c r="BL99">
-        <v>2.65</v>
+        <v>2.3</v>
       </c>
       <c r="BM99">
-        <v>1.65</v>
+        <v>1.91</v>
       </c>
       <c r="BN99">
-        <v>2.05</v>
+        <v>1.83</v>
       </c>
       <c r="BO99">
-        <v>2.09</v>
+        <v>2.42</v>
       </c>
       <c r="BP99">
-        <v>1.69</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="100" spans="1:68">
@@ -21527,7 +21527,7 @@
         <v>99</v>
       </c>
       <c r="B100">
-        <v>7491582</v>
+        <v>7491580</v>
       </c>
       <c r="C100" t="s">
         <v>68</v>
@@ -21539,91 +21539,91 @@
         <v>45599.39583333334</v>
       </c>
       <c r="F100">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="G100" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H100" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100">
         <v>0</v>
       </c>
       <c r="K100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O100" t="s">
-        <v>92</v>
+        <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>92</v>
+        <v>225</v>
       </c>
       <c r="Q100">
-        <v>2.15</v>
+        <v>1.95</v>
       </c>
       <c r="R100">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="S100">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="T100">
-        <v>1.28</v>
+        <v>1.23</v>
       </c>
       <c r="U100">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="V100">
-        <v>2.26</v>
+        <v>2.11</v>
       </c>
       <c r="W100">
-        <v>1.58</v>
+        <v>1.67</v>
       </c>
       <c r="X100">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Y100">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="Z100">
-        <v>1.71</v>
+        <v>1.52</v>
       </c>
       <c r="AA100">
-        <v>4.2</v>
+        <v>4.8</v>
       </c>
       <c r="AB100">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="AC100">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD100">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AE100">
-        <v>1.16</v>
+        <v>1.13</v>
       </c>
       <c r="AF100">
-        <v>4.75</v>
+        <v>5.75</v>
       </c>
       <c r="AG100">
-        <v>1.54</v>
+        <v>1.47</v>
       </c>
       <c r="AH100">
-        <v>2.38</v>
+        <v>2.57</v>
       </c>
       <c r="AI100">
         <v>1.55</v>
@@ -21632,100 +21632,100 @@
         <v>2.35</v>
       </c>
       <c r="AK100">
-        <v>1.16</v>
+        <v>1.11</v>
       </c>
       <c r="AL100">
+        <v>1.15</v>
+      </c>
+      <c r="AM100">
+        <v>2.5</v>
+      </c>
+      <c r="AN100">
+        <v>2.2</v>
+      </c>
+      <c r="AO100">
+        <v>1.4</v>
+      </c>
+      <c r="AP100">
+        <v>1.86</v>
+      </c>
+      <c r="AQ100">
+        <v>1.14</v>
+      </c>
+      <c r="AR100">
+        <v>1.62</v>
+      </c>
+      <c r="AS100">
+        <v>1.22</v>
+      </c>
+      <c r="AT100">
+        <v>2.84</v>
+      </c>
+      <c r="AU100">
+        <v>5</v>
+      </c>
+      <c r="AV100">
+        <v>12</v>
+      </c>
+      <c r="AW100">
+        <v>6</v>
+      </c>
+      <c r="AX100">
+        <v>4</v>
+      </c>
+      <c r="AY100">
+        <v>13</v>
+      </c>
+      <c r="AZ100">
+        <v>19</v>
+      </c>
+      <c r="BA100">
+        <v>5</v>
+      </c>
+      <c r="BB100">
+        <v>11</v>
+      </c>
+      <c r="BC100">
+        <v>16</v>
+      </c>
+      <c r="BD100">
+        <v>1.28</v>
+      </c>
+      <c r="BE100">
+        <v>7.6</v>
+      </c>
+      <c r="BF100">
+        <v>4.65</v>
+      </c>
+      <c r="BG100">
+        <v>1.13</v>
+      </c>
+      <c r="BH100">
+        <v>5.8</v>
+      </c>
+      <c r="BI100">
         <v>1.18</v>
       </c>
-      <c r="AM100">
-        <v>2.15</v>
-      </c>
-      <c r="AN100">
-        <v>2.5</v>
-      </c>
-      <c r="AO100">
-        <v>0.2</v>
-      </c>
-      <c r="AP100">
-        <v>2.33</v>
-      </c>
-      <c r="AQ100">
-        <v>0.29</v>
-      </c>
-      <c r="AR100">
-        <v>1.63</v>
-      </c>
-      <c r="AS100">
-        <v>1.03</v>
-      </c>
-      <c r="AT100">
-        <v>2.66</v>
-      </c>
-      <c r="AU100">
-        <v>3</v>
-      </c>
-      <c r="AV100">
-        <v>4</v>
-      </c>
-      <c r="AW100">
-        <v>3</v>
-      </c>
-      <c r="AX100">
-        <v>7</v>
-      </c>
-      <c r="AY100">
-        <v>10</v>
-      </c>
-      <c r="AZ100">
-        <v>18</v>
-      </c>
-      <c r="BA100">
-        <v>8</v>
-      </c>
-      <c r="BB100">
-        <v>6</v>
-      </c>
-      <c r="BC100">
-        <v>14</v>
-      </c>
-      <c r="BD100">
-        <v>1.34</v>
-      </c>
-      <c r="BE100">
-        <v>8.4</v>
-      </c>
-      <c r="BF100">
-        <v>3.85</v>
-      </c>
-      <c r="BG100">
-        <v>1.12</v>
-      </c>
-      <c r="BH100">
-        <v>4.45</v>
-      </c>
-      <c r="BI100">
-        <v>1.27</v>
-      </c>
       <c r="BJ100">
-        <v>3.04</v>
+        <v>3.72</v>
       </c>
       <c r="BK100">
-        <v>1.52</v>
+        <v>1.35</v>
       </c>
       <c r="BL100">
-        <v>2.3</v>
+        <v>2.65</v>
       </c>
       <c r="BM100">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="BN100">
-        <v>1.83</v>
+        <v>2.05</v>
       </c>
       <c r="BO100">
-        <v>2.42</v>
+        <v>2.09</v>
       </c>
       <c r="BP100">
-        <v>1.47</v>
+        <v>1.69</v>
       </c>
     </row>
     <row r="101" spans="1:68">
@@ -21733,7 +21733,7 @@
         <v>100</v>
       </c>
       <c r="B101">
-        <v>7491595</v>
+        <v>7491597</v>
       </c>
       <c r="C101" t="s">
         <v>68</v>
@@ -21748,190 +21748,190 @@
         <v>0</v>
       </c>
       <c r="G101" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H101" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101">
         <v>0</v>
       </c>
       <c r="K101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L101">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="O101" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>92</v>
+        <v>237</v>
       </c>
       <c r="Q101">
-        <v>2.85</v>
+        <v>3.7</v>
       </c>
       <c r="R101">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S101">
-        <v>3.3</v>
+        <v>2.45</v>
       </c>
       <c r="T101">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U101">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="V101">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="W101">
+        <v>1.55</v>
+      </c>
+      <c r="X101">
+        <v>4.9</v>
+      </c>
+      <c r="Y101">
+        <v>1.14</v>
+      </c>
+      <c r="Z101">
+        <v>6.64</v>
+      </c>
+      <c r="AA101">
+        <v>8.43</v>
+      </c>
+      <c r="AB101">
+        <v>1.18</v>
+      </c>
+      <c r="AC101">
+        <v>1.04</v>
+      </c>
+      <c r="AD101">
+        <v>10</v>
+      </c>
+      <c r="AE101">
+        <v>1.2</v>
+      </c>
+      <c r="AF101">
+        <v>4.5</v>
+      </c>
+      <c r="AG101">
+        <v>1.53</v>
+      </c>
+      <c r="AH101">
+        <v>2.35</v>
+      </c>
+      <c r="AI101">
         <v>1.48</v>
       </c>
-      <c r="X101">
-        <v>5.3</v>
-      </c>
-      <c r="Y101">
-        <v>1.12</v>
-      </c>
-      <c r="Z101">
-        <v>3.19</v>
-      </c>
-      <c r="AA101">
-        <v>3.01</v>
-      </c>
-      <c r="AB101">
-        <v>2.16</v>
-      </c>
-      <c r="AC101">
-        <v>1.05</v>
-      </c>
-      <c r="AD101">
-        <v>9.5</v>
-      </c>
-      <c r="AE101">
+      <c r="AJ101">
+        <v>2.4</v>
+      </c>
+      <c r="AK101">
+        <v>1.77</v>
+      </c>
+      <c r="AL101">
         <v>1.22</v>
       </c>
-      <c r="AF101">
-        <v>4.2</v>
-      </c>
-      <c r="AG101">
-        <v>1.62</v>
-      </c>
-      <c r="AH101">
-        <v>2.15</v>
-      </c>
-      <c r="AI101">
-        <v>1.5</v>
-      </c>
-      <c r="AJ101">
-        <v>2.35</v>
-      </c>
-      <c r="AK101">
+      <c r="AM101">
+        <v>1.3</v>
+      </c>
+      <c r="AN101">
         <v>1.4</v>
       </c>
-      <c r="AL101">
-        <v>1.25</v>
-      </c>
-      <c r="AM101">
-        <v>1.57</v>
-      </c>
-      <c r="AN101">
-        <v>1.8</v>
-      </c>
       <c r="AO101">
-        <v>1.67</v>
+        <v>1.4</v>
       </c>
       <c r="AP101">
         <v>1.67</v>
       </c>
       <c r="AQ101">
-        <v>1.57</v>
+        <v>1.17</v>
       </c>
       <c r="AR101">
-        <v>1.42</v>
+        <v>1.49</v>
       </c>
       <c r="AS101">
+        <v>1.31</v>
+      </c>
+      <c r="AT101">
+        <v>2.8</v>
+      </c>
+      <c r="AU101">
+        <v>5</v>
+      </c>
+      <c r="AV101">
+        <v>8</v>
+      </c>
+      <c r="AW101">
+        <v>8</v>
+      </c>
+      <c r="AX101">
+        <v>9</v>
+      </c>
+      <c r="AY101">
+        <v>18</v>
+      </c>
+      <c r="AZ101">
+        <v>25</v>
+      </c>
+      <c r="BA101">
+        <v>3</v>
+      </c>
+      <c r="BB101">
+        <v>7</v>
+      </c>
+      <c r="BC101">
+        <v>10</v>
+      </c>
+      <c r="BD101">
+        <v>2.43</v>
+      </c>
+      <c r="BE101">
+        <v>8.5</v>
+      </c>
+      <c r="BF101">
+        <v>1.75</v>
+      </c>
+      <c r="BG101">
+        <v>1.2</v>
+      </c>
+      <c r="BH101">
+        <v>4.2</v>
+      </c>
+      <c r="BI101">
         <v>1.37</v>
       </c>
-      <c r="AT101">
-        <v>2.79</v>
-      </c>
-      <c r="AU101">
-        <v>6</v>
-      </c>
-      <c r="AV101">
-        <v>3</v>
-      </c>
-      <c r="AW101">
-        <v>7</v>
-      </c>
-      <c r="AX101">
-        <v>6</v>
-      </c>
-      <c r="AY101">
-        <v>15</v>
-      </c>
-      <c r="AZ101">
-        <v>14</v>
-      </c>
-      <c r="BA101">
-        <v>12</v>
-      </c>
-      <c r="BB101">
-        <v>1</v>
-      </c>
-      <c r="BC101">
-        <v>13</v>
-      </c>
-      <c r="BD101">
-        <v>0</v>
-      </c>
-      <c r="BE101">
-        <v>0</v>
-      </c>
-      <c r="BF101">
-        <v>0</v>
-      </c>
-      <c r="BG101">
-        <v>0</v>
-      </c>
-      <c r="BH101">
-        <v>0</v>
-      </c>
-      <c r="BI101">
-        <v>0</v>
-      </c>
       <c r="BJ101">
-        <v>0</v>
+        <v>2.93</v>
       </c>
       <c r="BK101">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="BL101">
-        <v>0</v>
+        <v>2.19</v>
       </c>
       <c r="BM101">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="BN101">
-        <v>1.82</v>
+        <v>1.74</v>
       </c>
       <c r="BO101">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="BP101">
-        <v>0</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="102" spans="1:68">
@@ -21939,7 +21939,7 @@
         <v>101</v>
       </c>
       <c r="B102">
-        <v>7491597</v>
+        <v>7491595</v>
       </c>
       <c r="C102" t="s">
         <v>68</v>
@@ -21954,190 +21954,190 @@
         <v>0</v>
       </c>
       <c r="G102" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="H102" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J102">
         <v>0</v>
       </c>
       <c r="K102">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L102">
+        <v>0</v>
+      </c>
+      <c r="M102">
+        <v>0</v>
+      </c>
+      <c r="N102">
+        <v>0</v>
+      </c>
+      <c r="O102" t="s">
+        <v>92</v>
+      </c>
+      <c r="P102" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q102">
+        <v>2.85</v>
+      </c>
+      <c r="R102">
+        <v>2.15</v>
+      </c>
+      <c r="S102">
+        <v>3.3</v>
+      </c>
+      <c r="T102">
+        <v>1.33</v>
+      </c>
+      <c r="U102">
         <v>3</v>
       </c>
-      <c r="M102">
-        <v>1</v>
-      </c>
-      <c r="N102">
-        <v>4</v>
-      </c>
-      <c r="O102" t="s">
-        <v>160</v>
-      </c>
-      <c r="P102" t="s">
-        <v>237</v>
-      </c>
-      <c r="Q102">
-        <v>3.7</v>
-      </c>
-      <c r="R102">
-        <v>2.25</v>
-      </c>
-      <c r="S102">
+      <c r="V102">
         <v>2.45</v>
       </c>
-      <c r="T102">
-        <v>1.3</v>
-      </c>
-      <c r="U102">
-        <v>3.25</v>
-      </c>
-      <c r="V102">
-        <v>2.3</v>
-      </c>
       <c r="W102">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="X102">
-        <v>4.9</v>
+        <v>5.3</v>
       </c>
       <c r="Y102">
-        <v>1.14</v>
+        <v>1.12</v>
       </c>
       <c r="Z102">
-        <v>6.64</v>
+        <v>3.19</v>
       </c>
       <c r="AA102">
-        <v>8.43</v>
+        <v>3.01</v>
       </c>
       <c r="AB102">
-        <v>1.18</v>
+        <v>2.16</v>
       </c>
       <c r="AC102">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD102">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE102">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF102">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="AG102">
-        <v>1.53</v>
+        <v>1.62</v>
       </c>
       <c r="AH102">
+        <v>2.15</v>
+      </c>
+      <c r="AI102">
+        <v>1.5</v>
+      </c>
+      <c r="AJ102">
         <v>2.35</v>
       </c>
-      <c r="AI102">
-        <v>1.48</v>
-      </c>
-      <c r="AJ102">
-        <v>2.4</v>
-      </c>
       <c r="AK102">
-        <v>1.77</v>
+        <v>1.4</v>
       </c>
       <c r="AL102">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM102">
-        <v>1.3</v>
+        <v>1.57</v>
       </c>
       <c r="AN102">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="AO102">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AP102">
         <v>1.67</v>
       </c>
       <c r="AQ102">
-        <v>1.17</v>
+        <v>1.57</v>
       </c>
       <c r="AR102">
-        <v>1.49</v>
+        <v>1.42</v>
       </c>
       <c r="AS102">
-        <v>1.31</v>
+        <v>1.37</v>
       </c>
       <c r="AT102">
-        <v>2.8</v>
+        <v>2.79</v>
       </c>
       <c r="AU102">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV102">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW102">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX102">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AY102">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="AZ102">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="BA102">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="BB102">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="BC102">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BD102">
-        <v>2.43</v>
+        <v>0</v>
       </c>
       <c r="BE102">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="BF102">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="BG102">
-        <v>1.2</v>
+        <v>0</v>
       </c>
       <c r="BH102">
-        <v>4.2</v>
+        <v>0</v>
       </c>
       <c r="BI102">
-        <v>1.37</v>
+        <v>0</v>
       </c>
       <c r="BJ102">
-        <v>2.93</v>
+        <v>0</v>
       </c>
       <c r="BK102">
-        <v>1.63</v>
+        <v>0</v>
       </c>
       <c r="BL102">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="BM102">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="BN102">
-        <v>1.74</v>
+        <v>1.82</v>
       </c>
       <c r="BO102">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="BP102">
-        <v>1.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:68">
@@ -23596,7 +23596,7 @@
         <v>69</v>
       </c>
       <c r="E110" s="2">
-        <v>45617.875</v>
+        <v>45618.60416666666</v>
       </c>
       <c r="F110">
         <v>13</v>
@@ -23722,19 +23722,19 @@
         <v>2.91</v>
       </c>
       <c r="AU110">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV110">
         <v>5</v>
       </c>
       <c r="AW110">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AX110">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY110">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AZ110">
         <v>12</v>
@@ -23999,7 +23999,7 @@
         <v>111</v>
       </c>
       <c r="B112">
-        <v>7491603</v>
+        <v>7491602</v>
       </c>
       <c r="C112" t="s">
         <v>68</v>
@@ -24008,34 +24008,34 @@
         <v>69</v>
       </c>
       <c r="E112" s="2">
-        <v>45618.875</v>
+        <v>45619.375</v>
       </c>
       <c r="F112">
         <v>13</v>
       </c>
       <c r="G112" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="H112" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I112">
         <v>1</v>
       </c>
       <c r="J112">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K112">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L112">
         <v>2</v>
       </c>
       <c r="M112">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N112">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O112" t="s">
         <v>168</v>
@@ -24044,40 +24044,40 @@
         <v>242</v>
       </c>
       <c r="Q112">
-        <v>2.25</v>
+        <v>3.1</v>
       </c>
       <c r="R112">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="S112">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T112">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U112">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V112">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W112">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X112">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y112">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z112">
-        <v>1.67</v>
+        <v>2.75</v>
       </c>
       <c r="AA112">
-        <v>3.7</v>
+        <v>3.4</v>
       </c>
       <c r="AB112">
-        <v>4.2</v>
+        <v>2.15</v>
       </c>
       <c r="AC112">
         <v>1.04</v>
@@ -24086,88 +24086,88 @@
         <v>10</v>
       </c>
       <c r="AE112">
+        <v>1.18</v>
+      </c>
+      <c r="AF112">
+        <v>4.75</v>
+      </c>
+      <c r="AG112">
+        <v>1.55</v>
+      </c>
+      <c r="AH112">
+        <v>2.2</v>
+      </c>
+      <c r="AI112">
+        <v>1.44</v>
+      </c>
+      <c r="AJ112">
+        <v>2.63</v>
+      </c>
+      <c r="AK112">
+        <v>1.5</v>
+      </c>
+      <c r="AL112">
         <v>1.22</v>
       </c>
-      <c r="AF112">
+      <c r="AM112">
+        <v>1.47</v>
+      </c>
+      <c r="AN112">
+        <v>0.83</v>
+      </c>
+      <c r="AO112">
+        <v>1.5</v>
+      </c>
+      <c r="AP112">
+        <v>0.71</v>
+      </c>
+      <c r="AQ112">
+        <v>1.71</v>
+      </c>
+      <c r="AR112">
+        <v>1.44</v>
+      </c>
+      <c r="AS112">
+        <v>1.25</v>
+      </c>
+      <c r="AT112">
+        <v>2.69</v>
+      </c>
+      <c r="AU112">
+        <v>6</v>
+      </c>
+      <c r="AV112">
         <v>4</v>
       </c>
-      <c r="AG112">
-        <v>1.73</v>
-      </c>
-      <c r="AH112">
-        <v>1.95</v>
-      </c>
-      <c r="AI112">
-        <v>1.73</v>
-      </c>
-      <c r="AJ112">
-        <v>2</v>
-      </c>
-      <c r="AK112">
-        <v>1.14</v>
-      </c>
-      <c r="AL112">
-        <v>1.2</v>
-      </c>
-      <c r="AM112">
-        <v>2.15</v>
-      </c>
-      <c r="AN112">
-        <v>1</v>
-      </c>
-      <c r="AO112">
-        <v>1</v>
-      </c>
-      <c r="AP112">
-        <v>1</v>
-      </c>
-      <c r="AQ112">
-        <v>1</v>
-      </c>
-      <c r="AR112">
-        <v>1.37</v>
-      </c>
-      <c r="AS112">
-        <v>0.95</v>
-      </c>
-      <c r="AT112">
-        <v>2.32</v>
-      </c>
-      <c r="AU112">
-        <v>8</v>
-      </c>
-      <c r="AV112">
+      <c r="AW112">
         <v>6</v>
       </c>
-      <c r="AW112">
-        <v>3</v>
-      </c>
       <c r="AX112">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AY112">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AZ112">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA112">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BB112">
         <v>5</v>
       </c>
       <c r="BC112">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BD112">
-        <v>1.51</v>
+        <v>1.95</v>
       </c>
       <c r="BE112">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BF112">
-        <v>3.06</v>
+        <v>2.1</v>
       </c>
       <c r="BG112">
         <v>1.2</v>
@@ -24205,7 +24205,7 @@
         <v>112</v>
       </c>
       <c r="B113">
-        <v>7491599</v>
+        <v>7491603</v>
       </c>
       <c r="C113" t="s">
         <v>68</v>
@@ -24214,22 +24214,22 @@
         <v>69</v>
       </c>
       <c r="E113" s="2">
-        <v>45618.875</v>
+        <v>45619.375</v>
       </c>
       <c r="F113">
         <v>13</v>
       </c>
       <c r="G113" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="H113" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="I113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J113">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K113">
         <v>2</v>
@@ -24250,121 +24250,121 @@
         <v>243</v>
       </c>
       <c r="Q113">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R113">
-        <v>2.5</v>
+        <v>2.3</v>
       </c>
       <c r="S113">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="T113">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U113">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V113">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="W113">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="X113">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y113">
+        <v>1.11</v>
+      </c>
+      <c r="Z113">
+        <v>1.67</v>
+      </c>
+      <c r="AA113">
+        <v>3.7</v>
+      </c>
+      <c r="AB113">
+        <v>4.2</v>
+      </c>
+      <c r="AC113">
+        <v>1.04</v>
+      </c>
+      <c r="AD113">
+        <v>10</v>
+      </c>
+      <c r="AE113">
+        <v>1.22</v>
+      </c>
+      <c r="AF113">
+        <v>4</v>
+      </c>
+      <c r="AG113">
+        <v>1.73</v>
+      </c>
+      <c r="AH113">
+        <v>1.95</v>
+      </c>
+      <c r="AI113">
+        <v>1.73</v>
+      </c>
+      <c r="AJ113">
+        <v>2</v>
+      </c>
+      <c r="AK113">
         <v>1.14</v>
       </c>
-      <c r="Z113">
-        <v>1.6</v>
-      </c>
-      <c r="AA113">
-        <v>3.84</v>
-      </c>
-      <c r="AB113">
-        <v>4.08</v>
-      </c>
-      <c r="AC113">
-        <v>1.01</v>
-      </c>
-      <c r="AD113">
-        <v>13</v>
-      </c>
-      <c r="AE113">
-        <v>1.17</v>
-      </c>
-      <c r="AF113">
-        <v>5</v>
-      </c>
-      <c r="AG113">
-        <v>1.48</v>
-      </c>
-      <c r="AH113">
-        <v>2.54</v>
-      </c>
-      <c r="AI113">
-        <v>1.53</v>
-      </c>
-      <c r="AJ113">
-        <v>2.38</v>
-      </c>
-      <c r="AK113">
-        <v>1.16</v>
-      </c>
       <c r="AL113">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AM113">
         <v>2.15</v>
       </c>
       <c r="AN113">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AO113">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AP113">
-        <v>1.86</v>
+        <v>1</v>
       </c>
       <c r="AQ113">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR113">
-        <v>1.56</v>
+        <v>1.37</v>
       </c>
       <c r="AS113">
-        <v>1.16</v>
+        <v>0.95</v>
       </c>
       <c r="AT113">
-        <v>2.72</v>
+        <v>2.32</v>
       </c>
       <c r="AU113">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV113">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AW113">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AX113">
+        <v>-1</v>
+      </c>
+      <c r="AY113">
+        <v>-1</v>
+      </c>
+      <c r="AZ113">
+        <v>-1</v>
+      </c>
+      <c r="BA113">
         <v>4</v>
       </c>
-      <c r="AY113">
-        <v>21</v>
-      </c>
-      <c r="AZ113">
-        <v>10</v>
-      </c>
-      <c r="BA113">
-        <v>2</v>
-      </c>
       <c r="BB113">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC113">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD113">
         <v>1.51</v>
@@ -24376,34 +24376,34 @@
         <v>3.06</v>
       </c>
       <c r="BG113">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="BH113">
-        <v>4.65</v>
+        <v>4.2</v>
       </c>
       <c r="BI113">
-        <v>1.32</v>
+        <v>1.37</v>
       </c>
       <c r="BJ113">
-        <v>3.2</v>
+        <v>2.93</v>
       </c>
       <c r="BK113">
-        <v>1.55</v>
+        <v>1.63</v>
       </c>
       <c r="BL113">
-        <v>2.36</v>
+        <v>2.19</v>
       </c>
       <c r="BM113">
-        <v>1.89</v>
+        <v>2.02</v>
       </c>
       <c r="BN113">
-        <v>1.85</v>
+        <v>1.74</v>
       </c>
       <c r="BO113">
-        <v>2.39</v>
+        <v>2.6</v>
       </c>
       <c r="BP113">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="114" spans="1:68">
@@ -24420,7 +24420,7 @@
         <v>69</v>
       </c>
       <c r="E114" s="2">
-        <v>45618.875</v>
+        <v>45619.375</v>
       </c>
       <c r="F114">
         <v>13</v>
@@ -24546,22 +24546,22 @@
         <v>2.94</v>
       </c>
       <c r="AU114">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AV114">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AW114">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX114">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AY114">
-        <v>24</v>
+        <v>-1</v>
       </c>
       <c r="AZ114">
-        <v>13</v>
+        <v>-1</v>
       </c>
       <c r="BA114">
         <v>12</v>
@@ -24626,7 +24626,7 @@
         <v>69</v>
       </c>
       <c r="E115" s="2">
-        <v>45618.875</v>
+        <v>45619.375</v>
       </c>
       <c r="F115">
         <v>13</v>
@@ -24752,22 +24752,22 @@
         <v>3.39</v>
       </c>
       <c r="AU115">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="AV115">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="AW115">
-        <v>11</v>
+        <v>-1</v>
       </c>
       <c r="AX115">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="AY115">
-        <v>21</v>
+        <v>-1</v>
       </c>
       <c r="AZ115">
-        <v>15</v>
+        <v>-1</v>
       </c>
       <c r="BA115">
         <v>5</v>
@@ -24823,7 +24823,7 @@
         <v>115</v>
       </c>
       <c r="B116">
-        <v>7491602</v>
+        <v>7491599</v>
       </c>
       <c r="C116" t="s">
         <v>68</v>
@@ -24832,34 +24832,34 @@
         <v>69</v>
       </c>
       <c r="E116" s="2">
-        <v>45619.375</v>
+        <v>45619.6875</v>
       </c>
       <c r="F116">
         <v>13</v>
       </c>
       <c r="G116" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="H116" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="I116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J116">
         <v>0</v>
       </c>
       <c r="K116">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L116">
         <v>2</v>
       </c>
       <c r="M116">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N116">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="O116" t="s">
         <v>171</v>
@@ -24868,13 +24868,13 @@
         <v>246</v>
       </c>
       <c r="Q116">
-        <v>3.1</v>
+        <v>2.2</v>
       </c>
       <c r="R116">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="S116">
-        <v>3</v>
+        <v>4.5</v>
       </c>
       <c r="T116">
         <v>1.29</v>
@@ -24883,10 +24883,10 @@
         <v>3.5</v>
       </c>
       <c r="V116">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W116">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X116">
         <v>5.5</v>
@@ -24895,133 +24895,133 @@
         <v>1.14</v>
       </c>
       <c r="Z116">
-        <v>2.75</v>
+        <v>1.6</v>
       </c>
       <c r="AA116">
-        <v>3.4</v>
+        <v>3.84</v>
       </c>
       <c r="AB116">
+        <v>4.08</v>
+      </c>
+      <c r="AC116">
+        <v>1.01</v>
+      </c>
+      <c r="AD116">
+        <v>13</v>
+      </c>
+      <c r="AE116">
+        <v>1.17</v>
+      </c>
+      <c r="AF116">
+        <v>5</v>
+      </c>
+      <c r="AG116">
+        <v>1.48</v>
+      </c>
+      <c r="AH116">
+        <v>2.54</v>
+      </c>
+      <c r="AI116">
+        <v>1.53</v>
+      </c>
+      <c r="AJ116">
+        <v>2.38</v>
+      </c>
+      <c r="AK116">
+        <v>1.16</v>
+      </c>
+      <c r="AL116">
+        <v>1.17</v>
+      </c>
+      <c r="AM116">
         <v>2.15</v>
       </c>
-      <c r="AC116">
-        <v>1.04</v>
-      </c>
-      <c r="AD116">
+      <c r="AN116">
+        <v>2</v>
+      </c>
+      <c r="AO116">
+        <v>0.83</v>
+      </c>
+      <c r="AP116">
+        <v>1.86</v>
+      </c>
+      <c r="AQ116">
+        <v>0.86</v>
+      </c>
+      <c r="AR116">
+        <v>1.56</v>
+      </c>
+      <c r="AS116">
+        <v>1.16</v>
+      </c>
+      <c r="AT116">
+        <v>2.72</v>
+      </c>
+      <c r="AU116">
+        <v>9</v>
+      </c>
+      <c r="AV116">
+        <v>5</v>
+      </c>
+      <c r="AW116">
+        <v>12</v>
+      </c>
+      <c r="AX116">
+        <v>5</v>
+      </c>
+      <c r="AY116">
+        <v>21</v>
+      </c>
+      <c r="AZ116">
         <v>10</v>
       </c>
-      <c r="AE116">
-        <v>1.18</v>
-      </c>
-      <c r="AF116">
-        <v>4.75</v>
-      </c>
-      <c r="AG116">
+      <c r="BA116">
+        <v>2</v>
+      </c>
+      <c r="BB116">
+        <v>4</v>
+      </c>
+      <c r="BC116">
+        <v>6</v>
+      </c>
+      <c r="BD116">
+        <v>1.51</v>
+      </c>
+      <c r="BE116">
+        <v>9</v>
+      </c>
+      <c r="BF116">
+        <v>3.06</v>
+      </c>
+      <c r="BG116">
+        <v>1.17</v>
+      </c>
+      <c r="BH116">
+        <v>4.65</v>
+      </c>
+      <c r="BI116">
+        <v>1.32</v>
+      </c>
+      <c r="BJ116">
+        <v>3.2</v>
+      </c>
+      <c r="BK116">
         <v>1.55</v>
       </c>
-      <c r="AH116">
-        <v>2.2</v>
-      </c>
-      <c r="AI116">
-        <v>1.44</v>
-      </c>
-      <c r="AJ116">
-        <v>2.63</v>
-      </c>
-      <c r="AK116">
-        <v>1.5</v>
-      </c>
-      <c r="AL116">
-        <v>1.22</v>
-      </c>
-      <c r="AM116">
-        <v>1.47</v>
-      </c>
-      <c r="AN116">
-        <v>0.83</v>
-      </c>
-      <c r="AO116">
-        <v>1.5</v>
-      </c>
-      <c r="AP116">
-        <v>0.71</v>
-      </c>
-      <c r="AQ116">
-        <v>1.71</v>
-      </c>
-      <c r="AR116">
-        <v>1.44</v>
-      </c>
-      <c r="AS116">
-        <v>1.25</v>
-      </c>
-      <c r="AT116">
-        <v>2.69</v>
-      </c>
-      <c r="AU116">
-        <v>6</v>
-      </c>
-      <c r="AV116">
-        <v>4</v>
-      </c>
-      <c r="AW116">
-        <v>6</v>
-      </c>
-      <c r="AX116">
-        <v>7</v>
-      </c>
-      <c r="AY116">
-        <v>15</v>
-      </c>
-      <c r="AZ116">
-        <v>15</v>
-      </c>
-      <c r="BA116">
-        <v>7</v>
-      </c>
-      <c r="BB116">
-        <v>5</v>
-      </c>
-      <c r="BC116">
-        <v>12</v>
-      </c>
-      <c r="BD116">
-        <v>1.95</v>
-      </c>
-      <c r="BE116">
-        <v>8</v>
-      </c>
-      <c r="BF116">
-        <v>2.1</v>
-      </c>
-      <c r="BG116">
-        <v>1.2</v>
-      </c>
-      <c r="BH116">
-        <v>4.2</v>
-      </c>
-      <c r="BI116">
-        <v>1.37</v>
-      </c>
-      <c r="BJ116">
-        <v>2.93</v>
-      </c>
-      <c r="BK116">
-        <v>1.63</v>
-      </c>
       <c r="BL116">
-        <v>2.19</v>
+        <v>2.36</v>
       </c>
       <c r="BM116">
-        <v>2.02</v>
+        <v>1.89</v>
       </c>
       <c r="BN116">
-        <v>1.74</v>
+        <v>1.85</v>
       </c>
       <c r="BO116">
-        <v>2.6</v>
+        <v>2.39</v>
       </c>
       <c r="BP116">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="117" spans="1:68">
@@ -25038,7 +25038,7 @@
         <v>69</v>
       </c>
       <c r="E117" s="2">
-        <v>45619.875</v>
+        <v>45620.39583333334</v>
       </c>
       <c r="F117">
         <v>13</v>
@@ -25173,7 +25173,7 @@
         <v>7</v>
       </c>
       <c r="AX117">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY117">
         <v>15</v>
@@ -25244,7 +25244,7 @@
         <v>69</v>
       </c>
       <c r="E118" s="2">
-        <v>45619.875</v>
+        <v>45620.39583333334</v>
       </c>
       <c r="F118">
         <v>13</v>
@@ -25370,19 +25370,19 @@
         <v>2.38</v>
       </c>
       <c r="AU118">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AV118">
         <v>4</v>
       </c>
       <c r="AW118">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="AX118">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AY118">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ118">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="249">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="255">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,12 @@
     <t>['17', '41', '45+2']</t>
   </si>
   <si>
+    <t>['48', '81']</t>
+  </si>
+  <si>
+    <t>['27']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -761,6 +767,18 @@
   </si>
   <si>
     <t>['10']</t>
+  </si>
+  <si>
+    <t>['55', '65', '86']</t>
+  </si>
+  <si>
+    <t>['12', '52', '61']</t>
+  </si>
+  <si>
+    <t>['25', '86']</t>
+  </si>
+  <si>
+    <t>['45+3', '63', '80']</t>
   </si>
 </sst>
 </file>
@@ -1122,7 +1140,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP118"/>
+  <dimension ref="A1:BP124"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1381,7 +1399,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1459,7 +1477,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ2">
         <v>1.17</v>
@@ -1587,7 +1605,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1874,7 +1892,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ4">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -1999,7 +2017,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2080,7 +2098,7 @@
         <v>1</v>
       </c>
       <c r="AQ5">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2283,7 +2301,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ6">
         <v>1.29</v>
@@ -2411,7 +2429,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2489,7 +2507,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ7">
         <v>0.29</v>
@@ -2617,7 +2635,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2695,7 +2713,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ8">
         <v>2.5</v>
@@ -2823,7 +2841,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2904,7 +2922,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ9">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3029,7 +3047,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3110,7 +3128,7 @@
         <v>0.67</v>
       </c>
       <c r="AQ10">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3441,7 +3459,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3853,7 +3871,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3931,7 +3949,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ14">
         <v>1.83</v>
@@ -4265,7 +4283,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4346,7 +4364,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ16">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4471,7 +4489,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4677,7 +4695,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4755,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ18">
         <v>2.29</v>
@@ -4964,7 +4982,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ19">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5089,7 +5107,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5501,7 +5519,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5582,7 +5600,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ22">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5707,7 +5725,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5788,7 +5806,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ23">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR23">
         <v>2.28</v>
@@ -5994,7 +6012,7 @@
         <v>1</v>
       </c>
       <c r="AQ24">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR24">
         <v>1.29</v>
@@ -6197,7 +6215,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25">
         <v>0.29</v>
@@ -6325,7 +6343,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6531,7 +6549,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6609,7 +6627,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ27">
         <v>1.14</v>
@@ -6737,7 +6755,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6815,7 +6833,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ28">
         <v>0.86</v>
@@ -7024,7 +7042,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ29">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR29">
         <v>1.99</v>
@@ -7149,7 +7167,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7355,7 +7373,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7436,7 +7454,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ31">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR31">
         <v>1.09</v>
@@ -7639,7 +7657,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ32">
         <v>1.67</v>
@@ -7767,7 +7785,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7973,7 +7991,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8054,7 +8072,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ34">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR34">
         <v>1.8</v>
@@ -8385,7 +8403,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8463,7 +8481,7 @@
         <v>1</v>
       </c>
       <c r="AP36">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ36">
         <v>1.83</v>
@@ -8591,7 +8609,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8669,7 +8687,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ37">
         <v>1.71</v>
@@ -8797,7 +8815,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -8878,7 +8896,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ38">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR38">
         <v>1.52</v>
@@ -9209,7 +9227,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9290,7 +9308,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ40">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR40">
         <v>1.31</v>
@@ -9415,7 +9433,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9621,7 +9639,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9699,7 +9717,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ42">
         <v>0.29</v>
@@ -9827,7 +9845,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -9905,7 +9923,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ43">
         <v>2.29</v>
@@ -10239,7 +10257,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10526,7 +10544,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ46">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR46">
         <v>1.28</v>
@@ -10651,7 +10669,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10732,7 +10750,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ47">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR47">
         <v>1.4</v>
@@ -10857,7 +10875,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -10935,7 +10953,7 @@
         <v>0</v>
       </c>
       <c r="AP48">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ48">
         <v>1.67</v>
@@ -11063,7 +11081,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11269,7 +11287,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11350,7 +11368,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ50">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>0.97</v>
@@ -11553,7 +11571,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ51">
         <v>1.33</v>
@@ -11681,7 +11699,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11887,7 +11905,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11965,7 +11983,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12093,7 +12111,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12171,7 +12189,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ54">
         <v>1.71</v>
@@ -12299,7 +12317,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12380,7 +12398,7 @@
         <v>1</v>
       </c>
       <c r="AQ55">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12505,7 +12523,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12711,7 +12729,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12917,7 +12935,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -12998,7 +13016,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ58">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13204,7 +13222,7 @@
         <v>1</v>
       </c>
       <c r="AQ59">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR59">
         <v>1.4</v>
@@ -13329,7 +13347,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13407,7 +13425,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ60">
         <v>2.29</v>
@@ -13535,7 +13553,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13947,7 +13965,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14153,7 +14171,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14231,7 +14249,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ64">
         <v>1.71</v>
@@ -14440,7 +14458,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ65">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR65">
         <v>1.43</v>
@@ -14565,7 +14583,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -14849,7 +14867,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15055,10 +15073,10 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ68">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15183,7 +15201,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15264,7 +15282,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ69">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR69">
         <v>0.99</v>
@@ -15389,7 +15407,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15467,10 +15485,10 @@
         <v>2.33</v>
       </c>
       <c r="AP70">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR70">
         <v>1.66</v>
@@ -15595,7 +15613,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15673,7 +15691,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ71">
         <v>1.33</v>
@@ -15879,10 +15897,10 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ72">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16007,7 +16025,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16213,7 +16231,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16291,7 +16309,7 @@
         <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ74">
         <v>1.83</v>
@@ -16419,7 +16437,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16625,7 +16643,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16831,7 +16849,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17324,7 +17342,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ79">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR79">
         <v>1.72</v>
@@ -17655,7 +17673,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17861,7 +17879,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18067,7 +18085,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18145,10 +18163,10 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ83">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR83">
         <v>2.13</v>
@@ -18273,7 +18291,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18354,7 +18372,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ84">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR84">
         <v>1.18</v>
@@ -18479,7 +18497,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18560,7 +18578,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ85">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR85">
         <v>1.57</v>
@@ -18685,7 +18703,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18763,7 +18781,7 @@
         <v>1.25</v>
       </c>
       <c r="AP86">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ86">
         <v>1.33</v>
@@ -18891,7 +18909,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18969,7 +18987,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ87">
         <v>1.17</v>
@@ -19097,7 +19115,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19178,7 +19196,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ88">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR88">
         <v>1.59</v>
@@ -19303,7 +19321,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19381,7 +19399,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ89">
         <v>1</v>
@@ -19509,7 +19527,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19587,10 +19605,10 @@
         <v>0.25</v>
       </c>
       <c r="AP90">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ90">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR90">
         <v>1.7</v>
@@ -19793,10 +19811,10 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ91">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR91">
         <v>1.66</v>
@@ -20539,7 +20557,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -20951,7 +20969,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21157,7 +21175,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21569,7 +21587,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21775,7 +21793,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -21853,7 +21871,7 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ101">
         <v>1.17</v>
@@ -22062,7 +22080,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ102">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR102">
         <v>1.42</v>
@@ -22265,7 +22283,7 @@
         <v>1.6</v>
       </c>
       <c r="AP103">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ103">
         <v>1.33</v>
@@ -22393,7 +22411,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22471,10 +22489,10 @@
         <v>2.2</v>
       </c>
       <c r="AP104">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="AQ104">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR104">
         <v>1.47</v>
@@ -22677,7 +22695,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AQ105">
         <v>1</v>
@@ -22805,7 +22823,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -22886,7 +22904,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ106">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AR106">
         <v>1.62</v>
@@ -23011,7 +23029,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23092,7 +23110,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ107">
-        <v>0.83</v>
+        <v>0.86</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23295,10 +23313,10 @@
         <v>0</v>
       </c>
       <c r="AP108">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AQ108">
-        <v>0</v>
+        <v>0.14</v>
       </c>
       <c r="AR108">
         <v>1.53</v>
@@ -23423,7 +23441,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23501,10 +23519,10 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ109">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AR109">
         <v>1.49</v>
@@ -23629,7 +23647,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24041,7 +24059,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24247,7 +24265,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24453,7 +24471,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24659,7 +24677,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24865,7 +24883,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25071,7 +25089,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25277,7 +25295,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25434,6 +25452,1242 @@
       </c>
       <c r="BP118">
         <v>1.54</v>
+      </c>
+    </row>
+    <row r="119" spans="1:68">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119">
+        <v>7491613</v>
+      </c>
+      <c r="C119" t="s">
+        <v>68</v>
+      </c>
+      <c r="D119" t="s">
+        <v>69</v>
+      </c>
+      <c r="E119" s="2">
+        <v>45625.60416666666</v>
+      </c>
+      <c r="F119">
+        <v>14</v>
+      </c>
+      <c r="G119" t="s">
+        <v>74</v>
+      </c>
+      <c r="H119" t="s">
+        <v>73</v>
+      </c>
+      <c r="I119">
+        <v>0</v>
+      </c>
+      <c r="J119">
+        <v>0</v>
+      </c>
+      <c r="K119">
+        <v>0</v>
+      </c>
+      <c r="L119">
+        <v>1</v>
+      </c>
+      <c r="M119">
+        <v>3</v>
+      </c>
+      <c r="N119">
+        <v>4</v>
+      </c>
+      <c r="O119" t="s">
+        <v>95</v>
+      </c>
+      <c r="P119" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q119">
+        <v>3</v>
+      </c>
+      <c r="R119">
+        <v>2.35</v>
+      </c>
+      <c r="S119">
+        <v>2.85</v>
+      </c>
+      <c r="T119">
+        <v>1.24</v>
+      </c>
+      <c r="U119">
+        <v>3.7</v>
+      </c>
+      <c r="V119">
+        <v>2.19</v>
+      </c>
+      <c r="W119">
+        <v>1.62</v>
+      </c>
+      <c r="X119">
+        <v>4.7</v>
+      </c>
+      <c r="Y119">
+        <v>1.16</v>
+      </c>
+      <c r="Z119">
+        <v>2.55</v>
+      </c>
+      <c r="AA119">
+        <v>3.8</v>
+      </c>
+      <c r="AB119">
+        <v>2.42</v>
+      </c>
+      <c r="AC119">
+        <v>1.01</v>
+      </c>
+      <c r="AD119">
+        <v>17</v>
+      </c>
+      <c r="AE119">
+        <v>1.15</v>
+      </c>
+      <c r="AF119">
+        <v>5.25</v>
+      </c>
+      <c r="AG119">
+        <v>1.5</v>
+      </c>
+      <c r="AH119">
+        <v>2.4</v>
+      </c>
+      <c r="AI119">
+        <v>1.42</v>
+      </c>
+      <c r="AJ119">
+        <v>2.75</v>
+      </c>
+      <c r="AK119">
+        <v>1.55</v>
+      </c>
+      <c r="AL119">
+        <v>1.2</v>
+      </c>
+      <c r="AM119">
+        <v>1.47</v>
+      </c>
+      <c r="AN119">
+        <v>0.83</v>
+      </c>
+      <c r="AO119">
+        <v>1.83</v>
+      </c>
+      <c r="AP119">
+        <v>0.71</v>
+      </c>
+      <c r="AQ119">
+        <v>2</v>
+      </c>
+      <c r="AR119">
+        <v>1.77</v>
+      </c>
+      <c r="AS119">
+        <v>1.62</v>
+      </c>
+      <c r="AT119">
+        <v>3.39</v>
+      </c>
+      <c r="AU119">
+        <v>3</v>
+      </c>
+      <c r="AV119">
+        <v>8</v>
+      </c>
+      <c r="AW119">
+        <v>5</v>
+      </c>
+      <c r="AX119">
+        <v>1</v>
+      </c>
+      <c r="AY119">
+        <v>15</v>
+      </c>
+      <c r="AZ119">
+        <v>15</v>
+      </c>
+      <c r="BA119">
+        <v>5</v>
+      </c>
+      <c r="BB119">
+        <v>1</v>
+      </c>
+      <c r="BC119">
+        <v>6</v>
+      </c>
+      <c r="BD119">
+        <v>1.98</v>
+      </c>
+      <c r="BE119">
+        <v>6.25</v>
+      </c>
+      <c r="BF119">
+        <v>1.92</v>
+      </c>
+      <c r="BG119">
+        <v>1.28</v>
+      </c>
+      <c r="BH119">
+        <v>3.2</v>
+      </c>
+      <c r="BI119">
+        <v>1.48</v>
+      </c>
+      <c r="BJ119">
+        <v>2.43</v>
+      </c>
+      <c r="BK119">
+        <v>1.79</v>
+      </c>
+      <c r="BL119">
+        <v>1.9</v>
+      </c>
+      <c r="BM119">
+        <v>2.23</v>
+      </c>
+      <c r="BN119">
+        <v>1.56</v>
+      </c>
+      <c r="BO119">
+        <v>2.9</v>
+      </c>
+      <c r="BP119">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="120" spans="1:68">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120">
+        <v>7491610</v>
+      </c>
+      <c r="C120" t="s">
+        <v>68</v>
+      </c>
+      <c r="D120" t="s">
+        <v>69</v>
+      </c>
+      <c r="E120" s="2">
+        <v>45625.60416666666</v>
+      </c>
+      <c r="F120">
+        <v>14</v>
+      </c>
+      <c r="G120" t="s">
+        <v>75</v>
+      </c>
+      <c r="H120" t="s">
+        <v>80</v>
+      </c>
+      <c r="I120">
+        <v>0</v>
+      </c>
+      <c r="J120">
+        <v>1</v>
+      </c>
+      <c r="K120">
+        <v>1</v>
+      </c>
+      <c r="L120">
+        <v>0</v>
+      </c>
+      <c r="M120">
+        <v>3</v>
+      </c>
+      <c r="N120">
+        <v>3</v>
+      </c>
+      <c r="O120" t="s">
+        <v>92</v>
+      </c>
+      <c r="P120" t="s">
+        <v>252</v>
+      </c>
+      <c r="Q120">
+        <v>2.6</v>
+      </c>
+      <c r="R120">
+        <v>2.3</v>
+      </c>
+      <c r="S120">
+        <v>3.4</v>
+      </c>
+      <c r="T120">
+        <v>1.3</v>
+      </c>
+      <c r="U120">
+        <v>3.25</v>
+      </c>
+      <c r="V120">
+        <v>2.39</v>
+      </c>
+      <c r="W120">
+        <v>1.52</v>
+      </c>
+      <c r="X120">
+        <v>5.45</v>
+      </c>
+      <c r="Y120">
+        <v>1.12</v>
+      </c>
+      <c r="Z120">
+        <v>2.13</v>
+      </c>
+      <c r="AA120">
+        <v>3.7</v>
+      </c>
+      <c r="AB120">
+        <v>3.05</v>
+      </c>
+      <c r="AC120">
+        <v>1.04</v>
+      </c>
+      <c r="AD120">
+        <v>10</v>
+      </c>
+      <c r="AE120">
+        <v>1.18</v>
+      </c>
+      <c r="AF120">
+        <v>4.5</v>
+      </c>
+      <c r="AG120">
+        <v>1.6</v>
+      </c>
+      <c r="AH120">
+        <v>2.2</v>
+      </c>
+      <c r="AI120">
+        <v>1.53</v>
+      </c>
+      <c r="AJ120">
+        <v>2.45</v>
+      </c>
+      <c r="AK120">
+        <v>1.36</v>
+      </c>
+      <c r="AL120">
+        <v>1.22</v>
+      </c>
+      <c r="AM120">
+        <v>1.7</v>
+      </c>
+      <c r="AN120">
+        <v>1.17</v>
+      </c>
+      <c r="AO120">
+        <v>1.57</v>
+      </c>
+      <c r="AP120">
+        <v>1</v>
+      </c>
+      <c r="AQ120">
+        <v>1.75</v>
+      </c>
+      <c r="AR120">
+        <v>1.48</v>
+      </c>
+      <c r="AS120">
+        <v>1.31</v>
+      </c>
+      <c r="AT120">
+        <v>2.79</v>
+      </c>
+      <c r="AU120">
+        <v>6</v>
+      </c>
+      <c r="AV120">
+        <v>10</v>
+      </c>
+      <c r="AW120">
+        <v>5</v>
+      </c>
+      <c r="AX120">
+        <v>4</v>
+      </c>
+      <c r="AY120">
+        <v>18</v>
+      </c>
+      <c r="AZ120">
+        <v>16</v>
+      </c>
+      <c r="BA120">
+        <v>7</v>
+      </c>
+      <c r="BB120">
+        <v>3</v>
+      </c>
+      <c r="BC120">
+        <v>10</v>
+      </c>
+      <c r="BD120">
+        <v>1.75</v>
+      </c>
+      <c r="BE120">
+        <v>6.25</v>
+      </c>
+      <c r="BF120">
+        <v>2.17</v>
+      </c>
+      <c r="BG120">
+        <v>1.34</v>
+      </c>
+      <c r="BH120">
+        <v>2.9</v>
+      </c>
+      <c r="BI120">
+        <v>1.58</v>
+      </c>
+      <c r="BJ120">
+        <v>2.18</v>
+      </c>
+      <c r="BK120">
+        <v>1.95</v>
+      </c>
+      <c r="BL120">
+        <v>1.75</v>
+      </c>
+      <c r="BM120">
+        <v>2.43</v>
+      </c>
+      <c r="BN120">
+        <v>1.48</v>
+      </c>
+      <c r="BO120">
+        <v>3.15</v>
+      </c>
+      <c r="BP120">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="121" spans="1:68">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121">
+        <v>7491607</v>
+      </c>
+      <c r="C121" t="s">
+        <v>68</v>
+      </c>
+      <c r="D121" t="s">
+        <v>69</v>
+      </c>
+      <c r="E121" s="2">
+        <v>45626.375</v>
+      </c>
+      <c r="F121">
+        <v>14</v>
+      </c>
+      <c r="G121" t="s">
+        <v>70</v>
+      </c>
+      <c r="H121" t="s">
+        <v>72</v>
+      </c>
+      <c r="I121">
+        <v>0</v>
+      </c>
+      <c r="J121">
+        <v>1</v>
+      </c>
+      <c r="K121">
+        <v>1</v>
+      </c>
+      <c r="L121">
+        <v>2</v>
+      </c>
+      <c r="M121">
+        <v>2</v>
+      </c>
+      <c r="N121">
+        <v>4</v>
+      </c>
+      <c r="O121" t="s">
+        <v>173</v>
+      </c>
+      <c r="P121" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q121">
+        <v>2.35</v>
+      </c>
+      <c r="R121">
+        <v>2.25</v>
+      </c>
+      <c r="S121">
+        <v>4.2</v>
+      </c>
+      <c r="T121">
+        <v>1.34</v>
+      </c>
+      <c r="U121">
+        <v>3</v>
+      </c>
+      <c r="V121">
+        <v>2.55</v>
+      </c>
+      <c r="W121">
+        <v>1.46</v>
+      </c>
+      <c r="X121">
+        <v>6</v>
+      </c>
+      <c r="Y121">
+        <v>1.1</v>
+      </c>
+      <c r="Z121">
+        <v>1.41</v>
+      </c>
+      <c r="AA121">
+        <v>7.08</v>
+      </c>
+      <c r="AB121">
+        <v>3.8</v>
+      </c>
+      <c r="AC121">
+        <v>1.04</v>
+      </c>
+      <c r="AD121">
+        <v>10</v>
+      </c>
+      <c r="AE121">
+        <v>1.22</v>
+      </c>
+      <c r="AF121">
+        <v>4</v>
+      </c>
+      <c r="AG121">
+        <v>1.63</v>
+      </c>
+      <c r="AH121">
+        <v>2.1</v>
+      </c>
+      <c r="AI121">
+        <v>1.68</v>
+      </c>
+      <c r="AJ121">
+        <v>2.1</v>
+      </c>
+      <c r="AK121">
+        <v>1.18</v>
+      </c>
+      <c r="AL121">
+        <v>1.2</v>
+      </c>
+      <c r="AM121">
+        <v>2</v>
+      </c>
+      <c r="AN121">
+        <v>1.43</v>
+      </c>
+      <c r="AO121">
+        <v>0.67</v>
+      </c>
+      <c r="AP121">
+        <v>1.38</v>
+      </c>
+      <c r="AQ121">
+        <v>0.71</v>
+      </c>
+      <c r="AR121">
+        <v>1.92</v>
+      </c>
+      <c r="AS121">
+        <v>1.34</v>
+      </c>
+      <c r="AT121">
+        <v>3.26</v>
+      </c>
+      <c r="AU121">
+        <v>4</v>
+      </c>
+      <c r="AV121">
+        <v>3</v>
+      </c>
+      <c r="AW121">
+        <v>6</v>
+      </c>
+      <c r="AX121">
+        <v>1</v>
+      </c>
+      <c r="AY121">
+        <v>16</v>
+      </c>
+      <c r="AZ121">
+        <v>8</v>
+      </c>
+      <c r="BA121">
+        <v>10</v>
+      </c>
+      <c r="BB121">
+        <v>4</v>
+      </c>
+      <c r="BC121">
+        <v>14</v>
+      </c>
+      <c r="BD121">
+        <v>1.57</v>
+      </c>
+      <c r="BE121">
+        <v>6.4</v>
+      </c>
+      <c r="BF121">
+        <v>2.48</v>
+      </c>
+      <c r="BG121">
+        <v>1.37</v>
+      </c>
+      <c r="BH121">
+        <v>2.8</v>
+      </c>
+      <c r="BI121">
+        <v>1.63</v>
+      </c>
+      <c r="BJ121">
+        <v>2.12</v>
+      </c>
+      <c r="BK121">
+        <v>2</v>
+      </c>
+      <c r="BL121">
+        <v>1.7</v>
+      </c>
+      <c r="BM121">
+        <v>2.55</v>
+      </c>
+      <c r="BN121">
+        <v>1.44</v>
+      </c>
+      <c r="BO121">
+        <v>3.4</v>
+      </c>
+      <c r="BP121">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="122" spans="1:68">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122">
+        <v>7491611</v>
+      </c>
+      <c r="C122" t="s">
+        <v>68</v>
+      </c>
+      <c r="D122" t="s">
+        <v>69</v>
+      </c>
+      <c r="E122" s="2">
+        <v>45626.375</v>
+      </c>
+      <c r="F122">
+        <v>14</v>
+      </c>
+      <c r="G122" t="s">
+        <v>82</v>
+      </c>
+      <c r="H122" t="s">
+        <v>85</v>
+      </c>
+      <c r="I122">
+        <v>1</v>
+      </c>
+      <c r="J122">
+        <v>1</v>
+      </c>
+      <c r="K122">
+        <v>2</v>
+      </c>
+      <c r="L122">
+        <v>1</v>
+      </c>
+      <c r="M122">
+        <v>3</v>
+      </c>
+      <c r="N122">
+        <v>4</v>
+      </c>
+      <c r="O122" t="s">
+        <v>174</v>
+      </c>
+      <c r="P122" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q122">
+        <v>2.85</v>
+      </c>
+      <c r="R122">
+        <v>2.3</v>
+      </c>
+      <c r="S122">
+        <v>3.1</v>
+      </c>
+      <c r="T122">
+        <v>1.29</v>
+      </c>
+      <c r="U122">
+        <v>3.3</v>
+      </c>
+      <c r="V122">
+        <v>2.26</v>
+      </c>
+      <c r="W122">
+        <v>1.58</v>
+      </c>
+      <c r="X122">
+        <v>5</v>
+      </c>
+      <c r="Y122">
+        <v>1.14</v>
+      </c>
+      <c r="Z122">
+        <v>3.35</v>
+      </c>
+      <c r="AA122">
+        <v>2.76</v>
+      </c>
+      <c r="AB122">
+        <v>2.24</v>
+      </c>
+      <c r="AC122">
+        <v>1.04</v>
+      </c>
+      <c r="AD122">
+        <v>10</v>
+      </c>
+      <c r="AE122">
+        <v>1.18</v>
+      </c>
+      <c r="AF122">
+        <v>4.5</v>
+      </c>
+      <c r="AG122">
+        <v>1.55</v>
+      </c>
+      <c r="AH122">
+        <v>2.25</v>
+      </c>
+      <c r="AI122">
+        <v>1.45</v>
+      </c>
+      <c r="AJ122">
+        <v>2.6</v>
+      </c>
+      <c r="AK122">
+        <v>1.45</v>
+      </c>
+      <c r="AL122">
+        <v>1.22</v>
+      </c>
+      <c r="AM122">
+        <v>1.55</v>
+      </c>
+      <c r="AN122">
+        <v>2.17</v>
+      </c>
+      <c r="AO122">
+        <v>1.43</v>
+      </c>
+      <c r="AP122">
+        <v>1.86</v>
+      </c>
+      <c r="AQ122">
+        <v>1.63</v>
+      </c>
+      <c r="AR122">
+        <v>1.56</v>
+      </c>
+      <c r="AS122">
+        <v>1.31</v>
+      </c>
+      <c r="AT122">
+        <v>2.87</v>
+      </c>
+      <c r="AU122">
+        <v>3</v>
+      </c>
+      <c r="AV122">
+        <v>7</v>
+      </c>
+      <c r="AW122">
+        <v>2</v>
+      </c>
+      <c r="AX122">
+        <v>6</v>
+      </c>
+      <c r="AY122">
+        <v>6</v>
+      </c>
+      <c r="AZ122">
+        <v>16</v>
+      </c>
+      <c r="BA122">
+        <v>1</v>
+      </c>
+      <c r="BB122">
+        <v>6</v>
+      </c>
+      <c r="BC122">
+        <v>7</v>
+      </c>
+      <c r="BD122">
+        <v>1.91</v>
+      </c>
+      <c r="BE122">
+        <v>6.1</v>
+      </c>
+      <c r="BF122">
+        <v>1.98</v>
+      </c>
+      <c r="BG122">
+        <v>1.32</v>
+      </c>
+      <c r="BH122">
+        <v>3.05</v>
+      </c>
+      <c r="BI122">
+        <v>1.55</v>
+      </c>
+      <c r="BJ122">
+        <v>2.28</v>
+      </c>
+      <c r="BK122">
+        <v>1.89</v>
+      </c>
+      <c r="BL122">
+        <v>1.8</v>
+      </c>
+      <c r="BM122">
+        <v>2.38</v>
+      </c>
+      <c r="BN122">
+        <v>1.5</v>
+      </c>
+      <c r="BO122">
+        <v>3.05</v>
+      </c>
+      <c r="BP122">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:68">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123">
+        <v>7491614</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" t="s">
+        <v>69</v>
+      </c>
+      <c r="E123" s="2">
+        <v>45626.375</v>
+      </c>
+      <c r="F123">
+        <v>14</v>
+      </c>
+      <c r="G123" t="s">
+        <v>86</v>
+      </c>
+      <c r="H123" t="s">
+        <v>79</v>
+      </c>
+      <c r="I123">
+        <v>0</v>
+      </c>
+      <c r="J123">
+        <v>0</v>
+      </c>
+      <c r="K123">
+        <v>0</v>
+      </c>
+      <c r="L123">
+        <v>0</v>
+      </c>
+      <c r="M123">
+        <v>0</v>
+      </c>
+      <c r="N123">
+        <v>0</v>
+      </c>
+      <c r="O123" t="s">
+        <v>92</v>
+      </c>
+      <c r="P123" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q123">
+        <v>2.05</v>
+      </c>
+      <c r="R123">
+        <v>2.35</v>
+      </c>
+      <c r="S123">
+        <v>5</v>
+      </c>
+      <c r="T123">
+        <v>1.33</v>
+      </c>
+      <c r="U123">
+        <v>3.05</v>
+      </c>
+      <c r="V123">
+        <v>2.5</v>
+      </c>
+      <c r="W123">
+        <v>1.48</v>
+      </c>
+      <c r="X123">
+        <v>5.5</v>
+      </c>
+      <c r="Y123">
+        <v>1.12</v>
+      </c>
+      <c r="Z123">
+        <v>1.86</v>
+      </c>
+      <c r="AA123">
+        <v>4.73</v>
+      </c>
+      <c r="AB123">
+        <v>2.77</v>
+      </c>
+      <c r="AC123">
+        <v>1</v>
+      </c>
+      <c r="AD123">
+        <v>8.300000000000001</v>
+      </c>
+      <c r="AE123">
+        <v>1.22</v>
+      </c>
+      <c r="AF123">
+        <v>4</v>
+      </c>
+      <c r="AG123">
+        <v>1.66</v>
+      </c>
+      <c r="AH123">
+        <v>2.05</v>
+      </c>
+      <c r="AI123">
+        <v>1.75</v>
+      </c>
+      <c r="AJ123">
+        <v>2</v>
+      </c>
+      <c r="AK123">
+        <v>1.1</v>
+      </c>
+      <c r="AL123">
+        <v>1.17</v>
+      </c>
+      <c r="AM123">
+        <v>2.35</v>
+      </c>
+      <c r="AN123">
+        <v>1.67</v>
+      </c>
+      <c r="AO123">
+        <v>0</v>
+      </c>
+      <c r="AP123">
+        <v>1.57</v>
+      </c>
+      <c r="AQ123">
+        <v>0.14</v>
+      </c>
+      <c r="AR123">
+        <v>1.47</v>
+      </c>
+      <c r="AS123">
+        <v>1.06</v>
+      </c>
+      <c r="AT123">
+        <v>2.53</v>
+      </c>
+      <c r="AU123">
+        <v>2</v>
+      </c>
+      <c r="AV123">
+        <v>6</v>
+      </c>
+      <c r="AW123">
+        <v>4</v>
+      </c>
+      <c r="AX123">
+        <v>6</v>
+      </c>
+      <c r="AY123">
+        <v>9</v>
+      </c>
+      <c r="AZ123">
+        <v>18</v>
+      </c>
+      <c r="BA123">
+        <v>2</v>
+      </c>
+      <c r="BB123">
+        <v>10</v>
+      </c>
+      <c r="BC123">
+        <v>12</v>
+      </c>
+      <c r="BD123">
+        <v>1.46</v>
+      </c>
+      <c r="BE123">
+        <v>6.4</v>
+      </c>
+      <c r="BF123">
+        <v>2.9</v>
+      </c>
+      <c r="BG123">
+        <v>1.37</v>
+      </c>
+      <c r="BH123">
+        <v>2.8</v>
+      </c>
+      <c r="BI123">
+        <v>1.63</v>
+      </c>
+      <c r="BJ123">
+        <v>2.12</v>
+      </c>
+      <c r="BK123">
+        <v>2</v>
+      </c>
+      <c r="BL123">
+        <v>1.71</v>
+      </c>
+      <c r="BM123">
+        <v>2.55</v>
+      </c>
+      <c r="BN123">
+        <v>1.44</v>
+      </c>
+      <c r="BO123">
+        <v>3.3</v>
+      </c>
+      <c r="BP123">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="124" spans="1:68">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124">
+        <v>7491608</v>
+      </c>
+      <c r="C124" t="s">
+        <v>68</v>
+      </c>
+      <c r="D124" t="s">
+        <v>69</v>
+      </c>
+      <c r="E124" s="2">
+        <v>45626.6875</v>
+      </c>
+      <c r="F124">
+        <v>14</v>
+      </c>
+      <c r="G124" t="s">
+        <v>76</v>
+      </c>
+      <c r="H124" t="s">
+        <v>87</v>
+      </c>
+      <c r="I124">
+        <v>0</v>
+      </c>
+      <c r="J124">
+        <v>0</v>
+      </c>
+      <c r="K124">
+        <v>0</v>
+      </c>
+      <c r="L124">
+        <v>0</v>
+      </c>
+      <c r="M124">
+        <v>0</v>
+      </c>
+      <c r="N124">
+        <v>0</v>
+      </c>
+      <c r="O124" t="s">
+        <v>92</v>
+      </c>
+      <c r="P124" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q124">
+        <v>2.25</v>
+      </c>
+      <c r="R124">
+        <v>2.3</v>
+      </c>
+      <c r="S124">
+        <v>4.2</v>
+      </c>
+      <c r="T124">
+        <v>1.28</v>
+      </c>
+      <c r="U124">
+        <v>3.3</v>
+      </c>
+      <c r="V124">
+        <v>2.3</v>
+      </c>
+      <c r="W124">
+        <v>1.55</v>
+      </c>
+      <c r="X124">
+        <v>5.2</v>
+      </c>
+      <c r="Y124">
+        <v>1.12</v>
+      </c>
+      <c r="Z124">
+        <v>1.71</v>
+      </c>
+      <c r="AA124">
+        <v>3.59</v>
+      </c>
+      <c r="AB124">
+        <v>3.76</v>
+      </c>
+      <c r="AC124">
+        <v>1.04</v>
+      </c>
+      <c r="AD124">
+        <v>10</v>
+      </c>
+      <c r="AE124">
+        <v>1.2</v>
+      </c>
+      <c r="AF124">
+        <v>4.5</v>
+      </c>
+      <c r="AG124">
+        <v>1.57</v>
+      </c>
+      <c r="AH124">
+        <v>2.25</v>
+      </c>
+      <c r="AI124">
+        <v>1.55</v>
+      </c>
+      <c r="AJ124">
+        <v>2.25</v>
+      </c>
+      <c r="AK124">
+        <v>1.22</v>
+      </c>
+      <c r="AL124">
+        <v>1.2</v>
+      </c>
+      <c r="AM124">
+        <v>2</v>
+      </c>
+      <c r="AN124">
+        <v>1.29</v>
+      </c>
+      <c r="AO124">
+        <v>0.83</v>
+      </c>
+      <c r="AP124">
+        <v>1.25</v>
+      </c>
+      <c r="AQ124">
+        <v>0.86</v>
+      </c>
+      <c r="AR124">
+        <v>1.46</v>
+      </c>
+      <c r="AS124">
+        <v>1.38</v>
+      </c>
+      <c r="AT124">
+        <v>2.84</v>
+      </c>
+      <c r="AU124">
+        <v>2</v>
+      </c>
+      <c r="AV124">
+        <v>3</v>
+      </c>
+      <c r="AW124">
+        <v>9</v>
+      </c>
+      <c r="AX124">
+        <v>2</v>
+      </c>
+      <c r="AY124">
+        <v>17</v>
+      </c>
+      <c r="AZ124">
+        <v>5</v>
+      </c>
+      <c r="BA124">
+        <v>6</v>
+      </c>
+      <c r="BB124">
+        <v>1</v>
+      </c>
+      <c r="BC124">
+        <v>7</v>
+      </c>
+      <c r="BD124">
+        <v>1.54</v>
+      </c>
+      <c r="BE124">
+        <v>6.4</v>
+      </c>
+      <c r="BF124">
+        <v>2.55</v>
+      </c>
+      <c r="BG124">
+        <v>1.2</v>
+      </c>
+      <c r="BH124">
+        <v>3.95</v>
+      </c>
+      <c r="BI124">
+        <v>1.35</v>
+      </c>
+      <c r="BJ124">
+        <v>2.9</v>
+      </c>
+      <c r="BK124">
+        <v>1.56</v>
+      </c>
+      <c r="BL124">
+        <v>2.23</v>
+      </c>
+      <c r="BM124">
+        <v>1.88</v>
+      </c>
+      <c r="BN124">
+        <v>1.81</v>
+      </c>
+      <c r="BO124">
+        <v>2.3</v>
+      </c>
+      <c r="BP124">
+        <v>1.53</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="806" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,15 @@
     <t>['27']</t>
   </si>
   <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['15', '84']</t>
+  </si>
+  <si>
+    <t>['45+1']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -779,6 +788,12 @@
   </si>
   <si>
     <t>['45+3', '63', '80']</t>
+  </si>
+  <si>
+    <t>['23', '55', '87']</t>
+  </si>
+  <si>
+    <t>['67', '90']</t>
   </si>
 </sst>
 </file>
@@ -1140,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP124"/>
+  <dimension ref="A1:BP127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1399,7 +1414,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1480,7 +1495,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1605,7 +1620,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1683,7 +1698,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ3">
         <v>1.14</v>
@@ -2017,7 +2032,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2429,7 +2444,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2635,7 +2650,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2716,7 +2731,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ8">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2841,7 +2856,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3047,7 +3062,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3125,7 +3140,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ10">
         <v>1.75</v>
@@ -3459,7 +3474,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3540,7 +3555,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ12">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3743,7 +3758,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ13">
         <v>0.86</v>
@@ -3871,7 +3886,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4283,7 +4298,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4489,7 +4504,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4695,7 +4710,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5107,7 +5122,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5185,7 +5200,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ20">
         <v>1.29</v>
@@ -5394,7 +5409,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ21">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5519,7 +5534,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5725,7 +5740,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6343,7 +6358,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6421,10 +6436,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ26">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR26">
         <v>1.22</v>
@@ -6549,7 +6564,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6755,7 +6770,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7167,7 +7182,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7248,7 +7263,7 @@
         <v>1</v>
       </c>
       <c r="AQ30">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR30">
         <v>0.79</v>
@@ -7373,7 +7388,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7785,7 +7800,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7863,7 +7878,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ33">
         <v>2.29</v>
@@ -7991,7 +8006,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8403,7 +8418,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8609,7 +8624,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8815,7 +8830,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9099,7 +9114,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ39">
         <v>0.86</v>
@@ -9227,7 +9242,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9433,7 +9448,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9511,7 +9526,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ41">
         <v>1.14</v>
@@ -9639,7 +9654,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9845,7 +9860,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10257,7 +10272,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10338,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="AQ45">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR45">
         <v>1.24</v>
@@ -10669,7 +10684,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10875,7 +10890,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11081,7 +11096,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11287,7 +11302,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11365,7 +11380,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -11574,7 +11589,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ51">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -11699,7 +11714,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11780,7 +11795,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ52">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR52">
         <v>1.99</v>
@@ -11905,7 +11920,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12111,7 +12126,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12317,7 +12332,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12523,7 +12538,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12601,7 +12616,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ56">
         <v>0.29</v>
@@ -12729,7 +12744,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12810,7 +12825,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ57">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR57">
         <v>1.49</v>
@@ -12935,7 +12950,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13347,7 +13362,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13553,7 +13568,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13965,7 +13980,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14171,7 +14186,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14583,7 +14598,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -14661,7 +14676,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ66">
         <v>1.67</v>
@@ -15201,7 +15216,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15279,7 +15294,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ69">
         <v>0.86</v>
@@ -15407,7 +15422,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15613,7 +15628,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15694,7 +15709,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ71">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -16025,7 +16040,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16106,7 +16121,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ73">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR73">
         <v>1.59</v>
@@ -16231,7 +16246,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16437,7 +16452,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16643,7 +16658,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16849,7 +16864,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -16930,7 +16945,7 @@
         <v>1</v>
       </c>
       <c r="AQ77">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR77">
         <v>1.26</v>
@@ -17545,7 +17560,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ80">
         <v>1.71</v>
@@ -17673,7 +17688,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17879,7 +17894,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18085,7 +18100,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18291,7 +18306,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18369,7 +18384,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ84">
         <v>0.14</v>
@@ -18497,7 +18512,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18575,7 +18590,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ85">
         <v>2</v>
@@ -18703,7 +18718,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18784,7 +18799,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR86">
         <v>1.49</v>
@@ -18909,7 +18924,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -18990,7 +19005,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ87">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR87">
         <v>1.33</v>
@@ -19115,7 +19130,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19321,7 +19336,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19527,7 +19542,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20020,7 +20035,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ92">
-        <v>2.5</v>
+        <v>2.29</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -20223,7 +20238,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="AQ93">
         <v>0.86</v>
@@ -20557,7 +20572,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -20969,7 +20984,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21175,7 +21190,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21587,7 +21602,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21793,7 +21808,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -21874,7 +21889,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ101">
-        <v>1.17</v>
+        <v>1.43</v>
       </c>
       <c r="AR101">
         <v>1.49</v>
@@ -22077,7 +22092,7 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AQ102">
         <v>1.75</v>
@@ -22286,7 +22301,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ103">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="AR103">
         <v>1.96</v>
@@ -22411,7 +22426,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22823,7 +22838,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23029,7 +23044,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23107,7 +23122,7 @@
         <v>0.8</v>
       </c>
       <c r="AP107">
-        <v>1.83</v>
+        <v>1.57</v>
       </c>
       <c r="AQ107">
         <v>0.86</v>
@@ -23441,7 +23456,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23647,7 +23662,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24059,7 +24074,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24265,7 +24280,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24471,7 +24486,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24677,7 +24692,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24883,7 +24898,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25089,7 +25104,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25295,7 +25310,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25501,7 +25516,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25707,7 +25722,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25806,13 +25821,13 @@
         <v>10</v>
       </c>
       <c r="AW120">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX120">
         <v>4</v>
       </c>
       <c r="AY120">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ120">
         <v>16</v>
@@ -25880,7 +25895,7 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45626.375</v>
+        <v>45625.875</v>
       </c>
       <c r="F121">
         <v>14</v>
@@ -25913,7 +25928,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26119,7 +26134,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -26688,6 +26703,624 @@
       </c>
       <c r="BP124">
         <v>1.53</v>
+      </c>
+    </row>
+    <row r="125" spans="1:68">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125">
+        <v>7491609</v>
+      </c>
+      <c r="C125" t="s">
+        <v>68</v>
+      </c>
+      <c r="D125" t="s">
+        <v>69</v>
+      </c>
+      <c r="E125" s="2">
+        <v>45627.39583333334</v>
+      </c>
+      <c r="F125">
+        <v>14</v>
+      </c>
+      <c r="G125" t="s">
+        <v>71</v>
+      </c>
+      <c r="H125" t="s">
+        <v>84</v>
+      </c>
+      <c r="I125">
+        <v>1</v>
+      </c>
+      <c r="J125">
+        <v>1</v>
+      </c>
+      <c r="K125">
+        <v>2</v>
+      </c>
+      <c r="L125">
+        <v>1</v>
+      </c>
+      <c r="M125">
+        <v>3</v>
+      </c>
+      <c r="N125">
+        <v>4</v>
+      </c>
+      <c r="O125" t="s">
+        <v>175</v>
+      </c>
+      <c r="P125" t="s">
+        <v>258</v>
+      </c>
+      <c r="Q125">
+        <v>3</v>
+      </c>
+      <c r="R125">
+        <v>2.4</v>
+      </c>
+      <c r="S125">
+        <v>3.1</v>
+      </c>
+      <c r="T125">
+        <v>1.29</v>
+      </c>
+      <c r="U125">
+        <v>3.5</v>
+      </c>
+      <c r="V125">
+        <v>2.25</v>
+      </c>
+      <c r="W125">
+        <v>1.57</v>
+      </c>
+      <c r="X125">
+        <v>5.5</v>
+      </c>
+      <c r="Y125">
+        <v>1.14</v>
+      </c>
+      <c r="Z125">
+        <v>2.58</v>
+      </c>
+      <c r="AA125">
+        <v>3.56</v>
+      </c>
+      <c r="AB125">
+        <v>2.58</v>
+      </c>
+      <c r="AC125">
+        <v>1.01</v>
+      </c>
+      <c r="AD125">
+        <v>16.5</v>
+      </c>
+      <c r="AE125">
+        <v>1.17</v>
+      </c>
+      <c r="AF125">
+        <v>5.19</v>
+      </c>
+      <c r="AG125">
+        <v>1.63</v>
+      </c>
+      <c r="AH125">
+        <v>2.55</v>
+      </c>
+      <c r="AI125">
+        <v>1.44</v>
+      </c>
+      <c r="AJ125">
+        <v>2.63</v>
+      </c>
+      <c r="AK125">
+        <v>1.45</v>
+      </c>
+      <c r="AL125">
+        <v>1.28</v>
+      </c>
+      <c r="AM125">
+        <v>1.52</v>
+      </c>
+      <c r="AN125">
+        <v>1.83</v>
+      </c>
+      <c r="AO125">
+        <v>1.17</v>
+      </c>
+      <c r="AP125">
+        <v>1.57</v>
+      </c>
+      <c r="AQ125">
+        <v>1.43</v>
+      </c>
+      <c r="AR125">
+        <v>1.52</v>
+      </c>
+      <c r="AS125">
+        <v>1.45</v>
+      </c>
+      <c r="AT125">
+        <v>2.97</v>
+      </c>
+      <c r="AU125">
+        <v>5</v>
+      </c>
+      <c r="AV125">
+        <v>9</v>
+      </c>
+      <c r="AW125">
+        <v>9</v>
+      </c>
+      <c r="AX125">
+        <v>7</v>
+      </c>
+      <c r="AY125">
+        <v>22</v>
+      </c>
+      <c r="AZ125">
+        <v>20</v>
+      </c>
+      <c r="BA125">
+        <v>7</v>
+      </c>
+      <c r="BB125">
+        <v>7</v>
+      </c>
+      <c r="BC125">
+        <v>14</v>
+      </c>
+      <c r="BD125">
+        <v>1.91</v>
+      </c>
+      <c r="BE125">
+        <v>6.4</v>
+      </c>
+      <c r="BF125">
+        <v>1.98</v>
+      </c>
+      <c r="BG125">
+        <v>1.2</v>
+      </c>
+      <c r="BH125">
+        <v>3.95</v>
+      </c>
+      <c r="BI125">
+        <v>1.34</v>
+      </c>
+      <c r="BJ125">
+        <v>2.9</v>
+      </c>
+      <c r="BK125">
+        <v>1.55</v>
+      </c>
+      <c r="BL125">
+        <v>2.25</v>
+      </c>
+      <c r="BM125">
+        <v>1.86</v>
+      </c>
+      <c r="BN125">
+        <v>1.82</v>
+      </c>
+      <c r="BO125">
+        <v>2.3</v>
+      </c>
+      <c r="BP125">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="126" spans="1:68">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126">
+        <v>7491612</v>
+      </c>
+      <c r="C126" t="s">
+        <v>68</v>
+      </c>
+      <c r="D126" t="s">
+        <v>69</v>
+      </c>
+      <c r="E126" s="2">
+        <v>45627.39583333334</v>
+      </c>
+      <c r="F126">
+        <v>14</v>
+      </c>
+      <c r="G126" t="s">
+        <v>81</v>
+      </c>
+      <c r="H126" t="s">
+        <v>83</v>
+      </c>
+      <c r="I126">
+        <v>1</v>
+      </c>
+      <c r="J126">
+        <v>0</v>
+      </c>
+      <c r="K126">
+        <v>1</v>
+      </c>
+      <c r="L126">
+        <v>2</v>
+      </c>
+      <c r="M126">
+        <v>2</v>
+      </c>
+      <c r="N126">
+        <v>4</v>
+      </c>
+      <c r="O126" t="s">
+        <v>176</v>
+      </c>
+      <c r="P126" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q126">
+        <v>3.25</v>
+      </c>
+      <c r="R126">
+        <v>2.25</v>
+      </c>
+      <c r="S126">
+        <v>3</v>
+      </c>
+      <c r="T126">
+        <v>1.33</v>
+      </c>
+      <c r="U126">
+        <v>3.25</v>
+      </c>
+      <c r="V126">
+        <v>2.63</v>
+      </c>
+      <c r="W126">
+        <v>1.44</v>
+      </c>
+      <c r="X126">
+        <v>7</v>
+      </c>
+      <c r="Y126">
+        <v>1.1</v>
+      </c>
+      <c r="Z126">
+        <v>2.76</v>
+      </c>
+      <c r="AA126">
+        <v>3.58</v>
+      </c>
+      <c r="AB126">
+        <v>2.4</v>
+      </c>
+      <c r="AC126">
+        <v>1.01</v>
+      </c>
+      <c r="AD126">
+        <v>13</v>
+      </c>
+      <c r="AE126">
+        <v>1.23</v>
+      </c>
+      <c r="AF126">
+        <v>4.17</v>
+      </c>
+      <c r="AG126">
+        <v>1.61</v>
+      </c>
+      <c r="AH126">
+        <v>2.05</v>
+      </c>
+      <c r="AI126">
+        <v>1.57</v>
+      </c>
+      <c r="AJ126">
+        <v>2.25</v>
+      </c>
+      <c r="AK126">
+        <v>1.53</v>
+      </c>
+      <c r="AL126">
+        <v>1.25</v>
+      </c>
+      <c r="AM126">
+        <v>1.45</v>
+      </c>
+      <c r="AN126">
+        <v>1.67</v>
+      </c>
+      <c r="AO126">
+        <v>2.5</v>
+      </c>
+      <c r="AP126">
+        <v>1.57</v>
+      </c>
+      <c r="AQ126">
+        <v>2.29</v>
+      </c>
+      <c r="AR126">
+        <v>1.45</v>
+      </c>
+      <c r="AS126">
+        <v>1.27</v>
+      </c>
+      <c r="AT126">
+        <v>2.72</v>
+      </c>
+      <c r="AU126">
+        <v>6</v>
+      </c>
+      <c r="AV126">
+        <v>8</v>
+      </c>
+      <c r="AW126">
+        <v>5</v>
+      </c>
+      <c r="AX126">
+        <v>5</v>
+      </c>
+      <c r="AY126">
+        <v>15</v>
+      </c>
+      <c r="AZ126">
+        <v>16</v>
+      </c>
+      <c r="BA126">
+        <v>12</v>
+      </c>
+      <c r="BB126">
+        <v>5</v>
+      </c>
+      <c r="BC126">
+        <v>17</v>
+      </c>
+      <c r="BD126">
+        <v>1.95</v>
+      </c>
+      <c r="BE126">
+        <v>6.4</v>
+      </c>
+      <c r="BF126">
+        <v>1.93</v>
+      </c>
+      <c r="BG126">
+        <v>1.21</v>
+      </c>
+      <c r="BH126">
+        <v>3.8</v>
+      </c>
+      <c r="BI126">
+        <v>1.38</v>
+      </c>
+      <c r="BJ126">
+        <v>2.75</v>
+      </c>
+      <c r="BK126">
+        <v>1.63</v>
+      </c>
+      <c r="BL126">
+        <v>2.12</v>
+      </c>
+      <c r="BM126">
+        <v>1.98</v>
+      </c>
+      <c r="BN126">
+        <v>1.72</v>
+      </c>
+      <c r="BO126">
+        <v>2.48</v>
+      </c>
+      <c r="BP126">
+        <v>1.46</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>7491615</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45627.39583333334</v>
+      </c>
+      <c r="F127">
+        <v>14</v>
+      </c>
+      <c r="G127" t="s">
+        <v>78</v>
+      </c>
+      <c r="H127" t="s">
+        <v>77</v>
+      </c>
+      <c r="I127">
+        <v>1</v>
+      </c>
+      <c r="J127">
+        <v>1</v>
+      </c>
+      <c r="K127">
+        <v>2</v>
+      </c>
+      <c r="L127">
+        <v>1</v>
+      </c>
+      <c r="M127">
+        <v>1</v>
+      </c>
+      <c r="N127">
+        <v>2</v>
+      </c>
+      <c r="O127" t="s">
+        <v>177</v>
+      </c>
+      <c r="P127" t="s">
+        <v>154</v>
+      </c>
+      <c r="Q127">
+        <v>3.1</v>
+      </c>
+      <c r="R127">
+        <v>2.2</v>
+      </c>
+      <c r="S127">
+        <v>3.4</v>
+      </c>
+      <c r="T127">
+        <v>1.4</v>
+      </c>
+      <c r="U127">
+        <v>2.75</v>
+      </c>
+      <c r="V127">
+        <v>2.75</v>
+      </c>
+      <c r="W127">
+        <v>1.4</v>
+      </c>
+      <c r="X127">
+        <v>8</v>
+      </c>
+      <c r="Y127">
+        <v>1.08</v>
+      </c>
+      <c r="Z127">
+        <v>2.26</v>
+      </c>
+      <c r="AA127">
+        <v>3.46</v>
+      </c>
+      <c r="AB127">
+        <v>3.06</v>
+      </c>
+      <c r="AC127">
+        <v>1.01</v>
+      </c>
+      <c r="AD127">
+        <v>7.5</v>
+      </c>
+      <c r="AE127">
+        <v>1.28</v>
+      </c>
+      <c r="AF127">
+        <v>3.74</v>
+      </c>
+      <c r="AG127">
+        <v>1.82</v>
+      </c>
+      <c r="AH127">
+        <v>1.99</v>
+      </c>
+      <c r="AI127">
+        <v>1.67</v>
+      </c>
+      <c r="AJ127">
+        <v>2.1</v>
+      </c>
+      <c r="AK127">
+        <v>1.42</v>
+      </c>
+      <c r="AL127">
+        <v>1.25</v>
+      </c>
+      <c r="AM127">
+        <v>1.57</v>
+      </c>
+      <c r="AN127">
+        <v>0.67</v>
+      </c>
+      <c r="AO127">
+        <v>1.33</v>
+      </c>
+      <c r="AP127">
+        <v>0.71</v>
+      </c>
+      <c r="AQ127">
+        <v>1.29</v>
+      </c>
+      <c r="AR127">
+        <v>1.54</v>
+      </c>
+      <c r="AS127">
+        <v>1.37</v>
+      </c>
+      <c r="AT127">
+        <v>2.91</v>
+      </c>
+      <c r="AU127">
+        <v>4</v>
+      </c>
+      <c r="AV127">
+        <v>3</v>
+      </c>
+      <c r="AW127">
+        <v>3</v>
+      </c>
+      <c r="AX127">
+        <v>4</v>
+      </c>
+      <c r="AY127">
+        <v>8</v>
+      </c>
+      <c r="AZ127">
+        <v>15</v>
+      </c>
+      <c r="BA127">
+        <v>4</v>
+      </c>
+      <c r="BB127">
+        <v>3</v>
+      </c>
+      <c r="BC127">
+        <v>7</v>
+      </c>
+      <c r="BD127">
+        <v>1.84</v>
+      </c>
+      <c r="BE127">
+        <v>6.75</v>
+      </c>
+      <c r="BF127">
+        <v>2.07</v>
+      </c>
+      <c r="BG127">
+        <v>1.22</v>
+      </c>
+      <c r="BH127">
+        <v>3.7</v>
+      </c>
+      <c r="BI127">
+        <v>1.38</v>
+      </c>
+      <c r="BJ127">
+        <v>2.7</v>
+      </c>
+      <c r="BK127">
+        <v>1.63</v>
+      </c>
+      <c r="BL127">
+        <v>2.12</v>
+      </c>
+      <c r="BM127">
+        <v>1.96</v>
+      </c>
+      <c r="BN127">
+        <v>1.73</v>
+      </c>
+      <c r="BO127">
+        <v>2.45</v>
+      </c>
+      <c r="BP127">
+        <v>1.48</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -541,10 +541,10 @@
     <t>['27']</t>
   </si>
   <si>
-    <t>['36']</t>
+    <t>['15', '84']</t>
   </si>
   <si>
-    <t>['15', '84']</t>
+    <t>['36']</t>
   </si>
   <si>
     <t>['45+1']</t>
@@ -790,10 +790,10 @@
     <t>['45+3', '63', '80']</t>
   </si>
   <si>
-    <t>['23', '55', '87']</t>
+    <t>['67', '90']</t>
   </si>
   <si>
-    <t>['67', '90']</t>
+    <t>['23', '55', '87']</t>
   </si>
 </sst>
 </file>
@@ -25895,7 +25895,7 @@
         <v>69</v>
       </c>
       <c r="E121" s="2">
-        <v>45625.875</v>
+        <v>45626.375</v>
       </c>
       <c r="F121">
         <v>14</v>
@@ -26710,7 +26710,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7491609</v>
+        <v>7491612</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26719,31 +26719,31 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45627.39583333334</v>
+        <v>45626.875</v>
       </c>
       <c r="F125">
         <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H125" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M125">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N125">
         <v>4</v>
@@ -26755,160 +26755,160 @@
         <v>258</v>
       </c>
       <c r="Q125">
+        <v>3.25</v>
+      </c>
+      <c r="R125">
+        <v>2.25</v>
+      </c>
+      <c r="S125">
         <v>3</v>
       </c>
-      <c r="R125">
+      <c r="T125">
+        <v>1.33</v>
+      </c>
+      <c r="U125">
+        <v>3.25</v>
+      </c>
+      <c r="V125">
+        <v>2.63</v>
+      </c>
+      <c r="W125">
+        <v>1.44</v>
+      </c>
+      <c r="X125">
+        <v>7</v>
+      </c>
+      <c r="Y125">
+        <v>1.1</v>
+      </c>
+      <c r="Z125">
+        <v>2.76</v>
+      </c>
+      <c r="AA125">
+        <v>3.58</v>
+      </c>
+      <c r="AB125">
         <v>2.4</v>
-      </c>
-      <c r="S125">
-        <v>3.1</v>
-      </c>
-      <c r="T125">
-        <v>1.29</v>
-      </c>
-      <c r="U125">
-        <v>3.5</v>
-      </c>
-      <c r="V125">
-        <v>2.25</v>
-      </c>
-      <c r="W125">
-        <v>1.57</v>
-      </c>
-      <c r="X125">
-        <v>5.5</v>
-      </c>
-      <c r="Y125">
-        <v>1.14</v>
-      </c>
-      <c r="Z125">
-        <v>2.58</v>
-      </c>
-      <c r="AA125">
-        <v>3.56</v>
-      </c>
-      <c r="AB125">
-        <v>2.58</v>
       </c>
       <c r="AC125">
         <v>1.01</v>
       </c>
       <c r="AD125">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AE125">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AF125">
-        <v>5.19</v>
+        <v>4.17</v>
       </c>
       <c r="AG125">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AH125">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="AI125">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AJ125">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AK125">
+        <v>1.53</v>
+      </c>
+      <c r="AL125">
+        <v>1.25</v>
+      </c>
+      <c r="AM125">
         <v>1.45</v>
       </c>
-      <c r="AL125">
-        <v>1.28</v>
-      </c>
-      <c r="AM125">
-        <v>1.52</v>
-      </c>
       <c r="AN125">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AO125">
-        <v>1.17</v>
+        <v>2.5</v>
       </c>
       <c r="AP125">
         <v>1.57</v>
       </c>
       <c r="AQ125">
-        <v>1.43</v>
+        <v>2.29</v>
       </c>
       <c r="AR125">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AS125">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AT125">
-        <v>2.97</v>
+        <v>2.72</v>
       </c>
       <c r="AU125">
+        <v>6</v>
+      </c>
+      <c r="AV125">
+        <v>8</v>
+      </c>
+      <c r="AW125">
         <v>5</v>
       </c>
-      <c r="AV125">
-        <v>9</v>
-      </c>
-      <c r="AW125">
-        <v>9</v>
-      </c>
       <c r="AX125">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AY125">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="AZ125">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="BA125">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BB125">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC125">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BD125">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="BE125">
         <v>6.4</v>
       </c>
       <c r="BF125">
+        <v>1.93</v>
+      </c>
+      <c r="BG125">
+        <v>1.21</v>
+      </c>
+      <c r="BH125">
+        <v>3.8</v>
+      </c>
+      <c r="BI125">
+        <v>1.38</v>
+      </c>
+      <c r="BJ125">
+        <v>2.75</v>
+      </c>
+      <c r="BK125">
+        <v>1.63</v>
+      </c>
+      <c r="BL125">
+        <v>2.12</v>
+      </c>
+      <c r="BM125">
         <v>1.98</v>
       </c>
-      <c r="BG125">
-        <v>1.2</v>
-      </c>
-      <c r="BH125">
-        <v>3.95</v>
-      </c>
-      <c r="BI125">
-        <v>1.34</v>
-      </c>
-      <c r="BJ125">
-        <v>2.9</v>
-      </c>
-      <c r="BK125">
-        <v>1.55</v>
-      </c>
-      <c r="BL125">
-        <v>2.25</v>
-      </c>
-      <c r="BM125">
-        <v>1.86</v>
-      </c>
       <c r="BN125">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="BO125">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="BP125">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -26916,7 +26916,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7491612</v>
+        <v>7491609</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -26931,25 +26931,25 @@
         <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H126" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M126">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N126">
         <v>4</v>
@@ -26961,160 +26961,160 @@
         <v>259</v>
       </c>
       <c r="Q126">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R126">
+        <v>2.4</v>
+      </c>
+      <c r="S126">
+        <v>3.1</v>
+      </c>
+      <c r="T126">
+        <v>1.29</v>
+      </c>
+      <c r="U126">
+        <v>3.5</v>
+      </c>
+      <c r="V126">
         <v>2.25</v>
       </c>
-      <c r="S126">
-        <v>3</v>
-      </c>
-      <c r="T126">
-        <v>1.33</v>
-      </c>
-      <c r="U126">
-        <v>3.25</v>
-      </c>
-      <c r="V126">
-        <v>2.63</v>
-      </c>
       <c r="W126">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="X126">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y126">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z126">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="AA126">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="AB126">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="AC126">
         <v>1.01</v>
       </c>
       <c r="AD126">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AE126">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AF126">
-        <v>4.17</v>
+        <v>5.19</v>
       </c>
       <c r="AG126">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AH126">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="AI126">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AJ126">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AK126">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AL126">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM126">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AN126">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AO126">
-        <v>2.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP126">
         <v>1.57</v>
       </c>
       <c r="AQ126">
-        <v>2.29</v>
+        <v>1.43</v>
       </c>
       <c r="AR126">
+        <v>1.52</v>
+      </c>
+      <c r="AS126">
         <v>1.45</v>
       </c>
-      <c r="AS126">
-        <v>1.27</v>
-      </c>
       <c r="AT126">
-        <v>2.72</v>
+        <v>2.97</v>
       </c>
       <c r="AU126">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV126">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW126">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX126">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY126">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="AZ126">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="BA126">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BB126">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC126">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BD126">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="BE126">
         <v>6.4</v>
       </c>
       <c r="BF126">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="BG126">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BH126">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="BI126">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BJ126">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="BK126">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="BL126">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="BM126">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="BN126">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="BO126">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="BP126">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="127" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -26860,7 +26860,7 @@
         <v>15</v>
       </c>
       <c r="AZ125">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="BA125">
         <v>12</v>
@@ -27057,13 +27057,13 @@
         <v>9</v>
       </c>
       <c r="AW126">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AX126">
         <v>7</v>
       </c>
       <c r="AY126">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AZ126">
         <v>20</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -541,10 +541,10 @@
     <t>['27']</t>
   </si>
   <si>
-    <t>['15', '84']</t>
+    <t>['36']</t>
   </si>
   <si>
-    <t>['36']</t>
+    <t>['15', '84']</t>
   </si>
   <si>
     <t>['45+1']</t>
@@ -790,10 +790,10 @@
     <t>['45+3', '63', '80']</t>
   </si>
   <si>
-    <t>['67', '90']</t>
+    <t>['23', '55', '87']</t>
   </si>
   <si>
-    <t>['23', '55', '87']</t>
+    <t>['67', '90']</t>
   </si>
 </sst>
 </file>
@@ -26710,7 +26710,7 @@
         <v>124</v>
       </c>
       <c r="B125">
-        <v>7491612</v>
+        <v>7491609</v>
       </c>
       <c r="C125" t="s">
         <v>68</v>
@@ -26719,31 +26719,31 @@
         <v>69</v>
       </c>
       <c r="E125" s="2">
-        <v>45626.875</v>
+        <v>45627.39583333334</v>
       </c>
       <c r="F125">
         <v>14</v>
       </c>
       <c r="G125" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="H125" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="I125">
         <v>1</v>
       </c>
       <c r="J125">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K125">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L125">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M125">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N125">
         <v>4</v>
@@ -26755,160 +26755,160 @@
         <v>258</v>
       </c>
       <c r="Q125">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="R125">
+        <v>2.4</v>
+      </c>
+      <c r="S125">
+        <v>3.1</v>
+      </c>
+      <c r="T125">
+        <v>1.29</v>
+      </c>
+      <c r="U125">
+        <v>3.5</v>
+      </c>
+      <c r="V125">
         <v>2.25</v>
       </c>
-      <c r="S125">
-        <v>3</v>
-      </c>
-      <c r="T125">
-        <v>1.33</v>
-      </c>
-      <c r="U125">
-        <v>3.25</v>
-      </c>
-      <c r="V125">
-        <v>2.63</v>
-      </c>
       <c r="W125">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="X125">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y125">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z125">
-        <v>2.76</v>
+        <v>2.58</v>
       </c>
       <c r="AA125">
-        <v>3.58</v>
+        <v>3.56</v>
       </c>
       <c r="AB125">
-        <v>2.4</v>
+        <v>2.58</v>
       </c>
       <c r="AC125">
         <v>1.01</v>
       </c>
       <c r="AD125">
-        <v>13</v>
+        <v>16.5</v>
       </c>
       <c r="AE125">
-        <v>1.23</v>
+        <v>1.17</v>
       </c>
       <c r="AF125">
-        <v>4.17</v>
+        <v>5.19</v>
       </c>
       <c r="AG125">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="AH125">
-        <v>2.05</v>
+        <v>2.55</v>
       </c>
       <c r="AI125">
-        <v>1.57</v>
+        <v>1.44</v>
       </c>
       <c r="AJ125">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AK125">
-        <v>1.53</v>
+        <v>1.45</v>
       </c>
       <c r="AL125">
-        <v>1.25</v>
+        <v>1.28</v>
       </c>
       <c r="AM125">
-        <v>1.45</v>
+        <v>1.52</v>
       </c>
       <c r="AN125">
-        <v>1.67</v>
+        <v>1.83</v>
       </c>
       <c r="AO125">
-        <v>2.5</v>
+        <v>1.17</v>
       </c>
       <c r="AP125">
         <v>1.57</v>
       </c>
       <c r="AQ125">
-        <v>2.29</v>
+        <v>1.43</v>
       </c>
       <c r="AR125">
+        <v>1.52</v>
+      </c>
+      <c r="AS125">
         <v>1.45</v>
       </c>
-      <c r="AS125">
-        <v>1.27</v>
-      </c>
       <c r="AT125">
-        <v>2.72</v>
+        <v>2.97</v>
       </c>
       <c r="AU125">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV125">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AW125">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AX125">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY125">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AZ125">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BA125">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BB125">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BC125">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="BD125">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="BE125">
         <v>6.4</v>
       </c>
       <c r="BF125">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="BG125">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BH125">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="BI125">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="BJ125">
-        <v>2.75</v>
+        <v>2.9</v>
       </c>
       <c r="BK125">
-        <v>1.63</v>
+        <v>1.55</v>
       </c>
       <c r="BL125">
-        <v>2.12</v>
+        <v>2.25</v>
       </c>
       <c r="BM125">
-        <v>1.98</v>
+        <v>1.86</v>
       </c>
       <c r="BN125">
-        <v>1.72</v>
+        <v>1.82</v>
       </c>
       <c r="BO125">
-        <v>2.48</v>
+        <v>2.3</v>
       </c>
       <c r="BP125">
-        <v>1.46</v>
+        <v>1.54</v>
       </c>
     </row>
     <row r="126" spans="1:68">
@@ -26916,7 +26916,7 @@
         <v>125</v>
       </c>
       <c r="B126">
-        <v>7491609</v>
+        <v>7491612</v>
       </c>
       <c r="C126" t="s">
         <v>68</v>
@@ -26931,25 +26931,25 @@
         <v>14</v>
       </c>
       <c r="G126" t="s">
-        <v>71</v>
+        <v>81</v>
       </c>
       <c r="H126" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I126">
         <v>1</v>
       </c>
       <c r="J126">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K126">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L126">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N126">
         <v>4</v>
@@ -26961,94 +26961,94 @@
         <v>259</v>
       </c>
       <c r="Q126">
+        <v>3.25</v>
+      </c>
+      <c r="R126">
+        <v>2.25</v>
+      </c>
+      <c r="S126">
         <v>3</v>
       </c>
-      <c r="R126">
+      <c r="T126">
+        <v>1.33</v>
+      </c>
+      <c r="U126">
+        <v>3.25</v>
+      </c>
+      <c r="V126">
+        <v>2.63</v>
+      </c>
+      <c r="W126">
+        <v>1.44</v>
+      </c>
+      <c r="X126">
+        <v>7</v>
+      </c>
+      <c r="Y126">
+        <v>1.1</v>
+      </c>
+      <c r="Z126">
+        <v>2.76</v>
+      </c>
+      <c r="AA126">
+        <v>3.58</v>
+      </c>
+      <c r="AB126">
         <v>2.4</v>
-      </c>
-      <c r="S126">
-        <v>3.1</v>
-      </c>
-      <c r="T126">
-        <v>1.29</v>
-      </c>
-      <c r="U126">
-        <v>3.5</v>
-      </c>
-      <c r="V126">
-        <v>2.25</v>
-      </c>
-      <c r="W126">
-        <v>1.57</v>
-      </c>
-      <c r="X126">
-        <v>5.5</v>
-      </c>
-      <c r="Y126">
-        <v>1.14</v>
-      </c>
-      <c r="Z126">
-        <v>2.58</v>
-      </c>
-      <c r="AA126">
-        <v>3.56</v>
-      </c>
-      <c r="AB126">
-        <v>2.58</v>
       </c>
       <c r="AC126">
         <v>1.01</v>
       </c>
       <c r="AD126">
-        <v>16.5</v>
+        <v>13</v>
       </c>
       <c r="AE126">
-        <v>1.17</v>
+        <v>1.23</v>
       </c>
       <c r="AF126">
-        <v>5.19</v>
+        <v>4.17</v>
       </c>
       <c r="AG126">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="AH126">
-        <v>2.55</v>
+        <v>2.05</v>
       </c>
       <c r="AI126">
-        <v>1.44</v>
+        <v>1.57</v>
       </c>
       <c r="AJ126">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AK126">
+        <v>1.53</v>
+      </c>
+      <c r="AL126">
+        <v>1.25</v>
+      </c>
+      <c r="AM126">
         <v>1.45</v>
       </c>
-      <c r="AL126">
-        <v>1.28</v>
-      </c>
-      <c r="AM126">
-        <v>1.52</v>
-      </c>
       <c r="AN126">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="AO126">
-        <v>1.17</v>
+        <v>2.5</v>
       </c>
       <c r="AP126">
         <v>1.57</v>
       </c>
       <c r="AQ126">
-        <v>1.43</v>
+        <v>2.29</v>
       </c>
       <c r="AR126">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="AS126">
-        <v>1.45</v>
+        <v>1.27</v>
       </c>
       <c r="AT126">
-        <v>2.97</v>
+        <v>2.72</v>
       </c>
       <c r="AU126">
         <v>5</v>
@@ -27057,64 +27057,64 @@
         <v>9</v>
       </c>
       <c r="AW126">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX126">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AY126">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="AZ126">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="BA126">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BB126">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="BC126">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="BD126">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="BE126">
         <v>6.4</v>
       </c>
       <c r="BF126">
+        <v>1.93</v>
+      </c>
+      <c r="BG126">
+        <v>1.21</v>
+      </c>
+      <c r="BH126">
+        <v>3.8</v>
+      </c>
+      <c r="BI126">
+        <v>1.38</v>
+      </c>
+      <c r="BJ126">
+        <v>2.75</v>
+      </c>
+      <c r="BK126">
+        <v>1.63</v>
+      </c>
+      <c r="BL126">
+        <v>2.12</v>
+      </c>
+      <c r="BM126">
         <v>1.98</v>
       </c>
-      <c r="BG126">
-        <v>1.2</v>
-      </c>
-      <c r="BH126">
-        <v>3.95</v>
-      </c>
-      <c r="BI126">
-        <v>1.34</v>
-      </c>
-      <c r="BJ126">
-        <v>2.9</v>
-      </c>
-      <c r="BK126">
-        <v>1.55</v>
-      </c>
-      <c r="BL126">
-        <v>2.25</v>
-      </c>
-      <c r="BM126">
-        <v>1.86</v>
-      </c>
       <c r="BN126">
-        <v>1.82</v>
+        <v>1.72</v>
       </c>
       <c r="BO126">
-        <v>2.3</v>
+        <v>2.48</v>
       </c>
       <c r="BP126">
-        <v>1.54</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="127" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="263">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -550,6 +550,12 @@
     <t>['45+1']</t>
   </si>
   <si>
+    <t>['44', '53']</t>
+  </si>
+  <si>
+    <t>['11', '52']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -794,6 +800,9 @@
   </si>
   <si>
     <t>['67', '90']</t>
+  </si>
+  <si>
+    <t>['23', '43', '69', '88']</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1164,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP127"/>
+  <dimension ref="A1:BP129"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,7 +1423,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1620,7 +1629,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1701,7 +1710,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ3">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2032,7 +2041,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2444,7 +2453,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2650,7 +2659,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2856,7 +2865,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3062,7 +3071,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3474,7 +3483,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3761,7 +3770,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ13">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3886,7 +3895,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3964,7 +3973,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ14">
         <v>1.83</v>
@@ -4298,7 +4307,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4504,7 +4513,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4582,7 +4591,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ17">
         <v>1.67</v>
@@ -4710,7 +4719,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5122,7 +5131,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5534,7 +5543,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5740,7 +5749,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6358,7 +6367,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6564,7 +6573,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6645,7 +6654,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ27">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR27">
         <v>1.43</v>
@@ -6770,7 +6779,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6851,7 +6860,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ28">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR28">
         <v>1.96</v>
@@ -7182,7 +7191,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7388,7 +7397,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7672,7 +7681,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ32">
         <v>1.67</v>
@@ -7800,7 +7809,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8006,7 +8015,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8290,7 +8299,7 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ35">
         <v>1</v>
@@ -8418,7 +8427,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8624,7 +8633,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8830,7 +8839,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9117,7 +9126,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ39">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR39">
         <v>1.65</v>
@@ -9242,7 +9251,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9448,7 +9457,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9529,7 +9538,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ41">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR41">
         <v>1.64</v>
@@ -9654,7 +9663,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9860,7 +9869,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10272,7 +10281,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10684,7 +10693,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10762,7 +10771,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ47">
         <v>0.71</v>
@@ -10890,7 +10899,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11096,7 +11105,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11302,7 +11311,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11714,7 +11723,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11920,7 +11929,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -11998,7 +12007,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -12126,7 +12135,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12332,7 +12341,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12538,7 +12547,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12744,7 +12753,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12950,7 +12959,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13362,7 +13371,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13568,7 +13577,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13649,7 +13658,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ61">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR61">
         <v>1.4</v>
@@ -13855,7 +13864,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ62">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR62">
         <v>1.64</v>
@@ -13980,7 +13989,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14186,7 +14195,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14470,7 +14479,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ65">
         <v>0.14</v>
@@ -14598,7 +14607,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15088,7 +15097,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ68">
         <v>1.75</v>
@@ -15216,7 +15225,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15422,7 +15431,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15628,7 +15637,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16040,7 +16049,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16246,7 +16255,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16452,7 +16461,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16658,7 +16667,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16864,7 +16873,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17151,7 +17160,7 @@
         <v>2.57</v>
       </c>
       <c r="AQ78">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17688,7 +17697,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17769,7 +17778,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ81">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR81">
         <v>1.41</v>
@@ -17894,7 +17903,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18100,7 +18109,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18306,7 +18315,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18512,7 +18521,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18718,7 +18727,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18924,7 +18933,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19002,7 +19011,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ87">
         <v>1.43</v>
@@ -19130,7 +19139,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19336,7 +19345,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19542,7 +19551,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20241,7 +20250,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ93">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR93">
         <v>1.52</v>
@@ -20572,7 +20581,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -20984,7 +20993,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21190,7 +21199,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21474,7 +21483,7 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ99">
         <v>0.29</v>
@@ -21602,7 +21611,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21683,7 +21692,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ100">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR100">
         <v>1.62</v>
@@ -21808,7 +21817,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -22426,7 +22435,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22838,7 +22847,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23044,7 +23053,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23456,7 +23465,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23534,7 +23543,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ109">
         <v>0.71</v>
@@ -23662,7 +23671,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23740,10 +23749,10 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>2.33</v>
+        <v>2</v>
       </c>
       <c r="AQ110">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR110">
         <v>1.5</v>
@@ -24074,7 +24083,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24280,7 +24289,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24486,7 +24495,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24692,7 +24701,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24898,7 +24907,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -24979,7 +24988,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ116">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR116">
         <v>1.56</v>
@@ -25104,7 +25113,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25310,7 +25319,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25516,7 +25525,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25722,7 +25731,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25928,7 +25937,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26134,7 +26143,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -26212,7 +26221,7 @@
         <v>1.43</v>
       </c>
       <c r="AP122">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="AQ122">
         <v>1.63</v>
@@ -26752,7 +26761,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26958,7 +26967,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27321,6 +27330,418 @@
       </c>
       <c r="BP127">
         <v>1.48</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>7491621</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45632.60416666666</v>
+      </c>
+      <c r="F128">
+        <v>15</v>
+      </c>
+      <c r="G128" t="s">
+        <v>82</v>
+      </c>
+      <c r="H128" t="s">
+        <v>81</v>
+      </c>
+      <c r="I128">
+        <v>1</v>
+      </c>
+      <c r="J128">
+        <v>1</v>
+      </c>
+      <c r="K128">
+        <v>2</v>
+      </c>
+      <c r="L128">
+        <v>2</v>
+      </c>
+      <c r="M128">
+        <v>1</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>178</v>
+      </c>
+      <c r="P128" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q128">
+        <v>2.7</v>
+      </c>
+      <c r="R128">
+        <v>2.25</v>
+      </c>
+      <c r="S128">
+        <v>3.4</v>
+      </c>
+      <c r="T128">
+        <v>1.29</v>
+      </c>
+      <c r="U128">
+        <v>3.35</v>
+      </c>
+      <c r="V128">
+        <v>2.32</v>
+      </c>
+      <c r="W128">
+        <v>1.55</v>
+      </c>
+      <c r="X128">
+        <v>4.95</v>
+      </c>
+      <c r="Y128">
+        <v>1.14</v>
+      </c>
+      <c r="Z128">
+        <v>2.06</v>
+      </c>
+      <c r="AA128">
+        <v>3.72</v>
+      </c>
+      <c r="AB128">
+        <v>3.32</v>
+      </c>
+      <c r="AC128">
+        <v>1.04</v>
+      </c>
+      <c r="AD128">
+        <v>10</v>
+      </c>
+      <c r="AE128">
+        <v>1.18</v>
+      </c>
+      <c r="AF128">
+        <v>4.75</v>
+      </c>
+      <c r="AG128">
+        <v>1.6</v>
+      </c>
+      <c r="AH128">
+        <v>2.3</v>
+      </c>
+      <c r="AI128">
+        <v>1.47</v>
+      </c>
+      <c r="AJ128">
+        <v>2.55</v>
+      </c>
+      <c r="AK128">
+        <v>1.38</v>
+      </c>
+      <c r="AL128">
+        <v>1.22</v>
+      </c>
+      <c r="AM128">
+        <v>1.66</v>
+      </c>
+      <c r="AN128">
+        <v>1.86</v>
+      </c>
+      <c r="AO128">
+        <v>1.14</v>
+      </c>
+      <c r="AP128">
+        <v>2</v>
+      </c>
+      <c r="AQ128">
+        <v>1</v>
+      </c>
+      <c r="AR128">
+        <v>1.46</v>
+      </c>
+      <c r="AS128">
+        <v>1.42</v>
+      </c>
+      <c r="AT128">
+        <v>2.88</v>
+      </c>
+      <c r="AU128">
+        <v>6</v>
+      </c>
+      <c r="AV128">
+        <v>7</v>
+      </c>
+      <c r="AW128">
+        <v>9</v>
+      </c>
+      <c r="AX128">
+        <v>6</v>
+      </c>
+      <c r="AY128">
+        <v>18</v>
+      </c>
+      <c r="AZ128">
+        <v>15</v>
+      </c>
+      <c r="BA128">
+        <v>8</v>
+      </c>
+      <c r="BB128">
+        <v>8</v>
+      </c>
+      <c r="BC128">
+        <v>16</v>
+      </c>
+      <c r="BD128">
+        <v>1.81</v>
+      </c>
+      <c r="BE128">
+        <v>6.75</v>
+      </c>
+      <c r="BF128">
+        <v>2.17</v>
+      </c>
+      <c r="BG128">
+        <v>1.16</v>
+      </c>
+      <c r="BH128">
+        <v>4.4</v>
+      </c>
+      <c r="BI128">
+        <v>1.29</v>
+      </c>
+      <c r="BJ128">
+        <v>3.15</v>
+      </c>
+      <c r="BK128">
+        <v>1.49</v>
+      </c>
+      <c r="BL128">
+        <v>2.4</v>
+      </c>
+      <c r="BM128">
+        <v>1.78</v>
+      </c>
+      <c r="BN128">
+        <v>1.91</v>
+      </c>
+      <c r="BO128">
+        <v>2.18</v>
+      </c>
+      <c r="BP128">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>7491619</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45632.60416666666</v>
+      </c>
+      <c r="F129">
+        <v>15</v>
+      </c>
+      <c r="G129" t="s">
+        <v>85</v>
+      </c>
+      <c r="H129" t="s">
+        <v>75</v>
+      </c>
+      <c r="I129">
+        <v>1</v>
+      </c>
+      <c r="J129">
+        <v>2</v>
+      </c>
+      <c r="K129">
+        <v>3</v>
+      </c>
+      <c r="L129">
+        <v>2</v>
+      </c>
+      <c r="M129">
+        <v>4</v>
+      </c>
+      <c r="N129">
+        <v>6</v>
+      </c>
+      <c r="O129" t="s">
+        <v>179</v>
+      </c>
+      <c r="P129" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q129">
+        <v>2.3</v>
+      </c>
+      <c r="R129">
+        <v>2.35</v>
+      </c>
+      <c r="S129">
+        <v>4</v>
+      </c>
+      <c r="T129">
+        <v>1.27</v>
+      </c>
+      <c r="U129">
+        <v>3.45</v>
+      </c>
+      <c r="V129">
+        <v>2.29</v>
+      </c>
+      <c r="W129">
+        <v>1.56</v>
+      </c>
+      <c r="X129">
+        <v>4.95</v>
+      </c>
+      <c r="Y129">
+        <v>1.14</v>
+      </c>
+      <c r="Z129">
+        <v>1.92</v>
+      </c>
+      <c r="AA129">
+        <v>3.9</v>
+      </c>
+      <c r="AB129">
+        <v>3.63</v>
+      </c>
+      <c r="AC129">
+        <v>1.04</v>
+      </c>
+      <c r="AD129">
+        <v>10</v>
+      </c>
+      <c r="AE129">
+        <v>1.18</v>
+      </c>
+      <c r="AF129">
+        <v>4.5</v>
+      </c>
+      <c r="AG129">
+        <v>1.55</v>
+      </c>
+      <c r="AH129">
+        <v>2.3</v>
+      </c>
+      <c r="AI129">
+        <v>1.53</v>
+      </c>
+      <c r="AJ129">
+        <v>2.4</v>
+      </c>
+      <c r="AK129">
+        <v>1.2</v>
+      </c>
+      <c r="AL129">
+        <v>1.2</v>
+      </c>
+      <c r="AM129">
+        <v>1.95</v>
+      </c>
+      <c r="AN129">
+        <v>2.33</v>
+      </c>
+      <c r="AO129">
+        <v>0.86</v>
+      </c>
+      <c r="AP129">
+        <v>2</v>
+      </c>
+      <c r="AQ129">
+        <v>1.13</v>
+      </c>
+      <c r="AR129">
+        <v>1.5</v>
+      </c>
+      <c r="AS129">
+        <v>1.18</v>
+      </c>
+      <c r="AT129">
+        <v>2.68</v>
+      </c>
+      <c r="AU129">
+        <v>5</v>
+      </c>
+      <c r="AV129">
+        <v>11</v>
+      </c>
+      <c r="AW129">
+        <v>1</v>
+      </c>
+      <c r="AX129">
+        <v>9</v>
+      </c>
+      <c r="AY129">
+        <v>6</v>
+      </c>
+      <c r="AZ129">
+        <v>26</v>
+      </c>
+      <c r="BA129">
+        <v>2</v>
+      </c>
+      <c r="BB129">
+        <v>9</v>
+      </c>
+      <c r="BC129">
+        <v>11</v>
+      </c>
+      <c r="BD129">
+        <v>1.58</v>
+      </c>
+      <c r="BE129">
+        <v>6.75</v>
+      </c>
+      <c r="BF129">
+        <v>2.55</v>
+      </c>
+      <c r="BG129">
+        <v>1.25</v>
+      </c>
+      <c r="BH129">
+        <v>3.45</v>
+      </c>
+      <c r="BI129">
+        <v>1.44</v>
+      </c>
+      <c r="BJ129">
+        <v>2.55</v>
+      </c>
+      <c r="BK129">
+        <v>1.72</v>
+      </c>
+      <c r="BL129">
+        <v>1.98</v>
+      </c>
+      <c r="BM129">
+        <v>2.12</v>
+      </c>
+      <c r="BN129">
+        <v>1.63</v>
+      </c>
+      <c r="BO129">
+        <v>2.65</v>
+      </c>
+      <c r="BP129">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="836" uniqueCount="263">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="270">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,18 @@
     <t>['11', '52']</t>
   </si>
   <si>
+    <t>['12', '73', '75']</t>
+  </si>
+  <si>
+    <t>['38', '55']</t>
+  </si>
+  <si>
+    <t>['60', '71', '81']</t>
+  </si>
+  <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -700,9 +712,6 @@
     <t>['8', '83', '90']</t>
   </si>
   <si>
-    <t>['38']</t>
-  </si>
-  <si>
     <t>['84']</t>
   </si>
   <si>
@@ -803,6 +812,18 @@
   </si>
   <si>
     <t>['23', '43', '69', '88']</t>
+  </si>
+  <si>
+    <t>['88']</t>
+  </si>
+  <si>
+    <t>['5']</t>
+  </si>
+  <si>
+    <t>['23', '55']</t>
+  </si>
+  <si>
+    <t>['12', '54']</t>
   </si>
 </sst>
 </file>
@@ -1164,7 +1185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP129"/>
+  <dimension ref="A1:BP133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1423,7 +1444,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1629,7 +1650,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1913,7 +1934,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ4">
         <v>0.14</v>
@@ -2041,7 +2062,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2453,7 +2474,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2659,7 +2680,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2865,7 +2886,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2943,7 +2964,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ9">
         <v>0.86</v>
@@ -3071,7 +3092,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3358,7 +3379,7 @@
         <v>1</v>
       </c>
       <c r="AQ11">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3483,7 +3504,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3561,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ12">
         <v>1.29</v>
@@ -3895,7 +3916,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4182,7 +4203,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ15">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4307,7 +4328,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4388,7 +4409,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ16">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4513,7 +4534,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4719,7 +4740,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4800,7 +4821,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ18">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5003,7 +5024,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ19">
         <v>0.71</v>
@@ -5131,7 +5152,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5415,7 +5436,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ21">
         <v>1.43</v>
@@ -5543,7 +5564,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5621,7 +5642,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ22">
         <v>1.75</v>
@@ -5749,7 +5770,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5827,7 +5848,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ23">
         <v>1.63</v>
@@ -6367,7 +6388,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6573,7 +6594,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6779,7 +6800,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7191,7 +7212,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7397,7 +7418,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7809,7 +7830,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7890,7 +7911,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ33">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR33">
         <v>1.09</v>
@@ -8015,7 +8036,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8093,10 +8114,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ34">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR34">
         <v>1.8</v>
@@ -8302,7 +8323,7 @@
         <v>2</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR35">
         <v>1.49</v>
@@ -8427,7 +8448,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8633,7 +8654,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8714,7 +8735,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ37">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR37">
         <v>2.14</v>
@@ -8839,7 +8860,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -8917,7 +8938,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ38">
         <v>1.63</v>
@@ -9251,7 +9272,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9329,7 +9350,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ40">
         <v>1.75</v>
@@ -9457,7 +9478,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9663,7 +9684,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9869,7 +9890,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -9950,7 +9971,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ43">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR43">
         <v>2.41</v>
@@ -10153,7 +10174,7 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>1.29</v>
@@ -10281,7 +10302,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10693,7 +10714,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10899,7 +10920,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11105,7 +11126,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11311,7 +11332,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11392,7 +11413,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR50">
         <v>0.97</v>
@@ -11723,7 +11744,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11801,7 +11822,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ52">
         <v>1.43</v>
@@ -11929,7 +11950,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12010,7 +12031,7 @@
         <v>2</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12135,7 +12156,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12216,7 +12237,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ54">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.87</v>
@@ -12341,7 +12362,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12547,7 +12568,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12753,7 +12774,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12831,7 +12852,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ57">
         <v>2.29</v>
@@ -12959,7 +12980,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13371,7 +13392,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13452,7 +13473,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ60">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR60">
         <v>1.59</v>
@@ -13577,7 +13598,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13655,7 +13676,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ61">
         <v>1.13</v>
@@ -13861,7 +13882,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ62">
         <v>1</v>
@@ -13989,7 +14010,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14195,7 +14216,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14276,7 +14297,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ64">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR64">
         <v>2.51</v>
@@ -14607,7 +14628,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -14894,7 +14915,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR67">
         <v>2.27</v>
@@ -15225,7 +15246,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15431,7 +15452,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15512,7 +15533,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR70">
         <v>1.66</v>
@@ -15637,7 +15658,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16049,7 +16070,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16255,7 +16276,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16461,7 +16482,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>228</v>
+        <v>183</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16667,7 +16688,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16745,7 +16766,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ76">
         <v>1.29</v>
@@ -16873,7 +16894,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17157,7 +17178,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ78">
         <v>1.13</v>
@@ -17363,7 +17384,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ79">
         <v>1.63</v>
@@ -17572,7 +17593,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ80">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR80">
         <v>1.52</v>
@@ -17697,7 +17718,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17775,7 +17796,7 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ81">
         <v>1</v>
@@ -17903,7 +17924,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -17984,7 +18005,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ82">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR82">
         <v>1.62</v>
@@ -18109,7 +18130,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18315,7 +18336,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18521,7 +18542,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18602,7 +18623,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ85">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR85">
         <v>1.57</v>
@@ -18727,7 +18748,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18933,7 +18954,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19139,7 +19160,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19345,7 +19366,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19426,7 +19447,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19551,7 +19572,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20041,7 +20062,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ92">
         <v>2.29</v>
@@ -20581,7 +20602,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -20659,7 +20680,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ95">
         <v>1.67</v>
@@ -20865,10 +20886,10 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ96">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR96">
         <v>1.59</v>
@@ -20993,7 +21014,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21199,7 +21220,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21277,10 +21298,10 @@
         <v>2.4</v>
       </c>
       <c r="AP98">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ98">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR98">
         <v>1.68</v>
@@ -21611,7 +21632,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21817,7 +21838,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -22435,7 +22456,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22516,7 +22537,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ104">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR104">
         <v>1.47</v>
@@ -22722,7 +22743,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ105">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR105">
         <v>1.68</v>
@@ -22847,7 +22868,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23053,7 +23074,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23465,7 +23486,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23671,7 +23692,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23955,7 +23976,7 @@
         <v>1.6</v>
       </c>
       <c r="AP111">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ111">
         <v>1.83</v>
@@ -24083,7 +24104,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24161,10 +24182,10 @@
         <v>1.5</v>
       </c>
       <c r="AP112">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AQ112">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24289,7 +24310,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24370,7 +24391,7 @@
         <v>1</v>
       </c>
       <c r="AQ113">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AR113">
         <v>1.37</v>
@@ -24495,7 +24516,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24701,7 +24722,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24779,7 +24800,7 @@
         <v>1.4</v>
       </c>
       <c r="AP115">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="AQ115">
         <v>1.67</v>
@@ -24907,7 +24928,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25113,7 +25134,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25191,7 +25212,7 @@
         <v>0.33</v>
       </c>
       <c r="AP117">
-        <v>1.5</v>
+        <v>1.71</v>
       </c>
       <c r="AQ117">
         <v>0.29</v>
@@ -25319,7 +25340,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25400,7 +25421,7 @@
         <v>1</v>
       </c>
       <c r="AQ118">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AR118">
         <v>1.21</v>
@@ -25525,7 +25546,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25606,7 +25627,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ119">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AR119">
         <v>1.77</v>
@@ -25731,7 +25752,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25937,7 +25958,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26143,7 +26164,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -26761,7 +26782,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26967,7 +26988,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27585,7 +27606,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -27742,6 +27763,830 @@
       </c>
       <c r="BP129">
         <v>1.41</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>7491622</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45633.375</v>
+      </c>
+      <c r="F130">
+        <v>15</v>
+      </c>
+      <c r="G130" t="s">
+        <v>80</v>
+      </c>
+      <c r="H130" t="s">
+        <v>71</v>
+      </c>
+      <c r="I130">
+        <v>1</v>
+      </c>
+      <c r="J130">
+        <v>0</v>
+      </c>
+      <c r="K130">
+        <v>1</v>
+      </c>
+      <c r="L130">
+        <v>3</v>
+      </c>
+      <c r="M130">
+        <v>1</v>
+      </c>
+      <c r="N130">
+        <v>4</v>
+      </c>
+      <c r="O130" t="s">
+        <v>180</v>
+      </c>
+      <c r="P130" t="s">
+        <v>266</v>
+      </c>
+      <c r="Q130">
+        <v>2.9</v>
+      </c>
+      <c r="R130">
+        <v>2.3</v>
+      </c>
+      <c r="S130">
+        <v>3</v>
+      </c>
+      <c r="T130">
+        <v>1.28</v>
+      </c>
+      <c r="U130">
+        <v>3.4</v>
+      </c>
+      <c r="V130">
+        <v>2.29</v>
+      </c>
+      <c r="W130">
+        <v>1.56</v>
+      </c>
+      <c r="X130">
+        <v>4.95</v>
+      </c>
+      <c r="Y130">
+        <v>1.14</v>
+      </c>
+      <c r="Z130">
+        <v>2.63</v>
+      </c>
+      <c r="AA130">
+        <v>3.6</v>
+      </c>
+      <c r="AB130">
+        <v>2.4</v>
+      </c>
+      <c r="AC130">
+        <v>1.04</v>
+      </c>
+      <c r="AD130">
+        <v>10</v>
+      </c>
+      <c r="AE130">
+        <v>1.17</v>
+      </c>
+      <c r="AF130">
+        <v>4.75</v>
+      </c>
+      <c r="AG130">
+        <v>1.57</v>
+      </c>
+      <c r="AH130">
+        <v>2.25</v>
+      </c>
+      <c r="AI130">
+        <v>1.47</v>
+      </c>
+      <c r="AJ130">
+        <v>2.6</v>
+      </c>
+      <c r="AK130">
+        <v>1.47</v>
+      </c>
+      <c r="AL130">
+        <v>1.22</v>
+      </c>
+      <c r="AM130">
+        <v>1.53</v>
+      </c>
+      <c r="AN130">
+        <v>1.5</v>
+      </c>
+      <c r="AO130">
+        <v>1.71</v>
+      </c>
+      <c r="AP130">
+        <v>1.71</v>
+      </c>
+      <c r="AQ130">
+        <v>1.5</v>
+      </c>
+      <c r="AR130">
+        <v>1.78</v>
+      </c>
+      <c r="AS130">
+        <v>1.23</v>
+      </c>
+      <c r="AT130">
+        <v>3.01</v>
+      </c>
+      <c r="AU130">
+        <v>6</v>
+      </c>
+      <c r="AV130">
+        <v>2</v>
+      </c>
+      <c r="AW130">
+        <v>3</v>
+      </c>
+      <c r="AX130">
+        <v>5</v>
+      </c>
+      <c r="AY130">
+        <v>10</v>
+      </c>
+      <c r="AZ130">
+        <v>10</v>
+      </c>
+      <c r="BA130">
+        <v>3</v>
+      </c>
+      <c r="BB130">
+        <v>3</v>
+      </c>
+      <c r="BC130">
+        <v>6</v>
+      </c>
+      <c r="BD130">
+        <v>1.98</v>
+      </c>
+      <c r="BE130">
+        <v>6.75</v>
+      </c>
+      <c r="BF130">
+        <v>1.98</v>
+      </c>
+      <c r="BG130">
+        <v>1.17</v>
+      </c>
+      <c r="BH130">
+        <v>4.3</v>
+      </c>
+      <c r="BI130">
+        <v>1.3</v>
+      </c>
+      <c r="BJ130">
+        <v>3.05</v>
+      </c>
+      <c r="BK130">
+        <v>1.52</v>
+      </c>
+      <c r="BL130">
+        <v>2.33</v>
+      </c>
+      <c r="BM130">
+        <v>1.88</v>
+      </c>
+      <c r="BN130">
+        <v>1.92</v>
+      </c>
+      <c r="BO130">
+        <v>2.23</v>
+      </c>
+      <c r="BP130">
+        <v>1.56</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>7491620</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45633.375</v>
+      </c>
+      <c r="F131">
+        <v>15</v>
+      </c>
+      <c r="G131" t="s">
+        <v>77</v>
+      </c>
+      <c r="H131" t="s">
+        <v>73</v>
+      </c>
+      <c r="I131">
+        <v>1</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>2</v>
+      </c>
+      <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>3</v>
+      </c>
+      <c r="O131" t="s">
+        <v>181</v>
+      </c>
+      <c r="P131" t="s">
+        <v>267</v>
+      </c>
+      <c r="Q131">
+        <v>3.3</v>
+      </c>
+      <c r="R131">
+        <v>2.4</v>
+      </c>
+      <c r="S131">
+        <v>2.55</v>
+      </c>
+      <c r="T131">
+        <v>1.24</v>
+      </c>
+      <c r="U131">
+        <v>3.7</v>
+      </c>
+      <c r="V131">
+        <v>2.17</v>
+      </c>
+      <c r="W131">
+        <v>1.63</v>
+      </c>
+      <c r="X131">
+        <v>4.7</v>
+      </c>
+      <c r="Y131">
+        <v>1.16</v>
+      </c>
+      <c r="Z131">
+        <v>3.1</v>
+      </c>
+      <c r="AA131">
+        <v>3.8</v>
+      </c>
+      <c r="AB131">
+        <v>2</v>
+      </c>
+      <c r="AC131">
+        <v>1.01</v>
+      </c>
+      <c r="AD131">
+        <v>13</v>
+      </c>
+      <c r="AE131">
+        <v>1.17</v>
+      </c>
+      <c r="AF131">
+        <v>5</v>
+      </c>
+      <c r="AG131">
+        <v>1.45</v>
+      </c>
+      <c r="AH131">
+        <v>2.63</v>
+      </c>
+      <c r="AI131">
+        <v>1.42</v>
+      </c>
+      <c r="AJ131">
+        <v>2.75</v>
+      </c>
+      <c r="AK131">
+        <v>1.7</v>
+      </c>
+      <c r="AL131">
+        <v>1.2</v>
+      </c>
+      <c r="AM131">
+        <v>1.38</v>
+      </c>
+      <c r="AN131">
+        <v>0.71</v>
+      </c>
+      <c r="AO131">
+        <v>2</v>
+      </c>
+      <c r="AP131">
+        <v>1</v>
+      </c>
+      <c r="AQ131">
+        <v>1.75</v>
+      </c>
+      <c r="AR131">
+        <v>1.46</v>
+      </c>
+      <c r="AS131">
+        <v>1.59</v>
+      </c>
+      <c r="AT131">
+        <v>3.05</v>
+      </c>
+      <c r="AU131">
+        <v>7</v>
+      </c>
+      <c r="AV131">
+        <v>4</v>
+      </c>
+      <c r="AW131">
+        <v>5</v>
+      </c>
+      <c r="AX131">
+        <v>5</v>
+      </c>
+      <c r="AY131">
+        <v>17</v>
+      </c>
+      <c r="AZ131">
+        <v>13</v>
+      </c>
+      <c r="BA131">
+        <v>6</v>
+      </c>
+      <c r="BB131">
+        <v>10</v>
+      </c>
+      <c r="BC131">
+        <v>16</v>
+      </c>
+      <c r="BD131">
+        <v>2.28</v>
+      </c>
+      <c r="BE131">
+        <v>6.75</v>
+      </c>
+      <c r="BF131">
+        <v>1.74</v>
+      </c>
+      <c r="BG131">
+        <v>1.16</v>
+      </c>
+      <c r="BH131">
+        <v>4.4</v>
+      </c>
+      <c r="BI131">
+        <v>1.28</v>
+      </c>
+      <c r="BJ131">
+        <v>3.25</v>
+      </c>
+      <c r="BK131">
+        <v>1.48</v>
+      </c>
+      <c r="BL131">
+        <v>2.43</v>
+      </c>
+      <c r="BM131">
+        <v>2</v>
+      </c>
+      <c r="BN131">
+        <v>1.8</v>
+      </c>
+      <c r="BO131">
+        <v>2.17</v>
+      </c>
+      <c r="BP131">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>7491618</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45633.375</v>
+      </c>
+      <c r="F132">
+        <v>15</v>
+      </c>
+      <c r="G132" t="s">
+        <v>72</v>
+      </c>
+      <c r="H132" t="s">
+        <v>78</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>1</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>3</v>
+      </c>
+      <c r="M132">
+        <v>2</v>
+      </c>
+      <c r="N132">
+        <v>5</v>
+      </c>
+      <c r="O132" t="s">
+        <v>182</v>
+      </c>
+      <c r="P132" t="s">
+        <v>268</v>
+      </c>
+      <c r="Q132">
+        <v>2.15</v>
+      </c>
+      <c r="R132">
+        <v>2.25</v>
+      </c>
+      <c r="S132">
+        <v>5</v>
+      </c>
+      <c r="T132">
+        <v>1.37</v>
+      </c>
+      <c r="U132">
+        <v>2.9</v>
+      </c>
+      <c r="V132">
+        <v>2.7</v>
+      </c>
+      <c r="W132">
+        <v>1.41</v>
+      </c>
+      <c r="X132">
+        <v>6.45</v>
+      </c>
+      <c r="Y132">
+        <v>1.09</v>
+      </c>
+      <c r="Z132">
+        <v>1.5</v>
+      </c>
+      <c r="AA132">
+        <v>4.1</v>
+      </c>
+      <c r="AB132">
+        <v>6</v>
+      </c>
+      <c r="AC132">
+        <v>1.05</v>
+      </c>
+      <c r="AD132">
+        <v>9</v>
+      </c>
+      <c r="AE132">
+        <v>1.28</v>
+      </c>
+      <c r="AF132">
+        <v>3.5</v>
+      </c>
+      <c r="AG132">
+        <v>1.83</v>
+      </c>
+      <c r="AH132">
+        <v>1.87</v>
+      </c>
+      <c r="AI132">
+        <v>1.9</v>
+      </c>
+      <c r="AJ132">
+        <v>1.83</v>
+      </c>
+      <c r="AK132">
+        <v>1.1</v>
+      </c>
+      <c r="AL132">
+        <v>1.18</v>
+      </c>
+      <c r="AM132">
+        <v>2.35</v>
+      </c>
+      <c r="AN132">
+        <v>2.57</v>
+      </c>
+      <c r="AO132">
+        <v>1</v>
+      </c>
+      <c r="AP132">
+        <v>2.63</v>
+      </c>
+      <c r="AQ132">
+        <v>0.88</v>
+      </c>
+      <c r="AR132">
+        <v>1.64</v>
+      </c>
+      <c r="AS132">
+        <v>0.95</v>
+      </c>
+      <c r="AT132">
+        <v>2.59</v>
+      </c>
+      <c r="AU132">
+        <v>11</v>
+      </c>
+      <c r="AV132">
+        <v>4</v>
+      </c>
+      <c r="AW132">
+        <v>9</v>
+      </c>
+      <c r="AX132">
+        <v>4</v>
+      </c>
+      <c r="AY132">
+        <v>28</v>
+      </c>
+      <c r="AZ132">
+        <v>10</v>
+      </c>
+      <c r="BA132">
+        <v>7</v>
+      </c>
+      <c r="BB132">
+        <v>2</v>
+      </c>
+      <c r="BC132">
+        <v>9</v>
+      </c>
+      <c r="BD132">
+        <v>1.41</v>
+      </c>
+      <c r="BE132">
+        <v>7.5</v>
+      </c>
+      <c r="BF132">
+        <v>3.2</v>
+      </c>
+      <c r="BG132">
+        <v>1.19</v>
+      </c>
+      <c r="BH132">
+        <v>4.1</v>
+      </c>
+      <c r="BI132">
+        <v>1.33</v>
+      </c>
+      <c r="BJ132">
+        <v>2.95</v>
+      </c>
+      <c r="BK132">
+        <v>1.54</v>
+      </c>
+      <c r="BL132">
+        <v>2.28</v>
+      </c>
+      <c r="BM132">
+        <v>1.86</v>
+      </c>
+      <c r="BN132">
+        <v>1.82</v>
+      </c>
+      <c r="BO132">
+        <v>2.3</v>
+      </c>
+      <c r="BP132">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>7491623</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45633.6875</v>
+      </c>
+      <c r="F133">
+        <v>15</v>
+      </c>
+      <c r="G133" t="s">
+        <v>87</v>
+      </c>
+      <c r="H133" t="s">
+        <v>74</v>
+      </c>
+      <c r="I133">
+        <v>1</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>183</v>
+      </c>
+      <c r="P133" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q133">
+        <v>3</v>
+      </c>
+      <c r="R133">
+        <v>2.15</v>
+      </c>
+      <c r="S133">
+        <v>3.25</v>
+      </c>
+      <c r="T133">
+        <v>1.36</v>
+      </c>
+      <c r="U133">
+        <v>2.9</v>
+      </c>
+      <c r="V133">
+        <v>2.6</v>
+      </c>
+      <c r="W133">
+        <v>1.44</v>
+      </c>
+      <c r="X133">
+        <v>6</v>
+      </c>
+      <c r="Y133">
+        <v>1.1</v>
+      </c>
+      <c r="Z133">
+        <v>2.49</v>
+      </c>
+      <c r="AA133">
+        <v>3.5</v>
+      </c>
+      <c r="AB133">
+        <v>2.87</v>
+      </c>
+      <c r="AC133">
+        <v>1.05</v>
+      </c>
+      <c r="AD133">
+        <v>9.5</v>
+      </c>
+      <c r="AE133">
+        <v>1.25</v>
+      </c>
+      <c r="AF133">
+        <v>3.75</v>
+      </c>
+      <c r="AG133">
+        <v>1.8</v>
+      </c>
+      <c r="AH133">
+        <v>2.02</v>
+      </c>
+      <c r="AI133">
+        <v>1.6</v>
+      </c>
+      <c r="AJ133">
+        <v>2.25</v>
+      </c>
+      <c r="AK133">
+        <v>1.44</v>
+      </c>
+      <c r="AL133">
+        <v>1.25</v>
+      </c>
+      <c r="AM133">
+        <v>1.53</v>
+      </c>
+      <c r="AN133">
+        <v>0.86</v>
+      </c>
+      <c r="AO133">
+        <v>2.29</v>
+      </c>
+      <c r="AP133">
+        <v>0.75</v>
+      </c>
+      <c r="AQ133">
+        <v>2.38</v>
+      </c>
+      <c r="AR133">
+        <v>1.17</v>
+      </c>
+      <c r="AS133">
+        <v>1.19</v>
+      </c>
+      <c r="AT133">
+        <v>2.36</v>
+      </c>
+      <c r="AU133">
+        <v>5</v>
+      </c>
+      <c r="AV133">
+        <v>6</v>
+      </c>
+      <c r="AW133">
+        <v>8</v>
+      </c>
+      <c r="AX133">
+        <v>5</v>
+      </c>
+      <c r="AY133">
+        <v>16</v>
+      </c>
+      <c r="AZ133">
+        <v>17</v>
+      </c>
+      <c r="BA133">
+        <v>3</v>
+      </c>
+      <c r="BB133">
+        <v>5</v>
+      </c>
+      <c r="BC133">
+        <v>8</v>
+      </c>
+      <c r="BD133">
+        <v>1.88</v>
+      </c>
+      <c r="BE133">
+        <v>6.75</v>
+      </c>
+      <c r="BF133">
+        <v>2.08</v>
+      </c>
+      <c r="BG133">
+        <v>1.22</v>
+      </c>
+      <c r="BH133">
+        <v>3.7</v>
+      </c>
+      <c r="BI133">
+        <v>1.4</v>
+      </c>
+      <c r="BJ133">
+        <v>2.7</v>
+      </c>
+      <c r="BK133">
+        <v>1.64</v>
+      </c>
+      <c r="BL133">
+        <v>2.1</v>
+      </c>
+      <c r="BM133">
+        <v>1.85</v>
+      </c>
+      <c r="BN133">
+        <v>1.95</v>
+      </c>
+      <c r="BO133">
+        <v>2.5</v>
+      </c>
+      <c r="BP133">
+        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="860" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="274">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,9 @@
     <t>['11', '52']</t>
   </si>
   <si>
+    <t>['38']</t>
+  </si>
+  <si>
     <t>['12', '73', '75']</t>
   </si>
   <si>
@@ -565,7 +568,10 @@
     <t>['60', '71', '81']</t>
   </si>
   <si>
-    <t>['38']</t>
+    <t>['10', '45']</t>
+  </si>
+  <si>
+    <t>['4', '8', '11', '70', '87']</t>
   </si>
   <si>
     <t>['5', '35']</t>
@@ -814,6 +820,9 @@
     <t>['23', '43', '69', '88']</t>
   </si>
   <si>
+    <t>['12', '54']</t>
+  </si>
+  <si>
     <t>['88']</t>
   </si>
   <si>
@@ -823,7 +832,10 @@
     <t>['23', '55']</t>
   </si>
   <si>
-    <t>['12', '54']</t>
+    <t>['33', '63']</t>
+  </si>
+  <si>
+    <t>['33']</t>
   </si>
 </sst>
 </file>
@@ -1185,7 +1197,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP133"/>
+  <dimension ref="A1:BP136"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1444,7 +1456,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1650,7 +1662,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2062,7 +2074,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2474,7 +2486,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2555,7 +2567,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2680,7 +2692,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2886,7 +2898,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3092,7 +3104,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3376,7 +3388,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ11">
         <v>0.88</v>
@@ -3504,7 +3516,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3916,7 +3928,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -3997,7 +4009,7 @@
         <v>2</v>
       </c>
       <c r="AQ14">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4200,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -4328,7 +4340,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4406,7 +4418,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -4534,7 +4546,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4615,7 +4627,7 @@
         <v>2</v>
       </c>
       <c r="AQ17">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4740,7 +4752,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5152,7 +5164,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5564,7 +5576,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5770,7 +5782,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6263,7 +6275,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR25">
         <v>2.21</v>
@@ -6388,7 +6400,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6594,7 +6606,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6800,7 +6812,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7084,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ29">
         <v>0.71</v>
@@ -7212,7 +7224,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7290,7 +7302,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ30">
         <v>1.29</v>
@@ -7418,7 +7430,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7496,7 +7508,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ31">
         <v>0.86</v>
@@ -7705,7 +7717,7 @@
         <v>2</v>
       </c>
       <c r="AQ32">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR32">
         <v>0.9399999999999999</v>
@@ -7830,7 +7842,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8036,7 +8048,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8448,7 +8460,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8529,7 +8541,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.71</v>
@@ -8654,7 +8666,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8860,7 +8872,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9272,7 +9284,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9478,7 +9490,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9684,7 +9696,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9765,7 +9777,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ42">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR42">
         <v>1.72</v>
@@ -9890,7 +9902,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10302,7 +10314,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10586,7 +10598,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ46">
         <v>0.14</v>
@@ -10714,7 +10726,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10920,7 +10932,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11001,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR48">
         <v>1.7</v>
@@ -11126,7 +11138,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11204,10 +11216,10 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ49">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR49">
         <v>1.77</v>
@@ -11332,7 +11344,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11744,7 +11756,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11950,7 +11962,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12156,7 +12168,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12362,7 +12374,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12440,7 +12452,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ55">
         <v>0.86</v>
@@ -12568,7 +12580,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12649,7 +12661,7 @@
         <v>0.71</v>
       </c>
       <c r="AQ56">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR56">
         <v>1.5</v>
@@ -12774,7 +12786,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12980,7 +12992,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13058,7 +13070,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ58">
         <v>1.63</v>
@@ -13264,7 +13276,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ59">
         <v>1.75</v>
@@ -13392,7 +13404,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13598,7 +13610,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -14010,7 +14022,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14216,7 +14228,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14628,7 +14640,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -14709,7 +14721,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ66">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR66">
         <v>1.63</v>
@@ -15246,7 +15258,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15452,7 +15464,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15658,7 +15670,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16070,7 +16082,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16148,7 +16160,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ73">
         <v>1.43</v>
@@ -16276,7 +16288,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16357,7 +16369,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ74">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR74">
         <v>1.62</v>
@@ -16482,7 +16494,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -16563,7 +16575,7 @@
         <v>1</v>
       </c>
       <c r="AQ75">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR75">
         <v>1.4</v>
@@ -16688,7 +16700,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16894,7 +16906,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -16972,7 +16984,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ77">
         <v>2.29</v>
@@ -17718,7 +17730,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17924,7 +17936,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18002,7 +18014,7 @@
         <v>3</v>
       </c>
       <c r="AP82">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ82">
         <v>2.38</v>
@@ -18130,7 +18142,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18336,7 +18348,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18542,7 +18554,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18748,7 +18760,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18954,7 +18966,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19160,7 +19172,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19238,7 +19250,7 @@
         <v>1.4</v>
       </c>
       <c r="AP88">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ88">
         <v>1.75</v>
@@ -19366,7 +19378,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19572,7 +19584,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20474,7 +20486,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ94">
         <v>1.29</v>
@@ -20602,7 +20614,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -20683,7 +20695,7 @@
         <v>1</v>
       </c>
       <c r="AQ95">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR95">
         <v>1.41</v>
@@ -21014,7 +21026,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21095,7 +21107,7 @@
         <v>1</v>
       </c>
       <c r="AQ97">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR97">
         <v>1.4</v>
@@ -21220,7 +21232,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21507,7 +21519,7 @@
         <v>2</v>
       </c>
       <c r="AQ99">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR99">
         <v>1.63</v>
@@ -21632,7 +21644,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21710,7 +21722,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ100">
         <v>1</v>
@@ -21838,7 +21850,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -22456,7 +22468,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22868,7 +22880,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -22946,7 +22958,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ106">
         <v>1.63</v>
@@ -23074,7 +23086,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23486,7 +23498,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23692,7 +23704,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23979,7 +23991,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ111">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="AR111">
         <v>1.23</v>
@@ -24104,7 +24116,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24310,7 +24322,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24516,7 +24528,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24594,7 +24606,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AQ114">
         <v>1.29</v>
@@ -24722,7 +24734,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24803,7 +24815,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ115">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR115">
         <v>1.64</v>
@@ -24928,7 +24940,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25006,7 +25018,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ116">
         <v>1.13</v>
@@ -25134,7 +25146,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25215,7 +25227,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ117">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AR117">
         <v>1.79</v>
@@ -25340,7 +25352,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25418,7 +25430,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ118">
         <v>2.38</v>
@@ -25546,7 +25558,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25752,7 +25764,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25958,7 +25970,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26164,7 +26176,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -26782,7 +26794,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26988,7 +27000,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27606,7 +27618,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -27770,7 +27782,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7491622</v>
+        <v>7491623</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27779,196 +27791,196 @@
         <v>69</v>
       </c>
       <c r="E130" s="2">
-        <v>45633.375</v>
+        <v>45632.875</v>
       </c>
       <c r="F130">
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="H130" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K130">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L130">
+        <v>1</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
         <v>3</v>
-      </c>
-      <c r="M130">
-        <v>1</v>
-      </c>
-      <c r="N130">
-        <v>4</v>
       </c>
       <c r="O130" t="s">
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q130">
+        <v>3</v>
+      </c>
+      <c r="R130">
+        <v>2.15</v>
+      </c>
+      <c r="S130">
+        <v>3.25</v>
+      </c>
+      <c r="T130">
+        <v>1.36</v>
+      </c>
+      <c r="U130">
         <v>2.9</v>
       </c>
-      <c r="R130">
-        <v>2.3</v>
-      </c>
-      <c r="S130">
-        <v>3</v>
-      </c>
-      <c r="T130">
-        <v>1.28</v>
-      </c>
-      <c r="U130">
-        <v>3.4</v>
-      </c>
       <c r="V130">
-        <v>2.29</v>
+        <v>2.6</v>
       </c>
       <c r="W130">
-        <v>1.56</v>
+        <v>1.44</v>
       </c>
       <c r="X130">
-        <v>4.95</v>
+        <v>6</v>
       </c>
       <c r="Y130">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="Z130">
-        <v>2.63</v>
+        <v>2.49</v>
       </c>
       <c r="AA130">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB130">
-        <v>2.4</v>
+        <v>2.87</v>
       </c>
       <c r="AC130">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD130">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE130">
-        <v>1.17</v>
+        <v>1.25</v>
       </c>
       <c r="AF130">
-        <v>4.75</v>
+        <v>3.75</v>
       </c>
       <c r="AG130">
-        <v>1.57</v>
+        <v>1.8</v>
       </c>
       <c r="AH130">
+        <v>2.02</v>
+      </c>
+      <c r="AI130">
+        <v>1.6</v>
+      </c>
+      <c r="AJ130">
         <v>2.25</v>
       </c>
-      <c r="AI130">
-        <v>1.47</v>
-      </c>
-      <c r="AJ130">
-        <v>2.6</v>
-      </c>
       <c r="AK130">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="AL130">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM130">
         <v>1.53</v>
       </c>
       <c r="AN130">
-        <v>1.5</v>
+        <v>0.86</v>
       </c>
       <c r="AO130">
-        <v>1.71</v>
+        <v>2.29</v>
       </c>
       <c r="AP130">
-        <v>1.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ130">
-        <v>1.5</v>
+        <v>2.38</v>
       </c>
       <c r="AR130">
-        <v>1.78</v>
+        <v>1.17</v>
       </c>
       <c r="AS130">
-        <v>1.23</v>
+        <v>1.19</v>
       </c>
       <c r="AT130">
-        <v>3.01</v>
+        <v>2.36</v>
       </c>
       <c r="AU130">
+        <v>5</v>
+      </c>
+      <c r="AV130">
         <v>6</v>
       </c>
-      <c r="AV130">
-        <v>2</v>
-      </c>
       <c r="AW130">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="AX130">
         <v>5</v>
       </c>
       <c r="AY130">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ130">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="BA130">
         <v>3</v>
       </c>
       <c r="BB130">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BC130">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="BD130">
-        <v>1.98</v>
+        <v>1.88</v>
       </c>
       <c r="BE130">
         <v>6.75</v>
       </c>
       <c r="BF130">
-        <v>1.98</v>
+        <v>2.08</v>
       </c>
       <c r="BG130">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="BH130">
-        <v>4.3</v>
+        <v>3.7</v>
       </c>
       <c r="BI130">
-        <v>1.3</v>
+        <v>1.4</v>
       </c>
       <c r="BJ130">
-        <v>3.05</v>
+        <v>2.7</v>
       </c>
       <c r="BK130">
-        <v>1.52</v>
+        <v>1.64</v>
       </c>
       <c r="BL130">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="BM130">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="BN130">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="BO130">
-        <v>2.23</v>
+        <v>2.5</v>
       </c>
       <c r="BP130">
-        <v>1.56</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -27976,7 +27988,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7491620</v>
+        <v>7491622</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -27991,190 +28003,190 @@
         <v>15</v>
       </c>
       <c r="G131" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="H131" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K131">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L131">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M131">
         <v>1</v>
       </c>
       <c r="N131">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O131" t="s">
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q131">
-        <v>3.3</v>
+        <v>2.9</v>
       </c>
       <c r="R131">
+        <v>2.3</v>
+      </c>
+      <c r="S131">
+        <v>3</v>
+      </c>
+      <c r="T131">
+        <v>1.28</v>
+      </c>
+      <c r="U131">
+        <v>3.4</v>
+      </c>
+      <c r="V131">
+        <v>2.29</v>
+      </c>
+      <c r="W131">
+        <v>1.56</v>
+      </c>
+      <c r="X131">
+        <v>4.95</v>
+      </c>
+      <c r="Y131">
+        <v>1.14</v>
+      </c>
+      <c r="Z131">
+        <v>2.63</v>
+      </c>
+      <c r="AA131">
+        <v>3.6</v>
+      </c>
+      <c r="AB131">
         <v>2.4</v>
       </c>
-      <c r="S131">
-        <v>2.55</v>
-      </c>
-      <c r="T131">
-        <v>1.24</v>
-      </c>
-      <c r="U131">
-        <v>3.7</v>
-      </c>
-      <c r="V131">
-        <v>2.17</v>
-      </c>
-      <c r="W131">
-        <v>1.63</v>
-      </c>
-      <c r="X131">
-        <v>4.7</v>
-      </c>
-      <c r="Y131">
-        <v>1.16</v>
-      </c>
-      <c r="Z131">
-        <v>3.1</v>
-      </c>
-      <c r="AA131">
-        <v>3.8</v>
-      </c>
-      <c r="AB131">
-        <v>2</v>
-      </c>
       <c r="AC131">
-        <v>1.01</v>
+        <v>1.04</v>
       </c>
       <c r="AD131">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AE131">
         <v>1.17</v>
       </c>
       <c r="AF131">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AG131">
-        <v>1.45</v>
+        <v>1.57</v>
       </c>
       <c r="AH131">
-        <v>2.63</v>
+        <v>2.25</v>
       </c>
       <c r="AI131">
-        <v>1.42</v>
+        <v>1.47</v>
       </c>
       <c r="AJ131">
-        <v>2.75</v>
+        <v>2.6</v>
       </c>
       <c r="AK131">
-        <v>1.7</v>
+        <v>1.47</v>
       </c>
       <c r="AL131">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM131">
-        <v>1.38</v>
+        <v>1.53</v>
       </c>
       <c r="AN131">
-        <v>0.71</v>
+        <v>1.5</v>
       </c>
       <c r="AO131">
-        <v>2</v>
+        <v>1.71</v>
       </c>
       <c r="AP131">
-        <v>1</v>
+        <v>1.71</v>
       </c>
       <c r="AQ131">
-        <v>1.75</v>
+        <v>1.5</v>
       </c>
       <c r="AR131">
-        <v>1.46</v>
+        <v>1.78</v>
       </c>
       <c r="AS131">
-        <v>1.59</v>
+        <v>1.23</v>
       </c>
       <c r="AT131">
-        <v>3.05</v>
+        <v>3.01</v>
       </c>
       <c r="AU131">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV131">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AW131">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX131">
         <v>5</v>
       </c>
       <c r="AY131">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="AZ131">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA131">
+        <v>3</v>
+      </c>
+      <c r="BB131">
+        <v>3</v>
+      </c>
+      <c r="BC131">
         <v>6</v>
       </c>
-      <c r="BB131">
-        <v>10</v>
-      </c>
-      <c r="BC131">
-        <v>16</v>
-      </c>
       <c r="BD131">
-        <v>2.28</v>
+        <v>1.98</v>
       </c>
       <c r="BE131">
         <v>6.75</v>
       </c>
       <c r="BF131">
-        <v>1.74</v>
+        <v>1.98</v>
       </c>
       <c r="BG131">
-        <v>1.16</v>
+        <v>1.17</v>
       </c>
       <c r="BH131">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="BI131">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="BJ131">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="BK131">
-        <v>1.48</v>
+        <v>1.52</v>
       </c>
       <c r="BL131">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="BM131">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="BN131">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="BO131">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="BP131">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28182,7 +28194,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7491618</v>
+        <v>7491620</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28194,193 +28206,193 @@
         <v>45633.375</v>
       </c>
       <c r="F132">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G132" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="H132" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="I132">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J132">
         <v>1</v>
       </c>
       <c r="K132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L132">
+        <v>2</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
         <v>3</v>
-      </c>
-      <c r="M132">
-        <v>2</v>
-      </c>
-      <c r="N132">
-        <v>5</v>
       </c>
       <c r="O132" t="s">
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q132">
-        <v>2.15</v>
+        <v>3.3</v>
       </c>
       <c r="R132">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="S132">
+        <v>2.55</v>
+      </c>
+      <c r="T132">
+        <v>1.24</v>
+      </c>
+      <c r="U132">
+        <v>3.7</v>
+      </c>
+      <c r="V132">
+        <v>2.17</v>
+      </c>
+      <c r="W132">
+        <v>1.63</v>
+      </c>
+      <c r="X132">
+        <v>4.7</v>
+      </c>
+      <c r="Y132">
+        <v>1.16</v>
+      </c>
+      <c r="Z132">
+        <v>3.1</v>
+      </c>
+      <c r="AA132">
+        <v>3.8</v>
+      </c>
+      <c r="AB132">
+        <v>2</v>
+      </c>
+      <c r="AC132">
+        <v>1.01</v>
+      </c>
+      <c r="AD132">
+        <v>13</v>
+      </c>
+      <c r="AE132">
+        <v>1.17</v>
+      </c>
+      <c r="AF132">
         <v>5</v>
       </c>
-      <c r="T132">
-        <v>1.37</v>
-      </c>
-      <c r="U132">
-        <v>2.9</v>
-      </c>
-      <c r="V132">
-        <v>2.7</v>
-      </c>
-      <c r="W132">
-        <v>1.41</v>
-      </c>
-      <c r="X132">
-        <v>6.45</v>
-      </c>
-      <c r="Y132">
-        <v>1.09</v>
-      </c>
-      <c r="Z132">
-        <v>1.5</v>
-      </c>
-      <c r="AA132">
-        <v>4.1</v>
-      </c>
-      <c r="AB132">
-        <v>6</v>
-      </c>
-      <c r="AC132">
-        <v>1.05</v>
-      </c>
-      <c r="AD132">
-        <v>9</v>
-      </c>
-      <c r="AE132">
-        <v>1.28</v>
-      </c>
-      <c r="AF132">
-        <v>3.5</v>
-      </c>
       <c r="AG132">
-        <v>1.83</v>
+        <v>1.45</v>
       </c>
       <c r="AH132">
-        <v>1.87</v>
+        <v>2.63</v>
       </c>
       <c r="AI132">
-        <v>1.9</v>
+        <v>1.42</v>
       </c>
       <c r="AJ132">
-        <v>1.83</v>
+        <v>2.75</v>
       </c>
       <c r="AK132">
-        <v>1.1</v>
+        <v>1.7</v>
       </c>
       <c r="AL132">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="AM132">
-        <v>2.35</v>
+        <v>1.38</v>
       </c>
       <c r="AN132">
-        <v>2.57</v>
+        <v>0.71</v>
       </c>
       <c r="AO132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AP132">
-        <v>2.63</v>
+        <v>1</v>
       </c>
       <c r="AQ132">
-        <v>0.88</v>
+        <v>1.75</v>
       </c>
       <c r="AR132">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AS132">
-        <v>0.95</v>
+        <v>1.59</v>
       </c>
       <c r="AT132">
-        <v>2.59</v>
+        <v>3.05</v>
       </c>
       <c r="AU132">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AV132">
         <v>4</v>
       </c>
       <c r="AW132">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AX132">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AY132">
-        <v>28</v>
+        <v>17</v>
       </c>
       <c r="AZ132">
+        <v>13</v>
+      </c>
+      <c r="BA132">
+        <v>6</v>
+      </c>
+      <c r="BB132">
         <v>10</v>
       </c>
-      <c r="BA132">
-        <v>7</v>
-      </c>
-      <c r="BB132">
-        <v>2</v>
-      </c>
       <c r="BC132">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="BD132">
-        <v>1.41</v>
+        <v>2.28</v>
       </c>
       <c r="BE132">
-        <v>7.5</v>
+        <v>6.75</v>
       </c>
       <c r="BF132">
-        <v>3.2</v>
+        <v>1.74</v>
       </c>
       <c r="BG132">
-        <v>1.19</v>
+        <v>1.16</v>
       </c>
       <c r="BH132">
-        <v>4.1</v>
+        <v>4.4</v>
       </c>
       <c r="BI132">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="BJ132">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="BK132">
-        <v>1.54</v>
+        <v>1.48</v>
       </c>
       <c r="BL132">
-        <v>2.28</v>
+        <v>2.43</v>
       </c>
       <c r="BM132">
-        <v>1.86</v>
+        <v>2</v>
       </c>
       <c r="BN132">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="BO132">
-        <v>2.3</v>
+        <v>2.17</v>
       </c>
       <c r="BP132">
-        <v>1.53</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28388,7 +28400,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7491623</v>
+        <v>7491618</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28397,196 +28409,814 @@
         <v>69</v>
       </c>
       <c r="E133" s="2">
-        <v>45633.6875</v>
+        <v>45633.375</v>
       </c>
       <c r="F133">
         <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="H133" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I133">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J133">
         <v>1</v>
       </c>
       <c r="K133">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L133">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M133">
         <v>2</v>
       </c>
       <c r="N133">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O133" t="s">
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q133">
-        <v>3</v>
+        <v>2.15</v>
       </c>
       <c r="R133">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S133">
-        <v>3.25</v>
+        <v>5</v>
       </c>
       <c r="T133">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U133">
         <v>2.9</v>
       </c>
       <c r="V133">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="W133">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="X133">
+        <v>6.45</v>
+      </c>
+      <c r="Y133">
+        <v>1.09</v>
+      </c>
+      <c r="Z133">
+        <v>1.5</v>
+      </c>
+      <c r="AA133">
+        <v>4.1</v>
+      </c>
+      <c r="AB133">
         <v>6</v>
-      </c>
-      <c r="Y133">
-        <v>1.1</v>
-      </c>
-      <c r="Z133">
-        <v>2.49</v>
-      </c>
-      <c r="AA133">
-        <v>3.5</v>
-      </c>
-      <c r="AB133">
-        <v>2.87</v>
       </c>
       <c r="AC133">
         <v>1.05</v>
       </c>
       <c r="AD133">
+        <v>9</v>
+      </c>
+      <c r="AE133">
+        <v>1.28</v>
+      </c>
+      <c r="AF133">
+        <v>3.5</v>
+      </c>
+      <c r="AG133">
+        <v>1.83</v>
+      </c>
+      <c r="AH133">
+        <v>1.87</v>
+      </c>
+      <c r="AI133">
+        <v>1.9</v>
+      </c>
+      <c r="AJ133">
+        <v>1.83</v>
+      </c>
+      <c r="AK133">
+        <v>1.1</v>
+      </c>
+      <c r="AL133">
+        <v>1.18</v>
+      </c>
+      <c r="AM133">
+        <v>2.35</v>
+      </c>
+      <c r="AN133">
+        <v>2.57</v>
+      </c>
+      <c r="AO133">
+        <v>1</v>
+      </c>
+      <c r="AP133">
+        <v>2.63</v>
+      </c>
+      <c r="AQ133">
+        <v>0.88</v>
+      </c>
+      <c r="AR133">
+        <v>1.64</v>
+      </c>
+      <c r="AS133">
+        <v>0.95</v>
+      </c>
+      <c r="AT133">
+        <v>2.59</v>
+      </c>
+      <c r="AU133">
+        <v>11</v>
+      </c>
+      <c r="AV133">
+        <v>4</v>
+      </c>
+      <c r="AW133">
+        <v>9</v>
+      </c>
+      <c r="AX133">
+        <v>4</v>
+      </c>
+      <c r="AY133">
+        <v>28</v>
+      </c>
+      <c r="AZ133">
+        <v>10</v>
+      </c>
+      <c r="BA133">
+        <v>7</v>
+      </c>
+      <c r="BB133">
+        <v>2</v>
+      </c>
+      <c r="BC133">
+        <v>9</v>
+      </c>
+      <c r="BD133">
+        <v>1.41</v>
+      </c>
+      <c r="BE133">
+        <v>7.5</v>
+      </c>
+      <c r="BF133">
+        <v>3.2</v>
+      </c>
+      <c r="BG133">
+        <v>1.19</v>
+      </c>
+      <c r="BH133">
+        <v>4.1</v>
+      </c>
+      <c r="BI133">
+        <v>1.33</v>
+      </c>
+      <c r="BJ133">
+        <v>2.95</v>
+      </c>
+      <c r="BK133">
+        <v>1.54</v>
+      </c>
+      <c r="BL133">
+        <v>2.28</v>
+      </c>
+      <c r="BM133">
+        <v>1.86</v>
+      </c>
+      <c r="BN133">
+        <v>1.82</v>
+      </c>
+      <c r="BO133">
+        <v>2.3</v>
+      </c>
+      <c r="BP133">
+        <v>1.53</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>7491617</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45634.39583333334</v>
+      </c>
+      <c r="F134">
+        <v>15</v>
+      </c>
+      <c r="G134" t="s">
+        <v>84</v>
+      </c>
+      <c r="H134" t="s">
+        <v>76</v>
+      </c>
+      <c r="I134">
+        <v>2</v>
+      </c>
+      <c r="J134">
+        <v>1</v>
+      </c>
+      <c r="K134">
+        <v>3</v>
+      </c>
+      <c r="L134">
+        <v>2</v>
+      </c>
+      <c r="M134">
+        <v>2</v>
+      </c>
+      <c r="N134">
+        <v>4</v>
+      </c>
+      <c r="O134" t="s">
+        <v>184</v>
+      </c>
+      <c r="P134" t="s">
+        <v>272</v>
+      </c>
+      <c r="Q134">
+        <v>2.5</v>
+      </c>
+      <c r="R134">
+        <v>2.5</v>
+      </c>
+      <c r="S134">
+        <v>3.6</v>
+      </c>
+      <c r="T134">
+        <v>1.25</v>
+      </c>
+      <c r="U134">
+        <v>3.75</v>
+      </c>
+      <c r="V134">
+        <v>2.2</v>
+      </c>
+      <c r="W134">
+        <v>1.62</v>
+      </c>
+      <c r="X134">
+        <v>5</v>
+      </c>
+      <c r="Y134">
+        <v>1.17</v>
+      </c>
+      <c r="Z134">
+        <v>1.76</v>
+      </c>
+      <c r="AA134">
+        <v>3.75</v>
+      </c>
+      <c r="AB134">
+        <v>3.35</v>
+      </c>
+      <c r="AC134">
+        <v>1.01</v>
+      </c>
+      <c r="AD134">
+        <v>13</v>
+      </c>
+      <c r="AE134">
+        <v>1.15</v>
+      </c>
+      <c r="AF134">
+        <v>5.25</v>
+      </c>
+      <c r="AG134">
+        <v>1.53</v>
+      </c>
+      <c r="AH134">
+        <v>2.85</v>
+      </c>
+      <c r="AI134">
+        <v>1.44</v>
+      </c>
+      <c r="AJ134">
+        <v>2.63</v>
+      </c>
+      <c r="AK134">
+        <v>1.3</v>
+      </c>
+      <c r="AL134">
+        <v>1.18</v>
+      </c>
+      <c r="AM134">
+        <v>1.83</v>
+      </c>
+      <c r="AN134">
+        <v>1.86</v>
+      </c>
+      <c r="AO134">
+        <v>1.67</v>
+      </c>
+      <c r="AP134">
+        <v>1.75</v>
+      </c>
+      <c r="AQ134">
+        <v>1.57</v>
+      </c>
+      <c r="AR134">
+        <v>1.67</v>
+      </c>
+      <c r="AS134">
+        <v>1.75</v>
+      </c>
+      <c r="AT134">
+        <v>3.42</v>
+      </c>
+      <c r="AU134">
+        <v>8</v>
+      </c>
+      <c r="AV134">
+        <v>7</v>
+      </c>
+      <c r="AW134">
+        <v>10</v>
+      </c>
+      <c r="AX134">
+        <v>9</v>
+      </c>
+      <c r="AY134">
+        <v>19</v>
+      </c>
+      <c r="AZ134">
+        <v>21</v>
+      </c>
+      <c r="BA134">
+        <v>2</v>
+      </c>
+      <c r="BB134">
+        <v>8</v>
+      </c>
+      <c r="BC134">
+        <v>10</v>
+      </c>
+      <c r="BD134">
+        <v>1.72</v>
+      </c>
+      <c r="BE134">
+        <v>6.75</v>
+      </c>
+      <c r="BF134">
+        <v>2.4</v>
+      </c>
+      <c r="BG134">
+        <v>1.17</v>
+      </c>
+      <c r="BH134">
+        <v>4.3</v>
+      </c>
+      <c r="BI134">
+        <v>1.3</v>
+      </c>
+      <c r="BJ134">
+        <v>3.05</v>
+      </c>
+      <c r="BK134">
+        <v>1.5</v>
+      </c>
+      <c r="BL134">
+        <v>2.38</v>
+      </c>
+      <c r="BM134">
+        <v>1.78</v>
+      </c>
+      <c r="BN134">
+        <v>1.9</v>
+      </c>
+      <c r="BO134">
+        <v>2.2</v>
+      </c>
+      <c r="BP134">
+        <v>1.58</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>7491616</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45634.39583333334</v>
+      </c>
+      <c r="F135">
+        <v>0</v>
+      </c>
+      <c r="G135" t="s">
+        <v>83</v>
+      </c>
+      <c r="H135" t="s">
+        <v>86</v>
+      </c>
+      <c r="I135">
+        <v>3</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>3</v>
+      </c>
+      <c r="L135">
+        <v>5</v>
+      </c>
+      <c r="M135">
+        <v>0</v>
+      </c>
+      <c r="N135">
+        <v>5</v>
+      </c>
+      <c r="O135" t="s">
+        <v>185</v>
+      </c>
+      <c r="P135" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q135">
+        <v>2.3</v>
+      </c>
+      <c r="R135">
+        <v>2.25</v>
+      </c>
+      <c r="S135">
+        <v>4.75</v>
+      </c>
+      <c r="T135">
+        <v>1.36</v>
+      </c>
+      <c r="U135">
+        <v>3</v>
+      </c>
+      <c r="V135">
+        <v>2.63</v>
+      </c>
+      <c r="W135">
+        <v>1.44</v>
+      </c>
+      <c r="X135">
+        <v>7</v>
+      </c>
+      <c r="Y135">
+        <v>1.1</v>
+      </c>
+      <c r="Z135">
+        <v>1.78</v>
+      </c>
+      <c r="AA135">
+        <v>3.3</v>
+      </c>
+      <c r="AB135">
+        <v>3.7</v>
+      </c>
+      <c r="AC135">
+        <v>1.05</v>
+      </c>
+      <c r="AD135">
         <v>9.5</v>
       </c>
-      <c r="AE133">
+      <c r="AE135">
         <v>1.25</v>
       </c>
-      <c r="AF133">
+      <c r="AF135">
         <v>3.75</v>
       </c>
-      <c r="AG133">
+      <c r="AG135">
+        <v>1.85</v>
+      </c>
+      <c r="AH135">
+        <v>1.85</v>
+      </c>
+      <c r="AI135">
+        <v>1.73</v>
+      </c>
+      <c r="AJ135">
+        <v>2</v>
+      </c>
+      <c r="AK135">
+        <v>1.18</v>
+      </c>
+      <c r="AL135">
+        <v>1.2</v>
+      </c>
+      <c r="AM135">
+        <v>2</v>
+      </c>
+      <c r="AN135">
+        <v>0.86</v>
+      </c>
+      <c r="AO135">
+        <v>0.29</v>
+      </c>
+      <c r="AP135">
+        <v>1.13</v>
+      </c>
+      <c r="AQ135">
+        <v>0.25</v>
+      </c>
+      <c r="AR135">
+        <v>1.54</v>
+      </c>
+      <c r="AS135">
+        <v>1.13</v>
+      </c>
+      <c r="AT135">
+        <v>2.67</v>
+      </c>
+      <c r="AU135">
+        <v>8</v>
+      </c>
+      <c r="AV135">
+        <v>7</v>
+      </c>
+      <c r="AW135">
+        <v>8</v>
+      </c>
+      <c r="AX135">
+        <v>4</v>
+      </c>
+      <c r="AY135">
+        <v>20</v>
+      </c>
+      <c r="AZ135">
+        <v>15</v>
+      </c>
+      <c r="BA135">
+        <v>7</v>
+      </c>
+      <c r="BB135">
+        <v>5</v>
+      </c>
+      <c r="BC135">
+        <v>12</v>
+      </c>
+      <c r="BD135">
+        <v>1.5</v>
+      </c>
+      <c r="BE135">
+        <v>6.75</v>
+      </c>
+      <c r="BF135">
+        <v>2.8</v>
+      </c>
+      <c r="BG135">
+        <v>1.23</v>
+      </c>
+      <c r="BH135">
+        <v>3.65</v>
+      </c>
+      <c r="BI135">
+        <v>1.41</v>
+      </c>
+      <c r="BJ135">
+        <v>2.65</v>
+      </c>
+      <c r="BK135">
+        <v>1.66</v>
+      </c>
+      <c r="BL135">
+        <v>2.07</v>
+      </c>
+      <c r="BM135">
+        <v>2.02</v>
+      </c>
+      <c r="BN135">
+        <v>1.68</v>
+      </c>
+      <c r="BO135">
+        <v>2.55</v>
+      </c>
+      <c r="BP135">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>7491624</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45634.39583333334</v>
+      </c>
+      <c r="F136">
+        <v>15</v>
+      </c>
+      <c r="G136" t="s">
+        <v>79</v>
+      </c>
+      <c r="H136" t="s">
+        <v>70</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>1</v>
+      </c>
+      <c r="K136">
+        <v>1</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>1</v>
+      </c>
+      <c r="N136">
+        <v>1</v>
+      </c>
+      <c r="O136" t="s">
+        <v>92</v>
+      </c>
+      <c r="P136" t="s">
+        <v>273</v>
+      </c>
+      <c r="Q136">
+        <v>6</v>
+      </c>
+      <c r="R136">
+        <v>2.5</v>
+      </c>
+      <c r="S136">
+        <v>1.95</v>
+      </c>
+      <c r="T136">
+        <v>1.3</v>
+      </c>
+      <c r="U136">
+        <v>3.4</v>
+      </c>
+      <c r="V136">
+        <v>2.38</v>
+      </c>
+      <c r="W136">
+        <v>1.53</v>
+      </c>
+      <c r="X136">
+        <v>6</v>
+      </c>
+      <c r="Y136">
+        <v>1.13</v>
+      </c>
+      <c r="Z136">
+        <v>5.75</v>
+      </c>
+      <c r="AA136">
+        <v>4.33</v>
+      </c>
+      <c r="AB136">
+        <v>1.48</v>
+      </c>
+      <c r="AC136">
+        <v>1.03</v>
+      </c>
+      <c r="AD136">
+        <v>11</v>
+      </c>
+      <c r="AE136">
+        <v>1.18</v>
+      </c>
+      <c r="AF136">
+        <v>4.5</v>
+      </c>
+      <c r="AG136">
+        <v>1.62</v>
+      </c>
+      <c r="AH136">
+        <v>2.2</v>
+      </c>
+      <c r="AI136">
         <v>1.8</v>
       </c>
-      <c r="AH133">
-        <v>2.02</v>
-      </c>
-      <c r="AI133">
-        <v>1.6</v>
-      </c>
-      <c r="AJ133">
-        <v>2.25</v>
-      </c>
-      <c r="AK133">
-        <v>1.44</v>
-      </c>
-      <c r="AL133">
-        <v>1.25</v>
-      </c>
-      <c r="AM133">
-        <v>1.53</v>
-      </c>
-      <c r="AN133">
-        <v>0.86</v>
-      </c>
-      <c r="AO133">
-        <v>2.29</v>
-      </c>
-      <c r="AP133">
-        <v>0.75</v>
-      </c>
-      <c r="AQ133">
-        <v>2.38</v>
-      </c>
-      <c r="AR133">
-        <v>1.17</v>
-      </c>
-      <c r="AS133">
-        <v>1.19</v>
-      </c>
-      <c r="AT133">
-        <v>2.36</v>
-      </c>
-      <c r="AU133">
-        <v>5</v>
-      </c>
-      <c r="AV133">
+      <c r="AJ136">
+        <v>1.91</v>
+      </c>
+      <c r="AK136">
+        <v>2.75</v>
+      </c>
+      <c r="AL136">
+        <v>1.15</v>
+      </c>
+      <c r="AM136">
+        <v>1.06</v>
+      </c>
+      <c r="AN136">
+        <v>1</v>
+      </c>
+      <c r="AO136">
+        <v>1.83</v>
+      </c>
+      <c r="AP136">
+        <v>0.88</v>
+      </c>
+      <c r="AQ136">
+        <v>2</v>
+      </c>
+      <c r="AR136">
+        <v>1.21</v>
+      </c>
+      <c r="AS136">
+        <v>1.69</v>
+      </c>
+      <c r="AT136">
+        <v>2.9</v>
+      </c>
+      <c r="AU136">
+        <v>3</v>
+      </c>
+      <c r="AV136">
+        <v>4</v>
+      </c>
+      <c r="AW136">
         <v>6</v>
       </c>
-      <c r="AW133">
-        <v>8</v>
-      </c>
-      <c r="AX133">
-        <v>5</v>
-      </c>
-      <c r="AY133">
-        <v>16</v>
-      </c>
-      <c r="AZ133">
-        <v>17</v>
-      </c>
-      <c r="BA133">
-        <v>3</v>
-      </c>
-      <c r="BB133">
-        <v>5</v>
-      </c>
-      <c r="BC133">
-        <v>8</v>
-      </c>
-      <c r="BD133">
-        <v>1.88</v>
-      </c>
-      <c r="BE133">
-        <v>6.75</v>
-      </c>
-      <c r="BF133">
-        <v>2.08</v>
-      </c>
-      <c r="BG133">
-        <v>1.22</v>
-      </c>
-      <c r="BH133">
-        <v>3.7</v>
-      </c>
-      <c r="BI133">
-        <v>1.4</v>
-      </c>
-      <c r="BJ133">
-        <v>2.7</v>
-      </c>
-      <c r="BK133">
+      <c r="AX136">
+        <v>7</v>
+      </c>
+      <c r="AY136">
+        <v>12</v>
+      </c>
+      <c r="AZ136">
+        <v>14</v>
+      </c>
+      <c r="BA136">
+        <v>4</v>
+      </c>
+      <c r="BB136">
+        <v>6</v>
+      </c>
+      <c r="BC136">
+        <v>10</v>
+      </c>
+      <c r="BD136">
+        <v>3.65</v>
+      </c>
+      <c r="BE136">
+        <v>7.5</v>
+      </c>
+      <c r="BF136">
+        <v>1.32</v>
+      </c>
+      <c r="BG136">
+        <v>1.15</v>
+      </c>
+      <c r="BH136">
+        <v>4.6</v>
+      </c>
+      <c r="BI136">
+        <v>1.28</v>
+      </c>
+      <c r="BJ136">
+        <v>3.3</v>
+      </c>
+      <c r="BK136">
+        <v>1.47</v>
+      </c>
+      <c r="BL136">
+        <v>2.48</v>
+      </c>
+      <c r="BM136">
+        <v>1.73</v>
+      </c>
+      <c r="BN136">
+        <v>1.97</v>
+      </c>
+      <c r="BO136">
+        <v>2.1</v>
+      </c>
+      <c r="BP136">
         <v>1.64</v>
-      </c>
-      <c r="BL133">
-        <v>2.1</v>
-      </c>
-      <c r="BM133">
-        <v>1.85</v>
-      </c>
-      <c r="BN133">
-        <v>1.95</v>
-      </c>
-      <c r="BO133">
-        <v>2.5</v>
-      </c>
-      <c r="BP133">
-        <v>1.46</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -556,9 +556,6 @@
     <t>['11', '52']</t>
   </si>
   <si>
-    <t>['38']</t>
-  </si>
-  <si>
     <t>['12', '73', '75']</t>
   </si>
   <si>
@@ -566,6 +563,9 @@
   </si>
   <si>
     <t>['60', '71', '81']</t>
+  </si>
+  <si>
+    <t>['38']</t>
   </si>
   <si>
     <t>['10', '45']</t>
@@ -820,9 +820,6 @@
     <t>['23', '43', '69', '88']</t>
   </si>
   <si>
-    <t>['12', '54']</t>
-  </si>
-  <si>
     <t>['88']</t>
   </si>
   <si>
@@ -830,6 +827,9 @@
   </si>
   <si>
     <t>['23', '55']</t>
+  </si>
+  <si>
+    <t>['12', '54']</t>
   </si>
   <si>
     <t>['33', '63']</t>
@@ -16288,7 +16288,7 @@
         <v>143</v>
       </c>
       <c r="P74" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q74">
         <v>4</v>
@@ -16494,7 +16494,7 @@
         <v>144</v>
       </c>
       <c r="P75" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="Q75">
         <v>2.3</v>
@@ -27520,7 +27520,7 @@
         <v>18</v>
       </c>
       <c r="AZ128">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA128">
         <v>8</v>
@@ -27782,7 +27782,7 @@
         <v>129</v>
       </c>
       <c r="B130">
-        <v>7491623</v>
+        <v>7491622</v>
       </c>
       <c r="C130" t="s">
         <v>68</v>
@@ -27791,34 +27791,34 @@
         <v>69</v>
       </c>
       <c r="E130" s="2">
-        <v>45632.875</v>
+        <v>45633.375</v>
       </c>
       <c r="F130">
         <v>15</v>
       </c>
       <c r="G130" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="H130" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I130">
         <v>1</v>
       </c>
       <c r="J130">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L130">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M130">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N130">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O130" t="s">
         <v>180</v>
@@ -27827,160 +27827,160 @@
         <v>268</v>
       </c>
       <c r="Q130">
+        <v>2.9</v>
+      </c>
+      <c r="R130">
+        <v>2.3</v>
+      </c>
+      <c r="S130">
         <v>3</v>
       </c>
-      <c r="R130">
-        <v>2.15</v>
-      </c>
-      <c r="S130">
-        <v>3.25</v>
-      </c>
       <c r="T130">
-        <v>1.36</v>
+        <v>1.28</v>
       </c>
       <c r="U130">
-        <v>2.9</v>
+        <v>3.4</v>
       </c>
       <c r="V130">
+        <v>2.29</v>
+      </c>
+      <c r="W130">
+        <v>1.56</v>
+      </c>
+      <c r="X130">
+        <v>4.95</v>
+      </c>
+      <c r="Y130">
+        <v>1.14</v>
+      </c>
+      <c r="Z130">
+        <v>2.63</v>
+      </c>
+      <c r="AA130">
+        <v>3.6</v>
+      </c>
+      <c r="AB130">
+        <v>2.4</v>
+      </c>
+      <c r="AC130">
+        <v>1.04</v>
+      </c>
+      <c r="AD130">
+        <v>10</v>
+      </c>
+      <c r="AE130">
+        <v>1.17</v>
+      </c>
+      <c r="AF130">
+        <v>4.75</v>
+      </c>
+      <c r="AG130">
+        <v>1.57</v>
+      </c>
+      <c r="AH130">
+        <v>2.25</v>
+      </c>
+      <c r="AI130">
+        <v>1.47</v>
+      </c>
+      <c r="AJ130">
         <v>2.6</v>
       </c>
-      <c r="W130">
-        <v>1.44</v>
-      </c>
-      <c r="X130">
-        <v>6</v>
-      </c>
-      <c r="Y130">
-        <v>1.1</v>
-      </c>
-      <c r="Z130">
-        <v>2.49</v>
-      </c>
-      <c r="AA130">
-        <v>3.5</v>
-      </c>
-      <c r="AB130">
-        <v>2.87</v>
-      </c>
-      <c r="AC130">
-        <v>1.05</v>
-      </c>
-      <c r="AD130">
-        <v>9.5</v>
-      </c>
-      <c r="AE130">
-        <v>1.25</v>
-      </c>
-      <c r="AF130">
-        <v>3.75</v>
-      </c>
-      <c r="AG130">
-        <v>1.8</v>
-      </c>
-      <c r="AH130">
-        <v>2.02</v>
-      </c>
-      <c r="AI130">
-        <v>1.6</v>
-      </c>
-      <c r="AJ130">
-        <v>2.25</v>
-      </c>
       <c r="AK130">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="AL130">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="AM130">
         <v>1.53</v>
       </c>
       <c r="AN130">
-        <v>0.86</v>
+        <v>1.5</v>
       </c>
       <c r="AO130">
-        <v>2.29</v>
+        <v>1.71</v>
       </c>
       <c r="AP130">
-        <v>0.75</v>
+        <v>1.71</v>
       </c>
       <c r="AQ130">
-        <v>2.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR130">
-        <v>1.17</v>
+        <v>1.78</v>
       </c>
       <c r="AS130">
-        <v>1.19</v>
+        <v>1.23</v>
       </c>
       <c r="AT130">
-        <v>2.36</v>
+        <v>3.01</v>
       </c>
       <c r="AU130">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV130">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AW130">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AX130">
         <v>5</v>
       </c>
       <c r="AY130">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ130">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="BA130">
         <v>3</v>
       </c>
       <c r="BB130">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="BC130">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="BD130">
-        <v>1.88</v>
+        <v>1.98</v>
       </c>
       <c r="BE130">
         <v>6.75</v>
       </c>
       <c r="BF130">
-        <v>2.08</v>
+        <v>1.98</v>
       </c>
       <c r="BG130">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="BH130">
-        <v>3.7</v>
+        <v>4.3</v>
       </c>
       <c r="BI130">
-        <v>1.4</v>
+        <v>1.3</v>
       </c>
       <c r="BJ130">
-        <v>2.7</v>
+        <v>3.05</v>
       </c>
       <c r="BK130">
-        <v>1.64</v>
+        <v>1.52</v>
       </c>
       <c r="BL130">
-        <v>2.1</v>
+        <v>2.33</v>
       </c>
       <c r="BM130">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="BN130">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="BO130">
-        <v>2.5</v>
+        <v>2.23</v>
       </c>
       <c r="BP130">
-        <v>1.46</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="131" spans="1:68">
@@ -27988,7 +27988,7 @@
         <v>130</v>
       </c>
       <c r="B131">
-        <v>7491622</v>
+        <v>7491620</v>
       </c>
       <c r="C131" t="s">
         <v>68</v>
@@ -28000,31 +28000,31 @@
         <v>45633.375</v>
       </c>
       <c r="F131">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G131" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H131" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="I131">
         <v>1</v>
       </c>
       <c r="J131">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K131">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L131">
+        <v>2</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
         <v>3</v>
-      </c>
-      <c r="M131">
-        <v>1</v>
-      </c>
-      <c r="N131">
-        <v>4</v>
       </c>
       <c r="O131" t="s">
         <v>181</v>
@@ -28033,160 +28033,160 @@
         <v>269</v>
       </c>
       <c r="Q131">
-        <v>2.9</v>
+        <v>3.3</v>
       </c>
       <c r="R131">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S131">
-        <v>3</v>
+        <v>2.55</v>
       </c>
       <c r="T131">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="U131">
-        <v>3.4</v>
+        <v>3.7</v>
       </c>
       <c r="V131">
-        <v>2.29</v>
+        <v>2.17</v>
       </c>
       <c r="W131">
-        <v>1.56</v>
+        <v>1.63</v>
       </c>
       <c r="X131">
-        <v>4.95</v>
+        <v>4.7</v>
       </c>
       <c r="Y131">
-        <v>1.14</v>
+        <v>1.16</v>
       </c>
       <c r="Z131">
-        <v>2.63</v>
+        <v>3.1</v>
       </c>
       <c r="AA131">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB131">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AC131">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="AD131">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AE131">
         <v>1.17</v>
       </c>
       <c r="AF131">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="AG131">
-        <v>1.57</v>
+        <v>1.45</v>
       </c>
       <c r="AH131">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="AI131">
-        <v>1.47</v>
+        <v>1.42</v>
       </c>
       <c r="AJ131">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="AK131">
-        <v>1.47</v>
+        <v>1.7</v>
       </c>
       <c r="AL131">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM131">
-        <v>1.53</v>
+        <v>1.38</v>
       </c>
       <c r="AN131">
-        <v>1.5</v>
+        <v>0.71</v>
       </c>
       <c r="AO131">
-        <v>1.71</v>
+        <v>2</v>
       </c>
       <c r="AP131">
-        <v>1.71</v>
+        <v>1</v>
       </c>
       <c r="AQ131">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="AR131">
-        <v>1.78</v>
+        <v>1.46</v>
       </c>
       <c r="AS131">
-        <v>1.23</v>
+        <v>1.59</v>
       </c>
       <c r="AT131">
-        <v>3.01</v>
+        <v>3.05</v>
       </c>
       <c r="AU131">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV131">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW131">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX131">
         <v>5</v>
       </c>
       <c r="AY131">
+        <v>17</v>
+      </c>
+      <c r="AZ131">
+        <v>13</v>
+      </c>
+      <c r="BA131">
+        <v>6</v>
+      </c>
+      <c r="BB131">
         <v>10</v>
       </c>
-      <c r="AZ131">
-        <v>10</v>
-      </c>
-      <c r="BA131">
-        <v>3</v>
-      </c>
-      <c r="BB131">
-        <v>3</v>
-      </c>
       <c r="BC131">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BD131">
-        <v>1.98</v>
+        <v>2.28</v>
       </c>
       <c r="BE131">
         <v>6.75</v>
       </c>
       <c r="BF131">
-        <v>1.98</v>
+        <v>1.74</v>
       </c>
       <c r="BG131">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="BH131">
-        <v>4.3</v>
+        <v>4.4</v>
       </c>
       <c r="BI131">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="BJ131">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="BK131">
-        <v>1.52</v>
+        <v>1.48</v>
       </c>
       <c r="BL131">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="BM131">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="BN131">
-        <v>1.92</v>
+        <v>1.8</v>
       </c>
       <c r="BO131">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="BP131">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="132" spans="1:68">
@@ -28194,7 +28194,7 @@
         <v>131</v>
       </c>
       <c r="B132">
-        <v>7491620</v>
+        <v>7491618</v>
       </c>
       <c r="C132" t="s">
         <v>68</v>
@@ -28206,31 +28206,31 @@
         <v>45633.375</v>
       </c>
       <c r="F132">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G132" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="H132" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="I132">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J132">
         <v>1</v>
       </c>
       <c r="K132">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L132">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M132">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N132">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O132" t="s">
         <v>182</v>
@@ -28239,160 +28239,160 @@
         <v>270</v>
       </c>
       <c r="Q132">
-        <v>3.3</v>
+        <v>2.15</v>
       </c>
       <c r="R132">
-        <v>2.4</v>
+        <v>2.25</v>
       </c>
       <c r="S132">
-        <v>2.55</v>
+        <v>5</v>
       </c>
       <c r="T132">
-        <v>1.24</v>
+        <v>1.37</v>
       </c>
       <c r="U132">
-        <v>3.7</v>
+        <v>2.9</v>
       </c>
       <c r="V132">
-        <v>2.17</v>
+        <v>2.7</v>
       </c>
       <c r="W132">
-        <v>1.63</v>
+        <v>1.41</v>
       </c>
       <c r="X132">
-        <v>4.7</v>
+        <v>6.45</v>
       </c>
       <c r="Y132">
-        <v>1.16</v>
+        <v>1.09</v>
       </c>
       <c r="Z132">
-        <v>3.1</v>
+        <v>1.5</v>
       </c>
       <c r="AA132">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="AB132">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AC132">
-        <v>1.01</v>
+        <v>1.05</v>
       </c>
       <c r="AD132">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AE132">
-        <v>1.17</v>
+        <v>1.28</v>
       </c>
       <c r="AF132">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="AG132">
-        <v>1.45</v>
+        <v>1.83</v>
       </c>
       <c r="AH132">
+        <v>1.87</v>
+      </c>
+      <c r="AI132">
+        <v>1.9</v>
+      </c>
+      <c r="AJ132">
+        <v>1.83</v>
+      </c>
+      <c r="AK132">
+        <v>1.1</v>
+      </c>
+      <c r="AL132">
+        <v>1.18</v>
+      </c>
+      <c r="AM132">
+        <v>2.35</v>
+      </c>
+      <c r="AN132">
+        <v>2.57</v>
+      </c>
+      <c r="AO132">
+        <v>1</v>
+      </c>
+      <c r="AP132">
         <v>2.63</v>
       </c>
-      <c r="AI132">
-        <v>1.42</v>
-      </c>
-      <c r="AJ132">
-        <v>2.75</v>
-      </c>
-      <c r="AK132">
-        <v>1.7</v>
-      </c>
-      <c r="AL132">
-        <v>1.2</v>
-      </c>
-      <c r="AM132">
-        <v>1.38</v>
-      </c>
-      <c r="AN132">
-        <v>0.71</v>
-      </c>
-      <c r="AO132">
-        <v>2</v>
-      </c>
-      <c r="AP132">
-        <v>1</v>
-      </c>
       <c r="AQ132">
-        <v>1.75</v>
+        <v>0.88</v>
       </c>
       <c r="AR132">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="AS132">
-        <v>1.59</v>
+        <v>0.95</v>
       </c>
       <c r="AT132">
-        <v>3.05</v>
+        <v>2.59</v>
       </c>
       <c r="AU132">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="AV132">
         <v>4</v>
       </c>
       <c r="AW132">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AX132">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AY132">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="AZ132">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BA132">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB132">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="BC132">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="BD132">
+        <v>1.41</v>
+      </c>
+      <c r="BE132">
+        <v>7.5</v>
+      </c>
+      <c r="BF132">
+        <v>3.2</v>
+      </c>
+      <c r="BG132">
+        <v>1.19</v>
+      </c>
+      <c r="BH132">
+        <v>4.1</v>
+      </c>
+      <c r="BI132">
+        <v>1.33</v>
+      </c>
+      <c r="BJ132">
+        <v>2.95</v>
+      </c>
+      <c r="BK132">
+        <v>1.54</v>
+      </c>
+      <c r="BL132">
         <v>2.28</v>
       </c>
-      <c r="BE132">
-        <v>6.75</v>
-      </c>
-      <c r="BF132">
-        <v>1.74</v>
-      </c>
-      <c r="BG132">
-        <v>1.16</v>
-      </c>
-      <c r="BH132">
-        <v>4.4</v>
-      </c>
-      <c r="BI132">
-        <v>1.28</v>
-      </c>
-      <c r="BJ132">
-        <v>3.25</v>
-      </c>
-      <c r="BK132">
-        <v>1.48</v>
-      </c>
-      <c r="BL132">
-        <v>2.43</v>
-      </c>
       <c r="BM132">
-        <v>2</v>
+        <v>1.86</v>
       </c>
       <c r="BN132">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="BO132">
-        <v>2.17</v>
+        <v>2.3</v>
       </c>
       <c r="BP132">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
     </row>
     <row r="133" spans="1:68">
@@ -28400,7 +28400,7 @@
         <v>132</v>
       </c>
       <c r="B133">
-        <v>7491618</v>
+        <v>7491623</v>
       </c>
       <c r="C133" t="s">
         <v>68</v>
@@ -28409,34 +28409,34 @@
         <v>69</v>
       </c>
       <c r="E133" s="2">
-        <v>45633.375</v>
+        <v>45633.6875</v>
       </c>
       <c r="F133">
         <v>15</v>
       </c>
       <c r="G133" t="s">
-        <v>72</v>
+        <v>87</v>
       </c>
       <c r="H133" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="I133">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J133">
         <v>1</v>
       </c>
       <c r="K133">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
         <v>3</v>
-      </c>
-      <c r="M133">
-        <v>2</v>
-      </c>
-      <c r="N133">
-        <v>5</v>
       </c>
       <c r="O133" t="s">
         <v>183</v>
@@ -28445,160 +28445,160 @@
         <v>271</v>
       </c>
       <c r="Q133">
+        <v>3</v>
+      </c>
+      <c r="R133">
         <v>2.15</v>
       </c>
-      <c r="R133">
-        <v>2.25</v>
-      </c>
       <c r="S133">
-        <v>5</v>
+        <v>3.25</v>
       </c>
       <c r="T133">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="U133">
         <v>2.9</v>
       </c>
       <c r="V133">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="W133">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="X133">
-        <v>6.45</v>
+        <v>6</v>
       </c>
       <c r="Y133">
-        <v>1.09</v>
+        <v>1.1</v>
       </c>
       <c r="Z133">
-        <v>1.5</v>
+        <v>2.49</v>
       </c>
       <c r="AA133">
-        <v>4.1</v>
+        <v>3.5</v>
       </c>
       <c r="AB133">
-        <v>6</v>
+        <v>2.87</v>
       </c>
       <c r="AC133">
         <v>1.05</v>
       </c>
       <c r="AD133">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AE133">
-        <v>1.28</v>
+        <v>1.25</v>
       </c>
       <c r="AF133">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="AG133">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AH133">
-        <v>1.87</v>
+        <v>2.02</v>
       </c>
       <c r="AI133">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="AJ133">
-        <v>1.83</v>
+        <v>2.25</v>
       </c>
       <c r="AK133">
-        <v>1.1</v>
+        <v>1.44</v>
       </c>
       <c r="AL133">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="AM133">
-        <v>2.35</v>
+        <v>1.53</v>
       </c>
       <c r="AN133">
-        <v>2.57</v>
+        <v>0.86</v>
       </c>
       <c r="AO133">
-        <v>1</v>
+        <v>2.29</v>
       </c>
       <c r="AP133">
-        <v>2.63</v>
+        <v>0.75</v>
       </c>
       <c r="AQ133">
-        <v>0.88</v>
+        <v>2.38</v>
       </c>
       <c r="AR133">
+        <v>1.17</v>
+      </c>
+      <c r="AS133">
+        <v>1.19</v>
+      </c>
+      <c r="AT133">
+        <v>2.36</v>
+      </c>
+      <c r="AU133">
+        <v>5</v>
+      </c>
+      <c r="AV133">
+        <v>6</v>
+      </c>
+      <c r="AW133">
+        <v>8</v>
+      </c>
+      <c r="AX133">
+        <v>5</v>
+      </c>
+      <c r="AY133">
+        <v>16</v>
+      </c>
+      <c r="AZ133">
+        <v>17</v>
+      </c>
+      <c r="BA133">
+        <v>3</v>
+      </c>
+      <c r="BB133">
+        <v>5</v>
+      </c>
+      <c r="BC133">
+        <v>8</v>
+      </c>
+      <c r="BD133">
+        <v>1.88</v>
+      </c>
+      <c r="BE133">
+        <v>6.75</v>
+      </c>
+      <c r="BF133">
+        <v>2.08</v>
+      </c>
+      <c r="BG133">
+        <v>1.22</v>
+      </c>
+      <c r="BH133">
+        <v>3.7</v>
+      </c>
+      <c r="BI133">
+        <v>1.4</v>
+      </c>
+      <c r="BJ133">
+        <v>2.7</v>
+      </c>
+      <c r="BK133">
         <v>1.64</v>
       </c>
-      <c r="AS133">
-        <v>0.95</v>
-      </c>
-      <c r="AT133">
-        <v>2.59</v>
-      </c>
-      <c r="AU133">
-        <v>11</v>
-      </c>
-      <c r="AV133">
-        <v>4</v>
-      </c>
-      <c r="AW133">
-        <v>9</v>
-      </c>
-      <c r="AX133">
-        <v>4</v>
-      </c>
-      <c r="AY133">
-        <v>28</v>
-      </c>
-      <c r="AZ133">
-        <v>10</v>
-      </c>
-      <c r="BA133">
-        <v>7</v>
-      </c>
-      <c r="BB133">
-        <v>2</v>
-      </c>
-      <c r="BC133">
-        <v>9</v>
-      </c>
-      <c r="BD133">
-        <v>1.41</v>
-      </c>
-      <c r="BE133">
-        <v>7.5</v>
-      </c>
-      <c r="BF133">
-        <v>3.2</v>
-      </c>
-      <c r="BG133">
-        <v>1.19</v>
-      </c>
-      <c r="BH133">
-        <v>4.1</v>
-      </c>
-      <c r="BI133">
-        <v>1.33</v>
-      </c>
-      <c r="BJ133">
-        <v>2.95</v>
-      </c>
-      <c r="BK133">
-        <v>1.54</v>
-      </c>
       <c r="BL133">
-        <v>2.28</v>
+        <v>2.1</v>
       </c>
       <c r="BM133">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="BN133">
-        <v>1.82</v>
+        <v>1.95</v>
       </c>
       <c r="BO133">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="BP133">
-        <v>1.53</v>
+        <v>1.46</v>
       </c>
     </row>
     <row r="134" spans="1:68">

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -28750,13 +28750,13 @@
         <v>10</v>
       </c>
       <c r="AX134">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AY134">
         <v>19</v>
       </c>
       <c r="AZ134">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BA134">
         <v>2</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="277">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -574,6 +574,9 @@
     <t>['4', '8', '11', '70', '87']</t>
   </si>
   <si>
+    <t>['45+2', '56', '62', '86']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -836,6 +839,12 @@
   </si>
   <si>
     <t>['33']</t>
+  </si>
+  <si>
+    <t>['19', '49']</t>
+  </si>
+  <si>
+    <t>['57', '87']</t>
   </si>
 </sst>
 </file>
@@ -1197,7 +1206,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP136"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1456,7 +1465,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1662,7 +1671,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1740,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ3">
         <v>1</v>
@@ -1949,7 +1958,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ4">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2074,7 +2083,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2152,7 +2161,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ5">
         <v>1.63</v>
@@ -2486,7 +2495,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2692,7 +2701,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2898,7 +2907,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2979,7 +2988,7 @@
         <v>1</v>
       </c>
       <c r="AQ9">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3104,7 +3113,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3516,7 +3525,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3928,7 +3937,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4340,7 +4349,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4546,7 +4555,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4752,7 +4761,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5164,7 +5173,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5242,7 +5251,7 @@
         <v>1</v>
       </c>
       <c r="AP20">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ20">
         <v>1.29</v>
@@ -5576,7 +5585,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5782,7 +5791,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6066,10 +6075,10 @@
         <v>0</v>
       </c>
       <c r="AP24">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ24">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR24">
         <v>1.29</v>
@@ -6400,7 +6409,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6606,7 +6615,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6812,7 +6821,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7224,7 +7233,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7430,7 +7439,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7511,7 +7520,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ31">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR31">
         <v>1.09</v>
@@ -7842,7 +7851,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8048,7 +8057,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8460,7 +8469,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8666,7 +8675,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8872,7 +8881,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9156,7 +9165,7 @@
         <v>0.5</v>
       </c>
       <c r="AP39">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ39">
         <v>1.13</v>
@@ -9284,7 +9293,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9490,7 +9499,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9696,7 +9705,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9902,7 +9911,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10314,7 +10323,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10392,7 +10401,7 @@
         <v>3</v>
       </c>
       <c r="AP45">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ45">
         <v>2.29</v>
@@ -10601,7 +10610,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ46">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR46">
         <v>1.28</v>
@@ -10726,7 +10735,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10932,7 +10941,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11138,7 +11147,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11344,7 +11353,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11756,7 +11765,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11962,7 +11971,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12168,7 +12177,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12374,7 +12383,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12455,7 +12464,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ55">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR55">
         <v>1.32</v>
@@ -12580,7 +12589,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12786,7 +12795,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12992,7 +13001,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13404,7 +13413,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13610,7 +13619,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -14022,7 +14031,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14100,7 +14109,7 @@
         <v>0.67</v>
       </c>
       <c r="AP63">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ63">
         <v>1.29</v>
@@ -14228,7 +14237,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14515,7 +14524,7 @@
         <v>2</v>
       </c>
       <c r="AQ65">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR65">
         <v>1.43</v>
@@ -14640,7 +14649,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -14718,7 +14727,7 @@
         <v>1</v>
       </c>
       <c r="AP66">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ66">
         <v>1.57</v>
@@ -15258,7 +15267,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15339,7 +15348,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ69">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR69">
         <v>0.99</v>
@@ -15464,7 +15473,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15670,7 +15679,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16082,7 +16091,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16572,7 +16581,7 @@
         <v>0.25</v>
       </c>
       <c r="AP75">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ75">
         <v>0.25</v>
@@ -16700,7 +16709,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16906,7 +16915,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17730,7 +17739,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17936,7 +17945,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18142,7 +18151,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18348,7 +18357,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18429,7 +18438,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ84">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR84">
         <v>1.18</v>
@@ -18554,7 +18563,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18632,7 +18641,7 @@
         <v>2</v>
       </c>
       <c r="AP85">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ85">
         <v>1.75</v>
@@ -18760,7 +18769,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18966,7 +18975,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19172,7 +19181,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19378,7 +19387,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19584,7 +19593,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19871,7 +19880,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ91">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR91">
         <v>1.66</v>
@@ -20614,7 +20623,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -21026,7 +21035,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21104,7 +21113,7 @@
         <v>1.25</v>
       </c>
       <c r="AP97">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ97">
         <v>2</v>
@@ -21232,7 +21241,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21644,7 +21653,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21850,7 +21859,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -22468,7 +22477,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22880,7 +22889,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23086,7 +23095,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23164,10 +23173,10 @@
         <v>0.8</v>
       </c>
       <c r="AP107">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ107">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR107">
         <v>1.56</v>
@@ -23373,7 +23382,7 @@
         <v>1</v>
       </c>
       <c r="AQ108">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR108">
         <v>1.53</v>
@@ -23498,7 +23507,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23704,7 +23713,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24116,7 +24125,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24322,7 +24331,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24400,7 +24409,7 @@
         <v>1</v>
       </c>
       <c r="AP113">
-        <v>1</v>
+        <v>0.88</v>
       </c>
       <c r="AQ113">
         <v>0.88</v>
@@ -24528,7 +24537,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24734,7 +24743,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24940,7 +24949,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25146,7 +25155,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25352,7 +25361,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25558,7 +25567,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25764,7 +25773,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25970,7 +25979,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26176,7 +26185,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -26463,7 +26472,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ123">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR123">
         <v>1.47</v>
@@ -26669,7 +26678,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ124">
-        <v>0.86</v>
+        <v>1.13</v>
       </c>
       <c r="AR124">
         <v>1.46</v>
@@ -26794,7 +26803,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26872,7 +26881,7 @@
         <v>1.17</v>
       </c>
       <c r="AP125">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ125">
         <v>1.43</v>
@@ -27000,7 +27009,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27618,7 +27627,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -27824,7 +27833,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28030,7 +28039,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q131">
         <v>3.3</v>
@@ -28236,7 +28245,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28442,7 +28451,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28648,7 +28657,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29060,7 +29069,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29217,6 +29226,418 @@
       </c>
       <c r="BP136">
         <v>1.64</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>7491627</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45639.60416666666</v>
+      </c>
+      <c r="F137">
+        <v>16</v>
+      </c>
+      <c r="G137" t="s">
+        <v>71</v>
+      </c>
+      <c r="H137" t="s">
+        <v>79</v>
+      </c>
+      <c r="I137">
+        <v>1</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>2</v>
+      </c>
+      <c r="L137">
+        <v>4</v>
+      </c>
+      <c r="M137">
+        <v>2</v>
+      </c>
+      <c r="N137">
+        <v>6</v>
+      </c>
+      <c r="O137" t="s">
+        <v>186</v>
+      </c>
+      <c r="P137" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q137">
+        <v>1.87</v>
+      </c>
+      <c r="R137">
+        <v>2.55</v>
+      </c>
+      <c r="S137">
+        <v>5.5</v>
+      </c>
+      <c r="T137">
+        <v>1.25</v>
+      </c>
+      <c r="U137">
+        <v>3.6</v>
+      </c>
+      <c r="V137">
+        <v>2.24</v>
+      </c>
+      <c r="W137">
+        <v>1.59</v>
+      </c>
+      <c r="X137">
+        <v>4.95</v>
+      </c>
+      <c r="Y137">
+        <v>1.14</v>
+      </c>
+      <c r="Z137">
+        <v>1.36</v>
+      </c>
+      <c r="AA137">
+        <v>4.5</v>
+      </c>
+      <c r="AB137">
+        <v>6</v>
+      </c>
+      <c r="AC137">
+        <v>1.01</v>
+      </c>
+      <c r="AD137">
+        <v>13</v>
+      </c>
+      <c r="AE137">
+        <v>1.17</v>
+      </c>
+      <c r="AF137">
+        <v>5</v>
+      </c>
+      <c r="AG137">
+        <v>1.56</v>
+      </c>
+      <c r="AH137">
+        <v>2.34</v>
+      </c>
+      <c r="AI137">
+        <v>1.72</v>
+      </c>
+      <c r="AJ137">
+        <v>2.05</v>
+      </c>
+      <c r="AK137">
+        <v>1.06</v>
+      </c>
+      <c r="AL137">
+        <v>1.12</v>
+      </c>
+      <c r="AM137">
+        <v>2.9</v>
+      </c>
+      <c r="AN137">
+        <v>1.57</v>
+      </c>
+      <c r="AO137">
+        <v>0.14</v>
+      </c>
+      <c r="AP137">
+        <v>1.75</v>
+      </c>
+      <c r="AQ137">
+        <v>0.13</v>
+      </c>
+      <c r="AR137">
+        <v>1.55</v>
+      </c>
+      <c r="AS137">
+        <v>1.13</v>
+      </c>
+      <c r="AT137">
+        <v>2.68</v>
+      </c>
+      <c r="AU137">
+        <v>9</v>
+      </c>
+      <c r="AV137">
+        <v>6</v>
+      </c>
+      <c r="AW137">
+        <v>7</v>
+      </c>
+      <c r="AX137">
+        <v>5</v>
+      </c>
+      <c r="AY137">
+        <v>19</v>
+      </c>
+      <c r="AZ137">
+        <v>15</v>
+      </c>
+      <c r="BA137">
+        <v>4</v>
+      </c>
+      <c r="BB137">
+        <v>0</v>
+      </c>
+      <c r="BC137">
+        <v>4</v>
+      </c>
+      <c r="BD137">
+        <v>1.36</v>
+      </c>
+      <c r="BE137">
+        <v>7</v>
+      </c>
+      <c r="BF137">
+        <v>3.45</v>
+      </c>
+      <c r="BG137">
+        <v>1.33</v>
+      </c>
+      <c r="BH137">
+        <v>2.95</v>
+      </c>
+      <c r="BI137">
+        <v>1.57</v>
+      </c>
+      <c r="BJ137">
+        <v>2.23</v>
+      </c>
+      <c r="BK137">
+        <v>1.92</v>
+      </c>
+      <c r="BL137">
+        <v>1.77</v>
+      </c>
+      <c r="BM137">
+        <v>2.43</v>
+      </c>
+      <c r="BN137">
+        <v>1.48</v>
+      </c>
+      <c r="BO137">
+        <v>3.15</v>
+      </c>
+      <c r="BP137">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>7491629</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45639.60416666666</v>
+      </c>
+      <c r="F138">
+        <v>16</v>
+      </c>
+      <c r="G138" t="s">
+        <v>73</v>
+      </c>
+      <c r="H138" t="s">
+        <v>87</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>0</v>
+      </c>
+      <c r="K138">
+        <v>1</v>
+      </c>
+      <c r="L138">
+        <v>1</v>
+      </c>
+      <c r="M138">
+        <v>2</v>
+      </c>
+      <c r="N138">
+        <v>3</v>
+      </c>
+      <c r="O138" t="s">
+        <v>120</v>
+      </c>
+      <c r="P138" t="s">
+        <v>276</v>
+      </c>
+      <c r="Q138">
+        <v>2.1</v>
+      </c>
+      <c r="R138">
+        <v>2.4</v>
+      </c>
+      <c r="S138">
+        <v>4.5</v>
+      </c>
+      <c r="T138">
+        <v>1.27</v>
+      </c>
+      <c r="U138">
+        <v>3.45</v>
+      </c>
+      <c r="V138">
+        <v>2.29</v>
+      </c>
+      <c r="W138">
+        <v>1.56</v>
+      </c>
+      <c r="X138">
+        <v>4.95</v>
+      </c>
+      <c r="Y138">
+        <v>1.14</v>
+      </c>
+      <c r="Z138">
+        <v>1.57</v>
+      </c>
+      <c r="AA138">
+        <v>4</v>
+      </c>
+      <c r="AB138">
+        <v>4.4</v>
+      </c>
+      <c r="AC138">
+        <v>1.03</v>
+      </c>
+      <c r="AD138">
+        <v>11</v>
+      </c>
+      <c r="AE138">
+        <v>1.17</v>
+      </c>
+      <c r="AF138">
+        <v>4.75</v>
+      </c>
+      <c r="AG138">
+        <v>1.53</v>
+      </c>
+      <c r="AH138">
+        <v>2.25</v>
+      </c>
+      <c r="AI138">
+        <v>1.6</v>
+      </c>
+      <c r="AJ138">
+        <v>2.25</v>
+      </c>
+      <c r="AK138">
+        <v>1.15</v>
+      </c>
+      <c r="AL138">
+        <v>1.17</v>
+      </c>
+      <c r="AM138">
+        <v>2.2</v>
+      </c>
+      <c r="AN138">
+        <v>1</v>
+      </c>
+      <c r="AO138">
+        <v>0.86</v>
+      </c>
+      <c r="AP138">
+        <v>0.88</v>
+      </c>
+      <c r="AQ138">
+        <v>1.13</v>
+      </c>
+      <c r="AR138">
+        <v>1.37</v>
+      </c>
+      <c r="AS138">
+        <v>1.28</v>
+      </c>
+      <c r="AT138">
+        <v>2.65</v>
+      </c>
+      <c r="AU138">
+        <v>5</v>
+      </c>
+      <c r="AV138">
+        <v>4</v>
+      </c>
+      <c r="AW138">
+        <v>7</v>
+      </c>
+      <c r="AX138">
+        <v>4</v>
+      </c>
+      <c r="AY138">
+        <v>14</v>
+      </c>
+      <c r="AZ138">
+        <v>14</v>
+      </c>
+      <c r="BA138">
+        <v>9</v>
+      </c>
+      <c r="BB138">
+        <v>2</v>
+      </c>
+      <c r="BC138">
+        <v>11</v>
+      </c>
+      <c r="BD138">
+        <v>1.54</v>
+      </c>
+      <c r="BE138">
+        <v>6.75</v>
+      </c>
+      <c r="BF138">
+        <v>2.7</v>
+      </c>
+      <c r="BG138">
+        <v>1.33</v>
+      </c>
+      <c r="BH138">
+        <v>2.95</v>
+      </c>
+      <c r="BI138">
+        <v>1.55</v>
+      </c>
+      <c r="BJ138">
+        <v>2.25</v>
+      </c>
+      <c r="BK138">
+        <v>1.9</v>
+      </c>
+      <c r="BL138">
+        <v>1.79</v>
+      </c>
+      <c r="BM138">
+        <v>2.4</v>
+      </c>
+      <c r="BN138">
+        <v>1.5</v>
+      </c>
+      <c r="BO138">
+        <v>3.15</v>
+      </c>
+      <c r="BP138">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="277">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="280">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,6 +577,12 @@
     <t>['45+2', '56', '62', '86']</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
+    <t>['33', '45+2', '62', '73', '88']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -845,6 +851,9 @@
   </si>
   <si>
     <t>['57', '87']</t>
+  </si>
+  <si>
+    <t>['69']</t>
   </si>
 </sst>
 </file>
@@ -1206,7 +1215,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP142"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1465,7 +1474,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1546,7 +1555,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ2">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1671,7 +1680,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2083,7 +2092,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2164,7 +2173,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ5">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2367,7 +2376,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ6">
         <v>1.29</v>
@@ -2495,7 +2504,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2701,7 +2710,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2779,10 +2788,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ8">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR8">
         <v>0</v>
@@ -2907,7 +2916,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3113,7 +3122,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3191,10 +3200,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ10">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3525,7 +3534,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3937,7 +3946,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4349,7 +4358,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4555,7 +4564,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4761,7 +4770,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5173,7 +5182,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5460,7 +5469,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ21">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR21">
         <v>1.5</v>
@@ -5585,7 +5594,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5666,7 +5675,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ22">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR22">
         <v>1.26</v>
@@ -5791,7 +5800,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5872,7 +5881,7 @@
         <v>1</v>
       </c>
       <c r="AQ23">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR23">
         <v>2.28</v>
@@ -6409,7 +6418,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6487,10 +6496,10 @@
         <v>3</v>
       </c>
       <c r="AP26">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ26">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR26">
         <v>1.22</v>
@@ -6615,7 +6624,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6693,7 +6702,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ27">
         <v>1</v>
@@ -6821,7 +6830,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6899,7 +6908,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ28">
         <v>1.13</v>
@@ -7233,7 +7242,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7439,7 +7448,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7851,7 +7860,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8057,7 +8066,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8469,7 +8478,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8675,7 +8684,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8881,7 +8890,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -8962,7 +8971,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ38">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR38">
         <v>1.52</v>
@@ -9293,7 +9302,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9374,7 +9383,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ40">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR40">
         <v>1.31</v>
@@ -9499,7 +9508,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9577,7 +9586,7 @@
         <v>0.5</v>
       </c>
       <c r="AP41">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ41">
         <v>1</v>
@@ -9705,7 +9714,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9783,7 +9792,7 @@
         <v>0</v>
       </c>
       <c r="AP42">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ42">
         <v>0.25</v>
@@ -9911,7 +9920,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10323,7 +10332,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10404,7 +10413,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ45">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR45">
         <v>1.24</v>
@@ -10735,7 +10744,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10941,7 +10950,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11147,7 +11156,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11353,7 +11362,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11765,7 +11774,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11846,7 +11855,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ52">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR52">
         <v>1.99</v>
@@ -11971,7 +11980,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12177,7 +12186,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12255,7 +12264,7 @@
         <v>2</v>
       </c>
       <c r="AP54">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ54">
         <v>1.5</v>
@@ -12383,7 +12392,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12589,7 +12598,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12667,7 +12676,7 @@
         <v>0.33</v>
       </c>
       <c r="AP56">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ56">
         <v>0.25</v>
@@ -12795,7 +12804,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12876,7 +12885,7 @@
         <v>1</v>
       </c>
       <c r="AQ57">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR57">
         <v>1.49</v>
@@ -13001,7 +13010,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13082,7 +13091,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ58">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR58">
         <v>1.49</v>
@@ -13288,7 +13297,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ59">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR59">
         <v>1.4</v>
@@ -13413,7 +13422,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13491,7 +13500,7 @@
         <v>3</v>
       </c>
       <c r="AP60">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ60">
         <v>2.38</v>
@@ -13619,7 +13628,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -14031,7 +14040,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14237,7 +14246,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14649,7 +14658,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15142,7 +15151,7 @@
         <v>2</v>
       </c>
       <c r="AQ68">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR68">
         <v>1.33</v>
@@ -15267,7 +15276,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15473,7 +15482,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15679,7 +15688,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15757,7 +15766,7 @@
         <v>1.33</v>
       </c>
       <c r="AP71">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ71">
         <v>1.29</v>
@@ -16091,7 +16100,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16172,7 +16181,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ73">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR73">
         <v>1.59</v>
@@ -16375,7 +16384,7 @@
         <v>1.67</v>
       </c>
       <c r="AP74">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ74">
         <v>2</v>
@@ -16709,7 +16718,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16915,7 +16924,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -16996,7 +17005,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ77">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR77">
         <v>1.26</v>
@@ -17408,7 +17417,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ79">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR79">
         <v>1.72</v>
@@ -17611,7 +17620,7 @@
         <v>1.5</v>
       </c>
       <c r="AP80">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ80">
         <v>1.5</v>
@@ -17739,7 +17748,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17945,7 +17954,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18151,7 +18160,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18232,7 +18241,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ83">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR83">
         <v>2.13</v>
@@ -18357,7 +18366,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18563,7 +18572,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18769,7 +18778,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18975,7 +18984,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19056,7 +19065,7 @@
         <v>2</v>
       </c>
       <c r="AQ87">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR87">
         <v>1.33</v>
@@ -19181,7 +19190,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19262,7 +19271,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ88">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR88">
         <v>1.59</v>
@@ -19387,7 +19396,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19465,7 +19474,7 @@
         <v>1</v>
       </c>
       <c r="AP89">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ89">
         <v>0.88</v>
@@ -19593,7 +19602,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19671,7 +19680,7 @@
         <v>0.25</v>
       </c>
       <c r="AP90">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ90">
         <v>0.71</v>
@@ -20086,7 +20095,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ92">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR92">
         <v>1.28</v>
@@ -20289,7 +20298,7 @@
         <v>0.8</v>
       </c>
       <c r="AP93">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ93">
         <v>1.13</v>
@@ -20623,7 +20632,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -21035,7 +21044,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21241,7 +21250,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21653,7 +21662,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21859,7 +21868,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -21940,7 +21949,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ101">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR101">
         <v>1.49</v>
@@ -22146,7 +22155,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ102">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR102">
         <v>1.42</v>
@@ -22477,7 +22486,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22555,7 +22564,7 @@
         <v>2.2</v>
       </c>
       <c r="AP104">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ104">
         <v>1.75</v>
@@ -22761,7 +22770,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ105">
         <v>0.88</v>
@@ -22889,7 +22898,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -22970,7 +22979,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ106">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR106">
         <v>1.62</v>
@@ -23095,7 +23104,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23507,7 +23516,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23713,7 +23722,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24125,7 +24134,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24331,7 +24340,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24537,7 +24546,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24743,7 +24752,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24949,7 +24958,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25155,7 +25164,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25361,7 +25370,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25567,7 +25576,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25645,7 +25654,7 @@
         <v>1.83</v>
       </c>
       <c r="AP119">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ119">
         <v>1.75</v>
@@ -25773,7 +25782,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25854,7 +25863,7 @@
         <v>1</v>
       </c>
       <c r="AQ120">
-        <v>1.75</v>
+        <v>1.56</v>
       </c>
       <c r="AR120">
         <v>1.48</v>
@@ -25979,7 +25988,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26185,7 +26194,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -26266,7 +26275,7 @@
         <v>2</v>
       </c>
       <c r="AQ122">
-        <v>1.63</v>
+        <v>1.56</v>
       </c>
       <c r="AR122">
         <v>1.56</v>
@@ -26675,7 +26684,7 @@
         <v>0.83</v>
       </c>
       <c r="AP124">
-        <v>1.25</v>
+        <v>1.44</v>
       </c>
       <c r="AQ124">
         <v>1.13</v>
@@ -26803,7 +26812,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -26884,7 +26893,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ125">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AR125">
         <v>1.52</v>
@@ -27009,7 +27018,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27090,7 +27099,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ126">
-        <v>2.29</v>
+        <v>2.13</v>
       </c>
       <c r="AR126">
         <v>1.45</v>
@@ -27293,7 +27302,7 @@
         <v>1.33</v>
       </c>
       <c r="AP127">
-        <v>0.71</v>
+        <v>0.75</v>
       </c>
       <c r="AQ127">
         <v>1.29</v>
@@ -27627,7 +27636,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -27833,7 +27842,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28039,7 +28048,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q131">
         <v>3.3</v>
@@ -28245,7 +28254,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28451,7 +28460,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28657,7 +28666,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29069,7 +29078,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29275,7 +29284,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29481,7 +29490,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -29574,22 +29583,22 @@
         <v>2.65</v>
       </c>
       <c r="AU138">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="AV138">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AW138">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="AX138">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="AY138">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="AZ138">
-        <v>14</v>
+        <v>-1</v>
       </c>
       <c r="BA138">
         <v>9</v>
@@ -29638,6 +29647,830 @@
       </c>
       <c r="BP138">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>7491630</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45640.375</v>
+      </c>
+      <c r="F139">
+        <v>16</v>
+      </c>
+      <c r="G139" t="s">
+        <v>75</v>
+      </c>
+      <c r="H139" t="s">
+        <v>83</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>0</v>
+      </c>
+      <c r="K139">
+        <v>0</v>
+      </c>
+      <c r="L139">
+        <v>1</v>
+      </c>
+      <c r="M139">
+        <v>1</v>
+      </c>
+      <c r="N139">
+        <v>2</v>
+      </c>
+      <c r="O139" t="s">
+        <v>91</v>
+      </c>
+      <c r="P139" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q139">
+        <v>3.1</v>
+      </c>
+      <c r="R139">
+        <v>2.2</v>
+      </c>
+      <c r="S139">
+        <v>3</v>
+      </c>
+      <c r="T139">
+        <v>1.33</v>
+      </c>
+      <c r="U139">
+        <v>3.05</v>
+      </c>
+      <c r="V139">
+        <v>2.45</v>
+      </c>
+      <c r="W139">
+        <v>1.49</v>
+      </c>
+      <c r="X139">
+        <v>5.9</v>
+      </c>
+      <c r="Y139">
+        <v>1.1</v>
+      </c>
+      <c r="Z139">
+        <v>2.62</v>
+      </c>
+      <c r="AA139">
+        <v>3.5</v>
+      </c>
+      <c r="AB139">
+        <v>2.5</v>
+      </c>
+      <c r="AC139">
+        <v>1.04</v>
+      </c>
+      <c r="AD139">
+        <v>10</v>
+      </c>
+      <c r="AE139">
+        <v>1.22</v>
+      </c>
+      <c r="AF139">
+        <v>4</v>
+      </c>
+      <c r="AG139">
+        <v>1.65</v>
+      </c>
+      <c r="AH139">
+        <v>2.1</v>
+      </c>
+      <c r="AI139">
+        <v>1.55</v>
+      </c>
+      <c r="AJ139">
+        <v>2.35</v>
+      </c>
+      <c r="AK139">
+        <v>1.5</v>
+      </c>
+      <c r="AL139">
+        <v>1.25</v>
+      </c>
+      <c r="AM139">
+        <v>1.47</v>
+      </c>
+      <c r="AN139">
+        <v>1</v>
+      </c>
+      <c r="AO139">
+        <v>2.29</v>
+      </c>
+      <c r="AP139">
+        <v>1</v>
+      </c>
+      <c r="AQ139">
+        <v>2.13</v>
+      </c>
+      <c r="AR139">
+        <v>1.49</v>
+      </c>
+      <c r="AS139">
+        <v>1.38</v>
+      </c>
+      <c r="AT139">
+        <v>2.87</v>
+      </c>
+      <c r="AU139">
+        <v>11</v>
+      </c>
+      <c r="AV139">
+        <v>4</v>
+      </c>
+      <c r="AW139">
+        <v>6</v>
+      </c>
+      <c r="AX139">
+        <v>2</v>
+      </c>
+      <c r="AY139">
+        <v>20</v>
+      </c>
+      <c r="AZ139">
+        <v>8</v>
+      </c>
+      <c r="BA139">
+        <v>6</v>
+      </c>
+      <c r="BB139">
+        <v>2</v>
+      </c>
+      <c r="BC139">
+        <v>8</v>
+      </c>
+      <c r="BD139">
+        <v>1.98</v>
+      </c>
+      <c r="BE139">
+        <v>6.75</v>
+      </c>
+      <c r="BF139">
+        <v>1.98</v>
+      </c>
+      <c r="BG139">
+        <v>1.21</v>
+      </c>
+      <c r="BH139">
+        <v>3.8</v>
+      </c>
+      <c r="BI139">
+        <v>1.36</v>
+      </c>
+      <c r="BJ139">
+        <v>2.8</v>
+      </c>
+      <c r="BK139">
+        <v>1.6</v>
+      </c>
+      <c r="BL139">
+        <v>2.17</v>
+      </c>
+      <c r="BM139">
+        <v>1.95</v>
+      </c>
+      <c r="BN139">
+        <v>1.74</v>
+      </c>
+      <c r="BO139">
+        <v>2.4</v>
+      </c>
+      <c r="BP139">
+        <v>1.49</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>7491631</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45640.375</v>
+      </c>
+      <c r="F140">
+        <v>16</v>
+      </c>
+      <c r="G140" t="s">
+        <v>74</v>
+      </c>
+      <c r="H140" t="s">
+        <v>85</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>0</v>
+      </c>
+      <c r="K140">
+        <v>0</v>
+      </c>
+      <c r="L140">
+        <v>1</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>2</v>
+      </c>
+      <c r="O140" t="s">
+        <v>187</v>
+      </c>
+      <c r="P140" t="s">
+        <v>279</v>
+      </c>
+      <c r="Q140">
+        <v>3.1</v>
+      </c>
+      <c r="R140">
+        <v>2.2</v>
+      </c>
+      <c r="S140">
+        <v>3</v>
+      </c>
+      <c r="T140">
+        <v>1.3</v>
+      </c>
+      <c r="U140">
+        <v>3.25</v>
+      </c>
+      <c r="V140">
+        <v>2.4</v>
+      </c>
+      <c r="W140">
+        <v>1.51</v>
+      </c>
+      <c r="X140">
+        <v>5.45</v>
+      </c>
+      <c r="Y140">
+        <v>1.12</v>
+      </c>
+      <c r="Z140">
+        <v>2.62</v>
+      </c>
+      <c r="AA140">
+        <v>3.6</v>
+      </c>
+      <c r="AB140">
+        <v>2.45</v>
+      </c>
+      <c r="AC140">
+        <v>1.04</v>
+      </c>
+      <c r="AD140">
+        <v>10</v>
+      </c>
+      <c r="AE140">
+        <v>1.2</v>
+      </c>
+      <c r="AF140">
+        <v>4.33</v>
+      </c>
+      <c r="AG140">
+        <v>1.58</v>
+      </c>
+      <c r="AH140">
+        <v>2.2</v>
+      </c>
+      <c r="AI140">
+        <v>1.52</v>
+      </c>
+      <c r="AJ140">
+        <v>2.45</v>
+      </c>
+      <c r="AK140">
+        <v>1.53</v>
+      </c>
+      <c r="AL140">
+        <v>1.22</v>
+      </c>
+      <c r="AM140">
+        <v>1.47</v>
+      </c>
+      <c r="AN140">
+        <v>0.71</v>
+      </c>
+      <c r="AO140">
+        <v>1.63</v>
+      </c>
+      <c r="AP140">
+        <v>0.75</v>
+      </c>
+      <c r="AQ140">
+        <v>1.56</v>
+      </c>
+      <c r="AR140">
+        <v>1.64</v>
+      </c>
+      <c r="AS140">
+        <v>1.34</v>
+      </c>
+      <c r="AT140">
+        <v>2.98</v>
+      </c>
+      <c r="AU140">
+        <v>5</v>
+      </c>
+      <c r="AV140">
+        <v>8</v>
+      </c>
+      <c r="AW140">
+        <v>7</v>
+      </c>
+      <c r="AX140">
+        <v>3</v>
+      </c>
+      <c r="AY140">
+        <v>15</v>
+      </c>
+      <c r="AZ140">
+        <v>14</v>
+      </c>
+      <c r="BA140">
+        <v>7</v>
+      </c>
+      <c r="BB140">
+        <v>7</v>
+      </c>
+      <c r="BC140">
+        <v>14</v>
+      </c>
+      <c r="BD140">
+        <v>2.02</v>
+      </c>
+      <c r="BE140">
+        <v>6.75</v>
+      </c>
+      <c r="BF140">
+        <v>1.98</v>
+      </c>
+      <c r="BG140">
+        <v>1.19</v>
+      </c>
+      <c r="BH140">
+        <v>4.1</v>
+      </c>
+      <c r="BI140">
+        <v>1.34</v>
+      </c>
+      <c r="BJ140">
+        <v>2.9</v>
+      </c>
+      <c r="BK140">
+        <v>1.56</v>
+      </c>
+      <c r="BL140">
+        <v>2.23</v>
+      </c>
+      <c r="BM140">
+        <v>1.91</v>
+      </c>
+      <c r="BN140">
+        <v>1.78</v>
+      </c>
+      <c r="BO140">
+        <v>2.33</v>
+      </c>
+      <c r="BP140">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>7491633</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45640.375</v>
+      </c>
+      <c r="F141">
+        <v>16</v>
+      </c>
+      <c r="G141" t="s">
+        <v>78</v>
+      </c>
+      <c r="H141" t="s">
+        <v>84</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>0</v>
+      </c>
+      <c r="K141">
+        <v>1</v>
+      </c>
+      <c r="L141">
+        <v>1</v>
+      </c>
+      <c r="M141">
+        <v>1</v>
+      </c>
+      <c r="N141">
+        <v>2</v>
+      </c>
+      <c r="O141" t="s">
+        <v>96</v>
+      </c>
+      <c r="P141" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q141">
+        <v>4</v>
+      </c>
+      <c r="R141">
+        <v>2.25</v>
+      </c>
+      <c r="S141">
+        <v>2.4</v>
+      </c>
+      <c r="T141">
+        <v>1.32</v>
+      </c>
+      <c r="U141">
+        <v>3.15</v>
+      </c>
+      <c r="V141">
+        <v>2.45</v>
+      </c>
+      <c r="W141">
+        <v>1.49</v>
+      </c>
+      <c r="X141">
+        <v>5.45</v>
+      </c>
+      <c r="Y141">
+        <v>1.12</v>
+      </c>
+      <c r="Z141">
+        <v>3.75</v>
+      </c>
+      <c r="AA141">
+        <v>3.6</v>
+      </c>
+      <c r="AB141">
+        <v>1.91</v>
+      </c>
+      <c r="AC141">
+        <v>1.04</v>
+      </c>
+      <c r="AD141">
+        <v>10</v>
+      </c>
+      <c r="AE141">
+        <v>1.22</v>
+      </c>
+      <c r="AF141">
+        <v>4</v>
+      </c>
+      <c r="AG141">
+        <v>1.63</v>
+      </c>
+      <c r="AH141">
+        <v>2.1</v>
+      </c>
+      <c r="AI141">
+        <v>1.62</v>
+      </c>
+      <c r="AJ141">
+        <v>2.2</v>
+      </c>
+      <c r="AK141">
+        <v>1.9</v>
+      </c>
+      <c r="AL141">
+        <v>1.2</v>
+      </c>
+      <c r="AM141">
+        <v>1.2</v>
+      </c>
+      <c r="AN141">
+        <v>0.71</v>
+      </c>
+      <c r="AO141">
+        <v>1.43</v>
+      </c>
+      <c r="AP141">
+        <v>0.75</v>
+      </c>
+      <c r="AQ141">
+        <v>1.38</v>
+      </c>
+      <c r="AR141">
+        <v>1.46</v>
+      </c>
+      <c r="AS141">
+        <v>1.53</v>
+      </c>
+      <c r="AT141">
+        <v>2.99</v>
+      </c>
+      <c r="AU141">
+        <v>5</v>
+      </c>
+      <c r="AV141">
+        <v>3</v>
+      </c>
+      <c r="AW141">
+        <v>8</v>
+      </c>
+      <c r="AX141">
+        <v>4</v>
+      </c>
+      <c r="AY141">
+        <v>15</v>
+      </c>
+      <c r="AZ141">
+        <v>7</v>
+      </c>
+      <c r="BA141">
+        <v>5</v>
+      </c>
+      <c r="BB141">
+        <v>2</v>
+      </c>
+      <c r="BC141">
+        <v>7</v>
+      </c>
+      <c r="BD141">
+        <v>2.75</v>
+      </c>
+      <c r="BE141">
+        <v>7</v>
+      </c>
+      <c r="BF141">
+        <v>1.54</v>
+      </c>
+      <c r="BG141">
+        <v>1.18</v>
+      </c>
+      <c r="BH141">
+        <v>4</v>
+      </c>
+      <c r="BI141">
+        <v>1.34</v>
+      </c>
+      <c r="BJ141">
+        <v>2.9</v>
+      </c>
+      <c r="BK141">
+        <v>1.56</v>
+      </c>
+      <c r="BL141">
+        <v>2.23</v>
+      </c>
+      <c r="BM141">
+        <v>1.89</v>
+      </c>
+      <c r="BN141">
+        <v>1.8</v>
+      </c>
+      <c r="BO141">
+        <v>2.33</v>
+      </c>
+      <c r="BP141">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>7491626</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45640.6875</v>
+      </c>
+      <c r="F142">
+        <v>16</v>
+      </c>
+      <c r="G142" t="s">
+        <v>76</v>
+      </c>
+      <c r="H142" t="s">
+        <v>80</v>
+      </c>
+      <c r="I142">
+        <v>2</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>2</v>
+      </c>
+      <c r="L142">
+        <v>5</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>6</v>
+      </c>
+      <c r="O142" t="s">
+        <v>188</v>
+      </c>
+      <c r="P142" t="s">
+        <v>237</v>
+      </c>
+      <c r="Q142">
+        <v>2.38</v>
+      </c>
+      <c r="R142">
+        <v>2.3</v>
+      </c>
+      <c r="S142">
+        <v>3.8</v>
+      </c>
+      <c r="T142">
+        <v>1.28</v>
+      </c>
+      <c r="U142">
+        <v>3.3</v>
+      </c>
+      <c r="V142">
+        <v>2.25</v>
+      </c>
+      <c r="W142">
+        <v>1.57</v>
+      </c>
+      <c r="X142">
+        <v>5.2</v>
+      </c>
+      <c r="Y142">
+        <v>1.12</v>
+      </c>
+      <c r="Z142">
+        <v>1.84</v>
+      </c>
+      <c r="AA142">
+        <v>3.8</v>
+      </c>
+      <c r="AB142">
+        <v>3.65</v>
+      </c>
+      <c r="AC142">
+        <v>1.03</v>
+      </c>
+      <c r="AD142">
+        <v>11</v>
+      </c>
+      <c r="AE142">
+        <v>1.18</v>
+      </c>
+      <c r="AF142">
+        <v>4.75</v>
+      </c>
+      <c r="AG142">
+        <v>1.6</v>
+      </c>
+      <c r="AH142">
+        <v>2.34</v>
+      </c>
+      <c r="AI142">
+        <v>1.5</v>
+      </c>
+      <c r="AJ142">
+        <v>2.38</v>
+      </c>
+      <c r="AK142">
+        <v>1.28</v>
+      </c>
+      <c r="AL142">
+        <v>1.2</v>
+      </c>
+      <c r="AM142">
+        <v>1.85</v>
+      </c>
+      <c r="AN142">
+        <v>1.25</v>
+      </c>
+      <c r="AO142">
+        <v>1.75</v>
+      </c>
+      <c r="AP142">
+        <v>1.44</v>
+      </c>
+      <c r="AQ142">
+        <v>1.56</v>
+      </c>
+      <c r="AR142">
+        <v>1.45</v>
+      </c>
+      <c r="AS142">
+        <v>1.36</v>
+      </c>
+      <c r="AT142">
+        <v>2.81</v>
+      </c>
+      <c r="AU142">
+        <v>13</v>
+      </c>
+      <c r="AV142">
+        <v>4</v>
+      </c>
+      <c r="AW142">
+        <v>4</v>
+      </c>
+      <c r="AX142">
+        <v>5</v>
+      </c>
+      <c r="AY142">
+        <v>18</v>
+      </c>
+      <c r="AZ142">
+        <v>11</v>
+      </c>
+      <c r="BA142">
+        <v>3</v>
+      </c>
+      <c r="BB142">
+        <v>4</v>
+      </c>
+      <c r="BC142">
+        <v>7</v>
+      </c>
+      <c r="BD142">
+        <v>1.68</v>
+      </c>
+      <c r="BE142">
+        <v>6.75</v>
+      </c>
+      <c r="BF142">
+        <v>2.4</v>
+      </c>
+      <c r="BG142">
+        <v>1.25</v>
+      </c>
+      <c r="BH142">
+        <v>3.45</v>
+      </c>
+      <c r="BI142">
+        <v>1.44</v>
+      </c>
+      <c r="BJ142">
+        <v>2.55</v>
+      </c>
+      <c r="BK142">
+        <v>1.72</v>
+      </c>
+      <c r="BL142">
+        <v>1.98</v>
+      </c>
+      <c r="BM142">
+        <v>2.1</v>
+      </c>
+      <c r="BN142">
+        <v>1.64</v>
+      </c>
+      <c r="BO142">
+        <v>2.65</v>
+      </c>
+      <c r="BP142">
+        <v>1.41</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="914" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="283">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -577,10 +577,16 @@
     <t>['45+2', '56', '62', '86']</t>
   </si>
   <si>
+    <t>['33', '45+2', '62', '73', '88']</t>
+  </si>
+  <si>
     <t>['57']</t>
   </si>
   <si>
-    <t>['33', '45+2', '62', '73', '88']</t>
+    <t>['6', '17', '31']</t>
+  </si>
+  <si>
+    <t>['83']</t>
   </si>
   <si>
     <t>['5', '35']</t>
@@ -854,6 +860,9 @@
   </si>
   <si>
     <t>['69']</t>
+  </si>
+  <si>
+    <t>['62', '79', '90+1']</t>
   </si>
 </sst>
 </file>
@@ -1215,7 +1224,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP142"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1474,7 +1483,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1552,7 +1561,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ2">
         <v>1.38</v>
@@ -1680,7 +1689,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1761,7 +1770,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ3">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -2092,7 +2101,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2379,7 +2388,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ6">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2504,7 +2513,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2710,7 +2719,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2916,7 +2925,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -2994,7 +3003,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ9">
         <v>1.13</v>
@@ -3122,7 +3131,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3534,7 +3543,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3946,7 +3955,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4358,7 +4367,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4564,7 +4573,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4770,7 +4779,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4848,7 +4857,7 @@
         <v>0</v>
       </c>
       <c r="AP18">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ18">
         <v>2.38</v>
@@ -5057,7 +5066,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ19">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR19">
         <v>0</v>
@@ -5182,7 +5191,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5263,7 +5272,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ20">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR20">
         <v>1.6</v>
@@ -5594,7 +5603,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5800,7 +5809,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -5878,7 +5887,7 @@
         <v>3</v>
       </c>
       <c r="AP23">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ23">
         <v>1.56</v>
@@ -6290,7 +6299,7 @@
         <v>0</v>
       </c>
       <c r="AP25">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ25">
         <v>0.25</v>
@@ -6418,7 +6427,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6624,7 +6633,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6705,7 +6714,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ27">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR27">
         <v>1.43</v>
@@ -6830,7 +6839,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7117,7 +7126,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ29">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR29">
         <v>1.99</v>
@@ -7242,7 +7251,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7448,7 +7457,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7860,7 +7869,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8066,7 +8075,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8478,7 +8487,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8684,7 +8693,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8762,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="AP37">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ37">
         <v>1.5</v>
@@ -8890,7 +8899,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9302,7 +9311,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9508,7 +9517,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9589,7 +9598,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ41">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR41">
         <v>1.64</v>
@@ -9714,7 +9723,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9920,7 +9929,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -9998,7 +10007,7 @@
         <v>3</v>
       </c>
       <c r="AP43">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ43">
         <v>2.38</v>
@@ -10204,10 +10213,10 @@
         <v>0.5</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ44">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR44">
         <v>1.68</v>
@@ -10332,7 +10341,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10744,7 +10753,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10825,7 +10834,7 @@
         <v>2</v>
       </c>
       <c r="AQ47">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR47">
         <v>1.4</v>
@@ -10950,7 +10959,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11156,7 +11165,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11362,7 +11371,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11646,7 +11655,7 @@
         <v>2</v>
       </c>
       <c r="AP51">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51">
         <v>1.29</v>
@@ -11774,7 +11783,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11980,7 +11989,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12186,7 +12195,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12392,7 +12401,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12598,7 +12607,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12804,7 +12813,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -12882,7 +12891,7 @@
         <v>3</v>
       </c>
       <c r="AP57">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ57">
         <v>2.13</v>
@@ -13010,7 +13019,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13422,7 +13431,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13628,7 +13637,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13915,7 +13924,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ62">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR62">
         <v>1.64</v>
@@ -14040,7 +14049,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14121,7 +14130,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ63">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR63">
         <v>1.36</v>
@@ -14246,7 +14255,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14324,7 +14333,7 @@
         <v>1.67</v>
       </c>
       <c r="AP64">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ64">
         <v>1.5</v>
@@ -14658,7 +14667,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -14942,7 +14951,7 @@
         <v>1.33</v>
       </c>
       <c r="AP67">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ67">
         <v>0.88</v>
@@ -15276,7 +15285,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15482,7 +15491,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15688,7 +15697,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15972,10 +15981,10 @@
         <v>0.33</v>
       </c>
       <c r="AP72">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ72">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR72">
         <v>1.66</v>
@@ -16100,7 +16109,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16718,7 +16727,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16799,7 +16808,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ76">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR76">
         <v>1.45</v>
@@ -16924,7 +16933,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17748,7 +17757,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17826,10 +17835,10 @@
         <v>1</v>
       </c>
       <c r="AP81">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ81">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR81">
         <v>1.41</v>
@@ -17954,7 +17963,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18160,7 +18169,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18238,7 +18247,7 @@
         <v>1.2</v>
       </c>
       <c r="AP83">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ83">
         <v>1.56</v>
@@ -18366,7 +18375,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18572,7 +18581,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18778,7 +18787,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18984,7 +18993,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19190,7 +19199,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19396,7 +19405,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19602,7 +19611,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -19683,7 +19692,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ90">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR90">
         <v>1.7</v>
@@ -19886,7 +19895,7 @@
         <v>0.75</v>
       </c>
       <c r="AP91">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ91">
         <v>1.13</v>
@@ -20507,7 +20516,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ94">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>1.29</v>
@@ -20632,7 +20641,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -20710,7 +20719,7 @@
         <v>1</v>
       </c>
       <c r="AP95">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ95">
         <v>1.57</v>
@@ -21044,7 +21053,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21250,7 +21259,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21662,7 +21671,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21743,7 +21752,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ100">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR100">
         <v>1.62</v>
@@ -21868,7 +21877,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -21946,7 +21955,7 @@
         <v>1.4</v>
       </c>
       <c r="AP101">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101">
         <v>1.38</v>
@@ -22358,7 +22367,7 @@
         <v>1.6</v>
       </c>
       <c r="AP103">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ103">
         <v>1.29</v>
@@ -22486,7 +22495,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22898,7 +22907,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23104,7 +23113,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23516,7 +23525,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23597,7 +23606,7 @@
         <v>2</v>
       </c>
       <c r="AQ109">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR109">
         <v>1.49</v>
@@ -23722,7 +23731,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23803,7 +23812,7 @@
         <v>2</v>
       </c>
       <c r="AQ110">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR110">
         <v>1.5</v>
@@ -24134,7 +24143,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24212,7 +24221,7 @@
         <v>1.5</v>
       </c>
       <c r="AP112">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ112">
         <v>1.5</v>
@@ -24340,7 +24349,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24546,7 +24555,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24627,7 +24636,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ114">
-        <v>1.29</v>
+        <v>1.5</v>
       </c>
       <c r="AR114">
         <v>1.54</v>
@@ -24752,7 +24761,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24958,7 +24967,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25164,7 +25173,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25370,7 +25379,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25576,7 +25585,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25782,7 +25791,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25988,7 +25997,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26066,10 +26075,10 @@
         <v>0.67</v>
       </c>
       <c r="AP121">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ121">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR121">
         <v>1.92</v>
@@ -26194,7 +26203,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -26478,7 +26487,7 @@
         <v>0</v>
       </c>
       <c r="AP123">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AQ123">
         <v>0.13</v>
@@ -26812,7 +26821,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27018,7 +27027,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27511,7 +27520,7 @@
         <v>2</v>
       </c>
       <c r="AQ128">
-        <v>1</v>
+        <v>0.89</v>
       </c>
       <c r="AR128">
         <v>1.46</v>
@@ -27636,7 +27645,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -27842,7 +27851,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28048,7 +28057,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q131">
         <v>3.3</v>
@@ -28126,7 +28135,7 @@
         <v>2</v>
       </c>
       <c r="AP131">
-        <v>1</v>
+        <v>1.22</v>
       </c>
       <c r="AQ131">
         <v>1.75</v>
@@ -28254,7 +28263,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28460,7 +28469,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28666,7 +28675,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -29078,7 +29087,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29284,7 +29293,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29490,7 +29499,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -29583,22 +29592,22 @@
         <v>2.65</v>
       </c>
       <c r="AU138">
-        <v>-1</v>
+        <v>5</v>
       </c>
       <c r="AV138">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AW138">
-        <v>-1</v>
+        <v>7</v>
       </c>
       <c r="AX138">
-        <v>-1</v>
+        <v>4</v>
       </c>
       <c r="AY138">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="AZ138">
-        <v>-1</v>
+        <v>14</v>
       </c>
       <c r="BA138">
         <v>9</v>
@@ -29654,7 +29663,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7491630</v>
+        <v>7491626</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29663,196 +29672,196 @@
         <v>69</v>
       </c>
       <c r="E139" s="2">
-        <v>45640.375</v>
+        <v>45639.875</v>
       </c>
       <c r="F139">
         <v>16</v>
       </c>
       <c r="G139" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H139" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="I139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L139">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M139">
         <v>1</v>
       </c>
       <c r="N139">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O139" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="P139" t="s">
-        <v>127</v>
+        <v>239</v>
       </c>
       <c r="Q139">
-        <v>3.1</v>
+        <v>2.38</v>
       </c>
       <c r="R139">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="S139">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="T139">
-        <v>1.33</v>
+        <v>1.28</v>
       </c>
       <c r="U139">
-        <v>3.05</v>
+        <v>3.3</v>
       </c>
       <c r="V139">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="W139">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="X139">
-        <v>5.9</v>
+        <v>5.2</v>
       </c>
       <c r="Y139">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Z139">
-        <v>2.62</v>
+        <v>1.84</v>
       </c>
       <c r="AA139">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AB139">
-        <v>2.5</v>
+        <v>3.65</v>
       </c>
       <c r="AC139">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD139">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE139">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AF139">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AG139">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="AH139">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="AI139">
-        <v>1.55</v>
+        <v>1.5</v>
       </c>
       <c r="AJ139">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="AK139">
-        <v>1.5</v>
+        <v>1.28</v>
       </c>
       <c r="AL139">
+        <v>1.2</v>
+      </c>
+      <c r="AM139">
+        <v>1.85</v>
+      </c>
+      <c r="AN139">
         <v>1.25</v>
       </c>
-      <c r="AM139">
-        <v>1.47</v>
-      </c>
-      <c r="AN139">
-        <v>1</v>
-      </c>
       <c r="AO139">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="AP139">
-        <v>1</v>
+        <v>1.44</v>
       </c>
       <c r="AQ139">
-        <v>2.13</v>
+        <v>1.56</v>
       </c>
       <c r="AR139">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="AS139">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AT139">
-        <v>2.87</v>
+        <v>2.81</v>
       </c>
       <c r="AU139">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AV139">
         <v>4</v>
       </c>
       <c r="AW139">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX139">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY139">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AZ139">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA139">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB139">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC139">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD139">
-        <v>1.98</v>
+        <v>1.68</v>
       </c>
       <c r="BE139">
         <v>6.75</v>
       </c>
       <c r="BF139">
+        <v>2.4</v>
+      </c>
+      <c r="BG139">
+        <v>1.25</v>
+      </c>
+      <c r="BH139">
+        <v>3.45</v>
+      </c>
+      <c r="BI139">
+        <v>1.44</v>
+      </c>
+      <c r="BJ139">
+        <v>2.55</v>
+      </c>
+      <c r="BK139">
+        <v>1.72</v>
+      </c>
+      <c r="BL139">
         <v>1.98</v>
       </c>
-      <c r="BG139">
-        <v>1.21</v>
-      </c>
-      <c r="BH139">
-        <v>3.8</v>
-      </c>
-      <c r="BI139">
-        <v>1.36</v>
-      </c>
-      <c r="BJ139">
-        <v>2.8</v>
-      </c>
-      <c r="BK139">
-        <v>1.6</v>
-      </c>
-      <c r="BL139">
-        <v>2.17</v>
-      </c>
       <c r="BM139">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="BN139">
-        <v>1.74</v>
+        <v>1.64</v>
       </c>
       <c r="BO139">
-        <v>2.4</v>
+        <v>2.65</v>
       </c>
       <c r="BP139">
-        <v>1.49</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="140" spans="1:68">
@@ -29860,7 +29869,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7491631</v>
+        <v>7491630</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29875,10 +29884,10 @@
         <v>16</v>
       </c>
       <c r="G140" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="H140" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -29899,10 +29908,10 @@
         <v>2</v>
       </c>
       <c r="O140" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="P140" t="s">
-        <v>279</v>
+        <v>127</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -29914,31 +29923,31 @@
         <v>3</v>
       </c>
       <c r="T140">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U140">
-        <v>3.25</v>
+        <v>3.05</v>
       </c>
       <c r="V140">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="W140">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="X140">
-        <v>5.45</v>
+        <v>5.9</v>
       </c>
       <c r="Y140">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z140">
         <v>2.62</v>
       </c>
       <c r="AA140">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="AB140">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="AC140">
         <v>1.04</v>
@@ -29947,82 +29956,82 @@
         <v>10</v>
       </c>
       <c r="AE140">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF140">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="AG140">
-        <v>1.58</v>
+        <v>1.65</v>
       </c>
       <c r="AH140">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AI140">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="AJ140">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="AK140">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="AL140">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="AM140">
         <v>1.47</v>
       </c>
       <c r="AN140">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AO140">
-        <v>1.63</v>
+        <v>2.29</v>
       </c>
       <c r="AP140">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ140">
-        <v>1.56</v>
+        <v>2.13</v>
       </c>
       <c r="AR140">
-        <v>1.64</v>
+        <v>1.49</v>
       </c>
       <c r="AS140">
-        <v>1.34</v>
+        <v>1.38</v>
       </c>
       <c r="AT140">
-        <v>2.98</v>
+        <v>2.87</v>
       </c>
       <c r="AU140">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AV140">
+        <v>4</v>
+      </c>
+      <c r="AW140">
+        <v>6</v>
+      </c>
+      <c r="AX140">
+        <v>2</v>
+      </c>
+      <c r="AY140">
+        <v>20</v>
+      </c>
+      <c r="AZ140">
         <v>8</v>
       </c>
-      <c r="AW140">
-        <v>7</v>
-      </c>
-      <c r="AX140">
-        <v>3</v>
-      </c>
-      <c r="AY140">
-        <v>15</v>
-      </c>
-      <c r="AZ140">
-        <v>14</v>
-      </c>
       <c r="BA140">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BB140">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="BC140">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="BD140">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="BE140">
         <v>6.75</v>
@@ -30031,34 +30040,34 @@
         <v>1.98</v>
       </c>
       <c r="BG140">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="BH140">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="BI140">
-        <v>1.34</v>
+        <v>1.36</v>
       </c>
       <c r="BJ140">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="BK140">
-        <v>1.56</v>
+        <v>1.6</v>
       </c>
       <c r="BL140">
-        <v>2.23</v>
+        <v>2.17</v>
       </c>
       <c r="BM140">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="BN140">
-        <v>1.78</v>
+        <v>1.74</v>
       </c>
       <c r="BO140">
-        <v>2.33</v>
+        <v>2.4</v>
       </c>
       <c r="BP140">
-        <v>1.5</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="141" spans="1:68">
@@ -30066,7 +30075,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7491633</v>
+        <v>7491631</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30081,19 +30090,19 @@
         <v>16</v>
       </c>
       <c r="G141" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="H141" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="I141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L141">
         <v>1</v>
@@ -30105,31 +30114,31 @@
         <v>2</v>
       </c>
       <c r="O141" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="P141" t="s">
-        <v>104</v>
+        <v>281</v>
       </c>
       <c r="Q141">
-        <v>4</v>
+        <v>3.1</v>
       </c>
       <c r="R141">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="S141">
+        <v>3</v>
+      </c>
+      <c r="T141">
+        <v>1.3</v>
+      </c>
+      <c r="U141">
+        <v>3.25</v>
+      </c>
+      <c r="V141">
         <v>2.4</v>
       </c>
-      <c r="T141">
-        <v>1.32</v>
-      </c>
-      <c r="U141">
-        <v>3.15</v>
-      </c>
-      <c r="V141">
-        <v>2.45</v>
-      </c>
       <c r="W141">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="X141">
         <v>5.45</v>
@@ -30138,13 +30147,13 @@
         <v>1.12</v>
       </c>
       <c r="Z141">
-        <v>3.75</v>
+        <v>2.62</v>
       </c>
       <c r="AA141">
         <v>3.6</v>
       </c>
       <c r="AB141">
-        <v>1.91</v>
+        <v>2.45</v>
       </c>
       <c r="AC141">
         <v>1.04</v>
@@ -30153,94 +30162,94 @@
         <v>10</v>
       </c>
       <c r="AE141">
+        <v>1.2</v>
+      </c>
+      <c r="AF141">
+        <v>4.33</v>
+      </c>
+      <c r="AG141">
+        <v>1.58</v>
+      </c>
+      <c r="AH141">
+        <v>2.2</v>
+      </c>
+      <c r="AI141">
+        <v>1.52</v>
+      </c>
+      <c r="AJ141">
+        <v>2.45</v>
+      </c>
+      <c r="AK141">
+        <v>1.53</v>
+      </c>
+      <c r="AL141">
         <v>1.22</v>
       </c>
-      <c r="AF141">
-        <v>4</v>
-      </c>
-      <c r="AG141">
-        <v>1.63</v>
-      </c>
-      <c r="AH141">
-        <v>2.1</v>
-      </c>
-      <c r="AI141">
-        <v>1.62</v>
-      </c>
-      <c r="AJ141">
-        <v>2.2</v>
-      </c>
-      <c r="AK141">
-        <v>1.9</v>
-      </c>
-      <c r="AL141">
-        <v>1.2</v>
-      </c>
       <c r="AM141">
-        <v>1.2</v>
+        <v>1.47</v>
       </c>
       <c r="AN141">
         <v>0.71</v>
       </c>
       <c r="AO141">
-        <v>1.43</v>
+        <v>1.63</v>
       </c>
       <c r="AP141">
         <v>0.75</v>
       </c>
       <c r="AQ141">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR141">
-        <v>1.46</v>
+        <v>1.64</v>
       </c>
       <c r="AS141">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="AT141">
-        <v>2.99</v>
+        <v>2.98</v>
       </c>
       <c r="AU141">
         <v>5</v>
       </c>
       <c r="AV141">
+        <v>8</v>
+      </c>
+      <c r="AW141">
+        <v>7</v>
+      </c>
+      <c r="AX141">
         <v>3</v>
-      </c>
-      <c r="AW141">
-        <v>8</v>
-      </c>
-      <c r="AX141">
-        <v>4</v>
       </c>
       <c r="AY141">
         <v>15</v>
       </c>
       <c r="AZ141">
+        <v>14</v>
+      </c>
+      <c r="BA141">
         <v>7</v>
       </c>
-      <c r="BA141">
-        <v>5</v>
-      </c>
       <c r="BB141">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC141">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="BD141">
-        <v>2.75</v>
+        <v>2.02</v>
       </c>
       <c r="BE141">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF141">
-        <v>1.54</v>
+        <v>1.98</v>
       </c>
       <c r="BG141">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="BH141">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="BI141">
         <v>1.34</v>
@@ -30255,16 +30264,16 @@
         <v>2.23</v>
       </c>
       <c r="BM141">
-        <v>1.89</v>
+        <v>1.91</v>
       </c>
       <c r="BN141">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="BO141">
         <v>2.33</v>
       </c>
       <c r="BP141">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -30272,7 +30281,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7491626</v>
+        <v>7491633</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30281,196 +30290,814 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45640.6875</v>
+        <v>45640.375</v>
       </c>
       <c r="F142">
         <v>16</v>
       </c>
       <c r="G142" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H142" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="I142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L142">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M142">
         <v>1</v>
       </c>
       <c r="N142">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O142" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="P142" t="s">
-        <v>237</v>
+        <v>104</v>
       </c>
       <c r="Q142">
-        <v>2.38</v>
+        <v>4</v>
       </c>
       <c r="R142">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S142">
-        <v>3.8</v>
+        <v>2.4</v>
       </c>
       <c r="T142">
-        <v>1.28</v>
+        <v>1.32</v>
       </c>
       <c r="U142">
-        <v>3.3</v>
+        <v>3.15</v>
       </c>
       <c r="V142">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="W142">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="X142">
-        <v>5.2</v>
+        <v>5.45</v>
       </c>
       <c r="Y142">
         <v>1.12</v>
       </c>
       <c r="Z142">
-        <v>1.84</v>
+        <v>3.75</v>
       </c>
       <c r="AA142">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="AB142">
-        <v>3.65</v>
+        <v>1.91</v>
       </c>
       <c r="AC142">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD142">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE142">
-        <v>1.18</v>
+        <v>1.22</v>
       </c>
       <c r="AF142">
-        <v>4.75</v>
+        <v>4</v>
       </c>
       <c r="AG142">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AH142">
-        <v>2.34</v>
+        <v>2.1</v>
       </c>
       <c r="AI142">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AJ142">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="AK142">
-        <v>1.28</v>
+        <v>1.9</v>
       </c>
       <c r="AL142">
         <v>1.2</v>
       </c>
       <c r="AM142">
-        <v>1.85</v>
+        <v>1.2</v>
       </c>
       <c r="AN142">
-        <v>1.25</v>
+        <v>0.71</v>
       </c>
       <c r="AO142">
-        <v>1.75</v>
+        <v>1.43</v>
       </c>
       <c r="AP142">
-        <v>1.44</v>
+        <v>0.75</v>
       </c>
       <c r="AQ142">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AR142">
-        <v>1.45</v>
+        <v>1.46</v>
       </c>
       <c r="AS142">
-        <v>1.36</v>
+        <v>1.53</v>
       </c>
       <c r="AT142">
-        <v>2.81</v>
+        <v>2.99</v>
       </c>
       <c r="AU142">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AV142">
+        <v>3</v>
+      </c>
+      <c r="AW142">
+        <v>8</v>
+      </c>
+      <c r="AX142">
         <v>4</v>
       </c>
-      <c r="AW142">
-        <v>4</v>
-      </c>
-      <c r="AX142">
+      <c r="AY142">
+        <v>17</v>
+      </c>
+      <c r="AZ142">
+        <v>7</v>
+      </c>
+      <c r="BA142">
         <v>5</v>
       </c>
-      <c r="AY142">
-        <v>18</v>
-      </c>
-      <c r="AZ142">
-        <v>11</v>
-      </c>
-      <c r="BA142">
-        <v>3</v>
-      </c>
       <c r="BB142">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC142">
         <v>7</v>
       </c>
       <c r="BD142">
-        <v>1.68</v>
+        <v>2.75</v>
       </c>
       <c r="BE142">
+        <v>7</v>
+      </c>
+      <c r="BF142">
+        <v>1.54</v>
+      </c>
+      <c r="BG142">
+        <v>1.18</v>
+      </c>
+      <c r="BH142">
+        <v>4</v>
+      </c>
+      <c r="BI142">
+        <v>1.34</v>
+      </c>
+      <c r="BJ142">
+        <v>2.9</v>
+      </c>
+      <c r="BK142">
+        <v>1.56</v>
+      </c>
+      <c r="BL142">
+        <v>2.23</v>
+      </c>
+      <c r="BM142">
+        <v>1.89</v>
+      </c>
+      <c r="BN142">
+        <v>1.8</v>
+      </c>
+      <c r="BO142">
+        <v>2.33</v>
+      </c>
+      <c r="BP142">
+        <v>1.52</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>7491625</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45641.39583333334</v>
+      </c>
+      <c r="F143">
+        <v>16</v>
+      </c>
+      <c r="G143" t="s">
+        <v>70</v>
+      </c>
+      <c r="H143" t="s">
+        <v>81</v>
+      </c>
+      <c r="I143">
+        <v>3</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>3</v>
+      </c>
+      <c r="L143">
+        <v>3</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>4</v>
+      </c>
+      <c r="O143" t="s">
+        <v>189</v>
+      </c>
+      <c r="P143" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q143">
+        <v>2.2</v>
+      </c>
+      <c r="R143">
+        <v>2.4</v>
+      </c>
+      <c r="S143">
+        <v>4.75</v>
+      </c>
+      <c r="T143">
+        <v>1.29</v>
+      </c>
+      <c r="U143">
+        <v>3.5</v>
+      </c>
+      <c r="V143">
+        <v>2.38</v>
+      </c>
+      <c r="W143">
+        <v>1.53</v>
+      </c>
+      <c r="X143">
+        <v>5.5</v>
+      </c>
+      <c r="Y143">
+        <v>1.14</v>
+      </c>
+      <c r="Z143">
+        <v>1.57</v>
+      </c>
+      <c r="AA143">
+        <v>3.8</v>
+      </c>
+      <c r="AB143">
+        <v>4.4</v>
+      </c>
+      <c r="AC143">
+        <v>1.04</v>
+      </c>
+      <c r="AD143">
+        <v>10</v>
+      </c>
+      <c r="AE143">
+        <v>1.17</v>
+      </c>
+      <c r="AF143">
+        <v>4.75</v>
+      </c>
+      <c r="AG143">
+        <v>1.55</v>
+      </c>
+      <c r="AH143">
+        <v>2.3</v>
+      </c>
+      <c r="AI143">
+        <v>1.62</v>
+      </c>
+      <c r="AJ143">
+        <v>2.2</v>
+      </c>
+      <c r="AK143">
+        <v>1.15</v>
+      </c>
+      <c r="AL143">
+        <v>1.17</v>
+      </c>
+      <c r="AM143">
+        <v>2.2</v>
+      </c>
+      <c r="AN143">
+        <v>1.38</v>
+      </c>
+      <c r="AO143">
+        <v>1</v>
+      </c>
+      <c r="AP143">
+        <v>1.56</v>
+      </c>
+      <c r="AQ143">
+        <v>0.89</v>
+      </c>
+      <c r="AR143">
+        <v>1.88</v>
+      </c>
+      <c r="AS143">
+        <v>1.45</v>
+      </c>
+      <c r="AT143">
+        <v>3.33</v>
+      </c>
+      <c r="AU143">
+        <v>6</v>
+      </c>
+      <c r="AV143">
+        <v>6</v>
+      </c>
+      <c r="AW143">
+        <v>2</v>
+      </c>
+      <c r="AX143">
+        <v>7</v>
+      </c>
+      <c r="AY143">
+        <v>16</v>
+      </c>
+      <c r="AZ143">
+        <v>18</v>
+      </c>
+      <c r="BA143">
+        <v>3</v>
+      </c>
+      <c r="BB143">
+        <v>4</v>
+      </c>
+      <c r="BC143">
+        <v>7</v>
+      </c>
+      <c r="BD143">
+        <v>1.49</v>
+      </c>
+      <c r="BE143">
+        <v>7</v>
+      </c>
+      <c r="BF143">
+        <v>2.9</v>
+      </c>
+      <c r="BG143">
+        <v>1.19</v>
+      </c>
+      <c r="BH143">
+        <v>4.1</v>
+      </c>
+      <c r="BI143">
+        <v>1.33</v>
+      </c>
+      <c r="BJ143">
+        <v>2.95</v>
+      </c>
+      <c r="BK143">
+        <v>1.53</v>
+      </c>
+      <c r="BL143">
+        <v>2.3</v>
+      </c>
+      <c r="BM143">
+        <v>1.84</v>
+      </c>
+      <c r="BN143">
+        <v>1.84</v>
+      </c>
+      <c r="BO143">
+        <v>2.25</v>
+      </c>
+      <c r="BP143">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>7491628</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45641.39583333334</v>
+      </c>
+      <c r="F144">
+        <v>16</v>
+      </c>
+      <c r="G144" t="s">
+        <v>77</v>
+      </c>
+      <c r="H144" t="s">
+        <v>72</v>
+      </c>
+      <c r="I144">
+        <v>0</v>
+      </c>
+      <c r="J144">
+        <v>0</v>
+      </c>
+      <c r="K144">
+        <v>0</v>
+      </c>
+      <c r="L144">
+        <v>1</v>
+      </c>
+      <c r="M144">
+        <v>0</v>
+      </c>
+      <c r="N144">
+        <v>1</v>
+      </c>
+      <c r="O144" t="s">
+        <v>190</v>
+      </c>
+      <c r="P144" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q144">
+        <v>3.4</v>
+      </c>
+      <c r="R144">
+        <v>2.3</v>
+      </c>
+      <c r="S144">
+        <v>2.88</v>
+      </c>
+      <c r="T144">
+        <v>1.33</v>
+      </c>
+      <c r="U144">
+        <v>3.25</v>
+      </c>
+      <c r="V144">
+        <v>2.5</v>
+      </c>
+      <c r="W144">
+        <v>1.5</v>
+      </c>
+      <c r="X144">
+        <v>6.5</v>
+      </c>
+      <c r="Y144">
+        <v>1.11</v>
+      </c>
+      <c r="Z144">
+        <v>2.7</v>
+      </c>
+      <c r="AA144">
+        <v>3.4</v>
+      </c>
+      <c r="AB144">
+        <v>2.28</v>
+      </c>
+      <c r="AC144">
+        <v>1.04</v>
+      </c>
+      <c r="AD144">
+        <v>10</v>
+      </c>
+      <c r="AE144">
+        <v>1.2</v>
+      </c>
+      <c r="AF144">
+        <v>4.2</v>
+      </c>
+      <c r="AG144">
+        <v>1.65</v>
+      </c>
+      <c r="AH144">
+        <v>2.1</v>
+      </c>
+      <c r="AI144">
+        <v>1.57</v>
+      </c>
+      <c r="AJ144">
+        <v>2.25</v>
+      </c>
+      <c r="AK144">
+        <v>1.57</v>
+      </c>
+      <c r="AL144">
+        <v>1.22</v>
+      </c>
+      <c r="AM144">
+        <v>1.42</v>
+      </c>
+      <c r="AN144">
+        <v>1</v>
+      </c>
+      <c r="AO144">
+        <v>0.71</v>
+      </c>
+      <c r="AP144">
+        <v>1.22</v>
+      </c>
+      <c r="AQ144">
+        <v>0.63</v>
+      </c>
+      <c r="AR144">
+        <v>1.49</v>
+      </c>
+      <c r="AS144">
+        <v>1.22</v>
+      </c>
+      <c r="AT144">
+        <v>2.71</v>
+      </c>
+      <c r="AU144">
+        <v>3</v>
+      </c>
+      <c r="AV144">
+        <v>2</v>
+      </c>
+      <c r="AW144">
+        <v>2</v>
+      </c>
+      <c r="AX144">
+        <v>6</v>
+      </c>
+      <c r="AY144">
+        <v>10</v>
+      </c>
+      <c r="AZ144">
+        <v>10</v>
+      </c>
+      <c r="BA144">
+        <v>4</v>
+      </c>
+      <c r="BB144">
+        <v>4</v>
+      </c>
+      <c r="BC144">
+        <v>8</v>
+      </c>
+      <c r="BD144">
+        <v>2.12</v>
+      </c>
+      <c r="BE144">
         <v>6.75</v>
       </c>
-      <c r="BF142">
-        <v>2.4</v>
-      </c>
-      <c r="BG142">
-        <v>1.25</v>
-      </c>
-      <c r="BH142">
-        <v>3.45</v>
-      </c>
-      <c r="BI142">
+      <c r="BF144">
+        <v>1.84</v>
+      </c>
+      <c r="BG144">
+        <v>1.2</v>
+      </c>
+      <c r="BH144">
+        <v>3.9</v>
+      </c>
+      <c r="BI144">
+        <v>1.37</v>
+      </c>
+      <c r="BJ144">
+        <v>2.8</v>
+      </c>
+      <c r="BK144">
+        <v>1.61</v>
+      </c>
+      <c r="BL144">
+        <v>2.15</v>
+      </c>
+      <c r="BM144">
+        <v>1.96</v>
+      </c>
+      <c r="BN144">
+        <v>1.74</v>
+      </c>
+      <c r="BO144">
+        <v>2.45</v>
+      </c>
+      <c r="BP144">
+        <v>1.48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>7491632</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45641.39583333334</v>
+      </c>
+      <c r="F145">
+        <v>16</v>
+      </c>
+      <c r="G145" t="s">
+        <v>86</v>
+      </c>
+      <c r="H145" t="s">
+        <v>82</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
+        <v>3</v>
+      </c>
+      <c r="N145">
+        <v>3</v>
+      </c>
+      <c r="O145" t="s">
+        <v>92</v>
+      </c>
+      <c r="P145" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q145">
+        <v>3.4</v>
+      </c>
+      <c r="R145">
+        <v>2.25</v>
+      </c>
+      <c r="S145">
+        <v>3</v>
+      </c>
+      <c r="T145">
+        <v>1.33</v>
+      </c>
+      <c r="U145">
+        <v>3.25</v>
+      </c>
+      <c r="V145">
+        <v>2.63</v>
+      </c>
+      <c r="W145">
         <v>1.44</v>
       </c>
-      <c r="BJ142">
-        <v>2.55</v>
-      </c>
-      <c r="BK142">
+      <c r="X145">
+        <v>7</v>
+      </c>
+      <c r="Y145">
+        <v>1.1</v>
+      </c>
+      <c r="Z145">
+        <v>2.8</v>
+      </c>
+      <c r="AA145">
+        <v>3.2</v>
+      </c>
+      <c r="AB145">
+        <v>2.21</v>
+      </c>
+      <c r="AC145">
+        <v>1.05</v>
+      </c>
+      <c r="AD145">
+        <v>9.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.22</v>
+      </c>
+      <c r="AF145">
+        <v>4</v>
+      </c>
+      <c r="AG145">
+        <v>1.75</v>
+      </c>
+      <c r="AH145">
+        <v>1.95</v>
+      </c>
+      <c r="AI145">
+        <v>1.62</v>
+      </c>
+      <c r="AJ145">
+        <v>2.2</v>
+      </c>
+      <c r="AK145">
+        <v>1.6</v>
+      </c>
+      <c r="AL145">
+        <v>1.22</v>
+      </c>
+      <c r="AM145">
+        <v>1.42</v>
+      </c>
+      <c r="AN145">
+        <v>1.57</v>
+      </c>
+      <c r="AO145">
+        <v>1.29</v>
+      </c>
+      <c r="AP145">
+        <v>1.38</v>
+      </c>
+      <c r="AQ145">
+        <v>1.5</v>
+      </c>
+      <c r="AR145">
+        <v>1.36</v>
+      </c>
+      <c r="AS145">
+        <v>1.4</v>
+      </c>
+      <c r="AT145">
+        <v>2.76</v>
+      </c>
+      <c r="AU145">
+        <v>3</v>
+      </c>
+      <c r="AV145">
+        <v>8</v>
+      </c>
+      <c r="AW145">
+        <v>4</v>
+      </c>
+      <c r="AX145">
+        <v>6</v>
+      </c>
+      <c r="AY145">
+        <v>11</v>
+      </c>
+      <c r="AZ145">
+        <v>18</v>
+      </c>
+      <c r="BA145">
+        <v>6</v>
+      </c>
+      <c r="BB145">
+        <v>5</v>
+      </c>
+      <c r="BC145">
+        <v>11</v>
+      </c>
+      <c r="BD145">
+        <v>2.08</v>
+      </c>
+      <c r="BE145">
+        <v>6.75</v>
+      </c>
+      <c r="BF145">
+        <v>1.88</v>
+      </c>
+      <c r="BG145">
+        <v>1.21</v>
+      </c>
+      <c r="BH145">
+        <v>3.8</v>
+      </c>
+      <c r="BI145">
+        <v>1.37</v>
+      </c>
+      <c r="BJ145">
+        <v>2.8</v>
+      </c>
+      <c r="BK145">
+        <v>1.63</v>
+      </c>
+      <c r="BL145">
+        <v>2.12</v>
+      </c>
+      <c r="BM145">
+        <v>1.98</v>
+      </c>
+      <c r="BN145">
         <v>1.72</v>
       </c>
-      <c r="BL142">
-        <v>1.98</v>
-      </c>
-      <c r="BM142">
-        <v>2.1</v>
-      </c>
-      <c r="BN142">
-        <v>1.64</v>
-      </c>
-      <c r="BO142">
-        <v>2.65</v>
-      </c>
-      <c r="BP142">
-        <v>1.41</v>
+      <c r="BO145">
+        <v>2.48</v>
+      </c>
+      <c r="BP145">
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -583,10 +583,10 @@
     <t>['57']</t>
   </si>
   <si>
-    <t>['6', '17', '31']</t>
+    <t>['83']</t>
   </si>
   <si>
-    <t>['83']</t>
+    <t>['6', '17', '31']</t>
   </si>
   <si>
     <t>['5', '35']</t>
@@ -30216,13 +30216,13 @@
         <v>8</v>
       </c>
       <c r="AW141">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AX141">
         <v>3</v>
       </c>
       <c r="AY141">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ141">
         <v>14</v>
@@ -30487,7 +30487,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7491625</v>
+        <v>7491628</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30496,76 +30496,76 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45641.39583333334</v>
+        <v>45640.875</v>
       </c>
       <c r="F143">
         <v>16</v>
       </c>
       <c r="G143" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="H143" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="I143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L143">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M143">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N143">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="O143" t="s">
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>110</v>
+        <v>92</v>
       </c>
       <c r="Q143">
-        <v>2.2</v>
+        <v>3.4</v>
       </c>
       <c r="R143">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S143">
-        <v>4.75</v>
+        <v>2.88</v>
       </c>
       <c r="T143">
-        <v>1.29</v>
+        <v>1.33</v>
       </c>
       <c r="U143">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="V143">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W143">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X143">
-        <v>5.5</v>
+        <v>6.5</v>
       </c>
       <c r="Y143">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="Z143">
-        <v>1.57</v>
+        <v>2.7</v>
       </c>
       <c r="AA143">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="AB143">
-        <v>4.4</v>
+        <v>2.28</v>
       </c>
       <c r="AC143">
         <v>1.04</v>
@@ -30574,118 +30574,118 @@
         <v>10</v>
       </c>
       <c r="AE143">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="AF143">
-        <v>4.75</v>
+        <v>4.2</v>
       </c>
       <c r="AG143">
-        <v>1.55</v>
+        <v>1.65</v>
       </c>
       <c r="AH143">
-        <v>2.3</v>
+        <v>2.1</v>
       </c>
       <c r="AI143">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AJ143">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK143">
-        <v>1.15</v>
+        <v>1.57</v>
       </c>
       <c r="AL143">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AM143">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="AN143">
-        <v>1.38</v>
+        <v>1</v>
       </c>
       <c r="AO143">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AP143">
-        <v>1.56</v>
+        <v>1.22</v>
       </c>
       <c r="AQ143">
-        <v>0.89</v>
+        <v>0.63</v>
       </c>
       <c r="AR143">
-        <v>1.88</v>
+        <v>1.49</v>
       </c>
       <c r="AS143">
-        <v>1.45</v>
+        <v>1.22</v>
       </c>
       <c r="AT143">
-        <v>3.33</v>
+        <v>2.71</v>
       </c>
       <c r="AU143">
+        <v>3</v>
+      </c>
+      <c r="AV143">
+        <v>2</v>
+      </c>
+      <c r="AW143">
+        <v>2</v>
+      </c>
+      <c r="AX143">
         <v>6</v>
       </c>
-      <c r="AV143">
-        <v>6</v>
-      </c>
-      <c r="AW143">
-        <v>2</v>
-      </c>
-      <c r="AX143">
-        <v>7</v>
-      </c>
       <c r="AY143">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ143">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="BA143">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB143">
         <v>4</v>
       </c>
       <c r="BC143">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD143">
-        <v>1.49</v>
+        <v>2.12</v>
       </c>
       <c r="BE143">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF143">
-        <v>2.9</v>
+        <v>1.84</v>
       </c>
       <c r="BG143">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="BH143">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="BI143">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="BJ143">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BK143">
-        <v>1.53</v>
+        <v>1.61</v>
       </c>
       <c r="BL143">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="BM143">
-        <v>1.84</v>
+        <v>1.96</v>
       </c>
       <c r="BN143">
-        <v>1.84</v>
+        <v>1.74</v>
       </c>
       <c r="BO143">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="BP143">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="144" spans="1:68">
@@ -30693,7 +30693,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7491628</v>
+        <v>7491632</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30702,16 +30702,16 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45641.39583333334</v>
+        <v>45640.875</v>
       </c>
       <c r="F144">
         <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="H144" t="s">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -30723,28 +30723,28 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M144">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N144">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="O144" t="s">
-        <v>190</v>
+        <v>92</v>
       </c>
       <c r="P144" t="s">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="Q144">
         <v>3.4</v>
       </c>
       <c r="R144">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S144">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="T144">
         <v>1.33</v>
@@ -30753,52 +30753,52 @@
         <v>3.25</v>
       </c>
       <c r="V144">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W144">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X144">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Y144">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="Z144">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="AA144">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="AB144">
-        <v>2.28</v>
+        <v>2.21</v>
       </c>
       <c r="AC144">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="AD144">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AE144">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AF144">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AG144">
-        <v>1.65</v>
+        <v>1.75</v>
       </c>
       <c r="AH144">
-        <v>2.1</v>
+        <v>1.95</v>
       </c>
       <c r="AI144">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AJ144">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK144">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="AL144">
         <v>1.22</v>
@@ -30807,67 +30807,67 @@
         <v>1.42</v>
       </c>
       <c r="AN144">
-        <v>1</v>
+        <v>1.57</v>
       </c>
       <c r="AO144">
-        <v>0.71</v>
+        <v>1.29</v>
       </c>
       <c r="AP144">
-        <v>1.22</v>
+        <v>1.38</v>
       </c>
       <c r="AQ144">
-        <v>0.63</v>
+        <v>1.5</v>
       </c>
       <c r="AR144">
-        <v>1.49</v>
+        <v>1.36</v>
       </c>
       <c r="AS144">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AT144">
-        <v>2.71</v>
+        <v>2.76</v>
       </c>
       <c r="AU144">
         <v>3</v>
       </c>
       <c r="AV144">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW144">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AX144">
         <v>6</v>
       </c>
       <c r="AY144">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ144">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA144">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BB144">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC144">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BD144">
-        <v>2.12</v>
+        <v>2.08</v>
       </c>
       <c r="BE144">
         <v>6.75</v>
       </c>
       <c r="BF144">
-        <v>1.84</v>
+        <v>1.88</v>
       </c>
       <c r="BG144">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="BH144">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="BI144">
         <v>1.37</v>
@@ -30876,22 +30876,22 @@
         <v>2.8</v>
       </c>
       <c r="BK144">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="BL144">
-        <v>2.15</v>
+        <v>2.12</v>
       </c>
       <c r="BM144">
-        <v>1.96</v>
+        <v>1.98</v>
       </c>
       <c r="BN144">
-        <v>1.74</v>
+        <v>1.72</v>
       </c>
       <c r="BO144">
-        <v>2.45</v>
+        <v>2.48</v>
       </c>
       <c r="BP144">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -30899,7 +30899,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7491632</v>
+        <v>7491625</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -30914,88 +30914,88 @@
         <v>16</v>
       </c>
       <c r="G145" t="s">
-        <v>86</v>
+        <v>70</v>
       </c>
       <c r="H145" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J145">
         <v>0</v>
       </c>
       <c r="K145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L145">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M145">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N145">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="O145" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="P145" t="s">
-        <v>282</v>
+        <v>110</v>
       </c>
       <c r="Q145">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="R145">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="S145">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="T145">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U145">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V145">
-        <v>2.63</v>
+        <v>2.38</v>
       </c>
       <c r="W145">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="X145">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Y145">
-        <v>1.1</v>
+        <v>1.14</v>
       </c>
       <c r="Z145">
-        <v>2.8</v>
+        <v>1.57</v>
       </c>
       <c r="AA145">
-        <v>3.2</v>
+        <v>3.8</v>
       </c>
       <c r="AB145">
-        <v>2.21</v>
+        <v>4.4</v>
       </c>
       <c r="AC145">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD145">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE145">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AF145">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AG145">
-        <v>1.75</v>
+        <v>1.55</v>
       </c>
       <c r="AH145">
-        <v>1.95</v>
+        <v>2.3</v>
       </c>
       <c r="AI145">
         <v>1.62</v>
@@ -31004,100 +31004,100 @@
         <v>2.2</v>
       </c>
       <c r="AK145">
-        <v>1.6</v>
+        <v>1.15</v>
       </c>
       <c r="AL145">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AM145">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="AN145">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AO145">
-        <v>1.29</v>
+        <v>1</v>
       </c>
       <c r="AP145">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AQ145">
-        <v>1.5</v>
+        <v>0.89</v>
       </c>
       <c r="AR145">
-        <v>1.36</v>
+        <v>1.88</v>
       </c>
       <c r="AS145">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="AT145">
-        <v>2.76</v>
+        <v>3.33</v>
       </c>
       <c r="AU145">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AV145">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW145">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX145">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY145">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="AZ145">
         <v>18</v>
       </c>
       <c r="BA145">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="BB145">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC145">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="BD145">
-        <v>2.08</v>
+        <v>1.49</v>
       </c>
       <c r="BE145">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF145">
-        <v>1.88</v>
+        <v>2.9</v>
       </c>
       <c r="BG145">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="BH145">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="BI145">
-        <v>1.37</v>
+        <v>1.33</v>
       </c>
       <c r="BJ145">
-        <v>2.8</v>
+        <v>2.95</v>
       </c>
       <c r="BK145">
-        <v>1.63</v>
+        <v>1.53</v>
       </c>
       <c r="BL145">
-        <v>2.12</v>
+        <v>2.3</v>
       </c>
       <c r="BM145">
-        <v>1.98</v>
+        <v>1.84</v>
       </c>
       <c r="BN145">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="BO145">
-        <v>2.48</v>
+        <v>2.25</v>
       </c>
       <c r="BP145">
-        <v>1.47</v>
+        <v>1.55</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -577,16 +577,16 @@
     <t>['45+2', '56', '62', '86']</t>
   </si>
   <si>
+    <t>['57']</t>
+  </si>
+  <si>
     <t>['33', '45+2', '62', '73', '88']</t>
   </si>
   <si>
-    <t>['57']</t>
+    <t>['6', '17', '31']</t>
   </si>
   <si>
     <t>['83']</t>
-  </si>
-  <si>
-    <t>['6', '17', '31']</t>
   </si>
   <si>
     <t>['5', '35']</t>
@@ -29663,7 +29663,7 @@
         <v>138</v>
       </c>
       <c r="B139">
-        <v>7491626</v>
+        <v>7491630</v>
       </c>
       <c r="C139" t="s">
         <v>68</v>
@@ -29672,196 +29672,196 @@
         <v>69</v>
       </c>
       <c r="E139" s="2">
-        <v>45639.875</v>
+        <v>45640.375</v>
       </c>
       <c r="F139">
         <v>16</v>
       </c>
       <c r="G139" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="H139" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="I139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J139">
         <v>0</v>
       </c>
       <c r="K139">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L139">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="M139">
         <v>1</v>
       </c>
       <c r="N139">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="O139" t="s">
-        <v>187</v>
+        <v>91</v>
       </c>
       <c r="P139" t="s">
-        <v>239</v>
+        <v>127</v>
       </c>
       <c r="Q139">
-        <v>2.38</v>
+        <v>3.1</v>
       </c>
       <c r="R139">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="S139">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="T139">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="U139">
-        <v>3.3</v>
+        <v>3.05</v>
       </c>
       <c r="V139">
-        <v>2.25</v>
+        <v>2.45</v>
       </c>
       <c r="W139">
-        <v>1.57</v>
+        <v>1.49</v>
       </c>
       <c r="X139">
-        <v>5.2</v>
+        <v>5.9</v>
       </c>
       <c r="Y139">
-        <v>1.12</v>
+        <v>1.1</v>
       </c>
       <c r="Z139">
-        <v>1.84</v>
+        <v>2.62</v>
       </c>
       <c r="AA139">
-        <v>3.8</v>
+        <v>3.5</v>
       </c>
       <c r="AB139">
-        <v>3.65</v>
+        <v>2.5</v>
       </c>
       <c r="AC139">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD139">
+        <v>10</v>
+      </c>
+      <c r="AE139">
+        <v>1.22</v>
+      </c>
+      <c r="AF139">
+        <v>4</v>
+      </c>
+      <c r="AG139">
+        <v>1.65</v>
+      </c>
+      <c r="AH139">
+        <v>2.1</v>
+      </c>
+      <c r="AI139">
+        <v>1.55</v>
+      </c>
+      <c r="AJ139">
+        <v>2.35</v>
+      </c>
+      <c r="AK139">
+        <v>1.5</v>
+      </c>
+      <c r="AL139">
+        <v>1.25</v>
+      </c>
+      <c r="AM139">
+        <v>1.47</v>
+      </c>
+      <c r="AN139">
+        <v>1</v>
+      </c>
+      <c r="AO139">
+        <v>2.29</v>
+      </c>
+      <c r="AP139">
+        <v>1</v>
+      </c>
+      <c r="AQ139">
+        <v>2.13</v>
+      </c>
+      <c r="AR139">
+        <v>1.49</v>
+      </c>
+      <c r="AS139">
+        <v>1.38</v>
+      </c>
+      <c r="AT139">
+        <v>2.87</v>
+      </c>
+      <c r="AU139">
         <v>11</v>
-      </c>
-      <c r="AE139">
-        <v>1.18</v>
-      </c>
-      <c r="AF139">
-        <v>4.75</v>
-      </c>
-      <c r="AG139">
-        <v>1.6</v>
-      </c>
-      <c r="AH139">
-        <v>2.34</v>
-      </c>
-      <c r="AI139">
-        <v>1.5</v>
-      </c>
-      <c r="AJ139">
-        <v>2.38</v>
-      </c>
-      <c r="AK139">
-        <v>1.28</v>
-      </c>
-      <c r="AL139">
-        <v>1.2</v>
-      </c>
-      <c r="AM139">
-        <v>1.85</v>
-      </c>
-      <c r="AN139">
-        <v>1.25</v>
-      </c>
-      <c r="AO139">
-        <v>1.75</v>
-      </c>
-      <c r="AP139">
-        <v>1.44</v>
-      </c>
-      <c r="AQ139">
-        <v>1.56</v>
-      </c>
-      <c r="AR139">
-        <v>1.45</v>
-      </c>
-      <c r="AS139">
-        <v>1.36</v>
-      </c>
-      <c r="AT139">
-        <v>2.81</v>
-      </c>
-      <c r="AU139">
-        <v>13</v>
       </c>
       <c r="AV139">
         <v>4</v>
       </c>
       <c r="AW139">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AX139">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AY139">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AZ139">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA139">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB139">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="BC139">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD139">
-        <v>1.68</v>
+        <v>1.98</v>
       </c>
       <c r="BE139">
         <v>6.75</v>
       </c>
       <c r="BF139">
+        <v>1.98</v>
+      </c>
+      <c r="BG139">
+        <v>1.21</v>
+      </c>
+      <c r="BH139">
+        <v>3.8</v>
+      </c>
+      <c r="BI139">
+        <v>1.36</v>
+      </c>
+      <c r="BJ139">
+        <v>2.8</v>
+      </c>
+      <c r="BK139">
+        <v>1.6</v>
+      </c>
+      <c r="BL139">
+        <v>2.17</v>
+      </c>
+      <c r="BM139">
+        <v>1.95</v>
+      </c>
+      <c r="BN139">
+        <v>1.74</v>
+      </c>
+      <c r="BO139">
         <v>2.4</v>
       </c>
-      <c r="BG139">
-        <v>1.25</v>
-      </c>
-      <c r="BH139">
-        <v>3.45</v>
-      </c>
-      <c r="BI139">
-        <v>1.44</v>
-      </c>
-      <c r="BJ139">
-        <v>2.55</v>
-      </c>
-      <c r="BK139">
-        <v>1.72</v>
-      </c>
-      <c r="BL139">
-        <v>1.98</v>
-      </c>
-      <c r="BM139">
-        <v>2.1</v>
-      </c>
-      <c r="BN139">
-        <v>1.64</v>
-      </c>
-      <c r="BO139">
-        <v>2.65</v>
-      </c>
       <c r="BP139">
-        <v>1.41</v>
+        <v>1.49</v>
       </c>
     </row>
     <row r="140" spans="1:68">
@@ -29869,7 +29869,7 @@
         <v>139</v>
       </c>
       <c r="B140">
-        <v>7491630</v>
+        <v>7491631</v>
       </c>
       <c r="C140" t="s">
         <v>68</v>
@@ -29884,10 +29884,10 @@
         <v>16</v>
       </c>
       <c r="G140" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="H140" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="I140">
         <v>0</v>
@@ -29908,10 +29908,10 @@
         <v>2</v>
       </c>
       <c r="O140" t="s">
-        <v>91</v>
+        <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>127</v>
+        <v>281</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -29923,31 +29923,31 @@
         <v>3</v>
       </c>
       <c r="T140">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U140">
-        <v>3.05</v>
+        <v>3.25</v>
       </c>
       <c r="V140">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="W140">
-        <v>1.49</v>
+        <v>1.51</v>
       </c>
       <c r="X140">
-        <v>5.9</v>
+        <v>5.45</v>
       </c>
       <c r="Y140">
-        <v>1.1</v>
+        <v>1.12</v>
       </c>
       <c r="Z140">
         <v>2.62</v>
       </c>
       <c r="AA140">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="AB140">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="AC140">
         <v>1.04</v>
@@ -29956,82 +29956,82 @@
         <v>10</v>
       </c>
       <c r="AE140">
+        <v>1.2</v>
+      </c>
+      <c r="AF140">
+        <v>4.33</v>
+      </c>
+      <c r="AG140">
+        <v>1.58</v>
+      </c>
+      <c r="AH140">
+        <v>2.2</v>
+      </c>
+      <c r="AI140">
+        <v>1.52</v>
+      </c>
+      <c r="AJ140">
+        <v>2.45</v>
+      </c>
+      <c r="AK140">
+        <v>1.53</v>
+      </c>
+      <c r="AL140">
         <v>1.22</v>
-      </c>
-      <c r="AF140">
-        <v>4</v>
-      </c>
-      <c r="AG140">
-        <v>1.65</v>
-      </c>
-      <c r="AH140">
-        <v>2.1</v>
-      </c>
-      <c r="AI140">
-        <v>1.55</v>
-      </c>
-      <c r="AJ140">
-        <v>2.35</v>
-      </c>
-      <c r="AK140">
-        <v>1.5</v>
-      </c>
-      <c r="AL140">
-        <v>1.25</v>
       </c>
       <c r="AM140">
         <v>1.47</v>
       </c>
       <c r="AN140">
-        <v>1</v>
+        <v>0.71</v>
       </c>
       <c r="AO140">
-        <v>2.29</v>
+        <v>1.63</v>
       </c>
       <c r="AP140">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AQ140">
-        <v>2.13</v>
+        <v>1.56</v>
       </c>
       <c r="AR140">
-        <v>1.49</v>
+        <v>1.64</v>
       </c>
       <c r="AS140">
-        <v>1.38</v>
+        <v>1.34</v>
       </c>
       <c r="AT140">
-        <v>2.87</v>
+        <v>2.98</v>
       </c>
       <c r="AU140">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="AV140">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AW140">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX140">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY140">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="AZ140">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BA140">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BB140">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="BC140">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="BD140">
-        <v>1.98</v>
+        <v>2.02</v>
       </c>
       <c r="BE140">
         <v>6.75</v>
@@ -30040,34 +30040,34 @@
         <v>1.98</v>
       </c>
       <c r="BG140">
-        <v>1.21</v>
+        <v>1.19</v>
       </c>
       <c r="BH140">
-        <v>3.8</v>
+        <v>4.1</v>
       </c>
       <c r="BI140">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="BJ140">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="BK140">
-        <v>1.6</v>
+        <v>1.56</v>
       </c>
       <c r="BL140">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="BM140">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="BN140">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="BO140">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="BP140">
-        <v>1.49</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="141" spans="1:68">
@@ -30075,7 +30075,7 @@
         <v>140</v>
       </c>
       <c r="B141">
-        <v>7491631</v>
+        <v>7491633</v>
       </c>
       <c r="C141" t="s">
         <v>68</v>
@@ -30090,19 +30090,19 @@
         <v>16</v>
       </c>
       <c r="G141" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="H141" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="I141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J141">
         <v>0</v>
       </c>
       <c r="K141">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L141">
         <v>1</v>
@@ -30114,31 +30114,31 @@
         <v>2</v>
       </c>
       <c r="O141" t="s">
-        <v>188</v>
+        <v>96</v>
       </c>
       <c r="P141" t="s">
-        <v>281</v>
+        <v>104</v>
       </c>
       <c r="Q141">
-        <v>3.1</v>
+        <v>4</v>
       </c>
       <c r="R141">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S141">
-        <v>3</v>
+        <v>2.4</v>
       </c>
       <c r="T141">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="U141">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="V141">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="W141">
-        <v>1.51</v>
+        <v>1.49</v>
       </c>
       <c r="X141">
         <v>5.45</v>
@@ -30147,13 +30147,13 @@
         <v>1.12</v>
       </c>
       <c r="Z141">
-        <v>2.62</v>
+        <v>3.75</v>
       </c>
       <c r="AA141">
         <v>3.6</v>
       </c>
       <c r="AB141">
-        <v>2.45</v>
+        <v>1.91</v>
       </c>
       <c r="AC141">
         <v>1.04</v>
@@ -30162,94 +30162,94 @@
         <v>10</v>
       </c>
       <c r="AE141">
+        <v>1.22</v>
+      </c>
+      <c r="AF141">
+        <v>4</v>
+      </c>
+      <c r="AG141">
+        <v>1.63</v>
+      </c>
+      <c r="AH141">
+        <v>2.1</v>
+      </c>
+      <c r="AI141">
+        <v>1.62</v>
+      </c>
+      <c r="AJ141">
+        <v>2.2</v>
+      </c>
+      <c r="AK141">
+        <v>1.9</v>
+      </c>
+      <c r="AL141">
         <v>1.2</v>
       </c>
-      <c r="AF141">
-        <v>4.33</v>
-      </c>
-      <c r="AG141">
-        <v>1.58</v>
-      </c>
-      <c r="AH141">
-        <v>2.2</v>
-      </c>
-      <c r="AI141">
-        <v>1.52</v>
-      </c>
-      <c r="AJ141">
-        <v>2.45</v>
-      </c>
-      <c r="AK141">
-        <v>1.53</v>
-      </c>
-      <c r="AL141">
-        <v>1.22</v>
-      </c>
       <c r="AM141">
-        <v>1.47</v>
+        <v>1.2</v>
       </c>
       <c r="AN141">
         <v>0.71</v>
       </c>
       <c r="AO141">
-        <v>1.63</v>
+        <v>1.43</v>
       </c>
       <c r="AP141">
         <v>0.75</v>
       </c>
       <c r="AQ141">
-        <v>1.56</v>
+        <v>1.38</v>
       </c>
       <c r="AR141">
-        <v>1.64</v>
+        <v>1.46</v>
       </c>
       <c r="AS141">
-        <v>1.34</v>
+        <v>1.53</v>
       </c>
       <c r="AT141">
-        <v>2.98</v>
+        <v>2.99</v>
       </c>
       <c r="AU141">
         <v>5</v>
       </c>
       <c r="AV141">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AW141">
         <v>8</v>
       </c>
       <c r="AX141">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY141">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AZ141">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="BA141">
+        <v>5</v>
+      </c>
+      <c r="BB141">
+        <v>2</v>
+      </c>
+      <c r="BC141">
         <v>7</v>
       </c>
-      <c r="BB141">
+      <c r="BD141">
+        <v>2.75</v>
+      </c>
+      <c r="BE141">
         <v>7</v>
       </c>
-      <c r="BC141">
-        <v>14</v>
-      </c>
-      <c r="BD141">
-        <v>2.02</v>
-      </c>
-      <c r="BE141">
-        <v>6.75</v>
-      </c>
       <c r="BF141">
-        <v>1.98</v>
+        <v>1.54</v>
       </c>
       <c r="BG141">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="BH141">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="BI141">
         <v>1.34</v>
@@ -30264,16 +30264,16 @@
         <v>2.23</v>
       </c>
       <c r="BM141">
-        <v>1.91</v>
+        <v>1.89</v>
       </c>
       <c r="BN141">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="BO141">
         <v>2.33</v>
       </c>
       <c r="BP141">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
     </row>
     <row r="142" spans="1:68">
@@ -30281,7 +30281,7 @@
         <v>141</v>
       </c>
       <c r="B142">
-        <v>7491633</v>
+        <v>7491626</v>
       </c>
       <c r="C142" t="s">
         <v>68</v>
@@ -30290,196 +30290,196 @@
         <v>69</v>
       </c>
       <c r="E142" s="2">
-        <v>45640.375</v>
+        <v>45640.6875</v>
       </c>
       <c r="F142">
         <v>16</v>
       </c>
       <c r="G142" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H142" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="I142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J142">
         <v>0</v>
       </c>
       <c r="K142">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L142">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M142">
         <v>1</v>
       </c>
       <c r="N142">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="O142" t="s">
-        <v>96</v>
+        <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>104</v>
+        <v>239</v>
       </c>
       <c r="Q142">
-        <v>4</v>
+        <v>2.38</v>
       </c>
       <c r="R142">
+        <v>2.3</v>
+      </c>
+      <c r="S142">
+        <v>3.8</v>
+      </c>
+      <c r="T142">
+        <v>1.28</v>
+      </c>
+      <c r="U142">
+        <v>3.3</v>
+      </c>
+      <c r="V142">
         <v>2.25</v>
       </c>
-      <c r="S142">
-        <v>2.4</v>
-      </c>
-      <c r="T142">
-        <v>1.32</v>
-      </c>
-      <c r="U142">
-        <v>3.15</v>
-      </c>
-      <c r="V142">
-        <v>2.45</v>
-      </c>
       <c r="W142">
-        <v>1.49</v>
+        <v>1.57</v>
       </c>
       <c r="X142">
-        <v>5.45</v>
+        <v>5.2</v>
       </c>
       <c r="Y142">
         <v>1.12</v>
       </c>
       <c r="Z142">
-        <v>3.75</v>
+        <v>1.84</v>
       </c>
       <c r="AA142">
-        <v>3.6</v>
+        <v>3.8</v>
       </c>
       <c r="AB142">
-        <v>1.91</v>
+        <v>3.65</v>
       </c>
       <c r="AC142">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD142">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE142">
-        <v>1.22</v>
+        <v>1.18</v>
       </c>
       <c r="AF142">
-        <v>4</v>
+        <v>4.75</v>
       </c>
       <c r="AG142">
-        <v>1.63</v>
+        <v>1.6</v>
       </c>
       <c r="AH142">
-        <v>2.1</v>
+        <v>2.34</v>
       </c>
       <c r="AI142">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AJ142">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="AK142">
-        <v>1.9</v>
+        <v>1.28</v>
       </c>
       <c r="AL142">
         <v>1.2</v>
       </c>
       <c r="AM142">
-        <v>1.2</v>
+        <v>1.85</v>
       </c>
       <c r="AN142">
-        <v>0.71</v>
+        <v>1.25</v>
       </c>
       <c r="AO142">
-        <v>1.43</v>
+        <v>1.75</v>
       </c>
       <c r="AP142">
-        <v>0.75</v>
+        <v>1.44</v>
       </c>
       <c r="AQ142">
-        <v>1.38</v>
+        <v>1.56</v>
       </c>
       <c r="AR142">
-        <v>1.46</v>
+        <v>1.45</v>
       </c>
       <c r="AS142">
-        <v>1.53</v>
+        <v>1.36</v>
       </c>
       <c r="AT142">
-        <v>2.99</v>
+        <v>2.81</v>
       </c>
       <c r="AU142">
+        <v>13</v>
+      </c>
+      <c r="AV142">
         <v>5</v>
       </c>
-      <c r="AV142">
+      <c r="AW142">
+        <v>6</v>
+      </c>
+      <c r="AX142">
+        <v>8</v>
+      </c>
+      <c r="AY142">
+        <v>19</v>
+      </c>
+      <c r="AZ142">
+        <v>13</v>
+      </c>
+      <c r="BA142">
         <v>3</v>
       </c>
-      <c r="AW142">
-        <v>8</v>
-      </c>
-      <c r="AX142">
+      <c r="BB142">
         <v>4</v>
-      </c>
-      <c r="AY142">
-        <v>17</v>
-      </c>
-      <c r="AZ142">
-        <v>7</v>
-      </c>
-      <c r="BA142">
-        <v>5</v>
-      </c>
-      <c r="BB142">
-        <v>2</v>
       </c>
       <c r="BC142">
         <v>7</v>
       </c>
       <c r="BD142">
-        <v>2.75</v>
+        <v>1.68</v>
       </c>
       <c r="BE142">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF142">
-        <v>1.54</v>
+        <v>2.4</v>
       </c>
       <c r="BG142">
-        <v>1.18</v>
+        <v>1.25</v>
       </c>
       <c r="BH142">
-        <v>4</v>
+        <v>3.45</v>
       </c>
       <c r="BI142">
-        <v>1.34</v>
+        <v>1.44</v>
       </c>
       <c r="BJ142">
-        <v>2.9</v>
+        <v>2.55</v>
       </c>
       <c r="BK142">
-        <v>1.56</v>
+        <v>1.72</v>
       </c>
       <c r="BL142">
-        <v>2.23</v>
+        <v>1.98</v>
       </c>
       <c r="BM142">
-        <v>1.89</v>
+        <v>2.1</v>
       </c>
       <c r="BN142">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="BO142">
-        <v>2.33</v>
+        <v>2.65</v>
       </c>
       <c r="BP142">
-        <v>1.52</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="143" spans="1:68">
@@ -30487,7 +30487,7 @@
         <v>142</v>
       </c>
       <c r="B143">
-        <v>7491628</v>
+        <v>7491625</v>
       </c>
       <c r="C143" t="s">
         <v>68</v>
@@ -30496,76 +30496,76 @@
         <v>69</v>
       </c>
       <c r="E143" s="2">
-        <v>45640.875</v>
+        <v>45641.39583333334</v>
       </c>
       <c r="F143">
         <v>16</v>
       </c>
       <c r="G143" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="H143" t="s">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="I143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J143">
         <v>0</v>
       </c>
       <c r="K143">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L143">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M143">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N143">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="O143" t="s">
         <v>189</v>
       </c>
       <c r="P143" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="Q143">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="R143">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S143">
-        <v>2.88</v>
+        <v>4.75</v>
       </c>
       <c r="T143">
-        <v>1.33</v>
+        <v>1.29</v>
       </c>
       <c r="U143">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="V143">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W143">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X143">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="Y143">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="Z143">
-        <v>2.7</v>
+        <v>1.57</v>
       </c>
       <c r="AA143">
-        <v>3.4</v>
+        <v>3.8</v>
       </c>
       <c r="AB143">
-        <v>2.28</v>
+        <v>4.4</v>
       </c>
       <c r="AC143">
         <v>1.04</v>
@@ -30574,118 +30574,118 @@
         <v>10</v>
       </c>
       <c r="AE143">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AF143">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="AG143">
-        <v>1.65</v>
+        <v>1.55</v>
       </c>
       <c r="AH143">
-        <v>2.1</v>
+        <v>2.3</v>
       </c>
       <c r="AI143">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="AJ143">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="AK143">
-        <v>1.57</v>
+        <v>1.15</v>
       </c>
       <c r="AL143">
-        <v>1.22</v>
+        <v>1.17</v>
       </c>
       <c r="AM143">
-        <v>1.42</v>
+        <v>2.2</v>
       </c>
       <c r="AN143">
-        <v>1</v>
+        <v>1.38</v>
       </c>
       <c r="AO143">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AP143">
-        <v>1.22</v>
+        <v>1.56</v>
       </c>
       <c r="AQ143">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR143">
-        <v>1.49</v>
+        <v>1.88</v>
       </c>
       <c r="AS143">
-        <v>1.22</v>
+        <v>1.45</v>
       </c>
       <c r="AT143">
-        <v>2.71</v>
+        <v>3.33</v>
       </c>
       <c r="AU143">
+        <v>6</v>
+      </c>
+      <c r="AV143">
+        <v>6</v>
+      </c>
+      <c r="AW143">
         <v>3</v>
       </c>
-      <c r="AV143">
-        <v>2</v>
-      </c>
-      <c r="AW143">
-        <v>2</v>
-      </c>
       <c r="AX143">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY143">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="AZ143">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="BA143">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BB143">
         <v>4</v>
       </c>
       <c r="BC143">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD143">
-        <v>2.12</v>
+        <v>1.49</v>
       </c>
       <c r="BE143">
-        <v>6.75</v>
+        <v>7</v>
       </c>
       <c r="BF143">
+        <v>2.9</v>
+      </c>
+      <c r="BG143">
+        <v>1.19</v>
+      </c>
+      <c r="BH143">
+        <v>4.1</v>
+      </c>
+      <c r="BI143">
+        <v>1.33</v>
+      </c>
+      <c r="BJ143">
+        <v>2.95</v>
+      </c>
+      <c r="BK143">
+        <v>1.53</v>
+      </c>
+      <c r="BL143">
+        <v>2.3</v>
+      </c>
+      <c r="BM143">
         <v>1.84</v>
       </c>
-      <c r="BG143">
-        <v>1.2</v>
-      </c>
-      <c r="BH143">
-        <v>3.9</v>
-      </c>
-      <c r="BI143">
-        <v>1.37</v>
-      </c>
-      <c r="BJ143">
-        <v>2.8</v>
-      </c>
-      <c r="BK143">
-        <v>1.61</v>
-      </c>
-      <c r="BL143">
-        <v>2.15</v>
-      </c>
-      <c r="BM143">
-        <v>1.96</v>
-      </c>
       <c r="BN143">
-        <v>1.74</v>
+        <v>1.84</v>
       </c>
       <c r="BO143">
-        <v>2.45</v>
+        <v>2.25</v>
       </c>
       <c r="BP143">
-        <v>1.48</v>
+        <v>1.55</v>
       </c>
     </row>
     <row r="144" spans="1:68">
@@ -30693,7 +30693,7 @@
         <v>143</v>
       </c>
       <c r="B144">
-        <v>7491632</v>
+        <v>7491628</v>
       </c>
       <c r="C144" t="s">
         <v>68</v>
@@ -30702,16 +30702,16 @@
         <v>69</v>
       </c>
       <c r="E144" s="2">
-        <v>45640.875</v>
+        <v>45641.39583333334</v>
       </c>
       <c r="F144">
         <v>16</v>
       </c>
       <c r="G144" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="H144" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="I144">
         <v>0</v>
@@ -30723,28 +30723,28 @@
         <v>0</v>
       </c>
       <c r="L144">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M144">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N144">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="O144" t="s">
+        <v>190</v>
+      </c>
+      <c r="P144" t="s">
         <v>92</v>
-      </c>
-      <c r="P144" t="s">
-        <v>282</v>
       </c>
       <c r="Q144">
         <v>3.4</v>
       </c>
       <c r="R144">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S144">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="T144">
         <v>1.33</v>
@@ -30753,52 +30753,52 @@
         <v>3.25</v>
       </c>
       <c r="V144">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W144">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="X144">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Y144">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="Z144">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="AA144">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="AB144">
-        <v>2.21</v>
+        <v>2.28</v>
       </c>
       <c r="AC144">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="AD144">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AE144">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AF144">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="AG144">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="AH144">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="AI144">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="AJ144">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="AK144">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="AL144">
         <v>1.22</v>
@@ -30807,67 +30807,67 @@
         <v>1.42</v>
       </c>
       <c r="AN144">
-        <v>1.57</v>
+        <v>1</v>
       </c>
       <c r="AO144">
-        <v>1.29</v>
+        <v>0.71</v>
       </c>
       <c r="AP144">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ144">
-        <v>1.5</v>
+        <v>0.63</v>
       </c>
       <c r="AR144">
-        <v>1.36</v>
+        <v>1.49</v>
       </c>
       <c r="AS144">
-        <v>1.4</v>
+        <v>1.22</v>
       </c>
       <c r="AT144">
-        <v>2.76</v>
+        <v>2.71</v>
       </c>
       <c r="AU144">
         <v>3</v>
       </c>
       <c r="AV144">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AW144">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX144">
         <v>6</v>
       </c>
       <c r="AY144">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AZ144">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="BA144">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="BB144">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BC144">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BD144">
-        <v>2.08</v>
+        <v>2.12</v>
       </c>
       <c r="BE144">
         <v>6.75</v>
       </c>
       <c r="BF144">
-        <v>1.88</v>
+        <v>1.84</v>
       </c>
       <c r="BG144">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="BH144">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="BI144">
         <v>1.37</v>
@@ -30876,22 +30876,22 @@
         <v>2.8</v>
       </c>
       <c r="BK144">
-        <v>1.63</v>
+        <v>1.61</v>
       </c>
       <c r="BL144">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="BM144">
-        <v>1.98</v>
+        <v>1.96</v>
       </c>
       <c r="BN144">
-        <v>1.72</v>
+        <v>1.74</v>
       </c>
       <c r="BO144">
-        <v>2.48</v>
+        <v>2.45</v>
       </c>
       <c r="BP144">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
     </row>
     <row r="145" spans="1:68">
@@ -30899,7 +30899,7 @@
         <v>144</v>
       </c>
       <c r="B145">
-        <v>7491625</v>
+        <v>7491632</v>
       </c>
       <c r="C145" t="s">
         <v>68</v>
@@ -30914,88 +30914,88 @@
         <v>16</v>
       </c>
       <c r="G145" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H145" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>0</v>
+      </c>
+      <c r="M145">
         <v>3</v>
       </c>
-      <c r="J145">
-        <v>0</v>
-      </c>
-      <c r="K145">
+      <c r="N145">
         <v>3</v>
       </c>
-      <c r="L145">
+      <c r="O145" t="s">
+        <v>92</v>
+      </c>
+      <c r="P145" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q145">
+        <v>3.4</v>
+      </c>
+      <c r="R145">
+        <v>2.25</v>
+      </c>
+      <c r="S145">
         <v>3</v>
       </c>
-      <c r="M145">
-        <v>1</v>
-      </c>
-      <c r="N145">
+      <c r="T145">
+        <v>1.33</v>
+      </c>
+      <c r="U145">
+        <v>3.25</v>
+      </c>
+      <c r="V145">
+        <v>2.63</v>
+      </c>
+      <c r="W145">
+        <v>1.44</v>
+      </c>
+      <c r="X145">
+        <v>7</v>
+      </c>
+      <c r="Y145">
+        <v>1.1</v>
+      </c>
+      <c r="Z145">
+        <v>2.8</v>
+      </c>
+      <c r="AA145">
+        <v>3.2</v>
+      </c>
+      <c r="AB145">
+        <v>2.21</v>
+      </c>
+      <c r="AC145">
+        <v>1.05</v>
+      </c>
+      <c r="AD145">
+        <v>9.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.22</v>
+      </c>
+      <c r="AF145">
         <v>4</v>
       </c>
-      <c r="O145" t="s">
-        <v>190</v>
-      </c>
-      <c r="P145" t="s">
-        <v>110</v>
-      </c>
-      <c r="Q145">
-        <v>2.2</v>
-      </c>
-      <c r="R145">
-        <v>2.4</v>
-      </c>
-      <c r="S145">
-        <v>4.75</v>
-      </c>
-      <c r="T145">
-        <v>1.29</v>
-      </c>
-      <c r="U145">
-        <v>3.5</v>
-      </c>
-      <c r="V145">
-        <v>2.38</v>
-      </c>
-      <c r="W145">
-        <v>1.53</v>
-      </c>
-      <c r="X145">
-        <v>5.5</v>
-      </c>
-      <c r="Y145">
-        <v>1.14</v>
-      </c>
-      <c r="Z145">
-        <v>1.57</v>
-      </c>
-      <c r="AA145">
-        <v>3.8</v>
-      </c>
-      <c r="AB145">
-        <v>4.4</v>
-      </c>
-      <c r="AC145">
-        <v>1.04</v>
-      </c>
-      <c r="AD145">
-        <v>10</v>
-      </c>
-      <c r="AE145">
-        <v>1.17</v>
-      </c>
-      <c r="AF145">
-        <v>4.75</v>
-      </c>
       <c r="AG145">
-        <v>1.55</v>
+        <v>1.75</v>
       </c>
       <c r="AH145">
-        <v>2.3</v>
+        <v>1.95</v>
       </c>
       <c r="AI145">
         <v>1.62</v>
@@ -31004,100 +31004,100 @@
         <v>2.2</v>
       </c>
       <c r="AK145">
-        <v>1.15</v>
+        <v>1.6</v>
       </c>
       <c r="AL145">
-        <v>1.17</v>
+        <v>1.22</v>
       </c>
       <c r="AM145">
-        <v>2.2</v>
+        <v>1.42</v>
       </c>
       <c r="AN145">
+        <v>1.57</v>
+      </c>
+      <c r="AO145">
+        <v>1.29</v>
+      </c>
+      <c r="AP145">
         <v>1.38</v>
       </c>
-      <c r="AO145">
-        <v>1</v>
-      </c>
-      <c r="AP145">
-        <v>1.56</v>
-      </c>
       <c r="AQ145">
-        <v>0.89</v>
+        <v>1.5</v>
       </c>
       <c r="AR145">
-        <v>1.88</v>
+        <v>1.36</v>
       </c>
       <c r="AS145">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="AT145">
-        <v>3.33</v>
+        <v>2.76</v>
       </c>
       <c r="AU145">
+        <v>3</v>
+      </c>
+      <c r="AV145">
+        <v>8</v>
+      </c>
+      <c r="AW145">
+        <v>4</v>
+      </c>
+      <c r="AX145">
         <v>6</v>
       </c>
-      <c r="AV145">
-        <v>6</v>
-      </c>
-      <c r="AW145">
-        <v>2</v>
-      </c>
-      <c r="AX145">
-        <v>7</v>
-      </c>
       <c r="AY145">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AZ145">
         <v>18</v>
       </c>
       <c r="BA145">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BC145">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="BD145">
-        <v>1.49</v>
+        <v>2.08</v>
       </c>
       <c r="BE145">
-        <v>7</v>
+        <v>6.75</v>
       </c>
       <c r="BF145">
-        <v>2.9</v>
+        <v>1.88</v>
       </c>
       <c r="BG145">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="BH145">
-        <v>4.1</v>
+        <v>3.8</v>
       </c>
       <c r="BI145">
-        <v>1.33</v>
+        <v>1.37</v>
       </c>
       <c r="BJ145">
-        <v>2.95</v>
+        <v>2.8</v>
       </c>
       <c r="BK145">
-        <v>1.53</v>
+        <v>1.63</v>
       </c>
       <c r="BL145">
-        <v>2.3</v>
+        <v>2.12</v>
       </c>
       <c r="BM145">
-        <v>1.84</v>
+        <v>1.98</v>
       </c>
       <c r="BN145">
-        <v>1.84</v>
+        <v>1.72</v>
       </c>
       <c r="BO145">
-        <v>2.25</v>
+        <v>2.48</v>
       </c>
       <c r="BP145">
-        <v>1.55</v>
+        <v>1.47</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -30834,13 +30834,13 @@
         <v>2</v>
       </c>
       <c r="AW144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AX144">
         <v>6</v>
       </c>
       <c r="AY144">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AZ144">
         <v>10</v>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="287">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -589,6 +589,12 @@
     <t>['83']</t>
   </si>
   <si>
+    <t>['25']</t>
+  </si>
+  <si>
+    <t>['15', '42']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -863,6 +869,12 @@
   </si>
   <si>
     <t>['62', '79', '90+1']</t>
+  </si>
+  <si>
+    <t>['11', '55', '67', '75']</t>
+  </si>
+  <si>
+    <t>['11', '67', '70', '87', '90+2']</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1483,7 +1495,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1689,7 +1701,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2101,7 +2113,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2513,7 +2525,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2719,7 +2731,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2925,7 +2937,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3131,7 +3143,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3543,7 +3555,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3830,7 +3842,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ13">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -3955,7 +3967,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4033,7 +4045,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ14">
         <v>2</v>
@@ -4239,7 +4251,7 @@
         <v>0</v>
       </c>
       <c r="AP15">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ15">
         <v>1.5</v>
@@ -4367,7 +4379,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4573,7 +4585,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4779,7 +4791,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -4860,7 +4872,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ18">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR18">
         <v>0</v>
@@ -5191,7 +5203,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5603,7 +5615,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5809,7 +5821,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6427,7 +6439,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6633,7 +6645,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6839,7 +6851,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -6920,7 +6932,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ28">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR28">
         <v>1.96</v>
@@ -7123,7 +7135,7 @@
         <v>1</v>
       </c>
       <c r="AP29">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ29">
         <v>0.63</v>
@@ -7251,7 +7263,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7457,7 +7469,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7741,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="AP32">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ32">
         <v>1.57</v>
@@ -7869,7 +7881,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7950,7 +7962,7 @@
         <v>1.57</v>
       </c>
       <c r="AQ33">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR33">
         <v>1.09</v>
@@ -8075,7 +8087,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8487,7 +8499,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8693,7 +8705,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8899,7 +8911,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9186,7 +9198,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ39">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR39">
         <v>1.65</v>
@@ -9311,7 +9323,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9517,7 +9529,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9723,7 +9735,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9929,7 +9941,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10010,7 +10022,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ43">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR43">
         <v>2.41</v>
@@ -10341,7 +10353,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10753,7 +10765,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10959,7 +10971,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11165,7 +11177,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11243,7 +11255,7 @@
         <v>2</v>
       </c>
       <c r="AP49">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ49">
         <v>2</v>
@@ -11371,7 +11383,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11783,7 +11795,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11989,7 +12001,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12067,7 +12079,7 @@
         <v>0.5</v>
       </c>
       <c r="AP53">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ53">
         <v>0.88</v>
@@ -12195,7 +12207,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12401,7 +12413,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12607,7 +12619,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12813,7 +12825,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13019,7 +13031,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13431,7 +13443,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13512,7 +13524,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ60">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR60">
         <v>1.59</v>
@@ -13637,7 +13649,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13718,7 +13730,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ61">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR61">
         <v>1.4</v>
@@ -14049,7 +14061,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14255,7 +14267,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14667,7 +14679,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -15157,7 +15169,7 @@
         <v>1.75</v>
       </c>
       <c r="AP68">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ68">
         <v>1.56</v>
@@ -15285,7 +15297,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15491,7 +15503,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15697,7 +15709,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16109,7 +16121,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16187,7 +16199,7 @@
         <v>1.33</v>
       </c>
       <c r="AP73">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ73">
         <v>1.38</v>
@@ -16727,7 +16739,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16933,7 +16945,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17220,7 +17232,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ78">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR78">
         <v>1.65</v>
@@ -17757,7 +17769,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17963,7 +17975,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18044,7 +18056,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ82">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR82">
         <v>1.62</v>
@@ -18169,7 +18181,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18375,7 +18387,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18581,7 +18593,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18787,7 +18799,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18993,7 +19005,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19071,7 +19083,7 @@
         <v>1.75</v>
       </c>
       <c r="AP87">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ87">
         <v>1.38</v>
@@ -19199,7 +19211,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19277,7 +19289,7 @@
         <v>1.4</v>
       </c>
       <c r="AP88">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ88">
         <v>1.56</v>
@@ -19405,7 +19417,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19611,7 +19623,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20310,7 +20322,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ93">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR93">
         <v>1.52</v>
@@ -20641,7 +20653,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -21053,7 +21065,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21259,7 +21271,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21340,7 +21352,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ98">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR98">
         <v>1.68</v>
@@ -21671,7 +21683,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21877,7 +21889,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -22495,7 +22507,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22907,7 +22919,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -22985,7 +22997,7 @@
         <v>1.5</v>
       </c>
       <c r="AP106">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ106">
         <v>1.56</v>
@@ -23113,7 +23125,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23525,7 +23537,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23603,7 +23615,7 @@
         <v>0.8</v>
       </c>
       <c r="AP109">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ109">
         <v>0.63</v>
@@ -23731,7 +23743,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24143,7 +24155,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24349,7 +24361,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24555,7 +24567,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24633,7 +24645,7 @@
         <v>1</v>
       </c>
       <c r="AP114">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ114">
         <v>1.5</v>
@@ -24761,7 +24773,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24967,7 +24979,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25048,7 +25060,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ116">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR116">
         <v>1.56</v>
@@ -25173,7 +25185,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25379,7 +25391,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25460,7 +25472,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ118">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR118">
         <v>1.21</v>
@@ -25585,7 +25597,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25791,7 +25803,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -25997,7 +26009,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26203,7 +26215,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -26281,7 +26293,7 @@
         <v>1.43</v>
       </c>
       <c r="AP122">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ122">
         <v>1.56</v>
@@ -26821,7 +26833,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27027,7 +27039,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27517,7 +27529,7 @@
         <v>1.14</v>
       </c>
       <c r="AP128">
-        <v>2</v>
+        <v>1.78</v>
       </c>
       <c r="AQ128">
         <v>0.89</v>
@@ -27645,7 +27657,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -27726,7 +27738,7 @@
         <v>2</v>
       </c>
       <c r="AQ129">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AR129">
         <v>1.5</v>
@@ -27851,7 +27863,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -28057,7 +28069,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="Q131">
         <v>3.3</v>
@@ -28263,7 +28275,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28469,7 +28481,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28550,7 +28562,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ133">
-        <v>2.38</v>
+        <v>2.44</v>
       </c>
       <c r="AR133">
         <v>1.17</v>
@@ -28675,7 +28687,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28959,7 +28971,7 @@
         <v>0.29</v>
       </c>
       <c r="AP135">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AQ135">
         <v>0.25</v>
@@ -29087,7 +29099,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29293,7 +29305,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29499,7 +29511,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -29911,7 +29923,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30323,7 +30335,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30941,7 +30953,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="Q145">
         <v>3.4</v>
@@ -31098,6 +31110,418 @@
       </c>
       <c r="BP145">
         <v>1.47</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>7491638</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45646.60416666666</v>
+      </c>
+      <c r="F146">
+        <v>17</v>
+      </c>
+      <c r="G146" t="s">
+        <v>82</v>
+      </c>
+      <c r="H146" t="s">
+        <v>75</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>1</v>
+      </c>
+      <c r="K146">
+        <v>2</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>4</v>
+      </c>
+      <c r="N146">
+        <v>5</v>
+      </c>
+      <c r="O146" t="s">
+        <v>191</v>
+      </c>
+      <c r="P146" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q146">
+        <v>2.7</v>
+      </c>
+      <c r="R146">
+        <v>2.2</v>
+      </c>
+      <c r="S146">
+        <v>3.4</v>
+      </c>
+      <c r="T146">
+        <v>1.3</v>
+      </c>
+      <c r="U146">
+        <v>3.25</v>
+      </c>
+      <c r="V146">
+        <v>2.3</v>
+      </c>
+      <c r="W146">
+        <v>1.55</v>
+      </c>
+      <c r="X146">
+        <v>5.15</v>
+      </c>
+      <c r="Y146">
+        <v>1.13</v>
+      </c>
+      <c r="Z146">
+        <v>2.05</v>
+      </c>
+      <c r="AA146">
+        <v>3.5</v>
+      </c>
+      <c r="AB146">
+        <v>2.9</v>
+      </c>
+      <c r="AC146">
+        <v>1.04</v>
+      </c>
+      <c r="AD146">
+        <v>10</v>
+      </c>
+      <c r="AE146">
+        <v>1.2</v>
+      </c>
+      <c r="AF146">
+        <v>4.5</v>
+      </c>
+      <c r="AG146">
+        <v>1.57</v>
+      </c>
+      <c r="AH146">
+        <v>2.15</v>
+      </c>
+      <c r="AI146">
+        <v>1.45</v>
+      </c>
+      <c r="AJ146">
+        <v>2.5</v>
+      </c>
+      <c r="AK146">
+        <v>1.38</v>
+      </c>
+      <c r="AL146">
+        <v>1.22</v>
+      </c>
+      <c r="AM146">
+        <v>1.65</v>
+      </c>
+      <c r="AN146">
+        <v>2</v>
+      </c>
+      <c r="AO146">
+        <v>1.13</v>
+      </c>
+      <c r="AP146">
+        <v>1.78</v>
+      </c>
+      <c r="AQ146">
+        <v>1.33</v>
+      </c>
+      <c r="AR146">
+        <v>1.51</v>
+      </c>
+      <c r="AS146">
+        <v>1.35</v>
+      </c>
+      <c r="AT146">
+        <v>2.86</v>
+      </c>
+      <c r="AU146">
+        <v>6</v>
+      </c>
+      <c r="AV146">
+        <v>6</v>
+      </c>
+      <c r="AW146">
+        <v>4</v>
+      </c>
+      <c r="AX146">
+        <v>7</v>
+      </c>
+      <c r="AY146">
+        <v>15</v>
+      </c>
+      <c r="AZ146">
+        <v>16</v>
+      </c>
+      <c r="BA146">
+        <v>4</v>
+      </c>
+      <c r="BB146">
+        <v>1</v>
+      </c>
+      <c r="BC146">
+        <v>5</v>
+      </c>
+      <c r="BD146">
+        <v>1.78</v>
+      </c>
+      <c r="BE146">
+        <v>6.5</v>
+      </c>
+      <c r="BF146">
+        <v>2.23</v>
+      </c>
+      <c r="BG146">
+        <v>1.32</v>
+      </c>
+      <c r="BH146">
+        <v>3</v>
+      </c>
+      <c r="BI146">
+        <v>1.56</v>
+      </c>
+      <c r="BJ146">
+        <v>2.23</v>
+      </c>
+      <c r="BK146">
+        <v>1.9</v>
+      </c>
+      <c r="BL146">
+        <v>1.78</v>
+      </c>
+      <c r="BM146">
+        <v>2.4</v>
+      </c>
+      <c r="BN146">
+        <v>1.49</v>
+      </c>
+      <c r="BO146">
+        <v>3.15</v>
+      </c>
+      <c r="BP146">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>7491634</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45646.60416666666</v>
+      </c>
+      <c r="F147">
+        <v>17</v>
+      </c>
+      <c r="G147" t="s">
+        <v>83</v>
+      </c>
+      <c r="H147" t="s">
+        <v>74</v>
+      </c>
+      <c r="I147">
+        <v>2</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>3</v>
+      </c>
+      <c r="L147">
+        <v>2</v>
+      </c>
+      <c r="M147">
+        <v>5</v>
+      </c>
+      <c r="N147">
+        <v>7</v>
+      </c>
+      <c r="O147" t="s">
+        <v>192</v>
+      </c>
+      <c r="P147" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q147">
+        <v>2.5</v>
+      </c>
+      <c r="R147">
+        <v>2.25</v>
+      </c>
+      <c r="S147">
+        <v>3.75</v>
+      </c>
+      <c r="T147">
+        <v>1.33</v>
+      </c>
+      <c r="U147">
+        <v>3.05</v>
+      </c>
+      <c r="V147">
+        <v>2.5</v>
+      </c>
+      <c r="W147">
+        <v>1.47</v>
+      </c>
+      <c r="X147">
+        <v>5.95</v>
+      </c>
+      <c r="Y147">
+        <v>1.1</v>
+      </c>
+      <c r="Z147">
+        <v>1.8</v>
+      </c>
+      <c r="AA147">
+        <v>3.6</v>
+      </c>
+      <c r="AB147">
+        <v>3.6</v>
+      </c>
+      <c r="AC147">
+        <v>1.04</v>
+      </c>
+      <c r="AD147">
+        <v>10</v>
+      </c>
+      <c r="AE147">
+        <v>1.22</v>
+      </c>
+      <c r="AF147">
+        <v>4</v>
+      </c>
+      <c r="AG147">
+        <v>1.65</v>
+      </c>
+      <c r="AH147">
+        <v>2.05</v>
+      </c>
+      <c r="AI147">
+        <v>1.62</v>
+      </c>
+      <c r="AJ147">
+        <v>2.2</v>
+      </c>
+      <c r="AK147">
+        <v>1.28</v>
+      </c>
+      <c r="AL147">
+        <v>1.22</v>
+      </c>
+      <c r="AM147">
+        <v>1.83</v>
+      </c>
+      <c r="AN147">
+        <v>1.13</v>
+      </c>
+      <c r="AO147">
+        <v>2.38</v>
+      </c>
+      <c r="AP147">
+        <v>1</v>
+      </c>
+      <c r="AQ147">
+        <v>2.44</v>
+      </c>
+      <c r="AR147">
+        <v>1.6</v>
+      </c>
+      <c r="AS147">
+        <v>1.23</v>
+      </c>
+      <c r="AT147">
+        <v>2.83</v>
+      </c>
+      <c r="AU147">
+        <v>7</v>
+      </c>
+      <c r="AV147">
+        <v>12</v>
+      </c>
+      <c r="AW147">
+        <v>4</v>
+      </c>
+      <c r="AX147">
+        <v>3</v>
+      </c>
+      <c r="AY147">
+        <v>13</v>
+      </c>
+      <c r="AZ147">
+        <v>18</v>
+      </c>
+      <c r="BA147">
+        <v>4</v>
+      </c>
+      <c r="BB147">
+        <v>1</v>
+      </c>
+      <c r="BC147">
+        <v>5</v>
+      </c>
+      <c r="BD147">
+        <v>1.61</v>
+      </c>
+      <c r="BE147">
+        <v>6.75</v>
+      </c>
+      <c r="BF147">
+        <v>2.55</v>
+      </c>
+      <c r="BG147">
+        <v>1.36</v>
+      </c>
+      <c r="BH147">
+        <v>2.8</v>
+      </c>
+      <c r="BI147">
+        <v>1.61</v>
+      </c>
+      <c r="BJ147">
+        <v>2.15</v>
+      </c>
+      <c r="BK147">
+        <v>1.98</v>
+      </c>
+      <c r="BL147">
+        <v>1.72</v>
+      </c>
+      <c r="BM147">
+        <v>2.55</v>
+      </c>
+      <c r="BN147">
+        <v>1.44</v>
+      </c>
+      <c r="BO147">
+        <v>3.3</v>
+      </c>
+      <c r="BP147">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="944" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="289">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -595,6 +595,9 @@
     <t>['15', '42']</t>
   </si>
   <si>
+    <t>['1', '11', '13', '59', '76']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -875,6 +878,9 @@
   </si>
   <si>
     <t>['11', '67', '70', '87', '90+2']</t>
+  </si>
+  <si>
+    <t>['16', '34']</t>
   </si>
 </sst>
 </file>
@@ -1236,7 +1242,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP147"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1495,7 +1501,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1701,7 +1707,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -2113,7 +2119,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2525,7 +2531,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2606,7 +2612,7 @@
         <v>1</v>
       </c>
       <c r="AQ7">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2731,7 +2737,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2937,7 +2943,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3143,7 +3149,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3430,7 +3436,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ11">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3555,7 +3561,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3636,7 +3642,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ12">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR12">
         <v>0</v>
@@ -3839,7 +3845,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ13">
         <v>1.33</v>
@@ -3967,7 +3973,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4254,7 +4260,7 @@
         <v>1</v>
       </c>
       <c r="AQ15">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR15">
         <v>0</v>
@@ -4379,7 +4385,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4457,7 +4463,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ16">
         <v>1.75</v>
@@ -4585,7 +4591,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4663,7 +4669,7 @@
         <v>0</v>
       </c>
       <c r="AP17">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ17">
         <v>1.57</v>
@@ -4791,7 +4797,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5075,7 +5081,7 @@
         <v>0</v>
       </c>
       <c r="AP19">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ19">
         <v>0.63</v>
@@ -5203,7 +5209,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5615,7 +5621,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5693,7 +5699,7 @@
         <v>3</v>
       </c>
       <c r="AP22">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ22">
         <v>1.56</v>
@@ -5821,7 +5827,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6314,7 +6320,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ25">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR25">
         <v>2.21</v>
@@ -6439,7 +6445,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6645,7 +6651,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6851,7 +6857,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7263,7 +7269,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7344,7 +7350,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ30">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR30">
         <v>0.79</v>
@@ -7469,7 +7475,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7547,7 +7553,7 @@
         <v>0</v>
       </c>
       <c r="AP31">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ31">
         <v>1.13</v>
@@ -7881,7 +7887,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -7959,7 +7965,7 @@
         <v>3</v>
       </c>
       <c r="AP33">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ33">
         <v>2.44</v>
@@ -8087,7 +8093,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8371,10 +8377,10 @@
         <v>0</v>
       </c>
       <c r="AP35">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ35">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR35">
         <v>1.49</v>
@@ -8499,7 +8505,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8705,7 +8711,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8786,7 +8792,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ37">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR37">
         <v>2.14</v>
@@ -8911,7 +8917,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -8989,7 +8995,7 @@
         <v>2</v>
       </c>
       <c r="AP38">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ38">
         <v>1.56</v>
@@ -9323,7 +9329,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9529,7 +9535,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9735,7 +9741,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9816,7 +9822,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ42">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR42">
         <v>1.72</v>
@@ -9941,7 +9947,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10353,7 +10359,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10637,7 +10643,7 @@
         <v>0</v>
       </c>
       <c r="AP46">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ46">
         <v>0.13</v>
@@ -10765,7 +10771,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10843,7 +10849,7 @@
         <v>0.5</v>
       </c>
       <c r="AP47">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ47">
         <v>0.63</v>
@@ -10971,7 +10977,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11177,7 +11183,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11383,7 +11389,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11461,7 +11467,7 @@
         <v>2</v>
       </c>
       <c r="AP50">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ50">
         <v>1.75</v>
@@ -11670,7 +11676,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR51">
         <v>1.47</v>
@@ -11795,7 +11801,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -12001,7 +12007,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12082,7 +12088,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ53">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR53">
         <v>1.25</v>
@@ -12207,7 +12213,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12288,7 +12294,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR54">
         <v>1.87</v>
@@ -12413,7 +12419,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12619,7 +12625,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12700,7 +12706,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ56">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR56">
         <v>1.5</v>
@@ -12825,7 +12831,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13031,7 +13037,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13109,7 +13115,7 @@
         <v>1.67</v>
       </c>
       <c r="AP58">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ58">
         <v>1.56</v>
@@ -13443,7 +13449,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13649,7 +13655,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13727,7 +13733,7 @@
         <v>0.33</v>
       </c>
       <c r="AP61">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ61">
         <v>1.33</v>
@@ -14061,7 +14067,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14267,7 +14273,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14348,7 +14354,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ64">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR64">
         <v>2.51</v>
@@ -14551,7 +14557,7 @@
         <v>0</v>
       </c>
       <c r="AP65">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ65">
         <v>0.13</v>
@@ -14679,7 +14685,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -14966,7 +14972,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ67">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR67">
         <v>2.27</v>
@@ -15297,7 +15303,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15375,7 +15381,7 @@
         <v>1</v>
       </c>
       <c r="AP69">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ69">
         <v>1.13</v>
@@ -15503,7 +15509,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15709,7 +15715,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -15790,7 +15796,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ71">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR71">
         <v>1.7</v>
@@ -16121,7 +16127,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16614,7 +16620,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ75">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR75">
         <v>1.4</v>
@@ -16739,7 +16745,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16817,7 +16823,7 @@
         <v>1.25</v>
       </c>
       <c r="AP76">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ76">
         <v>1.5</v>
@@ -16945,7 +16951,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17644,7 +17650,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ80">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR80">
         <v>1.52</v>
@@ -17769,7 +17775,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17975,7 +17981,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18053,7 +18059,7 @@
         <v>3</v>
       </c>
       <c r="AP82">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ82">
         <v>2.44</v>
@@ -18181,7 +18187,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18387,7 +18393,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18465,7 +18471,7 @@
         <v>0</v>
       </c>
       <c r="AP84">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ84">
         <v>0.13</v>
@@ -18593,7 +18599,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18799,7 +18805,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -18880,7 +18886,7 @@
         <v>1</v>
       </c>
       <c r="AQ86">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR86">
         <v>1.49</v>
@@ -19005,7 +19011,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19211,7 +19217,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19417,7 +19423,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19498,7 +19504,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ89">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR89">
         <v>1.42</v>
@@ -19623,7 +19629,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20113,7 +20119,7 @@
         <v>3</v>
       </c>
       <c r="AP92">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ92">
         <v>2.13</v>
@@ -20653,7 +20659,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -20940,7 +20946,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ96">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR96">
         <v>1.59</v>
@@ -21065,7 +21071,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21271,7 +21277,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21555,10 +21561,10 @@
         <v>0.2</v>
       </c>
       <c r="AP99">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ99">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR99">
         <v>1.63</v>
@@ -21683,7 +21689,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21761,7 +21767,7 @@
         <v>1.4</v>
       </c>
       <c r="AP100">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ100">
         <v>0.89</v>
@@ -21889,7 +21895,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -22173,7 +22179,7 @@
         <v>1.67</v>
       </c>
       <c r="AP102">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ102">
         <v>1.56</v>
@@ -22382,7 +22388,7 @@
         <v>1.56</v>
       </c>
       <c r="AQ103">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR103">
         <v>1.96</v>
@@ -22507,7 +22513,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22794,7 +22800,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ105">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR105">
         <v>1.68</v>
@@ -22919,7 +22925,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23125,7 +23131,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23537,7 +23543,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23743,7 +23749,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -23821,7 +23827,7 @@
         <v>1.33</v>
       </c>
       <c r="AP110">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ110">
         <v>0.89</v>
@@ -24027,7 +24033,7 @@
         <v>1.6</v>
       </c>
       <c r="AP111">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ111">
         <v>2</v>
@@ -24155,7 +24161,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24236,7 +24242,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR112">
         <v>1.44</v>
@@ -24361,7 +24367,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24442,7 +24448,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ113">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR113">
         <v>1.37</v>
@@ -24567,7 +24573,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24773,7 +24779,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24979,7 +24985,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25057,7 +25063,7 @@
         <v>0.83</v>
       </c>
       <c r="AP116">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ116">
         <v>1.33</v>
@@ -25185,7 +25191,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25266,7 +25272,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ117">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR117">
         <v>1.79</v>
@@ -25391,7 +25397,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25597,7 +25603,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25803,7 +25809,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26009,7 +26015,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26215,7 +26221,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -26833,7 +26839,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27039,7 +27045,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27117,7 +27123,7 @@
         <v>2.5</v>
       </c>
       <c r="AP126">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AQ126">
         <v>2.13</v>
@@ -27326,7 +27332,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ127">
-        <v>1.29</v>
+        <v>1.13</v>
       </c>
       <c r="AR127">
         <v>1.54</v>
@@ -27657,7 +27663,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -27735,7 +27741,7 @@
         <v>0.86</v>
       </c>
       <c r="AP129">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AQ129">
         <v>1.33</v>
@@ -27863,7 +27869,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -27944,7 +27950,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ130">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR130">
         <v>1.78</v>
@@ -28069,7 +28075,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q131">
         <v>3.3</v>
@@ -28275,7 +28281,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28356,7 +28362,7 @@
         <v>2.63</v>
       </c>
       <c r="AQ132">
-        <v>0.88</v>
+        <v>0.89</v>
       </c>
       <c r="AR132">
         <v>1.64</v>
@@ -28481,7 +28487,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28559,7 +28565,7 @@
         <v>2.29</v>
       </c>
       <c r="AP133">
-        <v>0.75</v>
+        <v>0.78</v>
       </c>
       <c r="AQ133">
         <v>2.44</v>
@@ -28687,7 +28693,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28765,7 +28771,7 @@
         <v>1.67</v>
       </c>
       <c r="AP134">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ134">
         <v>1.57</v>
@@ -28974,7 +28980,7 @@
         <v>1</v>
       </c>
       <c r="AQ135">
-        <v>0.25</v>
+        <v>0.22</v>
       </c>
       <c r="AR135">
         <v>1.54</v>
@@ -29099,7 +29105,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29305,7 +29311,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29511,7 +29517,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -29923,7 +29929,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30335,7 +30341,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30953,7 +30959,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q145">
         <v>3.4</v>
@@ -31159,7 +31165,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31365,7 +31371,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31522,6 +31528,830 @@
       </c>
       <c r="BP147">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>7491637</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45646.875</v>
+      </c>
+      <c r="F148">
+        <v>17</v>
+      </c>
+      <c r="G148" t="s">
+        <v>85</v>
+      </c>
+      <c r="H148" t="s">
+        <v>71</v>
+      </c>
+      <c r="I148">
+        <v>1</v>
+      </c>
+      <c r="J148">
+        <v>2</v>
+      </c>
+      <c r="K148">
+        <v>3</v>
+      </c>
+      <c r="L148">
+        <v>1</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>3</v>
+      </c>
+      <c r="O148" t="s">
+        <v>130</v>
+      </c>
+      <c r="P148" t="s">
+        <v>288</v>
+      </c>
+      <c r="Q148">
+        <v>2.6</v>
+      </c>
+      <c r="R148">
+        <v>2.3</v>
+      </c>
+      <c r="S148">
+        <v>3.4</v>
+      </c>
+      <c r="T148">
+        <v>1.27</v>
+      </c>
+      <c r="U148">
+        <v>3.45</v>
+      </c>
+      <c r="V148">
+        <v>2.29</v>
+      </c>
+      <c r="W148">
+        <v>1.56</v>
+      </c>
+      <c r="X148">
+        <v>4.95</v>
+      </c>
+      <c r="Y148">
+        <v>1.14</v>
+      </c>
+      <c r="Z148">
+        <v>2.1</v>
+      </c>
+      <c r="AA148">
+        <v>3.7</v>
+      </c>
+      <c r="AB148">
+        <v>3</v>
+      </c>
+      <c r="AC148">
+        <v>1.04</v>
+      </c>
+      <c r="AD148">
+        <v>10</v>
+      </c>
+      <c r="AE148">
+        <v>1.18</v>
+      </c>
+      <c r="AF148">
+        <v>4.75</v>
+      </c>
+      <c r="AG148">
+        <v>1.52</v>
+      </c>
+      <c r="AH148">
+        <v>2.4</v>
+      </c>
+      <c r="AI148">
+        <v>1.47</v>
+      </c>
+      <c r="AJ148">
+        <v>2.55</v>
+      </c>
+      <c r="AK148">
+        <v>1.35</v>
+      </c>
+      <c r="AL148">
+        <v>1.2</v>
+      </c>
+      <c r="AM148">
+        <v>1.72</v>
+      </c>
+      <c r="AN148">
+        <v>2</v>
+      </c>
+      <c r="AO148">
+        <v>1.5</v>
+      </c>
+      <c r="AP148">
+        <v>1.75</v>
+      </c>
+      <c r="AQ148">
+        <v>1.67</v>
+      </c>
+      <c r="AR148">
+        <v>1.42</v>
+      </c>
+      <c r="AS148">
+        <v>1.18</v>
+      </c>
+      <c r="AT148">
+        <v>2.6</v>
+      </c>
+      <c r="AU148">
+        <v>10</v>
+      </c>
+      <c r="AV148">
+        <v>6</v>
+      </c>
+      <c r="AW148">
+        <v>8</v>
+      </c>
+      <c r="AX148">
+        <v>3</v>
+      </c>
+      <c r="AY148">
+        <v>21</v>
+      </c>
+      <c r="AZ148">
+        <v>10</v>
+      </c>
+      <c r="BA148">
+        <v>10</v>
+      </c>
+      <c r="BB148">
+        <v>2</v>
+      </c>
+      <c r="BC148">
+        <v>12</v>
+      </c>
+      <c r="BD148">
+        <v>1.78</v>
+      </c>
+      <c r="BE148">
+        <v>6.4</v>
+      </c>
+      <c r="BF148">
+        <v>2.23</v>
+      </c>
+      <c r="BG148">
+        <v>1.3</v>
+      </c>
+      <c r="BH148">
+        <v>3.05</v>
+      </c>
+      <c r="BI148">
+        <v>1.54</v>
+      </c>
+      <c r="BJ148">
+        <v>2.3</v>
+      </c>
+      <c r="BK148">
+        <v>1.88</v>
+      </c>
+      <c r="BL148">
+        <v>1.81</v>
+      </c>
+      <c r="BM148">
+        <v>2.38</v>
+      </c>
+      <c r="BN148">
+        <v>1.5</v>
+      </c>
+      <c r="BO148">
+        <v>3.05</v>
+      </c>
+      <c r="BP148">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>7491635</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45647.375</v>
+      </c>
+      <c r="F149">
+        <v>0</v>
+      </c>
+      <c r="G149" t="s">
+        <v>84</v>
+      </c>
+      <c r="H149" t="s">
+        <v>77</v>
+      </c>
+      <c r="I149">
+        <v>3</v>
+      </c>
+      <c r="J149">
+        <v>0</v>
+      </c>
+      <c r="K149">
+        <v>3</v>
+      </c>
+      <c r="L149">
+        <v>5</v>
+      </c>
+      <c r="M149">
+        <v>0</v>
+      </c>
+      <c r="N149">
+        <v>5</v>
+      </c>
+      <c r="O149" t="s">
+        <v>193</v>
+      </c>
+      <c r="P149" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q149">
+        <v>2</v>
+      </c>
+      <c r="R149">
+        <v>2.5</v>
+      </c>
+      <c r="S149">
+        <v>4.5</v>
+      </c>
+      <c r="T149">
+        <v>1.22</v>
+      </c>
+      <c r="U149">
+        <v>3.7</v>
+      </c>
+      <c r="V149">
+        <v>2.1</v>
+      </c>
+      <c r="W149">
+        <v>1.65</v>
+      </c>
+      <c r="X149">
+        <v>4.6</v>
+      </c>
+      <c r="Y149">
+        <v>1.16</v>
+      </c>
+      <c r="Z149">
+        <v>1.5</v>
+      </c>
+      <c r="AA149">
+        <v>4.5</v>
+      </c>
+      <c r="AB149">
+        <v>5</v>
+      </c>
+      <c r="AC149">
+        <v>1.01</v>
+      </c>
+      <c r="AD149">
+        <v>17</v>
+      </c>
+      <c r="AE149">
+        <v>1.14</v>
+      </c>
+      <c r="AF149">
+        <v>5.5</v>
+      </c>
+      <c r="AG149">
+        <v>1.38</v>
+      </c>
+      <c r="AH149">
+        <v>2.85</v>
+      </c>
+      <c r="AI149">
+        <v>1.48</v>
+      </c>
+      <c r="AJ149">
+        <v>2.4</v>
+      </c>
+      <c r="AK149">
+        <v>1.17</v>
+      </c>
+      <c r="AL149">
+        <v>1.15</v>
+      </c>
+      <c r="AM149">
+        <v>2.35</v>
+      </c>
+      <c r="AN149">
+        <v>1.75</v>
+      </c>
+      <c r="AO149">
+        <v>1.29</v>
+      </c>
+      <c r="AP149">
+        <v>1.89</v>
+      </c>
+      <c r="AQ149">
+        <v>1.13</v>
+      </c>
+      <c r="AR149">
+        <v>1.74</v>
+      </c>
+      <c r="AS149">
+        <v>1.31</v>
+      </c>
+      <c r="AT149">
+        <v>3.05</v>
+      </c>
+      <c r="AU149">
+        <v>10</v>
+      </c>
+      <c r="AV149">
+        <v>4</v>
+      </c>
+      <c r="AW149">
+        <v>4</v>
+      </c>
+      <c r="AX149">
+        <v>0</v>
+      </c>
+      <c r="AY149">
+        <v>15</v>
+      </c>
+      <c r="AZ149">
+        <v>6</v>
+      </c>
+      <c r="BA149">
+        <v>3</v>
+      </c>
+      <c r="BB149">
+        <v>4</v>
+      </c>
+      <c r="BC149">
+        <v>7</v>
+      </c>
+      <c r="BD149">
+        <v>1.49</v>
+      </c>
+      <c r="BE149">
+        <v>6.75</v>
+      </c>
+      <c r="BF149">
+        <v>2.9</v>
+      </c>
+      <c r="BG149">
+        <v>1.3</v>
+      </c>
+      <c r="BH149">
+        <v>3.15</v>
+      </c>
+      <c r="BI149">
+        <v>1.5</v>
+      </c>
+      <c r="BJ149">
+        <v>2.38</v>
+      </c>
+      <c r="BK149">
+        <v>1.81</v>
+      </c>
+      <c r="BL149">
+        <v>1.88</v>
+      </c>
+      <c r="BM149">
+        <v>2.25</v>
+      </c>
+      <c r="BN149">
+        <v>1.55</v>
+      </c>
+      <c r="BO149">
+        <v>2.9</v>
+      </c>
+      <c r="BP149">
+        <v>1.34</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>7491641</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45647.375</v>
+      </c>
+      <c r="F150">
+        <v>0</v>
+      </c>
+      <c r="G150" t="s">
+        <v>87</v>
+      </c>
+      <c r="H150" t="s">
+        <v>78</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>0</v>
+      </c>
+      <c r="K150">
+        <v>0</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>0</v>
+      </c>
+      <c r="N150">
+        <v>0</v>
+      </c>
+      <c r="O150" t="s">
+        <v>92</v>
+      </c>
+      <c r="P150" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q150">
+        <v>2.85</v>
+      </c>
+      <c r="R150">
+        <v>2.05</v>
+      </c>
+      <c r="S150">
+        <v>3.75</v>
+      </c>
+      <c r="T150">
+        <v>1.44</v>
+      </c>
+      <c r="U150">
+        <v>2.6</v>
+      </c>
+      <c r="V150">
+        <v>2.95</v>
+      </c>
+      <c r="W150">
+        <v>1.35</v>
+      </c>
+      <c r="X150">
+        <v>7.4</v>
+      </c>
+      <c r="Y150">
+        <v>1.06</v>
+      </c>
+      <c r="Z150">
+        <v>1.95</v>
+      </c>
+      <c r="AA150">
+        <v>3.5</v>
+      </c>
+      <c r="AB150">
+        <v>3.6</v>
+      </c>
+      <c r="AC150">
+        <v>1.06</v>
+      </c>
+      <c r="AD150">
+        <v>8.5</v>
+      </c>
+      <c r="AE150">
+        <v>1.33</v>
+      </c>
+      <c r="AF150">
+        <v>3.1</v>
+      </c>
+      <c r="AG150">
+        <v>1.94</v>
+      </c>
+      <c r="AH150">
+        <v>1.92</v>
+      </c>
+      <c r="AI150">
+        <v>1.8</v>
+      </c>
+      <c r="AJ150">
+        <v>1.95</v>
+      </c>
+      <c r="AK150">
+        <v>1.3</v>
+      </c>
+      <c r="AL150">
+        <v>1.28</v>
+      </c>
+      <c r="AM150">
+        <v>1.66</v>
+      </c>
+      <c r="AN150">
+        <v>0.75</v>
+      </c>
+      <c r="AO150">
+        <v>0.88</v>
+      </c>
+      <c r="AP150">
+        <v>0.78</v>
+      </c>
+      <c r="AQ150">
+        <v>0.89</v>
+      </c>
+      <c r="AR150">
+        <v>1.2</v>
+      </c>
+      <c r="AS150">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AT150">
+        <v>2.14</v>
+      </c>
+      <c r="AU150">
+        <v>2</v>
+      </c>
+      <c r="AV150">
+        <v>6</v>
+      </c>
+      <c r="AW150">
+        <v>4</v>
+      </c>
+      <c r="AX150">
+        <v>6</v>
+      </c>
+      <c r="AY150">
+        <v>7</v>
+      </c>
+      <c r="AZ150">
+        <v>16</v>
+      </c>
+      <c r="BA150">
+        <v>1</v>
+      </c>
+      <c r="BB150">
+        <v>3</v>
+      </c>
+      <c r="BC150">
+        <v>4</v>
+      </c>
+      <c r="BD150">
+        <v>1.74</v>
+      </c>
+      <c r="BE150">
+        <v>6.4</v>
+      </c>
+      <c r="BF150">
+        <v>2.33</v>
+      </c>
+      <c r="BG150">
+        <v>1.47</v>
+      </c>
+      <c r="BH150">
+        <v>2.48</v>
+      </c>
+      <c r="BI150">
+        <v>1.78</v>
+      </c>
+      <c r="BJ150">
+        <v>1.91</v>
+      </c>
+      <c r="BK150">
+        <v>2.23</v>
+      </c>
+      <c r="BL150">
+        <v>1.56</v>
+      </c>
+      <c r="BM150">
+        <v>2.9</v>
+      </c>
+      <c r="BN150">
+        <v>1.34</v>
+      </c>
+      <c r="BO150">
+        <v>3.9</v>
+      </c>
+      <c r="BP150">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>7491639</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45647.6875</v>
+      </c>
+      <c r="F151">
+        <v>17</v>
+      </c>
+      <c r="G151" t="s">
+        <v>81</v>
+      </c>
+      <c r="H151" t="s">
+        <v>86</v>
+      </c>
+      <c r="I151">
+        <v>0</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>0</v>
+      </c>
+      <c r="L151">
+        <v>1</v>
+      </c>
+      <c r="M151">
+        <v>0</v>
+      </c>
+      <c r="N151">
+        <v>1</v>
+      </c>
+      <c r="O151" t="s">
+        <v>104</v>
+      </c>
+      <c r="P151" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q151">
+        <v>2.3</v>
+      </c>
+      <c r="R151">
+        <v>2.25</v>
+      </c>
+      <c r="S151">
+        <v>4.2</v>
+      </c>
+      <c r="T151">
+        <v>1.3</v>
+      </c>
+      <c r="U151">
+        <v>3.2</v>
+      </c>
+      <c r="V151">
+        <v>2.3</v>
+      </c>
+      <c r="W151">
+        <v>1.55</v>
+      </c>
+      <c r="X151">
+        <v>5.05</v>
+      </c>
+      <c r="Y151">
+        <v>1.13</v>
+      </c>
+      <c r="Z151">
+        <v>2.48</v>
+      </c>
+      <c r="AA151">
+        <v>2.05</v>
+      </c>
+      <c r="AB151">
+        <v>4.6</v>
+      </c>
+      <c r="AC151">
+        <v>1.04</v>
+      </c>
+      <c r="AD151">
+        <v>10</v>
+      </c>
+      <c r="AE151">
+        <v>1.2</v>
+      </c>
+      <c r="AF151">
+        <v>4.33</v>
+      </c>
+      <c r="AG151">
+        <v>1.77</v>
+      </c>
+      <c r="AH151">
+        <v>2.05</v>
+      </c>
+      <c r="AI151">
+        <v>1.55</v>
+      </c>
+      <c r="AJ151">
+        <v>2.25</v>
+      </c>
+      <c r="AK151">
+        <v>1.22</v>
+      </c>
+      <c r="AL151">
+        <v>1.2</v>
+      </c>
+      <c r="AM151">
+        <v>1.95</v>
+      </c>
+      <c r="AN151">
+        <v>1.57</v>
+      </c>
+      <c r="AO151">
+        <v>0.25</v>
+      </c>
+      <c r="AP151">
+        <v>1.75</v>
+      </c>
+      <c r="AQ151">
+        <v>0.22</v>
+      </c>
+      <c r="AR151">
+        <v>1.49</v>
+      </c>
+      <c r="AS151">
+        <v>1.16</v>
+      </c>
+      <c r="AT151">
+        <v>2.65</v>
+      </c>
+      <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
+        <v>3</v>
+      </c>
+      <c r="AW151">
+        <v>9</v>
+      </c>
+      <c r="AX151">
+        <v>2</v>
+      </c>
+      <c r="AY151">
+        <v>18</v>
+      </c>
+      <c r="AZ151">
+        <v>10</v>
+      </c>
+      <c r="BA151">
+        <v>7</v>
+      </c>
+      <c r="BB151">
+        <v>3</v>
+      </c>
+      <c r="BC151">
+        <v>10</v>
+      </c>
+      <c r="BD151">
+        <v>1.61</v>
+      </c>
+      <c r="BE151">
+        <v>6.4</v>
+      </c>
+      <c r="BF151">
+        <v>2.55</v>
+      </c>
+      <c r="BG151">
+        <v>1.35</v>
+      </c>
+      <c r="BH151">
+        <v>2.9</v>
+      </c>
+      <c r="BI151">
+        <v>1.58</v>
+      </c>
+      <c r="BJ151">
+        <v>2.18</v>
+      </c>
+      <c r="BK151">
+        <v>1.96</v>
+      </c>
+      <c r="BL151">
+        <v>1.74</v>
+      </c>
+      <c r="BM151">
+        <v>2.48</v>
+      </c>
+      <c r="BN151">
+        <v>1.47</v>
+      </c>
+      <c r="BO151">
+        <v>3.2</v>
+      </c>
+      <c r="BP151">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="289">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="291">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -598,6 +598,9 @@
     <t>['1', '11', '13', '59', '76']</t>
   </si>
   <si>
+    <t>['65', '90+1']</t>
+  </si>
+  <si>
     <t>['5', '35']</t>
   </si>
   <si>
@@ -881,6 +884,9 @@
   </si>
   <si>
     <t>['16', '34']</t>
+  </si>
+  <si>
+    <t>['90+3']</t>
   </si>
 </sst>
 </file>
@@ -1242,7 +1248,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP154"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1501,7 +1507,7 @@
         <v>88</v>
       </c>
       <c r="P2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q2">
         <v>2.75</v>
@@ -1707,7 +1713,7 @@
         <v>89</v>
       </c>
       <c r="P3" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q3">
         <v>2.6</v>
@@ -1991,7 +1997,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ4">
         <v>0.13</v>
@@ -2119,7 +2125,7 @@
         <v>91</v>
       </c>
       <c r="P5" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q5">
         <v>2.6</v>
@@ -2531,7 +2537,7 @@
         <v>93</v>
       </c>
       <c r="P7" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q7">
         <v>2.38</v>
@@ -2737,7 +2743,7 @@
         <v>92</v>
       </c>
       <c r="P8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q8">
         <v>3.2</v>
@@ -2943,7 +2949,7 @@
         <v>94</v>
       </c>
       <c r="P9" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q9">
         <v>2.4</v>
@@ -3149,7 +3155,7 @@
         <v>95</v>
       </c>
       <c r="P10" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q10">
         <v>3.4</v>
@@ -3433,7 +3439,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ11">
         <v>0.89</v>
@@ -3561,7 +3567,7 @@
         <v>97</v>
       </c>
       <c r="P12" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q12">
         <v>2.65</v>
@@ -3639,7 +3645,7 @@
         <v>0</v>
       </c>
       <c r="AP12">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ12">
         <v>1.13</v>
@@ -3973,7 +3979,7 @@
         <v>99</v>
       </c>
       <c r="P14" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q14">
         <v>4</v>
@@ -4054,7 +4060,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ14">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR14">
         <v>0</v>
@@ -4385,7 +4391,7 @@
         <v>100</v>
       </c>
       <c r="P16" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q16">
         <v>2.25</v>
@@ -4466,7 +4472,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ16">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR16">
         <v>0</v>
@@ -4591,7 +4597,7 @@
         <v>101</v>
       </c>
       <c r="P17" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q17">
         <v>2.5</v>
@@ -4672,7 +4678,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ17">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR17">
         <v>0</v>
@@ -4797,7 +4803,7 @@
         <v>102</v>
       </c>
       <c r="P18" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q18">
         <v>3.25</v>
@@ -5209,7 +5215,7 @@
         <v>103</v>
       </c>
       <c r="P20" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q20">
         <v>2.25</v>
@@ -5493,7 +5499,7 @@
         <v>3</v>
       </c>
       <c r="AP21">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ21">
         <v>1.38</v>
@@ -5621,7 +5627,7 @@
         <v>92</v>
       </c>
       <c r="P22" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q22">
         <v>3.1</v>
@@ -5827,7 +5833,7 @@
         <v>104</v>
       </c>
       <c r="P23" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q23">
         <v>2.88</v>
@@ -6445,7 +6451,7 @@
         <v>107</v>
       </c>
       <c r="P26" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q26">
         <v>4.33</v>
@@ -6651,7 +6657,7 @@
         <v>108</v>
       </c>
       <c r="P27" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q27">
         <v>2.75</v>
@@ -6857,7 +6863,7 @@
         <v>109</v>
       </c>
       <c r="P28" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q28">
         <v>2.88</v>
@@ -7269,7 +7275,7 @@
         <v>92</v>
       </c>
       <c r="P30" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q30">
         <v>3.5</v>
@@ -7347,7 +7353,7 @@
         <v>1</v>
       </c>
       <c r="AP30">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ30">
         <v>1.13</v>
@@ -7475,7 +7481,7 @@
         <v>111</v>
       </c>
       <c r="P31" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q31">
         <v>1.84</v>
@@ -7762,7 +7768,7 @@
         <v>1.78</v>
       </c>
       <c r="AQ32">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR32">
         <v>0.9399999999999999</v>
@@ -7887,7 +7893,7 @@
         <v>92</v>
       </c>
       <c r="P33" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q33">
         <v>3.1</v>
@@ -8093,7 +8099,7 @@
         <v>113</v>
       </c>
       <c r="P34" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q34">
         <v>2.75</v>
@@ -8171,10 +8177,10 @@
         <v>1</v>
       </c>
       <c r="AP34">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ34">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR34">
         <v>1.8</v>
@@ -8505,7 +8511,7 @@
         <v>114</v>
       </c>
       <c r="P36" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q36">
         <v>3.25</v>
@@ -8586,7 +8592,7 @@
         <v>1</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR36">
         <v>1.71</v>
@@ -8711,7 +8717,7 @@
         <v>115</v>
       </c>
       <c r="P37" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q37">
         <v>3.91</v>
@@ -8917,7 +8923,7 @@
         <v>116</v>
       </c>
       <c r="P38" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q38">
         <v>3.5</v>
@@ -9329,7 +9335,7 @@
         <v>118</v>
       </c>
       <c r="P40" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q40">
         <v>2.5</v>
@@ -9407,7 +9413,7 @@
         <v>3</v>
       </c>
       <c r="AP40">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ40">
         <v>1.56</v>
@@ -9535,7 +9541,7 @@
         <v>119</v>
       </c>
       <c r="P41" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q41">
         <v>2.88</v>
@@ -9741,7 +9747,7 @@
         <v>120</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q42">
         <v>2.3</v>
@@ -9947,7 +9953,7 @@
         <v>104</v>
       </c>
       <c r="P43" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q43">
         <v>1.95</v>
@@ -10359,7 +10365,7 @@
         <v>92</v>
       </c>
       <c r="P45" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q45">
         <v>3.1</v>
@@ -10771,7 +10777,7 @@
         <v>122</v>
       </c>
       <c r="P47" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q47">
         <v>2.64</v>
@@ -10977,7 +10983,7 @@
         <v>123</v>
       </c>
       <c r="P48" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q48">
         <v>2.2</v>
@@ -11058,7 +11064,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR48">
         <v>1.7</v>
@@ -11183,7 +11189,7 @@
         <v>124</v>
       </c>
       <c r="P49" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q49">
         <v>3.5</v>
@@ -11264,7 +11270,7 @@
         <v>1</v>
       </c>
       <c r="AQ49">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR49">
         <v>1.77</v>
@@ -11389,7 +11395,7 @@
         <v>92</v>
       </c>
       <c r="P50" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q50">
         <v>3.4</v>
@@ -11470,7 +11476,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ50">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR50">
         <v>0.97</v>
@@ -11801,7 +11807,7 @@
         <v>126</v>
       </c>
       <c r="P52" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q52">
         <v>3.25</v>
@@ -11879,7 +11885,7 @@
         <v>1.5</v>
       </c>
       <c r="AP52">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ52">
         <v>1.38</v>
@@ -12007,7 +12013,7 @@
         <v>127</v>
       </c>
       <c r="P53" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q53">
         <v>2.5</v>
@@ -12213,7 +12219,7 @@
         <v>128</v>
       </c>
       <c r="P54" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q54">
         <v>3.2</v>
@@ -12419,7 +12425,7 @@
         <v>92</v>
       </c>
       <c r="P55" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q55">
         <v>3</v>
@@ -12497,7 +12503,7 @@
         <v>0</v>
       </c>
       <c r="AP55">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ55">
         <v>1.13</v>
@@ -12625,7 +12631,7 @@
         <v>129</v>
       </c>
       <c r="P56" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q56">
         <v>3.07</v>
@@ -12831,7 +12837,7 @@
         <v>130</v>
       </c>
       <c r="P57" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q57">
         <v>3.4</v>
@@ -13037,7 +13043,7 @@
         <v>131</v>
       </c>
       <c r="P58" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q58">
         <v>2.2</v>
@@ -13321,7 +13327,7 @@
         <v>2</v>
       </c>
       <c r="AP59">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ59">
         <v>1.56</v>
@@ -13449,7 +13455,7 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q60">
         <v>2.65</v>
@@ -13655,7 +13661,7 @@
         <v>132</v>
       </c>
       <c r="P61" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q61">
         <v>3.2</v>
@@ -13939,7 +13945,7 @@
         <v>1.33</v>
       </c>
       <c r="AP62">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ62">
         <v>0.89</v>
@@ -14067,7 +14073,7 @@
         <v>134</v>
       </c>
       <c r="P63" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q63">
         <v>2.3</v>
@@ -14273,7 +14279,7 @@
         <v>135</v>
       </c>
       <c r="P64" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q64">
         <v>2.1</v>
@@ -14685,7 +14691,7 @@
         <v>137</v>
       </c>
       <c r="P66" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q66">
         <v>2.2</v>
@@ -14766,7 +14772,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ66">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR66">
         <v>1.63</v>
@@ -15303,7 +15309,7 @@
         <v>139</v>
       </c>
       <c r="P69" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q69">
         <v>2.9</v>
@@ -15509,7 +15515,7 @@
         <v>140</v>
       </c>
       <c r="P70" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q70">
         <v>2.75</v>
@@ -15590,7 +15596,7 @@
         <v>1</v>
       </c>
       <c r="AQ70">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR70">
         <v>1.66</v>
@@ -15715,7 +15721,7 @@
         <v>141</v>
       </c>
       <c r="P71" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q71">
         <v>2.5</v>
@@ -16127,7 +16133,7 @@
         <v>92</v>
       </c>
       <c r="P73" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q73">
         <v>3</v>
@@ -16414,7 +16420,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ74">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR74">
         <v>1.62</v>
@@ -16745,7 +16751,7 @@
         <v>145</v>
       </c>
       <c r="P76" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q76">
         <v>2.88</v>
@@ -16951,7 +16957,7 @@
         <v>92</v>
       </c>
       <c r="P77" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q77">
         <v>4.5</v>
@@ -17029,7 +17035,7 @@
         <v>3</v>
       </c>
       <c r="AP77">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ77">
         <v>2.13</v>
@@ -17235,7 +17241,7 @@
         <v>1</v>
       </c>
       <c r="AP78">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ78">
         <v>1.33</v>
@@ -17441,7 +17447,7 @@
         <v>1.5</v>
       </c>
       <c r="AP79">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ79">
         <v>1.56</v>
@@ -17775,7 +17781,7 @@
         <v>92</v>
       </c>
       <c r="P81" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q81">
         <v>2.38</v>
@@ -17981,7 +17987,7 @@
         <v>148</v>
       </c>
       <c r="P82" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q82">
         <v>2.1</v>
@@ -18187,7 +18193,7 @@
         <v>114</v>
       </c>
       <c r="P83" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q83">
         <v>2.15</v>
@@ -18393,7 +18399,7 @@
         <v>149</v>
       </c>
       <c r="P84" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q84">
         <v>2.3</v>
@@ -18599,7 +18605,7 @@
         <v>150</v>
       </c>
       <c r="P85" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q85">
         <v>2.54</v>
@@ -18680,7 +18686,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ85">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR85">
         <v>1.57</v>
@@ -18805,7 +18811,7 @@
         <v>151</v>
       </c>
       <c r="P86" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q86">
         <v>2.4</v>
@@ -19011,7 +19017,7 @@
         <v>152</v>
       </c>
       <c r="P87" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q87">
         <v>3.6</v>
@@ -19217,7 +19223,7 @@
         <v>153</v>
       </c>
       <c r="P88" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q88">
         <v>2.25</v>
@@ -19423,7 +19429,7 @@
         <v>154</v>
       </c>
       <c r="P89" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q89">
         <v>2.3</v>
@@ -19629,7 +19635,7 @@
         <v>92</v>
       </c>
       <c r="P90" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q90">
         <v>3</v>
@@ -20531,7 +20537,7 @@
         <v>1.2</v>
       </c>
       <c r="AP94">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ94">
         <v>1.5</v>
@@ -20659,7 +20665,7 @@
         <v>157</v>
       </c>
       <c r="P95" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q95">
         <v>2.85</v>
@@ -20740,7 +20746,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ95">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR95">
         <v>1.41</v>
@@ -20943,7 +20949,7 @@
         <v>1.8</v>
       </c>
       <c r="AP96">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ96">
         <v>1.67</v>
@@ -21071,7 +21077,7 @@
         <v>92</v>
       </c>
       <c r="P97" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q97">
         <v>3.1</v>
@@ -21152,7 +21158,7 @@
         <v>0.88</v>
       </c>
       <c r="AQ97">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR97">
         <v>1.4</v>
@@ -21277,7 +21283,7 @@
         <v>159</v>
       </c>
       <c r="P98" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q98">
         <v>2.7</v>
@@ -21355,7 +21361,7 @@
         <v>2.4</v>
       </c>
       <c r="AP98">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ98">
         <v>2.44</v>
@@ -21689,7 +21695,7 @@
         <v>155</v>
       </c>
       <c r="P100" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q100">
         <v>1.95</v>
@@ -21895,7 +21901,7 @@
         <v>160</v>
       </c>
       <c r="P101" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q101">
         <v>3.7</v>
@@ -22513,7 +22519,7 @@
         <v>162</v>
       </c>
       <c r="P104" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q104">
         <v>2.7</v>
@@ -22594,7 +22600,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ104">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR104">
         <v>1.47</v>
@@ -22925,7 +22931,7 @@
         <v>163</v>
       </c>
       <c r="P106" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q106">
         <v>2.62</v>
@@ -23131,7 +23137,7 @@
         <v>164</v>
       </c>
       <c r="P107" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q107">
         <v>2.1</v>
@@ -23543,7 +23549,7 @@
         <v>166</v>
       </c>
       <c r="P109" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="Q109">
         <v>3.1</v>
@@ -23749,7 +23755,7 @@
         <v>167</v>
       </c>
       <c r="P110" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="Q110">
         <v>2.5</v>
@@ -24036,7 +24042,7 @@
         <v>0.78</v>
       </c>
       <c r="AQ111">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR111">
         <v>1.23</v>
@@ -24161,7 +24167,7 @@
         <v>168</v>
       </c>
       <c r="P112" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="Q112">
         <v>3.1</v>
@@ -24367,7 +24373,7 @@
         <v>169</v>
       </c>
       <c r="P113" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q113">
         <v>2.25</v>
@@ -24573,7 +24579,7 @@
         <v>92</v>
       </c>
       <c r="P114" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="Q114">
         <v>2.6</v>
@@ -24779,7 +24785,7 @@
         <v>170</v>
       </c>
       <c r="P115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="Q115">
         <v>2.5</v>
@@ -24857,10 +24863,10 @@
         <v>1.4</v>
       </c>
       <c r="AP115">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ115">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR115">
         <v>1.64</v>
@@ -24985,7 +24991,7 @@
         <v>171</v>
       </c>
       <c r="P116" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q116">
         <v>2.2</v>
@@ -25191,7 +25197,7 @@
         <v>172</v>
       </c>
       <c r="P117" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="Q117">
         <v>2.63</v>
@@ -25269,7 +25275,7 @@
         <v>0.33</v>
       </c>
       <c r="AP117">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ117">
         <v>0.22</v>
@@ -25397,7 +25403,7 @@
         <v>92</v>
       </c>
       <c r="P118" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Q118">
         <v>4</v>
@@ -25475,7 +25481,7 @@
         <v>2.17</v>
       </c>
       <c r="AP118">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ118">
         <v>2.44</v>
@@ -25603,7 +25609,7 @@
         <v>95</v>
       </c>
       <c r="P119" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Q119">
         <v>3</v>
@@ -25684,7 +25690,7 @@
         <v>0.75</v>
       </c>
       <c r="AQ119">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR119">
         <v>1.77</v>
@@ -25809,7 +25815,7 @@
         <v>92</v>
       </c>
       <c r="P120" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="Q120">
         <v>2.6</v>
@@ -26015,7 +26021,7 @@
         <v>173</v>
       </c>
       <c r="P121" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="Q121">
         <v>2.35</v>
@@ -26221,7 +26227,7 @@
         <v>174</v>
       </c>
       <c r="P122" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="Q122">
         <v>2.85</v>
@@ -26839,7 +26845,7 @@
         <v>175</v>
       </c>
       <c r="P125" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="Q125">
         <v>3</v>
@@ -27045,7 +27051,7 @@
         <v>176</v>
       </c>
       <c r="P126" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q126">
         <v>3.25</v>
@@ -27663,7 +27669,7 @@
         <v>179</v>
       </c>
       <c r="P129" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Q129">
         <v>2.3</v>
@@ -27869,7 +27875,7 @@
         <v>180</v>
       </c>
       <c r="P130" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Q130">
         <v>2.9</v>
@@ -27947,7 +27953,7 @@
         <v>1.71</v>
       </c>
       <c r="AP130">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ130">
         <v>1.67</v>
@@ -28075,7 +28081,7 @@
         <v>181</v>
       </c>
       <c r="P131" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="Q131">
         <v>3.3</v>
@@ -28156,7 +28162,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ131">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AR131">
         <v>1.46</v>
@@ -28281,7 +28287,7 @@
         <v>182</v>
       </c>
       <c r="P132" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="Q132">
         <v>2.15</v>
@@ -28359,7 +28365,7 @@
         <v>1</v>
       </c>
       <c r="AP132">
-        <v>2.63</v>
+        <v>2.44</v>
       </c>
       <c r="AQ132">
         <v>0.89</v>
@@ -28487,7 +28493,7 @@
         <v>183</v>
       </c>
       <c r="P133" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="Q133">
         <v>3</v>
@@ -28693,7 +28699,7 @@
         <v>184</v>
       </c>
       <c r="P134" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="Q134">
         <v>2.5</v>
@@ -28774,7 +28780,7 @@
         <v>1.89</v>
       </c>
       <c r="AQ134">
-        <v>1.57</v>
+        <v>1.38</v>
       </c>
       <c r="AR134">
         <v>1.67</v>
@@ -29105,7 +29111,7 @@
         <v>92</v>
       </c>
       <c r="P136" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q136">
         <v>6</v>
@@ -29183,10 +29189,10 @@
         <v>1.83</v>
       </c>
       <c r="AP136">
-        <v>0.88</v>
+        <v>1.11</v>
       </c>
       <c r="AQ136">
-        <v>2</v>
+        <v>2.13</v>
       </c>
       <c r="AR136">
         <v>1.21</v>
@@ -29311,7 +29317,7 @@
         <v>186</v>
       </c>
       <c r="P137" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Q137">
         <v>1.87</v>
@@ -29517,7 +29523,7 @@
         <v>120</v>
       </c>
       <c r="P138" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Q138">
         <v>2.1</v>
@@ -29929,7 +29935,7 @@
         <v>187</v>
       </c>
       <c r="P140" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="Q140">
         <v>3.1</v>
@@ -30341,7 +30347,7 @@
         <v>188</v>
       </c>
       <c r="P142" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q142">
         <v>2.38</v>
@@ -30959,7 +30965,7 @@
         <v>92</v>
       </c>
       <c r="P145" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="Q145">
         <v>3.4</v>
@@ -31165,7 +31171,7 @@
         <v>191</v>
       </c>
       <c r="P146" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q146">
         <v>2.7</v>
@@ -31371,7 +31377,7 @@
         <v>192</v>
       </c>
       <c r="P147" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q147">
         <v>2.5</v>
@@ -31535,7 +31541,7 @@
         <v>147</v>
       </c>
       <c r="B148">
-        <v>7491637</v>
+        <v>7491635</v>
       </c>
       <c r="C148" t="s">
         <v>68</v>
@@ -31544,196 +31550,196 @@
         <v>69</v>
       </c>
       <c r="E148" s="2">
-        <v>45646.875</v>
+        <v>45647.375</v>
       </c>
       <c r="F148">
         <v>17</v>
       </c>
       <c r="G148" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="H148" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I148">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K148">
         <v>3</v>
       </c>
       <c r="L148">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M148">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N148">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="O148" t="s">
-        <v>130</v>
+        <v>193</v>
       </c>
       <c r="P148" t="s">
-        <v>288</v>
+        <v>92</v>
       </c>
       <c r="Q148">
-        <v>2.6</v>
+        <v>2</v>
       </c>
       <c r="R148">
-        <v>2.3</v>
+        <v>2.5</v>
       </c>
       <c r="S148">
-        <v>3.4</v>
+        <v>4.5</v>
       </c>
       <c r="T148">
-        <v>1.27</v>
+        <v>1.22</v>
       </c>
       <c r="U148">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="V148">
-        <v>2.29</v>
+        <v>2.1</v>
       </c>
       <c r="W148">
-        <v>1.56</v>
+        <v>1.65</v>
       </c>
       <c r="X148">
-        <v>4.95</v>
+        <v>4.6</v>
       </c>
       <c r="Y148">
+        <v>1.16</v>
+      </c>
+      <c r="Z148">
+        <v>1.5</v>
+      </c>
+      <c r="AA148">
+        <v>4.5</v>
+      </c>
+      <c r="AB148">
+        <v>5</v>
+      </c>
+      <c r="AC148">
+        <v>1.01</v>
+      </c>
+      <c r="AD148">
+        <v>17</v>
+      </c>
+      <c r="AE148">
         <v>1.14</v>
       </c>
-      <c r="Z148">
-        <v>2.1</v>
-      </c>
-      <c r="AA148">
-        <v>3.7</v>
-      </c>
-      <c r="AB148">
-        <v>3</v>
-      </c>
-      <c r="AC148">
-        <v>1.04</v>
-      </c>
-      <c r="AD148">
-        <v>10</v>
-      </c>
-      <c r="AE148">
-        <v>1.18</v>
-      </c>
       <c r="AF148">
-        <v>4.75</v>
+        <v>5.5</v>
       </c>
       <c r="AG148">
-        <v>1.52</v>
+        <v>1.38</v>
       </c>
       <c r="AH148">
+        <v>2.85</v>
+      </c>
+      <c r="AI148">
+        <v>1.48</v>
+      </c>
+      <c r="AJ148">
         <v>2.4</v>
       </c>
-      <c r="AI148">
-        <v>1.47</v>
-      </c>
-      <c r="AJ148">
-        <v>2.55</v>
-      </c>
       <c r="AK148">
-        <v>1.35</v>
+        <v>1.17</v>
       </c>
       <c r="AL148">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="AM148">
-        <v>1.72</v>
+        <v>2.35</v>
       </c>
       <c r="AN148">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AO148">
-        <v>1.5</v>
+        <v>1.29</v>
       </c>
       <c r="AP148">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AQ148">
-        <v>1.67</v>
+        <v>1.13</v>
       </c>
       <c r="AR148">
-        <v>1.42</v>
+        <v>1.74</v>
       </c>
       <c r="AS148">
-        <v>1.18</v>
+        <v>1.31</v>
       </c>
       <c r="AT148">
-        <v>2.6</v>
+        <v>3.05</v>
       </c>
       <c r="AU148">
         <v>10</v>
       </c>
       <c r="AV148">
+        <v>4</v>
+      </c>
+      <c r="AW148">
+        <v>4</v>
+      </c>
+      <c r="AX148">
+        <v>0</v>
+      </c>
+      <c r="AY148">
+        <v>15</v>
+      </c>
+      <c r="AZ148">
         <v>6</v>
       </c>
-      <c r="AW148">
-        <v>8</v>
-      </c>
-      <c r="AX148">
+      <c r="BA148">
         <v>3</v>
       </c>
-      <c r="AY148">
-        <v>21</v>
-      </c>
-      <c r="AZ148">
-        <v>10</v>
-      </c>
-      <c r="BA148">
-        <v>10</v>
-      </c>
       <c r="BB148">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BC148">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="BD148">
-        <v>1.78</v>
+        <v>1.49</v>
       </c>
       <c r="BE148">
-        <v>6.4</v>
+        <v>6.75</v>
       </c>
       <c r="BF148">
-        <v>2.23</v>
+        <v>2.9</v>
       </c>
       <c r="BG148">
         <v>1.3</v>
       </c>
       <c r="BH148">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="BI148">
-        <v>1.54</v>
+        <v>1.5</v>
       </c>
       <c r="BJ148">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="BK148">
+        <v>1.81</v>
+      </c>
+      <c r="BL148">
         <v>1.88</v>
       </c>
-      <c r="BL148">
-        <v>1.81</v>
-      </c>
       <c r="BM148">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="BN148">
-        <v>1.5</v>
+        <v>1.55</v>
       </c>
       <c r="BO148">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="BP148">
-        <v>1.3</v>
+        <v>1.34</v>
       </c>
     </row>
     <row r="149" spans="1:68">
@@ -31741,7 +31747,7 @@
         <v>148</v>
       </c>
       <c r="B149">
-        <v>7491635</v>
+        <v>7491641</v>
       </c>
       <c r="C149" t="s">
         <v>68</v>
@@ -31756,190 +31762,190 @@
         <v>0</v>
       </c>
       <c r="G149" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="H149" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J149">
         <v>0</v>
       </c>
       <c r="K149">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L149">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="M149">
         <v>0</v>
       </c>
       <c r="N149">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="O149" t="s">
-        <v>193</v>
+        <v>92</v>
       </c>
       <c r="P149" t="s">
         <v>92</v>
       </c>
       <c r="Q149">
-        <v>2</v>
+        <v>2.85</v>
       </c>
       <c r="R149">
-        <v>2.5</v>
+        <v>2.05</v>
       </c>
       <c r="S149">
-        <v>4.5</v>
+        <v>3.75</v>
       </c>
       <c r="T149">
-        <v>1.22</v>
+        <v>1.44</v>
       </c>
       <c r="U149">
-        <v>3.7</v>
+        <v>2.6</v>
       </c>
       <c r="V149">
-        <v>2.1</v>
+        <v>2.95</v>
       </c>
       <c r="W149">
-        <v>1.65</v>
+        <v>1.35</v>
       </c>
       <c r="X149">
-        <v>4.6</v>
+        <v>7.4</v>
       </c>
       <c r="Y149">
-        <v>1.16</v>
+        <v>1.06</v>
       </c>
       <c r="Z149">
-        <v>1.5</v>
+        <v>1.95</v>
       </c>
       <c r="AA149">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="AB149">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="AC149">
-        <v>1.01</v>
+        <v>1.06</v>
       </c>
       <c r="AD149">
-        <v>17</v>
+        <v>8.5</v>
       </c>
       <c r="AE149">
-        <v>1.14</v>
+        <v>1.33</v>
       </c>
       <c r="AF149">
-        <v>5.5</v>
+        <v>3.1</v>
       </c>
       <c r="AG149">
-        <v>1.38</v>
+        <v>1.94</v>
       </c>
       <c r="AH149">
-        <v>2.85</v>
+        <v>1.92</v>
       </c>
       <c r="AI149">
-        <v>1.48</v>
+        <v>1.8</v>
       </c>
       <c r="AJ149">
-        <v>2.4</v>
+        <v>1.95</v>
       </c>
       <c r="AK149">
-        <v>1.17</v>
+        <v>1.3</v>
       </c>
       <c r="AL149">
-        <v>1.15</v>
+        <v>1.28</v>
       </c>
       <c r="AM149">
-        <v>2.35</v>
+        <v>1.66</v>
       </c>
       <c r="AN149">
-        <v>1.75</v>
+        <v>0.75</v>
       </c>
       <c r="AO149">
-        <v>1.29</v>
+        <v>0.88</v>
       </c>
       <c r="AP149">
-        <v>1.89</v>
+        <v>0.78</v>
       </c>
       <c r="AQ149">
-        <v>1.13</v>
+        <v>0.89</v>
       </c>
       <c r="AR149">
-        <v>1.74</v>
+        <v>1.2</v>
       </c>
       <c r="AS149">
-        <v>1.31</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AT149">
-        <v>3.05</v>
+        <v>2.14</v>
       </c>
       <c r="AU149">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="AV149">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AW149">
         <v>4</v>
       </c>
       <c r="AX149">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AY149">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="AZ149">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="BA149">
+        <v>1</v>
+      </c>
+      <c r="BB149">
         <v>3</v>
       </c>
-      <c r="BB149">
+      <c r="BC149">
         <v>4</v>
       </c>
-      <c r="BC149">
-        <v>7</v>
-      </c>
       <c r="BD149">
-        <v>1.49</v>
+        <v>1.74</v>
       </c>
       <c r="BE149">
-        <v>6.75</v>
+        <v>6.4</v>
       </c>
       <c r="BF149">
+        <v>2.33</v>
+      </c>
+      <c r="BG149">
+        <v>1.47</v>
+      </c>
+      <c r="BH149">
+        <v>2.48</v>
+      </c>
+      <c r="BI149">
+        <v>1.78</v>
+      </c>
+      <c r="BJ149">
+        <v>1.91</v>
+      </c>
+      <c r="BK149">
+        <v>2.23</v>
+      </c>
+      <c r="BL149">
+        <v>1.56</v>
+      </c>
+      <c r="BM149">
         <v>2.9</v>
       </c>
-      <c r="BG149">
-        <v>1.3</v>
-      </c>
-      <c r="BH149">
-        <v>3.15</v>
-      </c>
-      <c r="BI149">
-        <v>1.5</v>
-      </c>
-      <c r="BJ149">
-        <v>2.38</v>
-      </c>
-      <c r="BK149">
-        <v>1.81</v>
-      </c>
-      <c r="BL149">
-        <v>1.88</v>
-      </c>
-      <c r="BM149">
-        <v>2.25</v>
-      </c>
       <c r="BN149">
-        <v>1.55</v>
+        <v>1.34</v>
       </c>
       <c r="BO149">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="BP149">
-        <v>1.34</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="150" spans="1:68">
@@ -31947,7 +31953,7 @@
         <v>149</v>
       </c>
       <c r="B150">
-        <v>7491641</v>
+        <v>7491637</v>
       </c>
       <c r="C150" t="s">
         <v>68</v>
@@ -31959,193 +31965,193 @@
         <v>45647.375</v>
       </c>
       <c r="F150">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G150" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="H150" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="I150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L150">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M150">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N150">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O150" t="s">
-        <v>92</v>
+        <v>130</v>
       </c>
       <c r="P150" t="s">
-        <v>92</v>
+        <v>289</v>
       </c>
       <c r="Q150">
-        <v>2.85</v>
+        <v>2.6</v>
       </c>
       <c r="R150">
-        <v>2.05</v>
+        <v>2.3</v>
       </c>
       <c r="S150">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T150">
-        <v>1.44</v>
+        <v>1.27</v>
       </c>
       <c r="U150">
+        <v>3.45</v>
+      </c>
+      <c r="V150">
+        <v>2.29</v>
+      </c>
+      <c r="W150">
+        <v>1.56</v>
+      </c>
+      <c r="X150">
+        <v>4.95</v>
+      </c>
+      <c r="Y150">
+        <v>1.14</v>
+      </c>
+      <c r="Z150">
+        <v>2.1</v>
+      </c>
+      <c r="AA150">
+        <v>3.7</v>
+      </c>
+      <c r="AB150">
+        <v>3</v>
+      </c>
+      <c r="AC150">
+        <v>1.04</v>
+      </c>
+      <c r="AD150">
+        <v>10</v>
+      </c>
+      <c r="AE150">
+        <v>1.18</v>
+      </c>
+      <c r="AF150">
+        <v>4.75</v>
+      </c>
+      <c r="AG150">
+        <v>1.52</v>
+      </c>
+      <c r="AH150">
+        <v>2.4</v>
+      </c>
+      <c r="AI150">
+        <v>1.47</v>
+      </c>
+      <c r="AJ150">
+        <v>2.55</v>
+      </c>
+      <c r="AK150">
+        <v>1.35</v>
+      </c>
+      <c r="AL150">
+        <v>1.2</v>
+      </c>
+      <c r="AM150">
+        <v>1.72</v>
+      </c>
+      <c r="AN150">
+        <v>2</v>
+      </c>
+      <c r="AO150">
+        <v>1.5</v>
+      </c>
+      <c r="AP150">
+        <v>1.75</v>
+      </c>
+      <c r="AQ150">
+        <v>1.67</v>
+      </c>
+      <c r="AR150">
+        <v>1.42</v>
+      </c>
+      <c r="AS150">
+        <v>1.18</v>
+      </c>
+      <c r="AT150">
         <v>2.6</v>
       </c>
-      <c r="V150">
-        <v>2.95</v>
-      </c>
-      <c r="W150">
-        <v>1.35</v>
-      </c>
-      <c r="X150">
-        <v>7.4</v>
-      </c>
-      <c r="Y150">
-        <v>1.06</v>
-      </c>
-      <c r="Z150">
-        <v>1.95</v>
-      </c>
-      <c r="AA150">
-        <v>3.5</v>
-      </c>
-      <c r="AB150">
-        <v>3.6</v>
-      </c>
-      <c r="AC150">
-        <v>1.06</v>
-      </c>
-      <c r="AD150">
-        <v>8.5</v>
-      </c>
-      <c r="AE150">
-        <v>1.33</v>
-      </c>
-      <c r="AF150">
-        <v>3.1</v>
-      </c>
-      <c r="AG150">
-        <v>1.94</v>
-      </c>
-      <c r="AH150">
-        <v>1.92</v>
-      </c>
-      <c r="AI150">
-        <v>1.8</v>
-      </c>
-      <c r="AJ150">
-        <v>1.95</v>
-      </c>
-      <c r="AK150">
-        <v>1.3</v>
-      </c>
-      <c r="AL150">
-        <v>1.28</v>
-      </c>
-      <c r="AM150">
-        <v>1.66</v>
-      </c>
-      <c r="AN150">
-        <v>0.75</v>
-      </c>
-      <c r="AO150">
-        <v>0.88</v>
-      </c>
-      <c r="AP150">
-        <v>0.78</v>
-      </c>
-      <c r="AQ150">
-        <v>0.89</v>
-      </c>
-      <c r="AR150">
-        <v>1.2</v>
-      </c>
-      <c r="AS150">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="AT150">
-        <v>2.14</v>
-      </c>
       <c r="AU150">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="AV150">
         <v>6</v>
       </c>
       <c r="AW150">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AX150">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AY150">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AZ150">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="BA150">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="BB150">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="BC150">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="BD150">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="BE150">
         <v>6.4</v>
       </c>
       <c r="BF150">
-        <v>2.33</v>
+        <v>2.23</v>
       </c>
       <c r="BG150">
-        <v>1.47</v>
+        <v>1.3</v>
       </c>
       <c r="BH150">
-        <v>2.48</v>
+        <v>3.05</v>
       </c>
       <c r="BI150">
-        <v>1.78</v>
+        <v>1.54</v>
       </c>
       <c r="BJ150">
-        <v>1.91</v>
+        <v>2.3</v>
       </c>
       <c r="BK150">
-        <v>2.23</v>
+        <v>1.88</v>
       </c>
       <c r="BL150">
-        <v>1.56</v>
+        <v>1.81</v>
       </c>
       <c r="BM150">
-        <v>2.9</v>
+        <v>2.38</v>
       </c>
       <c r="BN150">
-        <v>1.34</v>
+        <v>1.5</v>
       </c>
       <c r="BO150">
-        <v>3.9</v>
+        <v>3.05</v>
       </c>
       <c r="BP150">
-        <v>1.2</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="151" spans="1:68">
@@ -32352,6 +32358,624 @@
       </c>
       <c r="BP151">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>7491642</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45648.39583333334</v>
+      </c>
+      <c r="F152">
+        <v>0</v>
+      </c>
+      <c r="G152" t="s">
+        <v>79</v>
+      </c>
+      <c r="H152" t="s">
+        <v>76</v>
+      </c>
+      <c r="I152">
+        <v>0</v>
+      </c>
+      <c r="J152">
+        <v>0</v>
+      </c>
+      <c r="K152">
+        <v>0</v>
+      </c>
+      <c r="L152">
+        <v>2</v>
+      </c>
+      <c r="M152">
+        <v>1</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152" t="s">
+        <v>194</v>
+      </c>
+      <c r="P152" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q152">
+        <v>4.5</v>
+      </c>
+      <c r="R152">
+        <v>2.3</v>
+      </c>
+      <c r="S152">
+        <v>2.38</v>
+      </c>
+      <c r="T152">
+        <v>1.33</v>
+      </c>
+      <c r="U152">
+        <v>3.25</v>
+      </c>
+      <c r="V152">
+        <v>2.63</v>
+      </c>
+      <c r="W152">
+        <v>1.44</v>
+      </c>
+      <c r="X152">
+        <v>6.5</v>
+      </c>
+      <c r="Y152">
+        <v>1.11</v>
+      </c>
+      <c r="Z152">
+        <v>4</v>
+      </c>
+      <c r="AA152">
+        <v>4.2</v>
+      </c>
+      <c r="AB152">
+        <v>1.82</v>
+      </c>
+      <c r="AC152">
+        <v>1.04</v>
+      </c>
+      <c r="AD152">
+        <v>10</v>
+      </c>
+      <c r="AE152">
+        <v>1.22</v>
+      </c>
+      <c r="AF152">
+        <v>4</v>
+      </c>
+      <c r="AG152">
+        <v>1.61</v>
+      </c>
+      <c r="AH152">
+        <v>2.05</v>
+      </c>
+      <c r="AI152">
+        <v>1.67</v>
+      </c>
+      <c r="AJ152">
+        <v>2.1</v>
+      </c>
+      <c r="AK152">
+        <v>2.05</v>
+      </c>
+      <c r="AL152">
+        <v>1.2</v>
+      </c>
+      <c r="AM152">
+        <v>1.17</v>
+      </c>
+      <c r="AN152">
+        <v>0.88</v>
+      </c>
+      <c r="AO152">
+        <v>1.57</v>
+      </c>
+      <c r="AP152">
+        <v>1.11</v>
+      </c>
+      <c r="AQ152">
+        <v>1.38</v>
+      </c>
+      <c r="AR152">
+        <v>1.2</v>
+      </c>
+      <c r="AS152">
+        <v>1.79</v>
+      </c>
+      <c r="AT152">
+        <v>2.99</v>
+      </c>
+      <c r="AU152">
+        <v>6</v>
+      </c>
+      <c r="AV152">
+        <v>5</v>
+      </c>
+      <c r="AW152">
+        <v>6</v>
+      </c>
+      <c r="AX152">
+        <v>10</v>
+      </c>
+      <c r="AY152">
+        <v>15</v>
+      </c>
+      <c r="AZ152">
+        <v>20</v>
+      </c>
+      <c r="BA152">
+        <v>6</v>
+      </c>
+      <c r="BB152">
+        <v>9</v>
+      </c>
+      <c r="BC152">
+        <v>15</v>
+      </c>
+      <c r="BD152">
+        <v>2.65</v>
+      </c>
+      <c r="BE152">
+        <v>6.5</v>
+      </c>
+      <c r="BF152">
+        <v>1.57</v>
+      </c>
+      <c r="BG152">
+        <v>1.33</v>
+      </c>
+      <c r="BH152">
+        <v>2.95</v>
+      </c>
+      <c r="BI152">
+        <v>1.57</v>
+      </c>
+      <c r="BJ152">
+        <v>2.2</v>
+      </c>
+      <c r="BK152">
+        <v>1.94</v>
+      </c>
+      <c r="BL152">
+        <v>1.76</v>
+      </c>
+      <c r="BM152">
+        <v>2.43</v>
+      </c>
+      <c r="BN152">
+        <v>1.48</v>
+      </c>
+      <c r="BO152">
+        <v>3.15</v>
+      </c>
+      <c r="BP152">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>7491636</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45648.39583333334</v>
+      </c>
+      <c r="F153">
+        <v>0</v>
+      </c>
+      <c r="G153" t="s">
+        <v>72</v>
+      </c>
+      <c r="H153" t="s">
+        <v>73</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>0</v>
+      </c>
+      <c r="K153">
+        <v>0</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>0</v>
+      </c>
+      <c r="N153">
+        <v>0</v>
+      </c>
+      <c r="O153" t="s">
+        <v>92</v>
+      </c>
+      <c r="P153" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q153">
+        <v>2.63</v>
+      </c>
+      <c r="R153">
+        <v>2.3</v>
+      </c>
+      <c r="S153">
+        <v>3.6</v>
+      </c>
+      <c r="T153">
+        <v>1.3</v>
+      </c>
+      <c r="U153">
+        <v>3.4</v>
+      </c>
+      <c r="V153">
+        <v>2.5</v>
+      </c>
+      <c r="W153">
+        <v>1.5</v>
+      </c>
+      <c r="X153">
+        <v>6</v>
+      </c>
+      <c r="Y153">
+        <v>1.13</v>
+      </c>
+      <c r="Z153">
+        <v>2.21</v>
+      </c>
+      <c r="AA153">
+        <v>3.7</v>
+      </c>
+      <c r="AB153">
+        <v>3.2</v>
+      </c>
+      <c r="AC153">
+        <v>1.04</v>
+      </c>
+      <c r="AD153">
+        <v>10</v>
+      </c>
+      <c r="AE153">
+        <v>1.18</v>
+      </c>
+      <c r="AF153">
+        <v>4.5</v>
+      </c>
+      <c r="AG153">
+        <v>1.6</v>
+      </c>
+      <c r="AH153">
+        <v>2.1</v>
+      </c>
+      <c r="AI153">
+        <v>1.53</v>
+      </c>
+      <c r="AJ153">
+        <v>2.38</v>
+      </c>
+      <c r="AK153">
+        <v>1.36</v>
+      </c>
+      <c r="AL153">
+        <v>1.22</v>
+      </c>
+      <c r="AM153">
+        <v>1.7</v>
+      </c>
+      <c r="AN153">
+        <v>2.63</v>
+      </c>
+      <c r="AO153">
+        <v>1.75</v>
+      </c>
+      <c r="AP153">
+        <v>2.44</v>
+      </c>
+      <c r="AQ153">
+        <v>1.67</v>
+      </c>
+      <c r="AR153">
+        <v>1.76</v>
+      </c>
+      <c r="AS153">
+        <v>1.52</v>
+      </c>
+      <c r="AT153">
+        <v>3.28</v>
+      </c>
+      <c r="AU153">
+        <v>2</v>
+      </c>
+      <c r="AV153">
+        <v>3</v>
+      </c>
+      <c r="AW153">
+        <v>6</v>
+      </c>
+      <c r="AX153">
+        <v>8</v>
+      </c>
+      <c r="AY153">
+        <v>9</v>
+      </c>
+      <c r="AZ153">
+        <v>16</v>
+      </c>
+      <c r="BA153">
+        <v>7</v>
+      </c>
+      <c r="BB153">
+        <v>5</v>
+      </c>
+      <c r="BC153">
+        <v>12</v>
+      </c>
+      <c r="BD153">
+        <v>1.79</v>
+      </c>
+      <c r="BE153">
+        <v>6.25</v>
+      </c>
+      <c r="BF153">
+        <v>2.23</v>
+      </c>
+      <c r="BG153">
+        <v>1.34</v>
+      </c>
+      <c r="BH153">
+        <v>2.9</v>
+      </c>
+      <c r="BI153">
+        <v>1.58</v>
+      </c>
+      <c r="BJ153">
+        <v>2.2</v>
+      </c>
+      <c r="BK153">
+        <v>1.94</v>
+      </c>
+      <c r="BL153">
+        <v>1.76</v>
+      </c>
+      <c r="BM153">
+        <v>2.43</v>
+      </c>
+      <c r="BN153">
+        <v>1.48</v>
+      </c>
+      <c r="BO153">
+        <v>3.2</v>
+      </c>
+      <c r="BP153">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>7491640</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45648.39583333334</v>
+      </c>
+      <c r="F154">
+        <v>17</v>
+      </c>
+      <c r="G154" t="s">
+        <v>80</v>
+      </c>
+      <c r="H154" t="s">
+        <v>70</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>1</v>
+      </c>
+      <c r="K154">
+        <v>1</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>92</v>
+      </c>
+      <c r="P154" t="s">
+        <v>282</v>
+      </c>
+      <c r="Q154">
+        <v>4</v>
+      </c>
+      <c r="R154">
+        <v>2.4</v>
+      </c>
+      <c r="S154">
+        <v>2.4</v>
+      </c>
+      <c r="T154">
+        <v>1.29</v>
+      </c>
+      <c r="U154">
+        <v>3.5</v>
+      </c>
+      <c r="V154">
+        <v>2.38</v>
+      </c>
+      <c r="W154">
+        <v>1.53</v>
+      </c>
+      <c r="X154">
+        <v>5.5</v>
+      </c>
+      <c r="Y154">
+        <v>1.14</v>
+      </c>
+      <c r="Z154">
+        <v>3.99</v>
+      </c>
+      <c r="AA154">
+        <v>4.1</v>
+      </c>
+      <c r="AB154">
+        <v>1.86</v>
+      </c>
+      <c r="AC154">
+        <v>1.03</v>
+      </c>
+      <c r="AD154">
+        <v>11</v>
+      </c>
+      <c r="AE154">
+        <v>1.18</v>
+      </c>
+      <c r="AF154">
+        <v>4.5</v>
+      </c>
+      <c r="AG154">
+        <v>1.55</v>
+      </c>
+      <c r="AH154">
+        <v>2.2</v>
+      </c>
+      <c r="AI154">
+        <v>1.53</v>
+      </c>
+      <c r="AJ154">
+        <v>2.38</v>
+      </c>
+      <c r="AK154">
+        <v>1.95</v>
+      </c>
+      <c r="AL154">
+        <v>1.2</v>
+      </c>
+      <c r="AM154">
+        <v>1.2</v>
+      </c>
+      <c r="AN154">
+        <v>1.71</v>
+      </c>
+      <c r="AO154">
+        <v>2</v>
+      </c>
+      <c r="AP154">
+        <v>1.5</v>
+      </c>
+      <c r="AQ154">
+        <v>2.13</v>
+      </c>
+      <c r="AR154">
+        <v>1.69</v>
+      </c>
+      <c r="AS154">
+        <v>1.63</v>
+      </c>
+      <c r="AT154">
+        <v>3.32</v>
+      </c>
+      <c r="AU154">
+        <v>5</v>
+      </c>
+      <c r="AV154">
+        <v>7</v>
+      </c>
+      <c r="AW154">
+        <v>5</v>
+      </c>
+      <c r="AX154">
+        <v>3</v>
+      </c>
+      <c r="AY154">
+        <v>12</v>
+      </c>
+      <c r="AZ154">
+        <v>11</v>
+      </c>
+      <c r="BA154">
+        <v>10</v>
+      </c>
+      <c r="BB154">
+        <v>5</v>
+      </c>
+      <c r="BC154">
+        <v>15</v>
+      </c>
+      <c r="BD154">
+        <v>2.55</v>
+      </c>
+      <c r="BE154">
+        <v>6.75</v>
+      </c>
+      <c r="BF154">
+        <v>1.61</v>
+      </c>
+      <c r="BG154">
+        <v>1.32</v>
+      </c>
+      <c r="BH154">
+        <v>3.05</v>
+      </c>
+      <c r="BI154">
+        <v>1.54</v>
+      </c>
+      <c r="BJ154">
+        <v>2.3</v>
+      </c>
+      <c r="BK154">
+        <v>1.89</v>
+      </c>
+      <c r="BL154">
+        <v>1.8</v>
+      </c>
+      <c r="BM154">
+        <v>2.38</v>
+      </c>
+      <c r="BN154">
+        <v>1.5</v>
+      </c>
+      <c r="BO154">
+        <v>3.05</v>
+      </c>
+      <c r="BP154">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -32088,7 +32088,7 @@
         <v>2.6</v>
       </c>
       <c r="AU150">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AV150">
         <v>6</v>
@@ -32100,7 +32100,7 @@
         <v>3</v>
       </c>
       <c r="AY150">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AZ150">
         <v>10</v>
@@ -32374,7 +32374,7 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45648.39583333334</v>
+        <v>45647.875</v>
       </c>
       <c r="F152">
         <v>0</v>
@@ -32571,7 +32571,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7491636</v>
+        <v>7491640</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32580,82 +32580,82 @@
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>45648.39583333334</v>
+        <v>45647.875</v>
       </c>
       <c r="F153">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G153" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H153" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L153">
         <v>0</v>
       </c>
       <c r="M153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N153">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O153" t="s">
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="Q153">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="R153">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S153">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="T153">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U153">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V153">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W153">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X153">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y153">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z153">
-        <v>2.21</v>
+        <v>3.99</v>
       </c>
       <c r="AA153">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AB153">
-        <v>3.2</v>
+        <v>1.86</v>
       </c>
       <c r="AC153">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD153">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE153">
         <v>1.18</v>
@@ -32664,10 +32664,10 @@
         <v>4.5</v>
       </c>
       <c r="AG153">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AH153">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AI153">
         <v>1.53</v>
@@ -32676,100 +32676,100 @@
         <v>2.38</v>
       </c>
       <c r="AK153">
-        <v>1.36</v>
+        <v>1.95</v>
       </c>
       <c r="AL153">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM153">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AN153">
-        <v>2.63</v>
+        <v>1.71</v>
       </c>
       <c r="AO153">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP153">
-        <v>2.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ153">
-        <v>1.67</v>
+        <v>2.13</v>
       </c>
       <c r="AR153">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AS153">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AT153">
-        <v>3.28</v>
+        <v>3.32</v>
       </c>
       <c r="AU153">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV153">
+        <v>7</v>
+      </c>
+      <c r="AW153">
+        <v>5</v>
+      </c>
+      <c r="AX153">
         <v>3</v>
       </c>
-      <c r="AW153">
-        <v>6</v>
-      </c>
-      <c r="AX153">
-        <v>8</v>
-      </c>
       <c r="AY153">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ153">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA153">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB153">
         <v>5</v>
       </c>
       <c r="BC153">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD153">
-        <v>1.79</v>
+        <v>2.55</v>
       </c>
       <c r="BE153">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF153">
-        <v>2.23</v>
+        <v>1.61</v>
       </c>
       <c r="BG153">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="BH153">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="BI153">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="BJ153">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BK153">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="BL153">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="BM153">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="BN153">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BO153">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="BP153">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
     </row>
     <row r="154" spans="1:68">
@@ -32777,7 +32777,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7491640</v>
+        <v>7491636</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32789,79 +32789,79 @@
         <v>45648.39583333334</v>
       </c>
       <c r="F154">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G154" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H154" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L154">
         <v>0</v>
       </c>
       <c r="M154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N154">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O154" t="s">
         <v>92</v>
       </c>
       <c r="P154" t="s">
-        <v>282</v>
+        <v>92</v>
       </c>
       <c r="Q154">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="R154">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S154">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="T154">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U154">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V154">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W154">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X154">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y154">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z154">
-        <v>3.99</v>
+        <v>2.21</v>
       </c>
       <c r="AA154">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AB154">
-        <v>1.86</v>
+        <v>3.2</v>
       </c>
       <c r="AC154">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD154">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE154">
         <v>1.18</v>
@@ -32870,10 +32870,10 @@
         <v>4.5</v>
       </c>
       <c r="AG154">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AH154">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AI154">
         <v>1.53</v>
@@ -32882,100 +32882,100 @@
         <v>2.38</v>
       </c>
       <c r="AK154">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="AL154">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM154">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AN154">
-        <v>1.71</v>
+        <v>2.63</v>
       </c>
       <c r="AO154">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP154">
-        <v>1.5</v>
+        <v>2.44</v>
       </c>
       <c r="AQ154">
-        <v>2.13</v>
+        <v>1.67</v>
       </c>
       <c r="AR154">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AS154">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="AT154">
-        <v>3.32</v>
+        <v>3.28</v>
       </c>
       <c r="AU154">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV154">
+        <v>3</v>
+      </c>
+      <c r="AW154">
+        <v>6</v>
+      </c>
+      <c r="AX154">
+        <v>8</v>
+      </c>
+      <c r="AY154">
+        <v>9</v>
+      </c>
+      <c r="AZ154">
+        <v>16</v>
+      </c>
+      <c r="BA154">
         <v>7</v>
-      </c>
-      <c r="AW154">
-        <v>5</v>
-      </c>
-      <c r="AX154">
-        <v>3</v>
-      </c>
-      <c r="AY154">
-        <v>12</v>
-      </c>
-      <c r="AZ154">
-        <v>11</v>
-      </c>
-      <c r="BA154">
-        <v>10</v>
       </c>
       <c r="BB154">
         <v>5</v>
       </c>
       <c r="BC154">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD154">
-        <v>2.55</v>
+        <v>1.79</v>
       </c>
       <c r="BE154">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="BF154">
-        <v>1.61</v>
+        <v>2.23</v>
       </c>
       <c r="BG154">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="BH154">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="BI154">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="BJ154">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BK154">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="BL154">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="BM154">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="BN154">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BO154">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BP154">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
+++ b/Bases_de_Dados/FootyStats/Bases_de_Dados_(2022-2024)/Germany 2. Bundesliga_20242025.xlsx
@@ -32374,10 +32374,10 @@
         <v>69</v>
       </c>
       <c r="E152" s="2">
-        <v>45647.875</v>
+        <v>45648.39583333334</v>
       </c>
       <c r="F152">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G152" t="s">
         <v>79</v>
@@ -32571,7 +32571,7 @@
         <v>152</v>
       </c>
       <c r="B153">
-        <v>7491640</v>
+        <v>7491636</v>
       </c>
       <c r="C153" t="s">
         <v>68</v>
@@ -32580,82 +32580,82 @@
         <v>69</v>
       </c>
       <c r="E153" s="2">
-        <v>45647.875</v>
+        <v>45648.39583333334</v>
       </c>
       <c r="F153">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="G153" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="H153" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I153">
         <v>0</v>
       </c>
       <c r="J153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L153">
         <v>0</v>
       </c>
       <c r="M153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N153">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O153" t="s">
         <v>92</v>
       </c>
       <c r="P153" t="s">
-        <v>282</v>
+        <v>92</v>
       </c>
       <c r="Q153">
-        <v>4</v>
+        <v>2.63</v>
       </c>
       <c r="R153">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="S153">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="T153">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U153">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="V153">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W153">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="X153">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Y153">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="Z153">
-        <v>3.99</v>
+        <v>2.21</v>
       </c>
       <c r="AA153">
-        <v>4.1</v>
+        <v>3.7</v>
       </c>
       <c r="AB153">
-        <v>1.86</v>
+        <v>3.2</v>
       </c>
       <c r="AC153">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="AD153">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AE153">
         <v>1.18</v>
@@ -32664,10 +32664,10 @@
         <v>4.5</v>
       </c>
       <c r="AG153">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="AH153">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="AI153">
         <v>1.53</v>
@@ -32676,100 +32676,100 @@
         <v>2.38</v>
       </c>
       <c r="AK153">
-        <v>1.95</v>
+        <v>1.36</v>
       </c>
       <c r="AL153">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="AM153">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="AN153">
-        <v>1.71</v>
+        <v>2.63</v>
       </c>
       <c r="AO153">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AP153">
-        <v>1.5</v>
+        <v>2.44</v>
       </c>
       <c r="AQ153">
-        <v>2.13</v>
+        <v>1.67</v>
       </c>
       <c r="AR153">
-        <v>1.69</v>
+        <v>1.76</v>
       </c>
       <c r="AS153">
-        <v>1.63</v>
+        <v>1.52</v>
       </c>
       <c r="AT153">
-        <v>3.32</v>
+        <v>3.28</v>
       </c>
       <c r="AU153">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AV153">
+        <v>3</v>
+      </c>
+      <c r="AW153">
+        <v>6</v>
+      </c>
+      <c r="AX153">
+        <v>8</v>
+      </c>
+      <c r="AY153">
+        <v>9</v>
+      </c>
+      <c r="AZ153">
+        <v>16</v>
+      </c>
+      <c r="BA153">
         <v>7</v>
-      </c>
-      <c r="AW153">
-        <v>5</v>
-      </c>
-      <c r="AX153">
-        <v>3</v>
-      </c>
-      <c r="AY153">
-        <v>12</v>
-      </c>
-      <c r="AZ153">
-        <v>11</v>
-      </c>
-      <c r="BA153">
-        <v>10</v>
       </c>
       <c r="BB153">
         <v>5</v>
       </c>
       <c r="BC153">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BD153">
-        <v>2.55</v>
+        <v>1.79</v>
       </c>
       <c r="BE153">
-        <v>6.75</v>
+        <v>6.25</v>
       </c>
       <c r="BF153">
-        <v>1.61</v>
+        <v>2.23</v>
       </c>
       <c r="BG153">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="BH153">
-        <v>3.05</v>
+        <v>2.9</v>
       </c>
       <c r="BI153">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="BJ153">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="BK153">
-        <v>1.89</v>
+        <v>1.94</v>
       </c>
       <c r="BL153">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="BM153">
-        <v>2.38</v>
+        <v>2.43</v>
       </c>
       <c r="BN153">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="BO153">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="BP153">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
     </row>
     <row r="154" spans="1:68">
@@ -32777,7 +32777,7 @@
         <v>153</v>
       </c>
       <c r="B154">
-        <v>7491636</v>
+        <v>7491640</v>
       </c>
       <c r="C154" t="s">
         <v>68</v>
@@ -32789,79 +32789,79 @@
         <v>45648.39583333334</v>
       </c>
       <c r="F154">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="G154" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="H154" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I154">
         <v>0</v>
       </c>
       <c r="J154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L154">
         <v>0</v>
       </c>
       <c r="M154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N154">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O154" t="s">
         <v>92</v>
       </c>
       <c r="P154" t="s">
-        <v>92</v>
+        <v>282</v>
       </c>
       <c r="Q154">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="R154">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="S154">
-        <v>3.6</v>
+        <v>2.4</v>
       </c>
       <c r="T154">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U154">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="V154">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W154">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X154">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Y154">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="Z154">
-        <v>2.21</v>
+        <v>3.99</v>
       </c>
       <c r="AA154">
-        <v>3.7</v>
+        <v>4.1</v>
       </c>
       <c r="AB154">
-        <v>3.2</v>
+        <v>1.86</v>
       </c>
       <c r="AC154">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="AD154">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AE154">
         <v>1.18</v>
@@ -32870,10 +32870,10 @@
         <v>4.5</v>
       </c>
       <c r="AG154">
-        <v>1.6</v>
+        <v>1.55</v>
       </c>
       <c r="AH154">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="AI154">
         <v>1.53</v>
@@ -32882,100 +32882,100 @@
         <v>2.38</v>
       </c>
       <c r="AK154">
-        <v>1.36</v>
+        <v>1.95</v>
       </c>
       <c r="AL154">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="AM154">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="AN154">
-        <v>2.63</v>
+        <v>1.71</v>
       </c>
       <c r="AO154">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AP154">
-        <v>2.44</v>
+        <v>1.5</v>
       </c>
       <c r="AQ154">
-        <v>1.67</v>
+        <v>2.13</v>
       </c>
       <c r="AR154">
-        <v>1.76</v>
+        <v>1.69</v>
       </c>
       <c r="AS154">
-        <v>1.52</v>
+        <v>1.63</v>
       </c>
       <c r="AT154">
-        <v>3.28</v>
+        <v>3.32</v>
       </c>
       <c r="AU154">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AV154">
+        <v>7</v>
+      </c>
+      <c r="AW154">
+        <v>5</v>
+      </c>
+      <c r="AX154">
         <v>3</v>
       </c>
-      <c r="AW154">
-        <v>6</v>
-      </c>
-      <c r="AX154">
-        <v>8</v>
-      </c>
       <c r="AY154">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AZ154">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="BA154">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BB154">
         <v>5</v>
       </c>
       <c r="BC154">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="BD154">
-        <v>1.79</v>
+        <v>2.55</v>
       </c>
       <c r="BE154">
-        <v>6.25</v>
+        <v>6.75</v>
       </c>
       <c r="BF154">
-        <v>2.23</v>
+        <v>1.61</v>
       </c>
       <c r="BG154">
-        <v>1.34</v>
+        <v>1.32</v>
       </c>
       <c r="BH154">
-        <v>2.9</v>
+        <v>3.05</v>
       </c>
       <c r="BI154">
-        <v>1.58</v>
+        <v>1.54</v>
       </c>
       <c r="BJ154">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="BK154">
-        <v>1.94</v>
+        <v>1.89</v>
       </c>
       <c r="BL154">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="BM154">
-        <v>2.43</v>
+        <v>2.38</v>
       </c>
       <c r="BN154">
-        <v>1.48</v>
+        <v>1.5</v>
       </c>
       <c r="BO154">
-        <v>3.2</v>
+        <v>3.05</v>
       </c>
       <c r="BP154">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>
